--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="1580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="1581">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -4534,6 +4534,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tierra del Fuego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARG_V</t>
   </si>
   <si>
     <t xml:space="preserve">Tucumán</t>
@@ -4778,6 +4781,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4799,6 +4803,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4897,36 +4902,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.0867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.8469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="8.48469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.2908163265306"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.1530612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.3010204081633"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="25.8367346938776"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.9795918367347"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.9132653061224"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.1581632653061"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.1785714285714"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="12.2908163265306"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.7448979591837"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="12.1581632653061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.1785714285714"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="12.2908163265306"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="10.7448979591837"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="10.6020408163265"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="8.63265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="19.1683673469388"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14179,10 +14184,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14423,7 +14428,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -14439,20 +14444,20 @@
   <dimension ref="A1:J948"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B900" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B894" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A900" activeCellId="0" sqref="A900"/>
-      <selection pane="bottomRight" activeCell="E903" activeCellId="0" sqref="E903"/>
+      <selection pane="bottomLeft" activeCell="A894" activeCellId="0" sqref="A894"/>
+      <selection pane="bottomRight" activeCell="B919" activeCellId="0" sqref="B919"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0051020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23570,7 +23575,7 @@
         <v>1503</v>
       </c>
       <c r="B918" s="0" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="C918" s="0" t="s">
         <v>43</v>
@@ -23581,10 +23586,10 @@
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C919" s="0" t="s">
         <v>43</v>
@@ -23595,24 +23600,24 @@
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C920" s="0" t="s">
         <v>293</v>
       </c>
       <c r="J920" s="0" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C921" s="0" t="s">
         <v>293</v>
@@ -23621,15 +23626,15 @@
         <v>1</v>
       </c>
       <c r="J921" s="0" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C922" s="0" t="s">
         <v>293</v>
@@ -23638,15 +23643,15 @@
         <v>1</v>
       </c>
       <c r="J922" s="0" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B923" s="0" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C923" s="0" t="s">
         <v>293</v>
@@ -23655,7 +23660,7 @@
         <v>1</v>
       </c>
       <c r="J923" s="0" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23663,7 +23668,7 @@
         <v>716</v>
       </c>
       <c r="B924" s="0" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C924" s="0" t="s">
         <v>293</v>
@@ -23672,15 +23677,15 @@
         <v>1</v>
       </c>
       <c r="J924" s="0" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>293</v>
@@ -23689,15 +23694,15 @@
         <v>1</v>
       </c>
       <c r="J925" s="0" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C926" s="0" t="s">
         <v>293</v>
@@ -23706,15 +23711,15 @@
         <v>1</v>
       </c>
       <c r="J926" s="0" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C927" s="0" t="s">
         <v>293</v>
@@ -23723,15 +23728,15 @@
         <v>1</v>
       </c>
       <c r="J927" s="0" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C928" s="0" t="s">
         <v>293</v>
@@ -23740,15 +23745,15 @@
         <v>1</v>
       </c>
       <c r="J928" s="0" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C929" s="0" t="s">
         <v>293</v>
@@ -23757,15 +23762,15 @@
         <v>1</v>
       </c>
       <c r="J929" s="0" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="C930" s="0" t="s">
         <v>293</v>
@@ -23774,7 +23779,7 @@
         <v>1</v>
       </c>
       <c r="J930" s="0" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23782,7 +23787,7 @@
         <v>722</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C931" s="0" t="s">
         <v>293</v>
@@ -23791,15 +23796,15 @@
         <v>1</v>
       </c>
       <c r="J931" s="0" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B932" s="0" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="C932" s="0" t="s">
         <v>293</v>
@@ -23808,15 +23813,15 @@
         <v>1</v>
       </c>
       <c r="J932" s="0" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B933" s="0" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C933" s="0" t="s">
         <v>293</v>
@@ -23825,15 +23830,15 @@
         <v>1</v>
       </c>
       <c r="J933" s="0" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B934" s="0" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C934" s="0" t="s">
         <v>293</v>
@@ -23842,15 +23847,15 @@
         <v>1</v>
       </c>
       <c r="J934" s="0" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B935" s="0" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C935" s="0" t="s">
         <v>293</v>
@@ -23859,15 +23864,15 @@
         <v>1</v>
       </c>
       <c r="J935" s="0" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C936" s="0" t="s">
         <v>293</v>
@@ -23876,15 +23881,15 @@
         <v>1</v>
       </c>
       <c r="J936" s="0" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B937" s="0" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="C937" s="0" t="s">
         <v>293</v>
@@ -23893,15 +23898,15 @@
         <v>1</v>
       </c>
       <c r="J937" s="0" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B938" s="0" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C938" s="0" t="s">
         <v>293</v>
@@ -23910,7 +23915,7 @@
         <v>1</v>
       </c>
       <c r="J938" s="0" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23927,15 +23932,15 @@
         <v>1</v>
       </c>
       <c r="J939" s="0" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B940" s="0" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C940" s="0" t="s">
         <v>293</v>
@@ -23944,15 +23949,15 @@
         <v>1</v>
       </c>
       <c r="J940" s="0" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B941" s="0" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="C941" s="0" t="s">
         <v>293</v>
@@ -23961,15 +23966,15 @@
         <v>1</v>
       </c>
       <c r="J941" s="0" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B942" s="0" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C942" s="0" t="s">
         <v>293</v>
@@ -23978,7 +23983,7 @@
         <v>1</v>
       </c>
       <c r="J942" s="0" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23986,7 +23991,7 @@
         <v>749</v>
       </c>
       <c r="B943" s="0" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="C943" s="0" t="s">
         <v>293</v>
@@ -23995,15 +24000,15 @@
         <v>1</v>
       </c>
       <c r="J943" s="0" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B944" s="0" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="C944" s="0" t="s">
         <v>293</v>
@@ -24012,15 +24017,15 @@
         <v>1</v>
       </c>
       <c r="J944" s="0" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B945" s="0" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="C945" s="0" t="s">
         <v>293</v>
@@ -24029,15 +24034,15 @@
         <v>1</v>
       </c>
       <c r="J945" s="0" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B946" s="0" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="C946" s="0" t="s">
         <v>293</v>
@@ -24046,15 +24051,15 @@
         <v>1</v>
       </c>
       <c r="J946" s="0" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B947" s="0" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C947" s="0" t="s">
         <v>293</v>
@@ -24063,15 +24068,15 @@
         <v>1</v>
       </c>
       <c r="J947" s="0" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B948" s="0" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C948" s="0" t="s">
         <v>293</v>
@@ -24080,13 +24085,13 @@
         <v>1</v>
       </c>
       <c r="J948" s="0" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="1581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="1582">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -4414,6 +4414,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ciudad Autónoma de Buenos Aires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buenos Aires DC</t>
   </si>
   <si>
     <t xml:space="preserve">Catamarca</t>
@@ -4776,7 +4779,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4804,6 +4807,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4848,7 +4856,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4870,6 +4878,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4902,36 +4914,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="18.8979591836735"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14184,10 +14196,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2244897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14441,23 +14451,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J948"/>
+  <dimension ref="A1:J949"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B894" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B879" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A894" activeCellId="0" sqref="A894"/>
-      <selection pane="bottomRight" activeCell="B919" activeCellId="0" sqref="B919"/>
+      <selection pane="bottomLeft" activeCell="A879" activeCellId="0" sqref="A879"/>
+      <selection pane="bottomRight" activeCell="G898" activeCellId="0" sqref="G898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.280612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23291,11 +23299,11 @@
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="0" t="s">
+      <c r="A898" s="6" t="s">
         <v>1464</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="C898" s="0" t="s">
         <v>43</v>
@@ -23306,10 +23314,10 @@
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B899" s="0" t="s">
         <v>1466</v>
-      </c>
-      <c r="B899" s="0" t="s">
-        <v>1467</v>
       </c>
       <c r="C899" s="0" t="s">
         <v>43</v>
@@ -23320,10 +23328,10 @@
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B900" s="0" t="s">
         <v>1468</v>
-      </c>
-      <c r="B900" s="0" t="s">
-        <v>1469</v>
       </c>
       <c r="C900" s="0" t="s">
         <v>43</v>
@@ -23334,7 +23342,7 @@
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>731</v>
+        <v>1469</v>
       </c>
       <c r="B901" s="0" t="s">
         <v>1470</v>
@@ -23348,10 +23356,10 @@
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="B902" s="0" t="s">
         <v>1471</v>
-      </c>
-      <c r="B902" s="0" t="s">
-        <v>1472</v>
       </c>
       <c r="C902" s="0" t="s">
         <v>43</v>
@@ -23362,10 +23370,10 @@
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B903" s="0" t="s">
         <v>1473</v>
-      </c>
-      <c r="B903" s="0" t="s">
-        <v>1474</v>
       </c>
       <c r="C903" s="0" t="s">
         <v>43</v>
@@ -23376,10 +23384,10 @@
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B904" s="0" t="s">
         <v>1475</v>
-      </c>
-      <c r="B904" s="0" t="s">
-        <v>1476</v>
       </c>
       <c r="C904" s="0" t="s">
         <v>43</v>
@@ -23390,10 +23398,10 @@
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B905" s="0" t="s">
         <v>1477</v>
-      </c>
-      <c r="B905" s="0" t="s">
-        <v>1478</v>
       </c>
       <c r="C905" s="0" t="s">
         <v>43</v>
@@ -23404,10 +23412,10 @@
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B906" s="0" t="s">
         <v>1479</v>
-      </c>
-      <c r="B906" s="0" t="s">
-        <v>1480</v>
       </c>
       <c r="C906" s="0" t="s">
         <v>43</v>
@@ -23418,10 +23426,10 @@
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B907" s="0" t="s">
         <v>1481</v>
-      </c>
-      <c r="B907" s="0" t="s">
-        <v>1482</v>
       </c>
       <c r="C907" s="0" t="s">
         <v>43</v>
@@ -23432,10 +23440,10 @@
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B908" s="0" t="s">
         <v>1483</v>
-      </c>
-      <c r="B908" s="0" t="s">
-        <v>1484</v>
       </c>
       <c r="C908" s="0" t="s">
         <v>43</v>
@@ -23446,10 +23454,10 @@
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B909" s="0" t="s">
         <v>1485</v>
-      </c>
-      <c r="B909" s="0" t="s">
-        <v>1486</v>
       </c>
       <c r="C909" s="0" t="s">
         <v>43</v>
@@ -23460,10 +23468,10 @@
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B910" s="0" t="s">
         <v>1487</v>
-      </c>
-      <c r="B910" s="0" t="s">
-        <v>1488</v>
       </c>
       <c r="C910" s="0" t="s">
         <v>43</v>
@@ -23474,10 +23482,10 @@
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B911" s="0" t="s">
         <v>1489</v>
-      </c>
-      <c r="B911" s="0" t="s">
-        <v>1490</v>
       </c>
       <c r="C911" s="0" t="s">
         <v>43</v>
@@ -23488,10 +23496,10 @@
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B912" s="0" t="s">
         <v>1491</v>
-      </c>
-      <c r="B912" s="0" t="s">
-        <v>1492</v>
       </c>
       <c r="C912" s="0" t="s">
         <v>43</v>
@@ -23502,10 +23510,10 @@
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B913" s="0" t="s">
         <v>1493</v>
-      </c>
-      <c r="B913" s="0" t="s">
-        <v>1494</v>
       </c>
       <c r="C913" s="0" t="s">
         <v>43</v>
@@ -23516,10 +23524,10 @@
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B914" s="0" t="s">
         <v>1495</v>
-      </c>
-      <c r="B914" s="0" t="s">
-        <v>1496</v>
       </c>
       <c r="C914" s="0" t="s">
         <v>43</v>
@@ -23530,10 +23538,10 @@
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B915" s="0" t="s">
         <v>1497</v>
-      </c>
-      <c r="B915" s="0" t="s">
-        <v>1498</v>
       </c>
       <c r="C915" s="0" t="s">
         <v>43</v>
@@ -23544,10 +23552,10 @@
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B916" s="0" t="s">
         <v>1499</v>
-      </c>
-      <c r="B916" s="0" t="s">
-        <v>1500</v>
       </c>
       <c r="C916" s="0" t="s">
         <v>43</v>
@@ -23558,10 +23566,10 @@
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B917" s="0" t="s">
         <v>1501</v>
-      </c>
-      <c r="B917" s="0" t="s">
-        <v>1502</v>
       </c>
       <c r="C917" s="0" t="s">
         <v>43</v>
@@ -23572,10 +23580,10 @@
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B918" s="0" t="s">
         <v>1503</v>
-      </c>
-      <c r="B918" s="0" t="s">
-        <v>1504</v>
       </c>
       <c r="C918" s="0" t="s">
         <v>43</v>
@@ -23586,10 +23594,10 @@
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B919" s="0" t="s">
         <v>1505</v>
-      </c>
-      <c r="B919" s="0" t="s">
-        <v>1506</v>
       </c>
       <c r="C919" s="0" t="s">
         <v>43</v>
@@ -23600,41 +23608,38 @@
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B920" s="0" t="s">
         <v>1507</v>
       </c>
-      <c r="B920" s="0" t="s">
-        <v>1508</v>
-      </c>
       <c r="C920" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="J920" s="0" t="s">
-        <v>1509</v>
+        <v>43</v>
+      </c>
+      <c r="F920" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C921" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F921" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J921" s="0" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C922" s="0" t="s">
         <v>293</v>
@@ -23643,7 +23648,7 @@
         <v>1</v>
       </c>
       <c r="J922" s="0" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23651,7 +23656,7 @@
         <v>1514</v>
       </c>
       <c r="B923" s="0" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C923" s="0" t="s">
         <v>293</v>
@@ -23660,15 +23665,15 @@
         <v>1</v>
       </c>
       <c r="J923" s="0" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>716</v>
+        <v>1515</v>
       </c>
       <c r="B924" s="0" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="C924" s="0" t="s">
         <v>293</v>
@@ -23677,15 +23682,15 @@
         <v>1</v>
       </c>
       <c r="J924" s="0" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
-        <v>1517</v>
+        <v>716</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>293</v>
@@ -23694,7 +23699,7 @@
         <v>1</v>
       </c>
       <c r="J925" s="0" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23702,7 +23707,7 @@
         <v>1518</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C926" s="0" t="s">
         <v>293</v>
@@ -23711,7 +23716,7 @@
         <v>1</v>
       </c>
       <c r="J926" s="0" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23719,7 +23724,7 @@
         <v>1519</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="C927" s="0" t="s">
         <v>293</v>
@@ -23728,15 +23733,15 @@
         <v>1</v>
       </c>
       <c r="J927" s="0" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="C928" s="0" t="s">
         <v>293</v>
@@ -23745,15 +23750,15 @@
         <v>1</v>
       </c>
       <c r="J928" s="0" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="C929" s="0" t="s">
         <v>293</v>
@@ -23762,15 +23767,15 @@
         <v>1</v>
       </c>
       <c r="J929" s="0" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="C930" s="0" t="s">
         <v>293</v>
@@ -23779,15 +23784,15 @@
         <v>1</v>
       </c>
       <c r="J930" s="0" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>722</v>
+        <v>1529</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C931" s="0" t="s">
         <v>293</v>
@@ -23796,15 +23801,15 @@
         <v>1</v>
       </c>
       <c r="J931" s="0" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>1533</v>
+        <v>722</v>
       </c>
       <c r="B932" s="0" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="C932" s="0" t="s">
         <v>293</v>
@@ -23813,15 +23818,15 @@
         <v>1</v>
       </c>
       <c r="J932" s="0" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B933" s="0" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C933" s="0" t="s">
         <v>293</v>
@@ -23830,15 +23835,15 @@
         <v>1</v>
       </c>
       <c r="J933" s="0" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B934" s="0" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C934" s="0" t="s">
         <v>293</v>
@@ -23847,15 +23852,15 @@
         <v>1</v>
       </c>
       <c r="J934" s="0" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B935" s="0" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="C935" s="0" t="s">
         <v>293</v>
@@ -23864,15 +23869,15 @@
         <v>1</v>
       </c>
       <c r="J935" s="0" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C936" s="0" t="s">
         <v>293</v>
@@ -23881,15 +23886,15 @@
         <v>1</v>
       </c>
       <c r="J936" s="0" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B937" s="0" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C937" s="0" t="s">
         <v>293</v>
@@ -23898,15 +23903,15 @@
         <v>1</v>
       </c>
       <c r="J937" s="0" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B938" s="0" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C938" s="0" t="s">
         <v>293</v>
@@ -23915,15 +23920,15 @@
         <v>1</v>
       </c>
       <c r="J938" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>1085</v>
+        <v>1552</v>
       </c>
       <c r="B939" s="0" t="s">
-        <v>1086</v>
+        <v>1553</v>
       </c>
       <c r="C939" s="0" t="s">
         <v>293</v>
@@ -23937,10 +23942,10 @@
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
-        <v>1555</v>
+        <v>1085</v>
       </c>
       <c r="B940" s="0" t="s">
-        <v>1556</v>
+        <v>1086</v>
       </c>
       <c r="C940" s="0" t="s">
         <v>293</v>
@@ -23949,15 +23954,15 @@
         <v>1</v>
       </c>
       <c r="J940" s="0" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B941" s="0" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C941" s="0" t="s">
         <v>293</v>
@@ -23966,15 +23971,15 @@
         <v>1</v>
       </c>
       <c r="J941" s="0" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B942" s="0" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C942" s="0" t="s">
         <v>293</v>
@@ -23983,15 +23988,15 @@
         <v>1</v>
       </c>
       <c r="J942" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
-        <v>749</v>
+        <v>1562</v>
       </c>
       <c r="B943" s="0" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C943" s="0" t="s">
         <v>293</v>
@@ -24000,15 +24005,15 @@
         <v>1</v>
       </c>
       <c r="J943" s="0" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
-        <v>1566</v>
+        <v>749</v>
       </c>
       <c r="B944" s="0" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C944" s="0" t="s">
         <v>293</v>
@@ -24017,15 +24022,15 @@
         <v>1</v>
       </c>
       <c r="J944" s="0" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B945" s="0" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="C945" s="0" t="s">
         <v>293</v>
@@ -24034,15 +24039,15 @@
         <v>1</v>
       </c>
       <c r="J945" s="0" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B946" s="0" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C946" s="0" t="s">
         <v>293</v>
@@ -24051,15 +24056,15 @@
         <v>1</v>
       </c>
       <c r="J946" s="0" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B947" s="0" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C947" s="0" t="s">
         <v>293</v>
@@ -24068,15 +24073,15 @@
         <v>1</v>
       </c>
       <c r="J947" s="0" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B948" s="0" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C948" s="0" t="s">
         <v>293</v>
@@ -24085,7 +24090,24 @@
         <v>1</v>
       </c>
       <c r="J948" s="0" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A949" s="0" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B949" s="0" t="s">
         <v>1580</v>
+      </c>
+      <c r="C949" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F949" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J949" s="0" t="s">
+        <v>1581</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1621">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -3847,6 +3847,9 @@
   </si>
   <si>
     <t xml:space="preserve">Slovak Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slowakei</t>
   </si>
   <si>
     <t xml:space="preserve">Slovenia</t>
@@ -5027,36 +5030,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14309,8 +14311,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14564,21 +14568,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1009"/>
+  <dimension ref="A1:J1010"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B687" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="A687" activeCellId="0" sqref="A687"/>
+      <selection pane="bottomRight" activeCell="C713" activeCellId="0" sqref="C713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21447,12 +21453,15 @@
         <v>261</v>
       </c>
     </row>
-    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="0" t="s">
+    <row r="713" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="5" t="s">
         <v>1275</v>
       </c>
       <c r="B713" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="E713" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21462,27 +21471,27 @@
       <c r="B714" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="E714" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="715" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="5" t="s">
+    </row>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="0" t="s">
         <v>1277</v>
       </c>
       <c r="B715" s="0" t="s">
         <v>262</v>
       </c>
       <c r="E715" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B716" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E716" s="0" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="0" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B716" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21498,7 +21507,7 @@
         <v>1280</v>
       </c>
       <c r="B718" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21506,7 +21515,7 @@
         <v>1281</v>
       </c>
       <c r="B719" s="0" t="s">
-        <v>462</v>
+        <v>251</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21514,26 +21523,26 @@
         <v>1282</v>
       </c>
       <c r="B720" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="721" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="0" t="s">
         <v>1283</v>
       </c>
       <c r="B721" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E721" s="0" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="0" t="s">
+    </row>
+    <row r="722" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="5" t="s">
         <v>1284</v>
       </c>
       <c r="B722" s="0" t="s">
         <v>305</v>
+      </c>
+      <c r="E722" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21543,9 +21552,6 @@
       <c r="B723" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E723" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
@@ -21554,6 +21560,9 @@
       <c r="B724" s="0" t="s">
         <v>305</v>
       </c>
+      <c r="E724" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
@@ -21576,7 +21585,7 @@
         <v>1289</v>
       </c>
       <c r="B727" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21584,7 +21593,7 @@
         <v>1290</v>
       </c>
       <c r="B728" s="0" t="s">
-        <v>464</v>
+        <v>306</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21592,7 +21601,7 @@
         <v>1291</v>
       </c>
       <c r="B729" s="0" t="s">
-        <v>257</v>
+        <v>464</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21600,7 +21609,7 @@
         <v>1292</v>
       </c>
       <c r="B730" s="0" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21626,16 +21635,16 @@
       <c r="B733" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E733" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
         <v>1296</v>
       </c>
       <c r="B734" s="0" t="s">
-        <v>174</v>
+        <v>111</v>
+      </c>
+      <c r="E734" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21651,7 +21660,7 @@
         <v>1298</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21659,7 +21668,7 @@
         <v>1299</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21667,15 +21676,15 @@
         <v>1300</v>
       </c>
       <c r="B738" s="0" t="s">
-        <v>1301</v>
+        <v>260</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B739" s="0" t="s">
         <v>1302</v>
-      </c>
-      <c r="B739" s="0" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21683,7 +21692,7 @@
         <v>1303</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21693,9 +21702,6 @@
       <c r="B741" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E741" s="0" t="s">
-        <v>824</v>
-      </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
@@ -21705,26 +21711,29 @@
         <v>263</v>
       </c>
       <c r="E742" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="743" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="0" t="s">
         <v>1306</v>
       </c>
       <c r="B743" s="0" t="s">
         <v>263</v>
       </c>
       <c r="E743" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B744" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E744" s="0" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="0" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B744" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21750,7 +21759,6 @@
       <c r="B747" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E747" s="6"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
@@ -21759,15 +21767,13 @@
       <c r="B748" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="E748" s="6"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
         <v>1312</v>
       </c>
       <c r="B749" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C749" s="0" t="s">
         <v>77</v>
       </c>
     </row>
@@ -21776,7 +21782,7 @@
         <v>1313</v>
       </c>
       <c r="B750" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C750" s="0" t="s">
         <v>77</v>
@@ -21787,7 +21793,10 @@
         <v>1314</v>
       </c>
       <c r="B751" s="0" t="s">
-        <v>267</v>
+        <v>78</v>
+      </c>
+      <c r="C751" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21805,9 +21814,6 @@
       <c r="B753" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="E753" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
@@ -21816,13 +21822,16 @@
       <c r="B754" s="0" t="s">
         <v>267</v>
       </c>
+      <c r="E754" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
         <v>1318</v>
       </c>
       <c r="B755" s="0" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21878,7 +21887,7 @@
         <v>1325</v>
       </c>
       <c r="B762" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21886,7 +21895,7 @@
         <v>1326</v>
       </c>
       <c r="B763" s="0" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21918,7 +21927,7 @@
         <v>1330</v>
       </c>
       <c r="B767" s="0" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21934,7 +21943,7 @@
         <v>1332</v>
       </c>
       <c r="B769" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21950,7 +21959,7 @@
         <v>1334</v>
       </c>
       <c r="B771" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21958,7 +21967,7 @@
         <v>1335</v>
       </c>
       <c r="B772" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21966,7 +21975,7 @@
         <v>1336</v>
       </c>
       <c r="B773" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21974,7 +21983,7 @@
         <v>1337</v>
       </c>
       <c r="B774" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21982,7 +21991,7 @@
         <v>1338</v>
       </c>
       <c r="B775" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21992,9 +22001,6 @@
       <c r="B776" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="E776" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
@@ -22003,6 +22009,9 @@
       <c r="B777" s="0" t="s">
         <v>280</v>
       </c>
+      <c r="E777" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="s">
@@ -22017,7 +22026,7 @@
         <v>1342</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22027,35 +22036,35 @@
       <c r="B780" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="E780" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
         <v>1344</v>
       </c>
       <c r="B781" s="0" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="782" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E781" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="0" t="s">
         <v>1345</v>
       </c>
       <c r="B782" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E782" s="0" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="0" t="s">
+    </row>
+    <row r="783" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="5" t="s">
         <v>1346</v>
       </c>
       <c r="B783" s="0" t="s">
         <v>282</v>
+      </c>
+      <c r="E783" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22065,9 +22074,6 @@
       <c r="B784" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E784" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
@@ -22076,15 +22082,15 @@
       <c r="B785" s="0" t="s">
         <v>282</v>
       </c>
+      <c r="E785" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
         <v>1349</v>
       </c>
       <c r="B786" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C786" s="0" t="s">
         <v>282</v>
       </c>
     </row>
@@ -22104,7 +22110,10 @@
         <v>1351</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>276</v>
+        <v>315</v>
+      </c>
+      <c r="C788" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22112,7 +22121,7 @@
         <v>1352</v>
       </c>
       <c r="B789" s="0" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22120,7 +22129,7 @@
         <v>1353</v>
       </c>
       <c r="B790" s="0" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22128,7 +22137,7 @@
         <v>1354</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22136,7 +22145,7 @@
         <v>1355</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22160,7 +22169,7 @@
         <v>1358</v>
       </c>
       <c r="B795" s="0" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22200,7 +22209,7 @@
         <v>1363</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22218,9 +22227,6 @@
       <c r="B802" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E802" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="0" t="s">
@@ -22230,7 +22236,7 @@
         <v>123</v>
       </c>
       <c r="E803" s="0" t="s">
-        <v>824</v>
+        <v>549</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22240,6 +22246,9 @@
       <c r="B804" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="E804" s="0" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
@@ -22249,23 +22258,23 @@
         <v>123</v>
       </c>
     </row>
-    <row r="806" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="5" t="s">
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="0" t="s">
         <v>1369</v>
       </c>
       <c r="B806" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E806" s="0" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="0" t="s">
+    </row>
+    <row r="807" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A807" s="5" t="s">
         <v>1370</v>
       </c>
       <c r="B807" s="0" t="s">
         <v>123</v>
+      </c>
+      <c r="E807" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22273,9 +22282,6 @@
         <v>1371</v>
       </c>
       <c r="B808" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C808" s="0" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22295,7 +22301,7 @@
         <v>1373</v>
       </c>
       <c r="B810" s="0" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="C810" s="0" t="s">
         <v>123</v>
@@ -22306,7 +22312,7 @@
         <v>1374</v>
       </c>
       <c r="B811" s="0" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C811" s="0" t="s">
         <v>123</v>
@@ -22317,20 +22323,23 @@
         <v>1375</v>
       </c>
       <c r="B812" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C812" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
-        <v>289</v>
+        <v>1376</v>
       </c>
       <c r="B813" s="0" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="s">
-        <v>1376</v>
+        <v>289</v>
       </c>
       <c r="B814" s="0" t="s">
         <v>289</v>
@@ -22365,21 +22374,12 @@
         <v>1380</v>
       </c>
       <c r="B818" s="0" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C818" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="G818" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H818" s="0" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B819" s="0" t="s">
         <v>1382</v>
@@ -22387,13 +22387,19 @@
       <c r="C819" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G819" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H819" s="0" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B820" s="0" t="s">
         <v>1383</v>
-      </c>
-      <c r="B820" s="0" t="s">
-        <v>313</v>
       </c>
       <c r="C820" s="0" t="s">
         <v>289</v>
@@ -22404,13 +22410,10 @@
         <v>1384</v>
       </c>
       <c r="B821" s="0" t="s">
-        <v>407</v>
+        <v>313</v>
       </c>
       <c r="C821" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="F821" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22418,7 +22421,7 @@
         <v>1385</v>
       </c>
       <c r="B822" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C822" s="0" t="s">
         <v>289</v>
@@ -22432,7 +22435,7 @@
         <v>1386</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C823" s="0" t="s">
         <v>289</v>
@@ -22446,7 +22449,7 @@
         <v>1387</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C824" s="0" t="s">
         <v>289</v>
@@ -22460,7 +22463,7 @@
         <v>1388</v>
       </c>
       <c r="B825" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C825" s="0" t="s">
         <v>289</v>
@@ -22474,7 +22477,7 @@
         <v>1389</v>
       </c>
       <c r="B826" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C826" s="0" t="s">
         <v>289</v>
@@ -22488,7 +22491,7 @@
         <v>1390</v>
       </c>
       <c r="B827" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C827" s="0" t="s">
         <v>289</v>
@@ -22502,7 +22505,7 @@
         <v>1391</v>
       </c>
       <c r="B828" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C828" s="0" t="s">
         <v>289</v>
@@ -22516,7 +22519,7 @@
         <v>1392</v>
       </c>
       <c r="B829" s="0" t="s">
-        <v>1393</v>
+        <v>414</v>
       </c>
       <c r="C829" s="0" t="s">
         <v>289</v>
@@ -22527,10 +22530,10 @@
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B830" s="0" t="s">
         <v>1394</v>
-      </c>
-      <c r="B830" s="0" t="s">
-        <v>415</v>
       </c>
       <c r="C830" s="0" t="s">
         <v>289</v>
@@ -22544,7 +22547,7 @@
         <v>1395</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C831" s="0" t="s">
         <v>289</v>
@@ -22572,7 +22575,7 @@
         <v>1397</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C833" s="0" t="s">
         <v>289</v>
@@ -22586,7 +22589,7 @@
         <v>1398</v>
       </c>
       <c r="B834" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C834" s="0" t="s">
         <v>289</v>
@@ -22600,7 +22603,7 @@
         <v>1399</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C835" s="0" t="s">
         <v>289</v>
@@ -22614,7 +22617,7 @@
         <v>1400</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C836" s="0" t="s">
         <v>289</v>
@@ -22628,7 +22631,7 @@
         <v>1401</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C837" s="0" t="s">
         <v>289</v>
@@ -22642,7 +22645,7 @@
         <v>1402</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C838" s="0" t="s">
         <v>289</v>
@@ -22656,7 +22659,7 @@
         <v>1403</v>
       </c>
       <c r="B839" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C839" s="0" t="s">
         <v>289</v>
@@ -22670,7 +22673,7 @@
         <v>1404</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C840" s="0" t="s">
         <v>289</v>
@@ -22684,7 +22687,7 @@
         <v>1405</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>289</v>
@@ -22698,7 +22701,7 @@
         <v>1406</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>289</v>
@@ -22712,7 +22715,7 @@
         <v>1407</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C843" s="0" t="s">
         <v>289</v>
@@ -22726,7 +22729,7 @@
         <v>1408</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C844" s="0" t="s">
         <v>289</v>
@@ -22740,7 +22743,7 @@
         <v>1409</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C845" s="0" t="s">
         <v>289</v>
@@ -22754,7 +22757,7 @@
         <v>1410</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C846" s="0" t="s">
         <v>289</v>
@@ -22768,7 +22771,7 @@
         <v>1411</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C847" s="0" t="s">
         <v>289</v>
@@ -22782,7 +22785,7 @@
         <v>1412</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C848" s="0" t="s">
         <v>289</v>
@@ -22796,7 +22799,7 @@
         <v>1413</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C849" s="0" t="s">
         <v>289</v>
@@ -22810,7 +22813,7 @@
         <v>1414</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C850" s="0" t="s">
         <v>289</v>
@@ -22824,7 +22827,7 @@
         <v>1415</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C851" s="0" t="s">
         <v>289</v>
@@ -22838,7 +22841,7 @@
         <v>1416</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C852" s="0" t="s">
         <v>289</v>
@@ -22852,7 +22855,7 @@
         <v>1417</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C853" s="0" t="s">
         <v>289</v>
@@ -22866,7 +22869,7 @@
         <v>1418</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C854" s="0" t="s">
         <v>289</v>
@@ -22880,7 +22883,7 @@
         <v>1419</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C855" s="0" t="s">
         <v>289</v>
@@ -22894,7 +22897,7 @@
         <v>1420</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>289</v>
@@ -22908,7 +22911,7 @@
         <v>1421</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C857" s="0" t="s">
         <v>289</v>
@@ -22922,7 +22925,7 @@
         <v>1422</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C858" s="0" t="s">
         <v>289</v>
@@ -22936,7 +22939,7 @@
         <v>1423</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C859" s="0" t="s">
         <v>289</v>
@@ -22950,7 +22953,7 @@
         <v>1424</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C860" s="0" t="s">
         <v>289</v>
@@ -22964,7 +22967,7 @@
         <v>1425</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C861" s="0" t="s">
         <v>289</v>
@@ -22978,7 +22981,7 @@
         <v>1426</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C862" s="0" t="s">
         <v>289</v>
@@ -22992,7 +22995,7 @@
         <v>1427</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C863" s="0" t="s">
         <v>289</v>
@@ -23006,7 +23009,7 @@
         <v>1428</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C864" s="0" t="s">
         <v>289</v>
@@ -23020,7 +23023,7 @@
         <v>1429</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C865" s="0" t="s">
         <v>289</v>
@@ -23034,7 +23037,7 @@
         <v>1430</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C866" s="0" t="s">
         <v>289</v>
@@ -23048,7 +23051,7 @@
         <v>1431</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C867" s="0" t="s">
         <v>289</v>
@@ -23062,7 +23065,7 @@
         <v>1432</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C868" s="0" t="s">
         <v>289</v>
@@ -23076,7 +23079,7 @@
         <v>1433</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C869" s="0" t="s">
         <v>289</v>
@@ -23090,7 +23093,7 @@
         <v>1434</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C870" s="0" t="s">
         <v>289</v>
@@ -23104,7 +23107,7 @@
         <v>1435</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>289</v>
@@ -23118,7 +23121,7 @@
         <v>1436</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>289</v>
@@ -23132,7 +23135,13 @@
         <v>1437</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>288</v>
+        <v>456</v>
+      </c>
+      <c r="C873" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F873" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23140,7 +23149,7 @@
         <v>1438</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23158,16 +23167,16 @@
       <c r="B876" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="E876" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
         <v>1441</v>
       </c>
       <c r="B877" s="0" t="s">
-        <v>290</v>
+        <v>259</v>
+      </c>
+      <c r="E877" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23177,16 +23186,16 @@
       <c r="B878" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="E878" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
         <v>1443</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="E879" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23194,7 +23203,7 @@
         <v>1444</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23234,10 +23243,7 @@
         <v>1449</v>
       </c>
       <c r="B885" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="E885" s="0" t="s">
-        <v>549</v>
+        <v>293</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23247,30 +23253,21 @@
       <c r="B886" s="0" t="s">
         <v>296</v>
       </c>
+      <c r="E886" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
         <v>1451</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C887" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G887" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H887" s="0" t="s">
-        <v>1452</v>
-      </c>
-      <c r="I887" s="0" t="s">
-        <v>1453</v>
+        <v>296</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B888" s="0" t="s">
         <v>294</v>
@@ -23282,18 +23279,18 @@
         <v>1</v>
       </c>
       <c r="H888" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="I888" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>1452</v>
+        <v>294</v>
       </c>
       <c r="C889" s="0" t="s">
         <v>123</v>
@@ -23302,30 +23299,30 @@
         <v>1</v>
       </c>
       <c r="H889" s="0" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="I889" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B890" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C890" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G890" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H890" s="0" t="s">
         <v>1456</v>
       </c>
-      <c r="B890" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C890" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G890" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H890" s="0" t="s">
-        <v>1455</v>
-      </c>
       <c r="I890" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23342,10 +23339,10 @@
         <v>1</v>
       </c>
       <c r="H891" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="I891" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23362,10 +23359,10 @@
         <v>1</v>
       </c>
       <c r="H892" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="I892" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23382,10 +23379,10 @@
         <v>1</v>
       </c>
       <c r="H893" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="I893" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23402,10 +23399,10 @@
         <v>1</v>
       </c>
       <c r="H894" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="I894" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23422,10 +23419,10 @@
         <v>1</v>
       </c>
       <c r="H895" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="I895" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23442,10 +23439,10 @@
         <v>1</v>
       </c>
       <c r="H896" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="I896" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23462,29 +23459,41 @@
         <v>1</v>
       </c>
       <c r="H897" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="I897" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>1458</v>
+        <v>1464</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>1455</v>
+        <v>295</v>
       </c>
       <c r="C898" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G898" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H898" s="0" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I898" s="0" t="s">
+        <v>1454</v>
+      </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>300</v>
+        <v>1456</v>
+      </c>
+      <c r="C899" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23500,7 +23509,7 @@
         <v>1466</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23524,7 +23533,7 @@
         <v>1469</v>
       </c>
       <c r="B904" s="0" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23532,7 +23541,7 @@
         <v>1470</v>
       </c>
       <c r="B905" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23564,10 +23573,7 @@
         <v>1474</v>
       </c>
       <c r="B909" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D909" s="0" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23597,7 +23603,7 @@
         <v>1477</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D912" s="0" t="n">
         <v>1</v>
@@ -23624,9 +23630,6 @@
       <c r="D914" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E914" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
@@ -23638,13 +23641,19 @@
       <c r="D915" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E915" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
         <v>1481</v>
       </c>
       <c r="B916" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="D916" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23652,7 +23661,7 @@
         <v>1482</v>
       </c>
       <c r="B917" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23660,7 +23669,7 @@
         <v>1483</v>
       </c>
       <c r="B918" s="0" t="s">
-        <v>105</v>
+        <v>308</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23668,7 +23677,7 @@
         <v>1484</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23676,21 +23685,12 @@
         <v>1485</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C920" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G920" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H920" s="0" t="s">
-        <v>1486</v>
+        <v>114</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B921" s="0" t="s">
         <v>76</v>
@@ -23702,7 +23702,7 @@
         <v>1</v>
       </c>
       <c r="H921" s="0" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23719,15 +23719,24 @@
         <v>1</v>
       </c>
       <c r="H922" s="0" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B923" s="0" t="s">
-        <v>1486</v>
+        <v>76</v>
+      </c>
+      <c r="C923" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G923" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H923" s="0" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23735,7 +23744,7 @@
         <v>1489</v>
       </c>
       <c r="B924" s="0" t="s">
-        <v>458</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23743,7 +23752,7 @@
         <v>1490</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23751,7 +23760,7 @@
         <v>1491</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23759,7 +23768,7 @@
         <v>1492</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23767,7 +23776,7 @@
         <v>1493</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23775,7 +23784,7 @@
         <v>1494</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23783,21 +23792,15 @@
         <v>1495</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C930" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F930" s="0" t="n">
-        <v>1</v>
+        <v>468</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B931" s="0" t="s">
         <v>1497</v>
-      </c>
-      <c r="B931" s="0" t="s">
-        <v>1498</v>
       </c>
       <c r="C931" s="0" t="s">
         <v>43</v>
@@ -23808,10 +23811,10 @@
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B932" s="0" t="s">
         <v>1499</v>
-      </c>
-      <c r="B932" s="0" t="s">
-        <v>1498</v>
       </c>
       <c r="C932" s="0" t="s">
         <v>43</v>
@@ -23820,12 +23823,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="5" t="s">
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A933" s="0" t="s">
         <v>1500</v>
       </c>
       <c r="B933" s="0" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C933" s="0" t="s">
         <v>43</v>
@@ -23834,12 +23837,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="7" t="s">
+    <row r="934" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A934" s="5" t="s">
         <v>1501</v>
       </c>
       <c r="B934" s="0" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C934" s="0" t="s">
         <v>43</v>
@@ -23853,7 +23856,7 @@
         <v>1502</v>
       </c>
       <c r="B935" s="0" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C935" s="0" t="s">
         <v>43</v>
@@ -23863,11 +23866,11 @@
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="0" t="s">
+      <c r="A936" s="7" t="s">
         <v>1503</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="C936" s="0" t="s">
         <v>43</v>
@@ -23878,10 +23881,10 @@
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B937" s="0" t="s">
         <v>1505</v>
-      </c>
-      <c r="B937" s="0" t="s">
-        <v>1506</v>
       </c>
       <c r="C937" s="0" t="s">
         <v>43</v>
@@ -23892,10 +23895,10 @@
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B938" s="0" t="s">
         <v>1507</v>
-      </c>
-      <c r="B938" s="0" t="s">
-        <v>1508</v>
       </c>
       <c r="C938" s="0" t="s">
         <v>43</v>
@@ -23906,7 +23909,7 @@
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>737</v>
+        <v>1508</v>
       </c>
       <c r="B939" s="0" t="s">
         <v>1509</v>
@@ -23920,10 +23923,10 @@
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="B940" s="0" t="s">
         <v>1510</v>
-      </c>
-      <c r="B940" s="0" t="s">
-        <v>1511</v>
       </c>
       <c r="C940" s="0" t="s">
         <v>43</v>
@@ -23934,10 +23937,10 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B941" s="0" t="s">
         <v>1512</v>
-      </c>
-      <c r="B941" s="0" t="s">
-        <v>1513</v>
       </c>
       <c r="C941" s="0" t="s">
         <v>43</v>
@@ -23948,10 +23951,10 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B942" s="0" t="s">
         <v>1514</v>
-      </c>
-      <c r="B942" s="0" t="s">
-        <v>1515</v>
       </c>
       <c r="C942" s="0" t="s">
         <v>43</v>
@@ -23962,10 +23965,10 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B943" s="0" t="s">
         <v>1516</v>
-      </c>
-      <c r="B943" s="0" t="s">
-        <v>1517</v>
       </c>
       <c r="C943" s="0" t="s">
         <v>43</v>
@@ -23976,10 +23979,10 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B944" s="0" t="s">
         <v>1518</v>
-      </c>
-      <c r="B944" s="0" t="s">
-        <v>1519</v>
       </c>
       <c r="C944" s="0" t="s">
         <v>43</v>
@@ -23990,10 +23993,10 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B945" s="0" t="s">
         <v>1520</v>
-      </c>
-      <c r="B945" s="0" t="s">
-        <v>1521</v>
       </c>
       <c r="C945" s="0" t="s">
         <v>43</v>
@@ -24004,10 +24007,10 @@
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B946" s="0" t="s">
         <v>1522</v>
-      </c>
-      <c r="B946" s="0" t="s">
-        <v>1523</v>
       </c>
       <c r="C946" s="0" t="s">
         <v>43</v>
@@ -24018,10 +24021,10 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B947" s="0" t="s">
         <v>1524</v>
-      </c>
-      <c r="B947" s="0" t="s">
-        <v>1525</v>
       </c>
       <c r="C947" s="0" t="s">
         <v>43</v>
@@ -24032,10 +24035,10 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B948" s="0" t="s">
         <v>1526</v>
-      </c>
-      <c r="B948" s="0" t="s">
-        <v>1527</v>
       </c>
       <c r="C948" s="0" t="s">
         <v>43</v>
@@ -24046,10 +24049,10 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B949" s="0" t="s">
         <v>1528</v>
-      </c>
-      <c r="B949" s="0" t="s">
-        <v>1529</v>
       </c>
       <c r="C949" s="0" t="s">
         <v>43</v>
@@ -24060,10 +24063,10 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B950" s="0" t="s">
         <v>1530</v>
-      </c>
-      <c r="B950" s="0" t="s">
-        <v>1531</v>
       </c>
       <c r="C950" s="0" t="s">
         <v>43</v>
@@ -24074,10 +24077,10 @@
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B951" s="0" t="s">
         <v>1532</v>
-      </c>
-      <c r="B951" s="0" t="s">
-        <v>1533</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>43</v>
@@ -24088,10 +24091,10 @@
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B952" s="0" t="s">
         <v>1534</v>
-      </c>
-      <c r="B952" s="0" t="s">
-        <v>1535</v>
       </c>
       <c r="C952" s="0" t="s">
         <v>43</v>
@@ -24102,10 +24105,10 @@
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B953" s="0" t="s">
         <v>1536</v>
-      </c>
-      <c r="B953" s="0" t="s">
-        <v>1537</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>43</v>
@@ -24116,10 +24119,10 @@
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B954" s="0" t="s">
         <v>1538</v>
-      </c>
-      <c r="B954" s="0" t="s">
-        <v>1539</v>
       </c>
       <c r="C954" s="0" t="s">
         <v>43</v>
@@ -24130,10 +24133,10 @@
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B955" s="0" t="s">
         <v>1540</v>
-      </c>
-      <c r="B955" s="0" t="s">
-        <v>1541</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>43</v>
@@ -24144,10 +24147,10 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B956" s="0" t="s">
         <v>1542</v>
-      </c>
-      <c r="B956" s="0" t="s">
-        <v>1543</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>43</v>
@@ -24158,10 +24161,10 @@
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B957" s="0" t="s">
         <v>1544</v>
-      </c>
-      <c r="B957" s="0" t="s">
-        <v>1545</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>43</v>
@@ -24171,11 +24174,11 @@
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="0" t="n">
-        <v>1701</v>
+      <c r="A958" s="0" t="s">
+        <v>1545</v>
       </c>
       <c r="B958" s="0" t="s">
-        <v>1498</v>
+        <v>1546</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>43</v>
@@ -24186,10 +24189,10 @@
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="n">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B959" s="0" t="s">
-        <v>1509</v>
+        <v>1499</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>43</v>
@@ -24200,10 +24203,10 @@
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="n">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B960" s="0" t="s">
-        <v>1539</v>
+        <v>1510</v>
       </c>
       <c r="C960" s="0" t="s">
         <v>43</v>
@@ -24214,10 +24217,10 @@
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="n">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B961" s="0" t="s">
-        <v>1513</v>
+        <v>1540</v>
       </c>
       <c r="C961" s="0" t="s">
         <v>43</v>
@@ -24228,10 +24231,10 @@
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="n">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B962" s="0" t="s">
-        <v>1525</v>
+        <v>1514</v>
       </c>
       <c r="C962" s="0" t="s">
         <v>43</v>
@@ -24242,10 +24245,10 @@
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="n">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B963" s="0" t="s">
-        <v>1511</v>
+        <v>1526</v>
       </c>
       <c r="C963" s="0" t="s">
         <v>43</v>
@@ -24256,10 +24259,10 @@
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="n">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>1506</v>
+        <v>1512</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>43</v>
@@ -24270,10 +24273,10 @@
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="n">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B965" s="0" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
       <c r="C965" s="0" t="s">
         <v>43</v>
@@ -24284,10 +24287,10 @@
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="n">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B966" s="0" t="s">
-        <v>1531</v>
+        <v>1516</v>
       </c>
       <c r="C966" s="0" t="s">
         <v>43</v>
@@ -24298,10 +24301,10 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="n">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B967" s="0" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
       <c r="C967" s="0" t="s">
         <v>43</v>
@@ -24312,10 +24315,10 @@
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="n">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B968" s="0" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C968" s="0" t="s">
         <v>43</v>
@@ -24326,10 +24329,10 @@
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="n">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B969" s="0" t="s">
-        <v>1504</v>
+        <v>1546</v>
       </c>
       <c r="C969" s="0" t="s">
         <v>43</v>
@@ -24340,10 +24343,10 @@
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="n">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B970" s="0" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
       <c r="C970" s="0" t="s">
         <v>43</v>
@@ -24354,10 +24357,10 @@
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="n">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B971" s="0" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>43</v>
@@ -24368,10 +24371,10 @@
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="n">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>43</v>
@@ -24382,10 +24385,10 @@
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="n">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B973" s="0" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C973" s="0" t="s">
         <v>43</v>
@@ -24396,10 +24399,10 @@
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="n">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B974" s="0" t="s">
-        <v>1521</v>
+        <v>1536</v>
       </c>
       <c r="C974" s="0" t="s">
         <v>43</v>
@@ -24410,10 +24413,10 @@
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="n">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B975" s="0" t="s">
-        <v>1508</v>
+        <v>1522</v>
       </c>
       <c r="C975" s="0" t="s">
         <v>43</v>
@@ -24424,10 +24427,10 @@
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="n">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B976" s="0" t="s">
-        <v>1527</v>
+        <v>1509</v>
       </c>
       <c r="C976" s="0" t="s">
         <v>43</v>
@@ -24438,10 +24441,10 @@
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B977" s="0" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C977" s="0" t="s">
         <v>43</v>
@@ -24452,10 +24455,10 @@
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="n">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B978" s="0" t="s">
-        <v>1543</v>
+        <v>1530</v>
       </c>
       <c r="C978" s="0" t="s">
         <v>43</v>
@@ -24466,10 +24469,10 @@
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="n">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B979" s="0" t="s">
-        <v>1496</v>
+        <v>1544</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>43</v>
@@ -24480,10 +24483,10 @@
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="n">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B980" s="0" t="s">
-        <v>1519</v>
+        <v>1497</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>43</v>
@@ -24493,42 +24496,39 @@
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="0" t="s">
-        <v>1546</v>
+      <c r="A981" s="0" t="n">
+        <v>1723</v>
       </c>
       <c r="B981" s="0" t="s">
-        <v>1547</v>
+        <v>1520</v>
       </c>
       <c r="C981" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="J981" s="0" t="s">
-        <v>1548</v>
+        <v>43</v>
+      </c>
+      <c r="F981" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B982" s="0" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C982" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F982" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J982" s="0" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B983" s="0" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>293</v>
@@ -24537,7 +24537,7 @@
         <v>1</v>
       </c>
       <c r="J983" s="0" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24545,7 +24545,7 @@
         <v>1553</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>293</v>
@@ -24554,15 +24554,15 @@
         <v>1</v>
       </c>
       <c r="J984" s="0" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
-        <v>722</v>
+        <v>1554</v>
       </c>
       <c r="B985" s="0" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="C985" s="0" t="s">
         <v>293</v>
@@ -24571,15 +24571,15 @@
         <v>1</v>
       </c>
       <c r="J985" s="0" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>1556</v>
+        <v>722</v>
       </c>
       <c r="B986" s="0" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C986" s="0" t="s">
         <v>293</v>
@@ -24588,7 +24588,7 @@
         <v>1</v>
       </c>
       <c r="J986" s="0" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24596,7 +24596,7 @@
         <v>1557</v>
       </c>
       <c r="B987" s="0" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C987" s="0" t="s">
         <v>293</v>
@@ -24605,7 +24605,7 @@
         <v>1</v>
       </c>
       <c r="J987" s="0" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24613,7 +24613,7 @@
         <v>1558</v>
       </c>
       <c r="B988" s="0" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="C988" s="0" t="s">
         <v>293</v>
@@ -24622,15 +24622,15 @@
         <v>1</v>
       </c>
       <c r="J988" s="0" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B989" s="0" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>293</v>
@@ -24639,15 +24639,15 @@
         <v>1</v>
       </c>
       <c r="J989" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B990" s="0" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="C990" s="0" t="s">
         <v>293</v>
@@ -24656,15 +24656,15 @@
         <v>1</v>
       </c>
       <c r="J990" s="0" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B991" s="0" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>293</v>
@@ -24673,15 +24673,15 @@
         <v>1</v>
       </c>
       <c r="J991" s="0" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>728</v>
+        <v>1568</v>
       </c>
       <c r="B992" s="0" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C992" s="0" t="s">
         <v>293</v>
@@ -24690,15 +24690,15 @@
         <v>1</v>
       </c>
       <c r="J992" s="0" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>1572</v>
+        <v>728</v>
       </c>
       <c r="B993" s="0" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C993" s="0" t="s">
         <v>293</v>
@@ -24707,15 +24707,15 @@
         <v>1</v>
       </c>
       <c r="J993" s="0" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B994" s="0" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C994" s="0" t="s">
         <v>293</v>
@@ -24724,15 +24724,15 @@
         <v>1</v>
       </c>
       <c r="J994" s="0" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B995" s="0" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C995" s="0" t="s">
         <v>293</v>
@@ -24741,15 +24741,15 @@
         <v>1</v>
       </c>
       <c r="J995" s="0" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B996" s="0" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>293</v>
@@ -24758,15 +24758,15 @@
         <v>1</v>
       </c>
       <c r="J996" s="0" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>293</v>
@@ -24775,15 +24775,15 @@
         <v>1</v>
       </c>
       <c r="J997" s="0" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>293</v>
@@ -24792,15 +24792,15 @@
         <v>1</v>
       </c>
       <c r="J998" s="0" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B999" s="0" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>293</v>
@@ -24809,15 +24809,15 @@
         <v>1</v>
       </c>
       <c r="J999" s="0" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>1108</v>
+        <v>1591</v>
       </c>
       <c r="B1000" s="0" t="s">
-        <v>1109</v>
+        <v>1592</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>293</v>
@@ -24831,10 +24831,10 @@
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>1594</v>
+        <v>1108</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>1595</v>
+        <v>1109</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>293</v>
@@ -24843,15 +24843,15 @@
         <v>1</v>
       </c>
       <c r="J1001" s="0" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B1002" s="0" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>293</v>
@@ -24860,15 +24860,15 @@
         <v>1</v>
       </c>
       <c r="J1002" s="0" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B1003" s="0" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>293</v>
@@ -24877,15 +24877,15 @@
         <v>1</v>
       </c>
       <c r="J1003" s="0" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>755</v>
+        <v>1601</v>
       </c>
       <c r="B1004" s="0" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>293</v>
@@ -24894,15 +24894,15 @@
         <v>1</v>
       </c>
       <c r="J1004" s="0" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>1605</v>
+        <v>755</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>293</v>
@@ -24911,15 +24911,15 @@
         <v>1</v>
       </c>
       <c r="J1005" s="0" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C1006" s="0" t="s">
         <v>293</v>
@@ -24928,15 +24928,15 @@
         <v>1</v>
       </c>
       <c r="J1006" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B1007" s="0" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="C1007" s="0" t="s">
         <v>293</v>
@@ -24945,15 +24945,15 @@
         <v>1</v>
       </c>
       <c r="J1007" s="0" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B1008" s="0" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="C1008" s="0" t="s">
         <v>293</v>
@@ -24962,15 +24962,15 @@
         <v>1</v>
       </c>
       <c r="J1008" s="0" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B1009" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C1009" s="0" t="s">
         <v>293</v>
@@ -24979,7 +24979,24 @@
         <v>1</v>
       </c>
       <c r="J1009" s="0" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="0" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1010" s="0" t="s">
         <v>1619</v>
+      </c>
+      <c r="C1010" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1010" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1010" s="0" t="s">
+        <v>1620</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -2475,12 +2475,12 @@
     <t xml:space="preserve">Tsjekkia</t>
   </si>
   <si>
+    <t xml:space="preserve">Czechslovakia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Czechoslov.</t>
   </si>
   <si>
-    <t xml:space="preserve">Czechslovakia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Czechoslovakia</t>
   </si>
   <si>
@@ -2937,6 +2937,9 @@
     <t xml:space="preserve">Kosovo</t>
   </si>
   <si>
+    <t xml:space="preserve">North Korea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Korea Democratic People's Republic of</t>
   </si>
   <si>
@@ -2949,9 +2952,6 @@
     <t xml:space="preserve">Korea North</t>
   </si>
   <si>
-    <t xml:space="preserve">North Korea</t>
-  </si>
-  <si>
     <t xml:space="preserve">Korea, North is missing</t>
   </si>
   <si>
@@ -2973,6 +2973,9 @@
     <t xml:space="preserve">Nordkorea</t>
   </si>
   <si>
+    <t xml:space="preserve">South Korea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Korea Republic of</t>
   </si>
   <si>
@@ -3001,9 +3004,6 @@
   </si>
   <si>
     <t xml:space="preserve">Korea, South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Korea</t>
   </si>
   <si>
     <t xml:space="preserve">Soer-Korea</t>
@@ -5030,35 +5030,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14311,10 +14312,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14571,20 +14572,20 @@
   <dimension ref="A1:J1010"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B687" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B242" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A687" activeCellId="0" sqref="A687"/>
-      <selection pane="bottomRight" activeCell="C713" activeCellId="0" sqref="C713"/>
+      <selection pane="bottomLeft" activeCell="A242" activeCellId="0" sqref="A242"/>
+      <selection pane="bottomRight" activeCell="A265" activeCellId="0" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17327,7 +17328,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="s">
         <v>825</v>
       </c>
@@ -17477,7 +17478,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="s">
         <v>843</v>
       </c>
@@ -17566,7 +17567,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="s">
         <v>853</v>
       </c>
@@ -17658,7 +17659,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="5" t="s">
         <v>863</v>
       </c>
@@ -17715,7 +17716,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5" t="s">
         <v>869</v>
       </c>
@@ -17876,7 +17877,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="s">
         <v>889</v>
       </c>
@@ -18004,7 +18005,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="s">
         <v>903</v>
       </c>
@@ -18553,7 +18554,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="5" t="s">
         <v>964</v>
       </c>
@@ -18583,7 +18584,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="5" t="s">
         <v>967</v>
       </c>
@@ -18733,23 +18734,23 @@
         <v>165</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="5" t="s">
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
         <v>985</v>
       </c>
       <c r="B427" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E427" s="0" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="0" t="s">
+    </row>
+    <row r="428" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="5" t="s">
         <v>986</v>
       </c>
       <c r="B428" s="0" t="s">
         <v>165</v>
+      </c>
+      <c r="E428" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18945,7 +18946,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="5" t="s">
         <v>1010</v>
       </c>
@@ -19091,7 +19092,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="5" t="s">
         <v>1026</v>
       </c>
@@ -19232,7 +19233,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="5" t="s">
         <v>1041</v>
       </c>
@@ -20022,7 +20023,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="5" t="s">
         <v>1112</v>
       </c>
@@ -20228,7 +20229,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="5" t="s">
         <v>1137</v>
       </c>
@@ -20600,7 +20601,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="5" t="s">
         <v>1180</v>
       </c>
@@ -20831,7 +20832,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="5" t="s">
         <v>1204</v>
       </c>
@@ -20877,7 +20878,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="647" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="5" t="s">
         <v>1209</v>
       </c>
@@ -21453,7 +21454,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="713" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="5" t="s">
         <v>1275</v>
       </c>
@@ -21483,7 +21484,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="5" t="s">
         <v>1278</v>
       </c>
@@ -21534,7 +21535,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="722" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="5" t="s">
         <v>1284</v>
       </c>
@@ -22056,7 +22057,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="783" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="5" t="s">
         <v>1346</v>
       </c>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1622">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -3507,6 +3507,9 @@
     <t xml:space="preserve">Palau</t>
   </si>
   <si>
+    <t xml:space="preserve">Occupied Palestinian Territory</t>
+  </si>
+  <si>
     <t xml:space="preserve">Palestine, State of</t>
   </si>
   <si>
@@ -3519,9 +3522,6 @@
     <t xml:space="preserve">Palestina</t>
   </si>
   <si>
-    <t xml:space="preserve">Occupied Palestinian Territory</t>
-  </si>
-  <si>
     <t xml:space="preserve">West Bank and Gaza</t>
   </si>
   <si>
@@ -3538,6 +3538,9 @@
   </si>
   <si>
     <t xml:space="preserve">Palæstina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palästinensische Gebiete</t>
   </si>
   <si>
     <t xml:space="preserve">Gaza Strip</t>
@@ -5030,33 +5033,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14309,10 +14315,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14566,23 +14570,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1011"/>
+  <dimension ref="A1:J1012"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B718" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
-      <selection pane="bottomRight" activeCell="F87" activeCellId="0" sqref="F87"/>
+      <selection pane="bottomLeft" activeCell="A718" activeCellId="0" sqref="A718"/>
+      <selection pane="bottomRight" activeCell="A766" activeCellId="0" sqref="A766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20517,6 +20519,9 @@
       <c r="B607" s="0" t="s">
         <v>232</v>
       </c>
+      <c r="E607" s="0" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
@@ -20553,7 +20558,10 @@
         <v>1172</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>122</v>
+        <v>232</v>
+      </c>
+      <c r="E611" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20561,7 +20569,7 @@
         <v>1173</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>298</v>
+        <v>122</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20569,7 +20577,7 @@
         <v>1174</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20577,7 +20585,7 @@
         <v>1175</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20593,7 +20601,7 @@
         <v>1177</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20601,7 +20609,7 @@
         <v>1178</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20609,26 +20617,26 @@
         <v>1179</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="619" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="0" t="s">
         <v>1180</v>
       </c>
       <c r="B619" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E619" s="0" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="0" t="s">
+    </row>
+    <row r="620" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="5" t="s">
         <v>1181</v>
       </c>
       <c r="B620" s="0" t="s">
         <v>224</v>
+      </c>
+      <c r="E620" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20662,16 +20670,16 @@
       <c r="B624" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E624" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
         <v>1186</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="E625" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20687,7 +20695,7 @@
         <v>1188</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20705,16 +20713,16 @@
       <c r="B629" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E629" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
         <v>1191</v>
       </c>
       <c r="B630" s="0" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="E630" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20730,21 +20738,12 @@
         <v>1193</v>
       </c>
       <c r="B632" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C632" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G632" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H632" s="0" t="s">
-        <v>1194</v>
+        <v>230</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B633" s="0" t="s">
         <v>228</v>
@@ -20756,26 +20755,35 @@
         <v>1</v>
       </c>
       <c r="H633" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>1194</v>
+        <v>228</v>
       </c>
       <c r="C634" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G634" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H634" s="0" t="s">
+        <v>1195</v>
+      </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>234</v>
+        <v>1195</v>
+      </c>
+      <c r="C635" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20783,7 +20791,7 @@
         <v>1197</v>
       </c>
       <c r="B636" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20801,9 +20809,6 @@
       <c r="B638" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C638" s="0" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
@@ -20821,7 +20826,10 @@
         <v>1201</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="C640" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20839,27 +20847,27 @@
       <c r="B642" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="E642" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="643" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="5" t="s">
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="0" t="s">
         <v>1204</v>
       </c>
       <c r="B643" s="0" t="s">
         <v>236</v>
       </c>
       <c r="E643" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B644" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E644" s="0" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="0" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B644" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20869,9 +20877,6 @@
       <c r="B645" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E645" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
@@ -20880,6 +20885,9 @@
       <c r="B646" s="0" t="s">
         <v>237</v>
       </c>
+      <c r="E646" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
@@ -20889,23 +20897,23 @@
         <v>237</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="5" t="s">
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="0" t="s">
         <v>1209</v>
       </c>
       <c r="B648" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E648" s="0" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="0" t="s">
+    </row>
+    <row r="649" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="5" t="s">
         <v>1210</v>
       </c>
       <c r="B649" s="0" t="s">
         <v>237</v>
+      </c>
+      <c r="E649" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20913,7 +20921,7 @@
         <v>1211</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20929,10 +20937,7 @@
         <v>1213</v>
       </c>
       <c r="B652" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C652" s="0" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20951,7 +20956,10 @@
         <v>1215</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>246</v>
+        <v>460</v>
+      </c>
+      <c r="C654" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20967,7 +20975,7 @@
         <v>1217</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>457</v>
+        <v>246</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20975,7 +20983,7 @@
         <v>1218</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20991,7 +20999,7 @@
         <v>1220</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20999,7 +21007,7 @@
         <v>1221</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21031,7 +21039,7 @@
         <v>1225</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21047,10 +21055,7 @@
         <v>1227</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C666" s="0" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21069,7 +21074,10 @@
         <v>1229</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>253</v>
+        <v>180</v>
+      </c>
+      <c r="C668" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21085,7 +21093,7 @@
         <v>1231</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21133,7 +21141,7 @@
         <v>1237</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21157,21 +21165,12 @@
         <v>1240</v>
       </c>
       <c r="B679" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C679" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G679" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H679" s="0" t="s">
-        <v>1241</v>
+        <v>301</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B680" s="0" t="s">
         <v>46</v>
@@ -21183,15 +21182,24 @@
         <v>1</v>
       </c>
       <c r="H680" s="0" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B681" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C681" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G681" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H681" s="0" t="s">
         <v>1242</v>
-      </c>
-      <c r="B681" s="0" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21199,7 +21207,7 @@
         <v>1243</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21207,7 +21215,7 @@
         <v>1244</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21239,7 +21247,7 @@
         <v>1248</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21263,7 +21271,7 @@
         <v>1251</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21271,7 +21279,7 @@
         <v>1252</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21281,16 +21289,16 @@
       <c r="B692" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="E692" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
         <v>1254</v>
       </c>
       <c r="B693" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="E693" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21316,20 +21324,20 @@
       <c r="B696" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="E696" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="697" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="5" t="s">
+    </row>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="0" t="s">
         <v>1258</v>
       </c>
       <c r="B697" s="0" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="0" t="s">
+      <c r="E697" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="5" t="s">
         <v>1259</v>
       </c>
       <c r="B698" s="0" t="s">
@@ -21357,7 +21365,7 @@
         <v>1262</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21365,7 +21373,7 @@
         <v>1263</v>
       </c>
       <c r="B702" s="0" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21381,7 +21389,7 @@
         <v>1265</v>
       </c>
       <c r="B704" s="0" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21397,7 +21405,7 @@
         <v>1267</v>
       </c>
       <c r="B706" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21405,10 +21413,7 @@
         <v>1268</v>
       </c>
       <c r="B707" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C707" s="0" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21427,7 +21432,10 @@
         <v>1270</v>
       </c>
       <c r="B709" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
+      </c>
+      <c r="C709" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21453,9 +21461,6 @@
       <c r="B712" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E712" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="s">
@@ -21464,24 +21469,27 @@
       <c r="B713" s="0" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="714" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="5" t="s">
+      <c r="E713" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="0" t="s">
         <v>1275</v>
       </c>
       <c r="B714" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E714" s="0" t="s">
+    </row>
+    <row r="715" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B715" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E715" s="0" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="0" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B715" s="0" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21491,27 +21499,27 @@
       <c r="B716" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="E716" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="717" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="5" t="s">
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="0" t="s">
         <v>1278</v>
       </c>
       <c r="B717" s="0" t="s">
         <v>262</v>
       </c>
       <c r="E717" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B718" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E718" s="0" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="0" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B718" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21527,7 +21535,7 @@
         <v>1281</v>
       </c>
       <c r="B720" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21535,7 +21543,7 @@
         <v>1282</v>
       </c>
       <c r="B721" s="0" t="s">
-        <v>462</v>
+        <v>251</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21543,26 +21551,26 @@
         <v>1283</v>
       </c>
       <c r="B722" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="723" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="0" t="s">
         <v>1284</v>
       </c>
       <c r="B723" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E723" s="0" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="0" t="s">
+    </row>
+    <row r="724" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="5" t="s">
         <v>1285</v>
       </c>
       <c r="B724" s="0" t="s">
         <v>305</v>
+      </c>
+      <c r="E724" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21572,9 +21580,6 @@
       <c r="B725" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E725" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
@@ -21583,6 +21588,9 @@
       <c r="B726" s="0" t="s">
         <v>305</v>
       </c>
+      <c r="E726" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="s">
@@ -21605,7 +21613,7 @@
         <v>1290</v>
       </c>
       <c r="B729" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21613,7 +21621,7 @@
         <v>1291</v>
       </c>
       <c r="B730" s="0" t="s">
-        <v>464</v>
+        <v>306</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21621,7 +21629,7 @@
         <v>1292</v>
       </c>
       <c r="B731" s="0" t="s">
-        <v>257</v>
+        <v>464</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21629,7 +21637,7 @@
         <v>1293</v>
       </c>
       <c r="B732" s="0" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21655,16 +21663,16 @@
       <c r="B735" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E735" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
         <v>1297</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>174</v>
+        <v>111</v>
+      </c>
+      <c r="E736" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21680,7 +21688,7 @@
         <v>1299</v>
       </c>
       <c r="B738" s="0" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21688,7 +21696,7 @@
         <v>1300</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21696,15 +21704,15 @@
         <v>1301</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>1302</v>
+        <v>260</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B741" s="0" t="s">
         <v>1303</v>
-      </c>
-      <c r="B741" s="0" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21712,7 +21720,7 @@
         <v>1304</v>
       </c>
       <c r="B742" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21722,9 +21730,6 @@
       <c r="B743" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E743" s="0" t="s">
-        <v>824</v>
-      </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
@@ -21734,26 +21739,29 @@
         <v>263</v>
       </c>
       <c r="E744" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="745" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="0" t="s">
         <v>1307</v>
       </c>
       <c r="B745" s="0" t="s">
         <v>263</v>
       </c>
       <c r="E745" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B746" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E746" s="0" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="0" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B746" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21779,7 +21787,6 @@
       <c r="B749" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E749" s="6"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
@@ -21788,15 +21795,13 @@
       <c r="B750" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="E750" s="6"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
         <v>1313</v>
       </c>
       <c r="B751" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C751" s="0" t="s">
         <v>77</v>
       </c>
     </row>
@@ -21805,7 +21810,7 @@
         <v>1314</v>
       </c>
       <c r="B752" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C752" s="0" t="s">
         <v>77</v>
@@ -21816,7 +21821,10 @@
         <v>1315</v>
       </c>
       <c r="B753" s="0" t="s">
-        <v>267</v>
+        <v>78</v>
+      </c>
+      <c r="C753" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21834,9 +21842,6 @@
       <c r="B755" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="E755" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
@@ -21845,13 +21850,16 @@
       <c r="B756" s="0" t="s">
         <v>267</v>
       </c>
+      <c r="E756" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
         <v>1319</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21907,7 +21915,7 @@
         <v>1326</v>
       </c>
       <c r="B764" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21915,7 +21923,7 @@
         <v>1327</v>
       </c>
       <c r="B765" s="0" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21947,7 +21955,7 @@
         <v>1331</v>
       </c>
       <c r="B769" s="0" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21963,7 +21971,7 @@
         <v>1333</v>
       </c>
       <c r="B771" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21979,7 +21987,7 @@
         <v>1335</v>
       </c>
       <c r="B773" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21987,7 +21995,7 @@
         <v>1336</v>
       </c>
       <c r="B774" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21995,7 +22003,7 @@
         <v>1337</v>
       </c>
       <c r="B775" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22003,7 +22011,7 @@
         <v>1338</v>
       </c>
       <c r="B776" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22011,7 +22019,7 @@
         <v>1339</v>
       </c>
       <c r="B777" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22021,9 +22029,6 @@
       <c r="B778" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="E778" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
@@ -22032,6 +22037,9 @@
       <c r="B779" s="0" t="s">
         <v>280</v>
       </c>
+      <c r="E779" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
@@ -22046,7 +22054,7 @@
         <v>1343</v>
       </c>
       <c r="B781" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22056,35 +22064,35 @@
       <c r="B782" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="E782" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
         <v>1345</v>
       </c>
       <c r="B783" s="0" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="784" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E783" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="0" t="s">
         <v>1346</v>
       </c>
       <c r="B784" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E784" s="0" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="0" t="s">
+    </row>
+    <row r="785" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="5" t="s">
         <v>1347</v>
       </c>
       <c r="B785" s="0" t="s">
         <v>282</v>
+      </c>
+      <c r="E785" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22094,9 +22102,6 @@
       <c r="B786" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E786" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
@@ -22105,15 +22110,15 @@
       <c r="B787" s="0" t="s">
         <v>282</v>
       </c>
+      <c r="E787" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
         <v>1350</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C788" s="0" t="s">
         <v>282</v>
       </c>
     </row>
@@ -22133,7 +22138,10 @@
         <v>1352</v>
       </c>
       <c r="B790" s="0" t="s">
-        <v>276</v>
+        <v>315</v>
+      </c>
+      <c r="C790" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22141,7 +22149,7 @@
         <v>1353</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22149,7 +22157,7 @@
         <v>1354</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22157,7 +22165,7 @@
         <v>1355</v>
       </c>
       <c r="B793" s="0" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22165,7 +22173,7 @@
         <v>1356</v>
       </c>
       <c r="B794" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22189,7 +22197,7 @@
         <v>1359</v>
       </c>
       <c r="B797" s="0" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22229,7 +22237,7 @@
         <v>1364</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22247,9 +22255,6 @@
       <c r="B804" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E804" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
@@ -22259,7 +22264,7 @@
         <v>123</v>
       </c>
       <c r="E805" s="0" t="s">
-        <v>824</v>
+        <v>549</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22269,6 +22274,9 @@
       <c r="B806" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="E806" s="0" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
@@ -22278,23 +22286,23 @@
         <v>123</v>
       </c>
     </row>
-    <row r="808" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="5" t="s">
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="0" t="s">
         <v>1370</v>
       </c>
       <c r="B808" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E808" s="0" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="0" t="s">
+    </row>
+    <row r="809" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="5" t="s">
         <v>1371</v>
       </c>
       <c r="B809" s="0" t="s">
         <v>123</v>
+      </c>
+      <c r="E809" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22302,9 +22310,6 @@
         <v>1372</v>
       </c>
       <c r="B810" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C810" s="0" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22324,7 +22329,7 @@
         <v>1374</v>
       </c>
       <c r="B812" s="0" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="C812" s="0" t="s">
         <v>123</v>
@@ -22335,7 +22340,7 @@
         <v>1375</v>
       </c>
       <c r="B813" s="0" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C813" s="0" t="s">
         <v>123</v>
@@ -22346,20 +22351,23 @@
         <v>1376</v>
       </c>
       <c r="B814" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C814" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
-        <v>289</v>
+        <v>1377</v>
       </c>
       <c r="B815" s="0" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
-        <v>1377</v>
+        <v>289</v>
       </c>
       <c r="B816" s="0" t="s">
         <v>289</v>
@@ -22394,21 +22402,12 @@
         <v>1381</v>
       </c>
       <c r="B820" s="0" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C820" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="G820" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H820" s="0" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B821" s="0" t="s">
         <v>1383</v>
@@ -22416,13 +22415,19 @@
       <c r="C821" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G821" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H821" s="0" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B822" s="0" t="s">
         <v>1384</v>
-      </c>
-      <c r="B822" s="0" t="s">
-        <v>313</v>
       </c>
       <c r="C822" s="0" t="s">
         <v>289</v>
@@ -22433,13 +22438,10 @@
         <v>1385</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>407</v>
+        <v>313</v>
       </c>
       <c r="C823" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="F823" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22447,7 +22449,7 @@
         <v>1386</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C824" s="0" t="s">
         <v>289</v>
@@ -22461,7 +22463,7 @@
         <v>1387</v>
       </c>
       <c r="B825" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C825" s="0" t="s">
         <v>289</v>
@@ -22475,7 +22477,7 @@
         <v>1388</v>
       </c>
       <c r="B826" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C826" s="0" t="s">
         <v>289</v>
@@ -22489,7 +22491,7 @@
         <v>1389</v>
       </c>
       <c r="B827" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C827" s="0" t="s">
         <v>289</v>
@@ -22503,7 +22505,7 @@
         <v>1390</v>
       </c>
       <c r="B828" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C828" s="0" t="s">
         <v>289</v>
@@ -22517,7 +22519,7 @@
         <v>1391</v>
       </c>
       <c r="B829" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C829" s="0" t="s">
         <v>289</v>
@@ -22531,7 +22533,7 @@
         <v>1392</v>
       </c>
       <c r="B830" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C830" s="0" t="s">
         <v>289</v>
@@ -22545,7 +22547,7 @@
         <v>1393</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>1394</v>
+        <v>414</v>
       </c>
       <c r="C831" s="0" t="s">
         <v>289</v>
@@ -22556,10 +22558,10 @@
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B832" s="0" t="s">
         <v>1395</v>
-      </c>
-      <c r="B832" s="0" t="s">
-        <v>415</v>
       </c>
       <c r="C832" s="0" t="s">
         <v>289</v>
@@ -22573,7 +22575,7 @@
         <v>1396</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C833" s="0" t="s">
         <v>289</v>
@@ -22601,7 +22603,7 @@
         <v>1398</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C835" s="0" t="s">
         <v>289</v>
@@ -22615,7 +22617,7 @@
         <v>1399</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C836" s="0" t="s">
         <v>289</v>
@@ -22629,7 +22631,7 @@
         <v>1400</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C837" s="0" t="s">
         <v>289</v>
@@ -22643,7 +22645,7 @@
         <v>1401</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C838" s="0" t="s">
         <v>289</v>
@@ -22657,7 +22659,7 @@
         <v>1402</v>
       </c>
       <c r="B839" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C839" s="0" t="s">
         <v>289</v>
@@ -22671,7 +22673,7 @@
         <v>1403</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C840" s="0" t="s">
         <v>289</v>
@@ -22685,7 +22687,7 @@
         <v>1404</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>289</v>
@@ -22699,7 +22701,7 @@
         <v>1405</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>289</v>
@@ -22713,7 +22715,7 @@
         <v>1406</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C843" s="0" t="s">
         <v>289</v>
@@ -22727,7 +22729,7 @@
         <v>1407</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C844" s="0" t="s">
         <v>289</v>
@@ -22741,7 +22743,7 @@
         <v>1408</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C845" s="0" t="s">
         <v>289</v>
@@ -22755,7 +22757,7 @@
         <v>1409</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C846" s="0" t="s">
         <v>289</v>
@@ -22769,7 +22771,7 @@
         <v>1410</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C847" s="0" t="s">
         <v>289</v>
@@ -22783,7 +22785,7 @@
         <v>1411</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C848" s="0" t="s">
         <v>289</v>
@@ -22797,7 +22799,7 @@
         <v>1412</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C849" s="0" t="s">
         <v>289</v>
@@ -22811,7 +22813,7 @@
         <v>1413</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C850" s="0" t="s">
         <v>289</v>
@@ -22825,7 +22827,7 @@
         <v>1414</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C851" s="0" t="s">
         <v>289</v>
@@ -22839,7 +22841,7 @@
         <v>1415</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C852" s="0" t="s">
         <v>289</v>
@@ -22853,7 +22855,7 @@
         <v>1416</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C853" s="0" t="s">
         <v>289</v>
@@ -22867,7 +22869,7 @@
         <v>1417</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C854" s="0" t="s">
         <v>289</v>
@@ -22881,7 +22883,7 @@
         <v>1418</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C855" s="0" t="s">
         <v>289</v>
@@ -22895,7 +22897,7 @@
         <v>1419</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>289</v>
@@ -22909,7 +22911,7 @@
         <v>1420</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C857" s="0" t="s">
         <v>289</v>
@@ -22923,7 +22925,7 @@
         <v>1421</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C858" s="0" t="s">
         <v>289</v>
@@ -22937,7 +22939,7 @@
         <v>1422</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C859" s="0" t="s">
         <v>289</v>
@@ -22951,7 +22953,7 @@
         <v>1423</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C860" s="0" t="s">
         <v>289</v>
@@ -22965,7 +22967,7 @@
         <v>1424</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C861" s="0" t="s">
         <v>289</v>
@@ -22979,7 +22981,7 @@
         <v>1425</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C862" s="0" t="s">
         <v>289</v>
@@ -22993,7 +22995,7 @@
         <v>1426</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C863" s="0" t="s">
         <v>289</v>
@@ -23007,7 +23009,7 @@
         <v>1427</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C864" s="0" t="s">
         <v>289</v>
@@ -23021,7 +23023,7 @@
         <v>1428</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C865" s="0" t="s">
         <v>289</v>
@@ -23035,7 +23037,7 @@
         <v>1429</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C866" s="0" t="s">
         <v>289</v>
@@ -23049,7 +23051,7 @@
         <v>1430</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C867" s="0" t="s">
         <v>289</v>
@@ -23063,7 +23065,7 @@
         <v>1431</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C868" s="0" t="s">
         <v>289</v>
@@ -23077,7 +23079,7 @@
         <v>1432</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C869" s="0" t="s">
         <v>289</v>
@@ -23091,7 +23093,7 @@
         <v>1433</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C870" s="0" t="s">
         <v>289</v>
@@ -23105,7 +23107,7 @@
         <v>1434</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>289</v>
@@ -23119,7 +23121,7 @@
         <v>1435</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>289</v>
@@ -23133,7 +23135,7 @@
         <v>1436</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C873" s="0" t="s">
         <v>289</v>
@@ -23147,7 +23149,7 @@
         <v>1437</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C874" s="0" t="s">
         <v>289</v>
@@ -23161,7 +23163,13 @@
         <v>1438</v>
       </c>
       <c r="B875" s="0" t="s">
-        <v>288</v>
+        <v>456</v>
+      </c>
+      <c r="C875" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F875" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23169,7 +23177,7 @@
         <v>1439</v>
       </c>
       <c r="B876" s="0" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23187,16 +23195,16 @@
       <c r="B878" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="E878" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
         <v>1442</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>290</v>
+        <v>259</v>
+      </c>
+      <c r="E879" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23206,16 +23214,16 @@
       <c r="B880" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="E880" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
         <v>1444</v>
       </c>
       <c r="B881" s="0" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="E881" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23223,7 +23231,7 @@
         <v>1445</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23263,10 +23271,7 @@
         <v>1450</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="E887" s="0" t="s">
-        <v>549</v>
+        <v>293</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23276,30 +23281,21 @@
       <c r="B888" s="0" t="s">
         <v>296</v>
       </c>
+      <c r="E888" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
         <v>1452</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C889" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G889" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H889" s="0" t="s">
-        <v>1453</v>
-      </c>
-      <c r="I889" s="0" t="s">
-        <v>1454</v>
+        <v>296</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B890" s="0" t="s">
         <v>294</v>
@@ -23311,18 +23307,18 @@
         <v>1</v>
       </c>
       <c r="H890" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="I890" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B891" s="0" t="s">
-        <v>1453</v>
+        <v>294</v>
       </c>
       <c r="C891" s="0" t="s">
         <v>123</v>
@@ -23331,30 +23327,30 @@
         <v>1</v>
       </c>
       <c r="H891" s="0" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="I891" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B892" s="0" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C892" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G892" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H892" s="0" t="s">
         <v>1457</v>
       </c>
-      <c r="B892" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C892" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G892" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H892" s="0" t="s">
-        <v>1456</v>
-      </c>
       <c r="I892" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23371,10 +23367,10 @@
         <v>1</v>
       </c>
       <c r="H893" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="I893" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23391,10 +23387,10 @@
         <v>1</v>
       </c>
       <c r="H894" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="I894" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23411,10 +23407,10 @@
         <v>1</v>
       </c>
       <c r="H895" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="I895" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23431,10 +23427,10 @@
         <v>1</v>
       </c>
       <c r="H896" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="I896" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23451,10 +23447,10 @@
         <v>1</v>
       </c>
       <c r="H897" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="I897" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23471,10 +23467,10 @@
         <v>1</v>
       </c>
       <c r="H898" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="I898" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23491,29 +23487,41 @@
         <v>1</v>
       </c>
       <c r="H899" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="I899" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
-        <v>1459</v>
+        <v>1465</v>
       </c>
       <c r="B900" s="0" t="s">
-        <v>1456</v>
+        <v>295</v>
       </c>
       <c r="C900" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G900" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H900" s="0" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I900" s="0" t="s">
+        <v>1455</v>
+      </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>300</v>
+        <v>1457</v>
+      </c>
+      <c r="C901" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23529,7 +23537,7 @@
         <v>1467</v>
       </c>
       <c r="B903" s="0" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23553,7 +23561,7 @@
         <v>1470</v>
       </c>
       <c r="B906" s="0" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23561,7 +23569,7 @@
         <v>1471</v>
       </c>
       <c r="B907" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23593,10 +23601,7 @@
         <v>1475</v>
       </c>
       <c r="B911" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D911" s="0" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23626,7 +23631,7 @@
         <v>1478</v>
       </c>
       <c r="B914" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D914" s="0" t="n">
         <v>1</v>
@@ -23653,9 +23658,6 @@
       <c r="D916" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E916" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
@@ -23667,13 +23669,19 @@
       <c r="D917" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E917" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
         <v>1482</v>
       </c>
       <c r="B918" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="D918" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23681,7 +23689,7 @@
         <v>1483</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23689,7 +23697,7 @@
         <v>1484</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>105</v>
+        <v>308</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23697,7 +23705,7 @@
         <v>1485</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23705,21 +23713,12 @@
         <v>1486</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C922" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G922" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H922" s="0" t="s">
-        <v>1487</v>
+        <v>114</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B923" s="0" t="s">
         <v>76</v>
@@ -23731,7 +23730,7 @@
         <v>1</v>
       </c>
       <c r="H923" s="0" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23748,15 +23747,24 @@
         <v>1</v>
       </c>
       <c r="H924" s="0" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>1487</v>
+        <v>76</v>
+      </c>
+      <c r="C925" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G925" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H925" s="0" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23764,7 +23772,7 @@
         <v>1490</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>458</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23772,7 +23780,7 @@
         <v>1491</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23780,7 +23788,7 @@
         <v>1492</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23788,7 +23796,7 @@
         <v>1493</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23796,7 +23804,7 @@
         <v>1494</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23804,7 +23812,7 @@
         <v>1495</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23812,21 +23820,15 @@
         <v>1496</v>
       </c>
       <c r="B932" s="0" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C932" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F932" s="0" t="n">
-        <v>1</v>
+        <v>468</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B933" s="0" t="s">
         <v>1498</v>
-      </c>
-      <c r="B933" s="0" t="s">
-        <v>1499</v>
       </c>
       <c r="C933" s="0" t="s">
         <v>43</v>
@@ -23837,10 +23839,10 @@
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B934" s="0" t="s">
         <v>1500</v>
-      </c>
-      <c r="B934" s="0" t="s">
-        <v>1499</v>
       </c>
       <c r="C934" s="0" t="s">
         <v>43</v>
@@ -23849,12 +23851,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="5" t="s">
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A935" s="0" t="s">
         <v>1501</v>
       </c>
       <c r="B935" s="0" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C935" s="0" t="s">
         <v>43</v>
@@ -23863,12 +23865,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="7" t="s">
+    <row r="936" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A936" s="5" t="s">
         <v>1502</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C936" s="0" t="s">
         <v>43</v>
@@ -23882,7 +23884,7 @@
         <v>1503</v>
       </c>
       <c r="B937" s="0" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C937" s="0" t="s">
         <v>43</v>
@@ -23892,11 +23894,11 @@
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="0" t="s">
+      <c r="A938" s="7" t="s">
         <v>1504</v>
       </c>
       <c r="B938" s="0" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="C938" s="0" t="s">
         <v>43</v>
@@ -23907,10 +23909,10 @@
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B939" s="0" t="s">
         <v>1506</v>
-      </c>
-      <c r="B939" s="0" t="s">
-        <v>1507</v>
       </c>
       <c r="C939" s="0" t="s">
         <v>43</v>
@@ -23921,10 +23923,10 @@
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B940" s="0" t="s">
         <v>1508</v>
-      </c>
-      <c r="B940" s="0" t="s">
-        <v>1509</v>
       </c>
       <c r="C940" s="0" t="s">
         <v>43</v>
@@ -23935,7 +23937,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>737</v>
+        <v>1509</v>
       </c>
       <c r="B941" s="0" t="s">
         <v>1510</v>
@@ -23949,10 +23951,10 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="B942" s="0" t="s">
         <v>1511</v>
-      </c>
-      <c r="B942" s="0" t="s">
-        <v>1512</v>
       </c>
       <c r="C942" s="0" t="s">
         <v>43</v>
@@ -23963,10 +23965,10 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B943" s="0" t="s">
         <v>1513</v>
-      </c>
-      <c r="B943" s="0" t="s">
-        <v>1514</v>
       </c>
       <c r="C943" s="0" t="s">
         <v>43</v>
@@ -23977,10 +23979,10 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B944" s="0" t="s">
         <v>1515</v>
-      </c>
-      <c r="B944" s="0" t="s">
-        <v>1516</v>
       </c>
       <c r="C944" s="0" t="s">
         <v>43</v>
@@ -23991,10 +23993,10 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B945" s="0" t="s">
         <v>1517</v>
-      </c>
-      <c r="B945" s="0" t="s">
-        <v>1518</v>
       </c>
       <c r="C945" s="0" t="s">
         <v>43</v>
@@ -24005,10 +24007,10 @@
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B946" s="0" t="s">
         <v>1519</v>
-      </c>
-      <c r="B946" s="0" t="s">
-        <v>1520</v>
       </c>
       <c r="C946" s="0" t="s">
         <v>43</v>
@@ -24019,10 +24021,10 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B947" s="0" t="s">
         <v>1521</v>
-      </c>
-      <c r="B947" s="0" t="s">
-        <v>1522</v>
       </c>
       <c r="C947" s="0" t="s">
         <v>43</v>
@@ -24033,10 +24035,10 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B948" s="0" t="s">
         <v>1523</v>
-      </c>
-      <c r="B948" s="0" t="s">
-        <v>1524</v>
       </c>
       <c r="C948" s="0" t="s">
         <v>43</v>
@@ -24047,10 +24049,10 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B949" s="0" t="s">
         <v>1525</v>
-      </c>
-      <c r="B949" s="0" t="s">
-        <v>1526</v>
       </c>
       <c r="C949" s="0" t="s">
         <v>43</v>
@@ -24061,10 +24063,10 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B950" s="0" t="s">
         <v>1527</v>
-      </c>
-      <c r="B950" s="0" t="s">
-        <v>1528</v>
       </c>
       <c r="C950" s="0" t="s">
         <v>43</v>
@@ -24075,10 +24077,10 @@
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B951" s="0" t="s">
         <v>1529</v>
-      </c>
-      <c r="B951" s="0" t="s">
-        <v>1530</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>43</v>
@@ -24089,10 +24091,10 @@
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B952" s="0" t="s">
         <v>1531</v>
-      </c>
-      <c r="B952" s="0" t="s">
-        <v>1532</v>
       </c>
       <c r="C952" s="0" t="s">
         <v>43</v>
@@ -24103,10 +24105,10 @@
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B953" s="0" t="s">
         <v>1533</v>
-      </c>
-      <c r="B953" s="0" t="s">
-        <v>1534</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>43</v>
@@ -24117,10 +24119,10 @@
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B954" s="0" t="s">
         <v>1535</v>
-      </c>
-      <c r="B954" s="0" t="s">
-        <v>1536</v>
       </c>
       <c r="C954" s="0" t="s">
         <v>43</v>
@@ -24131,10 +24133,10 @@
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B955" s="0" t="s">
         <v>1537</v>
-      </c>
-      <c r="B955" s="0" t="s">
-        <v>1538</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>43</v>
@@ -24145,10 +24147,10 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B956" s="0" t="s">
         <v>1539</v>
-      </c>
-      <c r="B956" s="0" t="s">
-        <v>1540</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>43</v>
@@ -24159,10 +24161,10 @@
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B957" s="0" t="s">
         <v>1541</v>
-      </c>
-      <c r="B957" s="0" t="s">
-        <v>1542</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>43</v>
@@ -24173,10 +24175,10 @@
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B958" s="0" t="s">
         <v>1543</v>
-      </c>
-      <c r="B958" s="0" t="s">
-        <v>1544</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>43</v>
@@ -24187,10 +24189,10 @@
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B959" s="0" t="s">
         <v>1545</v>
-      </c>
-      <c r="B959" s="0" t="s">
-        <v>1546</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>43</v>
@@ -24200,11 +24202,11 @@
       </c>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="0" t="n">
-        <v>1701</v>
+      <c r="A960" s="0" t="s">
+        <v>1546</v>
       </c>
       <c r="B960" s="0" t="s">
-        <v>1499</v>
+        <v>1547</v>
       </c>
       <c r="C960" s="0" t="s">
         <v>43</v>
@@ -24215,10 +24217,10 @@
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="n">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B961" s="0" t="s">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="C961" s="0" t="s">
         <v>43</v>
@@ -24229,10 +24231,10 @@
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="n">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B962" s="0" t="s">
-        <v>1540</v>
+        <v>1511</v>
       </c>
       <c r="C962" s="0" t="s">
         <v>43</v>
@@ -24243,10 +24245,10 @@
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="n">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B963" s="0" t="s">
-        <v>1514</v>
+        <v>1541</v>
       </c>
       <c r="C963" s="0" t="s">
         <v>43</v>
@@ -24257,10 +24259,10 @@
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="n">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>1526</v>
+        <v>1515</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>43</v>
@@ -24271,10 +24273,10 @@
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="n">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B965" s="0" t="s">
-        <v>1512</v>
+        <v>1527</v>
       </c>
       <c r="C965" s="0" t="s">
         <v>43</v>
@@ -24285,10 +24287,10 @@
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="n">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B966" s="0" t="s">
-        <v>1507</v>
+        <v>1513</v>
       </c>
       <c r="C966" s="0" t="s">
         <v>43</v>
@@ -24299,10 +24301,10 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="n">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B967" s="0" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="C967" s="0" t="s">
         <v>43</v>
@@ -24313,10 +24315,10 @@
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="n">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B968" s="0" t="s">
-        <v>1532</v>
+        <v>1517</v>
       </c>
       <c r="C968" s="0" t="s">
         <v>43</v>
@@ -24327,10 +24329,10 @@
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="n">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B969" s="0" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="C969" s="0" t="s">
         <v>43</v>
@@ -24341,10 +24343,10 @@
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="n">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B970" s="0" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="C970" s="0" t="s">
         <v>43</v>
@@ -24355,10 +24357,10 @@
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="n">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B971" s="0" t="s">
-        <v>1505</v>
+        <v>1547</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>43</v>
@@ -24369,10 +24371,10 @@
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="n">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>43</v>
@@ -24383,10 +24385,10 @@
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="n">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B973" s="0" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="C973" s="0" t="s">
         <v>43</v>
@@ -24397,10 +24399,10 @@
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="n">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B974" s="0" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="C974" s="0" t="s">
         <v>43</v>
@@ -24411,10 +24413,10 @@
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="n">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B975" s="0" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C975" s="0" t="s">
         <v>43</v>
@@ -24425,10 +24427,10 @@
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="n">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B976" s="0" t="s">
-        <v>1522</v>
+        <v>1537</v>
       </c>
       <c r="C976" s="0" t="s">
         <v>43</v>
@@ -24439,10 +24441,10 @@
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="n">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B977" s="0" t="s">
-        <v>1509</v>
+        <v>1523</v>
       </c>
       <c r="C977" s="0" t="s">
         <v>43</v>
@@ -24453,10 +24455,10 @@
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="n">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B978" s="0" t="s">
-        <v>1528</v>
+        <v>1510</v>
       </c>
       <c r="C978" s="0" t="s">
         <v>43</v>
@@ -24467,10 +24469,10 @@
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B979" s="0" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>43</v>
@@ -24481,10 +24483,10 @@
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="n">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B980" s="0" t="s">
-        <v>1544</v>
+        <v>1531</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>43</v>
@@ -24495,10 +24497,10 @@
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="n">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B981" s="0" t="s">
-        <v>1497</v>
+        <v>1545</v>
       </c>
       <c r="C981" s="0" t="s">
         <v>43</v>
@@ -24509,10 +24511,10 @@
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="n">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B982" s="0" t="s">
-        <v>1520</v>
+        <v>1498</v>
       </c>
       <c r="C982" s="0" t="s">
         <v>43</v>
@@ -24522,42 +24524,39 @@
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="0" t="s">
-        <v>1547</v>
+      <c r="A983" s="0" t="n">
+        <v>1723</v>
       </c>
       <c r="B983" s="0" t="s">
-        <v>1548</v>
+        <v>1521</v>
       </c>
       <c r="C983" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="J983" s="0" t="s">
-        <v>1549</v>
+        <v>43</v>
+      </c>
+      <c r="F983" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F984" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J984" s="0" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B985" s="0" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C985" s="0" t="s">
         <v>293</v>
@@ -24566,7 +24565,7 @@
         <v>1</v>
       </c>
       <c r="J985" s="0" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24574,7 +24573,7 @@
         <v>1554</v>
       </c>
       <c r="B986" s="0" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C986" s="0" t="s">
         <v>293</v>
@@ -24583,15 +24582,15 @@
         <v>1</v>
       </c>
       <c r="J986" s="0" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="s">
-        <v>641</v>
+        <v>1555</v>
       </c>
       <c r="B987" s="0" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C987" s="0" t="s">
         <v>293</v>
@@ -24600,15 +24599,15 @@
         <v>1</v>
       </c>
       <c r="J987" s="0" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="s">
-        <v>1557</v>
+        <v>641</v>
       </c>
       <c r="B988" s="0" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C988" s="0" t="s">
         <v>293</v>
@@ -24617,7 +24616,7 @@
         <v>1</v>
       </c>
       <c r="J988" s="0" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24625,7 +24624,7 @@
         <v>1558</v>
       </c>
       <c r="B989" s="0" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>293</v>
@@ -24634,7 +24633,7 @@
         <v>1</v>
       </c>
       <c r="J989" s="0" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24642,7 +24641,7 @@
         <v>1559</v>
       </c>
       <c r="B990" s="0" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="C990" s="0" t="s">
         <v>293</v>
@@ -24651,15 +24650,15 @@
         <v>1</v>
       </c>
       <c r="J990" s="0" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B991" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>293</v>
@@ -24668,15 +24667,15 @@
         <v>1</v>
       </c>
       <c r="J991" s="0" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B992" s="0" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C992" s="0" t="s">
         <v>293</v>
@@ -24685,15 +24684,15 @@
         <v>1</v>
       </c>
       <c r="J992" s="0" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B993" s="0" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="C993" s="0" t="s">
         <v>293</v>
@@ -24702,15 +24701,15 @@
         <v>1</v>
       </c>
       <c r="J993" s="0" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>728</v>
+        <v>1569</v>
       </c>
       <c r="B994" s="0" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C994" s="0" t="s">
         <v>293</v>
@@ -24719,15 +24718,15 @@
         <v>1</v>
       </c>
       <c r="J994" s="0" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>1573</v>
+        <v>728</v>
       </c>
       <c r="B995" s="0" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C995" s="0" t="s">
         <v>293</v>
@@ -24736,15 +24735,15 @@
         <v>1</v>
       </c>
       <c r="J995" s="0" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B996" s="0" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>293</v>
@@ -24753,15 +24752,15 @@
         <v>1</v>
       </c>
       <c r="J996" s="0" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>293</v>
@@ -24770,15 +24769,15 @@
         <v>1</v>
       </c>
       <c r="J997" s="0" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>293</v>
@@ -24787,15 +24786,15 @@
         <v>1</v>
       </c>
       <c r="J998" s="0" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B999" s="0" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>293</v>
@@ -24804,15 +24803,15 @@
         <v>1</v>
       </c>
       <c r="J999" s="0" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B1000" s="0" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>293</v>
@@ -24821,15 +24820,15 @@
         <v>1</v>
       </c>
       <c r="J1000" s="0" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>293</v>
@@ -24838,15 +24837,15 @@
         <v>1</v>
       </c>
       <c r="J1001" s="0" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>1108</v>
+        <v>1592</v>
       </c>
       <c r="B1002" s="0" t="s">
-        <v>1109</v>
+        <v>1593</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>293</v>
@@ -24860,10 +24859,10 @@
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>1595</v>
+        <v>1108</v>
       </c>
       <c r="B1003" s="0" t="s">
-        <v>1596</v>
+        <v>1109</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>293</v>
@@ -24872,15 +24871,15 @@
         <v>1</v>
       </c>
       <c r="J1003" s="0" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B1004" s="0" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>293</v>
@@ -24889,15 +24888,15 @@
         <v>1</v>
       </c>
       <c r="J1004" s="0" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>293</v>
@@ -24906,15 +24905,15 @@
         <v>1</v>
       </c>
       <c r="J1005" s="0" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>755</v>
+        <v>1602</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C1006" s="0" t="s">
         <v>293</v>
@@ -24923,15 +24922,15 @@
         <v>1</v>
       </c>
       <c r="J1006" s="0" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>1606</v>
+        <v>755</v>
       </c>
       <c r="B1007" s="0" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C1007" s="0" t="s">
         <v>293</v>
@@ -24940,15 +24939,15 @@
         <v>1</v>
       </c>
       <c r="J1007" s="0" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B1008" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C1008" s="0" t="s">
         <v>293</v>
@@ -24957,15 +24956,15 @@
         <v>1</v>
       </c>
       <c r="J1008" s="0" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B1009" s="0" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C1009" s="0" t="s">
         <v>293</v>
@@ -24974,15 +24973,15 @@
         <v>1</v>
       </c>
       <c r="J1009" s="0" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B1010" s="0" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C1010" s="0" t="s">
         <v>293</v>
@@ -24991,15 +24990,15 @@
         <v>1</v>
       </c>
       <c r="J1010" s="0" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C1011" s="0" t="s">
         <v>293</v>
@@ -25008,7 +25007,24 @@
         <v>1</v>
       </c>
       <c r="J1011" s="0" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="0" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B1012" s="0" t="s">
         <v>1620</v>
+      </c>
+      <c r="C1012" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1012" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1012" s="0" t="s">
+        <v>1621</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="1622">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -5033,36 +5033,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14315,8 +14314,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14573,18 +14574,20 @@
   <dimension ref="A1:J1012"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B718" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B777" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A718" activeCellId="0" sqref="A718"/>
-      <selection pane="bottomRight" activeCell="A766" activeCellId="0" sqref="A766"/>
+      <selection pane="bottomLeft" activeCell="A777" activeCellId="0" sqref="A777"/>
+      <selection pane="bottomRight" activeCell="E802" activeCellId="0" sqref="E802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22238,6 +22241,9 @@
       </c>
       <c r="B802" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="E802" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="1623">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -4350,6 +4350,9 @@
     <t xml:space="preserve">Soviet Union</t>
   </si>
   <si>
+    <t xml:space="preserve">Former Soviet Union</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sovjetunionen</t>
   </si>
   <si>
@@ -4395,10 +4398,10 @@
     <t xml:space="preserve">British Virgin Islands</t>
   </si>
   <si>
+    <t xml:space="preserve">Virgin Islands U.S.</t>
+  </si>
+  <si>
     <t xml:space="preserve">USA_VIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgin Islands U.S.</t>
   </si>
   <si>
     <t xml:space="preserve">Virgin Islands (U.S.)</t>
@@ -5033,35 +5036,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14314,10 +14313,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14571,23 +14570,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1012"/>
+  <dimension ref="A1:J1013"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B777" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B862" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A777" activeCellId="0" sqref="A777"/>
-      <selection pane="bottomRight" activeCell="E802" activeCellId="0" sqref="E802"/>
+      <selection pane="bottomLeft" activeCell="A862" activeCellId="0" sqref="A862"/>
+      <selection pane="bottomRight" activeCell="C892" activeCellId="0" sqref="C892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23201,16 +23200,19 @@
       <c r="B878" s="0" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="0" t="s">
+      <c r="D878" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A879" s="5" t="s">
         <v>1442</v>
       </c>
       <c r="B879" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="E879" s="0" t="s">
-        <v>549</v>
+      <c r="D879" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23218,7 +23220,13 @@
         <v>1443</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>290</v>
+        <v>259</v>
+      </c>
+      <c r="D880" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E880" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23228,16 +23236,16 @@
       <c r="B881" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="E881" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="s">
         <v>1445</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="E882" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23245,7 +23253,7 @@
         <v>1446</v>
       </c>
       <c r="B883" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23285,10 +23293,7 @@
         <v>1451</v>
       </c>
       <c r="B888" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="E888" s="0" t="s">
-        <v>549</v>
+        <v>293</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23298,30 +23303,21 @@
       <c r="B889" s="0" t="s">
         <v>296</v>
       </c>
+      <c r="E889" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
         <v>1453</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C890" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G890" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H890" s="0" t="s">
-        <v>1454</v>
-      </c>
-      <c r="I890" s="0" t="s">
-        <v>1455</v>
+        <v>296</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B891" s="0" t="s">
         <v>294</v>
@@ -23333,18 +23329,18 @@
         <v>1</v>
       </c>
       <c r="H891" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="I891" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B892" s="0" t="s">
-        <v>1454</v>
+        <v>294</v>
       </c>
       <c r="C892" s="0" t="s">
         <v>123</v>
@@ -23353,35 +23349,32 @@
         <v>1</v>
       </c>
       <c r="H892" s="0" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="I892" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B893" s="0" t="s">
-        <v>295</v>
+        <v>1455</v>
       </c>
       <c r="C893" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G893" s="0" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="H893" s="0" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="I893" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B894" s="0" t="s">
         <v>295</v>
@@ -23393,10 +23386,10 @@
         <v>1</v>
       </c>
       <c r="H894" s="0" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="I894" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23413,10 +23406,10 @@
         <v>1</v>
       </c>
       <c r="H895" s="0" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="I895" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23433,10 +23426,10 @@
         <v>1</v>
       </c>
       <c r="H896" s="0" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="I896" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23453,10 +23446,10 @@
         <v>1</v>
       </c>
       <c r="H897" s="0" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="I897" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23473,10 +23466,10 @@
         <v>1</v>
       </c>
       <c r="H898" s="0" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="I898" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23493,10 +23486,10 @@
         <v>1</v>
       </c>
       <c r="H899" s="0" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="I899" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23513,29 +23506,41 @@
         <v>1</v>
       </c>
       <c r="H900" s="0" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="I900" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>1460</v>
+        <v>1466</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>1457</v>
+        <v>295</v>
       </c>
       <c r="C901" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G901" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H901" s="0" t="s">
+        <v>1459</v>
+      </c>
+      <c r="I901" s="0" t="s">
+        <v>1456</v>
+      </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="B902" s="0" t="s">
-        <v>300</v>
+        <v>1459</v>
+      </c>
+      <c r="C902" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23551,7 +23556,7 @@
         <v>1468</v>
       </c>
       <c r="B904" s="0" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23575,7 +23580,7 @@
         <v>1471</v>
       </c>
       <c r="B907" s="0" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23583,7 +23588,7 @@
         <v>1472</v>
       </c>
       <c r="B908" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23615,10 +23620,7 @@
         <v>1476</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D912" s="0" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23648,7 +23650,7 @@
         <v>1479</v>
       </c>
       <c r="B915" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D915" s="0" t="n">
         <v>1</v>
@@ -23675,9 +23677,6 @@
       <c r="D917" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E917" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
@@ -23689,13 +23688,19 @@
       <c r="D918" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E918" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
         <v>1483</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="D919" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23703,7 +23708,7 @@
         <v>1484</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23711,7 +23716,7 @@
         <v>1485</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>105</v>
+        <v>308</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23719,7 +23724,7 @@
         <v>1486</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23727,21 +23732,12 @@
         <v>1487</v>
       </c>
       <c r="B923" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C923" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G923" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H923" s="0" t="s">
-        <v>1488</v>
+        <v>114</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B924" s="0" t="s">
         <v>76</v>
@@ -23753,7 +23749,7 @@
         <v>1</v>
       </c>
       <c r="H924" s="0" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23770,15 +23766,24 @@
         <v>1</v>
       </c>
       <c r="H925" s="0" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>1488</v>
+        <v>76</v>
+      </c>
+      <c r="C926" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G926" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H926" s="0" t="s">
+        <v>1489</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23786,7 +23791,7 @@
         <v>1491</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>458</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23794,7 +23799,7 @@
         <v>1492</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23802,7 +23807,7 @@
         <v>1493</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23810,7 +23815,7 @@
         <v>1494</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23818,7 +23823,7 @@
         <v>1495</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23826,7 +23831,7 @@
         <v>1496</v>
       </c>
       <c r="B932" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23834,21 +23839,15 @@
         <v>1497</v>
       </c>
       <c r="B933" s="0" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C933" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F933" s="0" t="n">
-        <v>1</v>
+        <v>468</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B934" s="0" t="s">
         <v>1499</v>
-      </c>
-      <c r="B934" s="0" t="s">
-        <v>1500</v>
       </c>
       <c r="C934" s="0" t="s">
         <v>43</v>
@@ -23859,10 +23858,10 @@
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B935" s="0" t="s">
         <v>1501</v>
-      </c>
-      <c r="B935" s="0" t="s">
-        <v>1500</v>
       </c>
       <c r="C935" s="0" t="s">
         <v>43</v>
@@ -23871,12 +23870,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="5" t="s">
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A936" s="0" t="s">
         <v>1502</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C936" s="0" t="s">
         <v>43</v>
@@ -23885,12 +23884,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="7" t="s">
+    <row r="937" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A937" s="5" t="s">
         <v>1503</v>
       </c>
       <c r="B937" s="0" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C937" s="0" t="s">
         <v>43</v>
@@ -23904,7 +23903,7 @@
         <v>1504</v>
       </c>
       <c r="B938" s="0" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C938" s="0" t="s">
         <v>43</v>
@@ -23914,11 +23913,11 @@
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="0" t="s">
+      <c r="A939" s="7" t="s">
         <v>1505</v>
       </c>
       <c r="B939" s="0" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="C939" s="0" t="s">
         <v>43</v>
@@ -23929,10 +23928,10 @@
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B940" s="0" t="s">
         <v>1507</v>
-      </c>
-      <c r="B940" s="0" t="s">
-        <v>1508</v>
       </c>
       <c r="C940" s="0" t="s">
         <v>43</v>
@@ -23943,10 +23942,10 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B941" s="0" t="s">
         <v>1509</v>
-      </c>
-      <c r="B941" s="0" t="s">
-        <v>1510</v>
       </c>
       <c r="C941" s="0" t="s">
         <v>43</v>
@@ -23957,7 +23956,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>737</v>
+        <v>1510</v>
       </c>
       <c r="B942" s="0" t="s">
         <v>1511</v>
@@ -23971,10 +23970,10 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="B943" s="0" t="s">
         <v>1512</v>
-      </c>
-      <c r="B943" s="0" t="s">
-        <v>1513</v>
       </c>
       <c r="C943" s="0" t="s">
         <v>43</v>
@@ -23985,10 +23984,10 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B944" s="0" t="s">
         <v>1514</v>
-      </c>
-      <c r="B944" s="0" t="s">
-        <v>1515</v>
       </c>
       <c r="C944" s="0" t="s">
         <v>43</v>
@@ -23999,10 +23998,10 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B945" s="0" t="s">
         <v>1516</v>
-      </c>
-      <c r="B945" s="0" t="s">
-        <v>1517</v>
       </c>
       <c r="C945" s="0" t="s">
         <v>43</v>
@@ -24013,10 +24012,10 @@
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B946" s="0" t="s">
         <v>1518</v>
-      </c>
-      <c r="B946" s="0" t="s">
-        <v>1519</v>
       </c>
       <c r="C946" s="0" t="s">
         <v>43</v>
@@ -24027,10 +24026,10 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B947" s="0" t="s">
         <v>1520</v>
-      </c>
-      <c r="B947" s="0" t="s">
-        <v>1521</v>
       </c>
       <c r="C947" s="0" t="s">
         <v>43</v>
@@ -24041,10 +24040,10 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B948" s="0" t="s">
         <v>1522</v>
-      </c>
-      <c r="B948" s="0" t="s">
-        <v>1523</v>
       </c>
       <c r="C948" s="0" t="s">
         <v>43</v>
@@ -24055,10 +24054,10 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B949" s="0" t="s">
         <v>1524</v>
-      </c>
-      <c r="B949" s="0" t="s">
-        <v>1525</v>
       </c>
       <c r="C949" s="0" t="s">
         <v>43</v>
@@ -24069,10 +24068,10 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B950" s="0" t="s">
         <v>1526</v>
-      </c>
-      <c r="B950" s="0" t="s">
-        <v>1527</v>
       </c>
       <c r="C950" s="0" t="s">
         <v>43</v>
@@ -24083,10 +24082,10 @@
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B951" s="0" t="s">
         <v>1528</v>
-      </c>
-      <c r="B951" s="0" t="s">
-        <v>1529</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>43</v>
@@ -24097,10 +24096,10 @@
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B952" s="0" t="s">
         <v>1530</v>
-      </c>
-      <c r="B952" s="0" t="s">
-        <v>1531</v>
       </c>
       <c r="C952" s="0" t="s">
         <v>43</v>
@@ -24111,10 +24110,10 @@
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B953" s="0" t="s">
         <v>1532</v>
-      </c>
-      <c r="B953" s="0" t="s">
-        <v>1533</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>43</v>
@@ -24125,10 +24124,10 @@
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B954" s="0" t="s">
         <v>1534</v>
-      </c>
-      <c r="B954" s="0" t="s">
-        <v>1535</v>
       </c>
       <c r="C954" s="0" t="s">
         <v>43</v>
@@ -24139,10 +24138,10 @@
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B955" s="0" t="s">
         <v>1536</v>
-      </c>
-      <c r="B955" s="0" t="s">
-        <v>1537</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>43</v>
@@ -24153,10 +24152,10 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B956" s="0" t="s">
         <v>1538</v>
-      </c>
-      <c r="B956" s="0" t="s">
-        <v>1539</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>43</v>
@@ -24167,10 +24166,10 @@
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B957" s="0" t="s">
         <v>1540</v>
-      </c>
-      <c r="B957" s="0" t="s">
-        <v>1541</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>43</v>
@@ -24181,10 +24180,10 @@
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B958" s="0" t="s">
         <v>1542</v>
-      </c>
-      <c r="B958" s="0" t="s">
-        <v>1543</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>43</v>
@@ -24195,10 +24194,10 @@
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B959" s="0" t="s">
         <v>1544</v>
-      </c>
-      <c r="B959" s="0" t="s">
-        <v>1545</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>43</v>
@@ -24209,10 +24208,10 @@
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B960" s="0" t="s">
         <v>1546</v>
-      </c>
-      <c r="B960" s="0" t="s">
-        <v>1547</v>
       </c>
       <c r="C960" s="0" t="s">
         <v>43</v>
@@ -24222,11 +24221,11 @@
       </c>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="0" t="n">
-        <v>1701</v>
+      <c r="A961" s="0" t="s">
+        <v>1547</v>
       </c>
       <c r="B961" s="0" t="s">
-        <v>1500</v>
+        <v>1548</v>
       </c>
       <c r="C961" s="0" t="s">
         <v>43</v>
@@ -24237,10 +24236,10 @@
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="n">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B962" s="0" t="s">
-        <v>1511</v>
+        <v>1501</v>
       </c>
       <c r="C962" s="0" t="s">
         <v>43</v>
@@ -24251,10 +24250,10 @@
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="n">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B963" s="0" t="s">
-        <v>1541</v>
+        <v>1512</v>
       </c>
       <c r="C963" s="0" t="s">
         <v>43</v>
@@ -24265,10 +24264,10 @@
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="n">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>1515</v>
+        <v>1542</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>43</v>
@@ -24279,10 +24278,10 @@
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="n">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B965" s="0" t="s">
-        <v>1527</v>
+        <v>1516</v>
       </c>
       <c r="C965" s="0" t="s">
         <v>43</v>
@@ -24293,10 +24292,10 @@
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="n">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B966" s="0" t="s">
-        <v>1513</v>
+        <v>1528</v>
       </c>
       <c r="C966" s="0" t="s">
         <v>43</v>
@@ -24307,10 +24306,10 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="n">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B967" s="0" t="s">
-        <v>1508</v>
+        <v>1514</v>
       </c>
       <c r="C967" s="0" t="s">
         <v>43</v>
@@ -24321,10 +24320,10 @@
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="n">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B968" s="0" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="C968" s="0" t="s">
         <v>43</v>
@@ -24335,10 +24334,10 @@
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="n">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B969" s="0" t="s">
-        <v>1533</v>
+        <v>1518</v>
       </c>
       <c r="C969" s="0" t="s">
         <v>43</v>
@@ -24349,10 +24348,10 @@
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="n">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B970" s="0" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
       <c r="C970" s="0" t="s">
         <v>43</v>
@@ -24363,10 +24362,10 @@
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="n">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B971" s="0" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>43</v>
@@ -24377,10 +24376,10 @@
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="n">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>1506</v>
+        <v>1548</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>43</v>
@@ -24391,10 +24390,10 @@
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="n">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B973" s="0" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="C973" s="0" t="s">
         <v>43</v>
@@ -24405,10 +24404,10 @@
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="n">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B974" s="0" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="C974" s="0" t="s">
         <v>43</v>
@@ -24419,10 +24418,10 @@
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="n">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B975" s="0" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="C975" s="0" t="s">
         <v>43</v>
@@ -24433,10 +24432,10 @@
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="n">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B976" s="0" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C976" s="0" t="s">
         <v>43</v>
@@ -24447,10 +24446,10 @@
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="n">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B977" s="0" t="s">
-        <v>1523</v>
+        <v>1538</v>
       </c>
       <c r="C977" s="0" t="s">
         <v>43</v>
@@ -24461,10 +24460,10 @@
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="n">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B978" s="0" t="s">
-        <v>1510</v>
+        <v>1524</v>
       </c>
       <c r="C978" s="0" t="s">
         <v>43</v>
@@ -24475,10 +24474,10 @@
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="n">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B979" s="0" t="s">
-        <v>1529</v>
+        <v>1511</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>43</v>
@@ -24489,10 +24488,10 @@
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B980" s="0" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>43</v>
@@ -24503,10 +24502,10 @@
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="n">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B981" s="0" t="s">
-        <v>1545</v>
+        <v>1532</v>
       </c>
       <c r="C981" s="0" t="s">
         <v>43</v>
@@ -24517,10 +24516,10 @@
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="n">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B982" s="0" t="s">
-        <v>1498</v>
+        <v>1546</v>
       </c>
       <c r="C982" s="0" t="s">
         <v>43</v>
@@ -24531,10 +24530,10 @@
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="n">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B983" s="0" t="s">
-        <v>1521</v>
+        <v>1499</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>43</v>
@@ -24544,42 +24543,39 @@
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="0" t="s">
-        <v>1548</v>
+      <c r="A984" s="0" t="n">
+        <v>1723</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>1549</v>
+        <v>1522</v>
       </c>
       <c r="C984" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="J984" s="0" t="s">
-        <v>1550</v>
+        <v>43</v>
+      </c>
+      <c r="F984" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B985" s="0" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C985" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F985" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J985" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B986" s="0" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C986" s="0" t="s">
         <v>293</v>
@@ -24588,7 +24584,7 @@
         <v>1</v>
       </c>
       <c r="J986" s="0" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24596,7 +24592,7 @@
         <v>1555</v>
       </c>
       <c r="B987" s="0" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C987" s="0" t="s">
         <v>293</v>
@@ -24605,15 +24601,15 @@
         <v>1</v>
       </c>
       <c r="J987" s="0" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="s">
-        <v>641</v>
+        <v>1556</v>
       </c>
       <c r="B988" s="0" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="C988" s="0" t="s">
         <v>293</v>
@@ -24622,15 +24618,15 @@
         <v>1</v>
       </c>
       <c r="J988" s="0" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="s">
-        <v>1558</v>
+        <v>641</v>
       </c>
       <c r="B989" s="0" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>293</v>
@@ -24639,7 +24635,7 @@
         <v>1</v>
       </c>
       <c r="J989" s="0" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24647,7 +24643,7 @@
         <v>1559</v>
       </c>
       <c r="B990" s="0" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="C990" s="0" t="s">
         <v>293</v>
@@ -24656,7 +24652,7 @@
         <v>1</v>
       </c>
       <c r="J990" s="0" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24664,7 +24660,7 @@
         <v>1560</v>
       </c>
       <c r="B991" s="0" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>293</v>
@@ -24673,15 +24669,15 @@
         <v>1</v>
       </c>
       <c r="J991" s="0" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B992" s="0" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C992" s="0" t="s">
         <v>293</v>
@@ -24690,15 +24686,15 @@
         <v>1</v>
       </c>
       <c r="J992" s="0" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B993" s="0" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C993" s="0" t="s">
         <v>293</v>
@@ -24707,15 +24703,15 @@
         <v>1</v>
       </c>
       <c r="J993" s="0" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B994" s="0" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="C994" s="0" t="s">
         <v>293</v>
@@ -24724,15 +24720,15 @@
         <v>1</v>
       </c>
       <c r="J994" s="0" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>728</v>
+        <v>1570</v>
       </c>
       <c r="B995" s="0" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C995" s="0" t="s">
         <v>293</v>
@@ -24741,15 +24737,15 @@
         <v>1</v>
       </c>
       <c r="J995" s="0" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>1574</v>
+        <v>728</v>
       </c>
       <c r="B996" s="0" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>293</v>
@@ -24758,15 +24754,15 @@
         <v>1</v>
       </c>
       <c r="J996" s="0" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>293</v>
@@ -24775,15 +24771,15 @@
         <v>1</v>
       </c>
       <c r="J997" s="0" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>293</v>
@@ -24792,15 +24788,15 @@
         <v>1</v>
       </c>
       <c r="J998" s="0" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B999" s="0" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>293</v>
@@ -24809,15 +24805,15 @@
         <v>1</v>
       </c>
       <c r="J999" s="0" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B1000" s="0" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>293</v>
@@ -24826,15 +24822,15 @@
         <v>1</v>
       </c>
       <c r="J1000" s="0" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>293</v>
@@ -24843,15 +24839,15 @@
         <v>1</v>
       </c>
       <c r="J1001" s="0" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B1002" s="0" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>293</v>
@@ -24860,15 +24856,15 @@
         <v>1</v>
       </c>
       <c r="J1002" s="0" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>1108</v>
+        <v>1593</v>
       </c>
       <c r="B1003" s="0" t="s">
-        <v>1109</v>
+        <v>1594</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>293</v>
@@ -24882,10 +24878,10 @@
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>1596</v>
+        <v>1108</v>
       </c>
       <c r="B1004" s="0" t="s">
-        <v>1597</v>
+        <v>1109</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>293</v>
@@ -24894,15 +24890,15 @@
         <v>1</v>
       </c>
       <c r="J1004" s="0" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>293</v>
@@ -24911,15 +24907,15 @@
         <v>1</v>
       </c>
       <c r="J1005" s="0" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="C1006" s="0" t="s">
         <v>293</v>
@@ -24928,15 +24924,15 @@
         <v>1</v>
       </c>
       <c r="J1006" s="0" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>755</v>
+        <v>1603</v>
       </c>
       <c r="B1007" s="0" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C1007" s="0" t="s">
         <v>293</v>
@@ -24945,15 +24941,15 @@
         <v>1</v>
       </c>
       <c r="J1007" s="0" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1607</v>
+        <v>755</v>
       </c>
       <c r="B1008" s="0" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="C1008" s="0" t="s">
         <v>293</v>
@@ -24962,15 +24958,15 @@
         <v>1</v>
       </c>
       <c r="J1008" s="0" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B1009" s="0" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C1009" s="0" t="s">
         <v>293</v>
@@ -24979,15 +24975,15 @@
         <v>1</v>
       </c>
       <c r="J1009" s="0" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B1010" s="0" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C1010" s="0" t="s">
         <v>293</v>
@@ -24996,15 +24992,15 @@
         <v>1</v>
       </c>
       <c r="J1010" s="0" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="C1011" s="0" t="s">
         <v>293</v>
@@ -25013,15 +25009,15 @@
         <v>1</v>
       </c>
       <c r="J1011" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B1012" s="0" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C1012" s="0" t="s">
         <v>293</v>
@@ -25030,7 +25026,24 @@
         <v>1</v>
       </c>
       <c r="J1012" s="0" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="0" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1013" s="0" t="s">
         <v>1621</v>
+      </c>
+      <c r="C1013" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1013" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1013" s="0" t="s">
+        <v>1622</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="1633">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -1759,9 +1759,6 @@
   </si>
   <si>
     <t xml:space="preserve">se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oestrig</t>
   </si>
   <si>
     <t xml:space="preserve">Oestrig</t>
@@ -5198,7 +5195,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5223,19 +5220,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5362,13 +5355,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="8.52"/>
@@ -14627,9 +14620,9 @@
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="9.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14886,20 +14879,20 @@
   <dimension ref="A1:J1023"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B194" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="A194" activeCellId="0" sqref="A194"/>
+      <selection pane="bottomRight" activeCell="G202" activeCellId="0" sqref="G202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15208,23 +15201,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
         <v>581</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+      <c r="E31" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>582</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>557</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15242,27 +15235,30 @@
       <c r="B34" s="0" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="E34" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
         <v>585</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>50</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>586</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>557</v>
+        <v>309</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15270,10 +15266,7 @@
         <v>587</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15297,7 +15290,7 @@
         <v>590</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15305,7 +15298,7 @@
         <v>591</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15313,7 +15306,10 @@
         <v>592</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15321,10 +15317,7 @@
         <v>593</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15332,7 +15325,7 @@
         <v>594</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15350,6 +15343,9 @@
       <c r="B46" s="0" t="s">
         <v>64</v>
       </c>
+      <c r="E46" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -15359,29 +15355,26 @@
         <v>64</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
         <v>598</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>599</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>64</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>600</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>557</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15399,6 +15392,9 @@
       <c r="B51" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="E51" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -15407,24 +15403,24 @@
       <c r="B52" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>604</v>
       </c>
       <c r="B53" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>605</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>606</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>53</v>
@@ -15435,7 +15431,7 @@
         <v>607</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>53</v>
@@ -15446,7 +15442,7 @@
         <v>608</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>53</v>
@@ -15454,10 +15450,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>609</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>610</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>53</v>
@@ -15468,7 +15464,7 @@
         <v>611</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>53</v>
@@ -15479,10 +15475,7 @@
         <v>612</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15490,7 +15483,7 @@
         <v>613</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15506,7 +15499,7 @@
         <v>615</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15514,7 +15507,7 @@
         <v>616</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15522,7 +15515,7 @@
         <v>617</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15546,15 +15539,15 @@
         <v>620</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>67</v>
+        <v>621</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>622</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15565,16 +15558,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
         <v>624</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>625</v>
       </c>
       <c r="B71" s="0" t="s">
@@ -15634,7 +15627,7 @@
         <v>632</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15642,15 +15635,18 @@
         <v>633</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>72</v>
+        <v>634</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>635</v>
+        <v>68</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15660,9 +15656,6 @@
       <c r="B81" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>575</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
@@ -15679,16 +15672,22 @@
       <c r="B83" s="0" t="s">
         <v>68</v>
       </c>
+      <c r="E83" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>639</v>
       </c>
       <c r="B84" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>549</v>
+      <c r="F84" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15696,7 +15695,7 @@
         <v>640</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>68</v>
@@ -15710,7 +15709,7 @@
         <v>641</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>68</v>
@@ -15724,7 +15723,7 @@
         <v>642</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>68</v>
@@ -15766,7 +15765,7 @@
         <v>645</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>68</v>
@@ -15780,7 +15779,7 @@
         <v>646</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>68</v>
@@ -15794,7 +15793,7 @@
         <v>647</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>68</v>
@@ -15822,7 +15821,7 @@
         <v>649</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>68</v>
@@ -15836,7 +15835,7 @@
         <v>650</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>68</v>
@@ -15850,7 +15849,7 @@
         <v>651</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>68</v>
@@ -15864,7 +15863,7 @@
         <v>652</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>68</v>
@@ -15878,7 +15877,7 @@
         <v>653</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>68</v>
@@ -15892,7 +15891,7 @@
         <v>654</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>68</v>
@@ -15906,7 +15905,7 @@
         <v>655</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>68</v>
@@ -15920,7 +15919,7 @@
         <v>656</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>68</v>
@@ -15934,7 +15933,7 @@
         <v>657</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>68</v>
@@ -15948,7 +15947,7 @@
         <v>658</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>68</v>
@@ -15962,7 +15961,7 @@
         <v>659</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>68</v>
@@ -15976,7 +15975,7 @@
         <v>660</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>68</v>
@@ -15990,7 +15989,7 @@
         <v>661</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>68</v>
@@ -16004,7 +16003,7 @@
         <v>662</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>68</v>
@@ -16018,7 +16017,7 @@
         <v>663</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>68</v>
@@ -16032,7 +16031,7 @@
         <v>664</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>68</v>
@@ -16046,7 +16045,7 @@
         <v>665</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>68</v>
@@ -16060,7 +16059,7 @@
         <v>666</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>68</v>
@@ -16074,7 +16073,7 @@
         <v>667</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>68</v>
@@ -16088,7 +16087,7 @@
         <v>668</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>68</v>
@@ -16102,13 +16101,10 @@
         <v>669</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F114" s="0" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16116,10 +16112,7 @@
         <v>670</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16135,7 +16128,7 @@
         <v>672</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16145,16 +16138,16 @@
       <c r="B118" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="E118" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>674</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>549</v>
+        <v>57</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16170,7 +16163,7 @@
         <v>676</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16178,7 +16171,7 @@
         <v>677</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16260,6 +16253,9 @@
       <c r="B132" s="0" t="s">
         <v>82</v>
       </c>
+      <c r="E132" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
@@ -16268,16 +16264,13 @@
       <c r="B133" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="E133" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>689</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16287,6 +16280,9 @@
       <c r="B135" s="0" t="s">
         <v>162</v>
       </c>
+      <c r="E135" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
@@ -16295,9 +16291,6 @@
       <c r="B136" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="E136" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
@@ -16312,7 +16305,7 @@
         <v>693</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16322,6 +16315,9 @@
       <c r="B139" s="0" t="s">
         <v>83</v>
       </c>
+      <c r="E139" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
@@ -16330,9 +16326,6 @@
       <c r="B140" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="E140" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
@@ -16347,7 +16340,7 @@
         <v>697</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16355,7 +16348,7 @@
         <v>698</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16363,7 +16356,10 @@
         <v>699</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>75</v>
+        <v>310</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16371,10 +16367,7 @@
         <v>700</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16408,16 +16401,16 @@
       <c r="B149" s="0" t="s">
         <v>89</v>
       </c>
+      <c r="E149" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>705</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E150" s="0" t="s">
-        <v>549</v>
+        <v>94</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16425,7 +16418,7 @@
         <v>706</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16459,16 +16452,16 @@
       <c r="B155" s="0" t="s">
         <v>73</v>
       </c>
+      <c r="E155" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>711</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E156" s="0" t="s">
-        <v>549</v>
+        <v>270</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16476,7 +16469,7 @@
         <v>712</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>270</v>
+        <v>80</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16492,7 +16485,7 @@
         <v>714</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16526,6 +16519,9 @@
       <c r="B163" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="E163" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
@@ -16534,16 +16530,13 @@
       <c r="B164" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E164" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>720</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>81</v>
+        <v>311</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16551,7 +16544,7 @@
         <v>721</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>311</v>
+        <v>469</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16559,7 +16552,7 @@
         <v>722</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>469</v>
+        <v>87</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16569,21 +16562,27 @@
       <c r="B168" s="0" t="s">
         <v>87</v>
       </c>
+      <c r="E168" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>724</v>
+        <v>642</v>
       </c>
       <c r="B169" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C169" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="E169" s="0" t="s">
-        <v>549</v>
+      <c r="F169" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>643</v>
+        <v>724</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>317</v>
@@ -16614,7 +16613,7 @@
         <v>726</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C172" s="0" t="s">
         <v>87</v>
@@ -16628,7 +16627,7 @@
         <v>727</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>87</v>
@@ -16642,7 +16641,7 @@
         <v>728</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C174" s="0" t="s">
         <v>87</v>
@@ -16656,7 +16655,7 @@
         <v>729</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C175" s="0" t="s">
         <v>87</v>
@@ -16670,7 +16669,7 @@
         <v>730</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C176" s="0" t="s">
         <v>87</v>
@@ -16684,7 +16683,7 @@
         <v>731</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C177" s="0" t="s">
         <v>87</v>
@@ -16698,7 +16697,7 @@
         <v>732</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C178" s="0" t="s">
         <v>87</v>
@@ -16712,7 +16711,7 @@
         <v>733</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C179" s="0" t="s">
         <v>87</v>
@@ -16726,7 +16725,7 @@
         <v>734</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C180" s="0" t="s">
         <v>87</v>
@@ -16740,7 +16739,7 @@
         <v>735</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C181" s="0" t="s">
         <v>87</v>
@@ -16754,7 +16753,7 @@
         <v>736</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C182" s="0" t="s">
         <v>87</v>
@@ -16782,7 +16781,7 @@
         <v>738</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C184" s="0" t="s">
         <v>87</v>
@@ -16796,7 +16795,7 @@
         <v>739</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C185" s="0" t="s">
         <v>87</v>
@@ -16810,7 +16809,7 @@
         <v>740</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C186" s="0" t="s">
         <v>87</v>
@@ -16852,7 +16851,7 @@
         <v>743</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="C189" s="0" t="s">
         <v>87</v>
@@ -16866,7 +16865,7 @@
         <v>744</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C190" s="0" t="s">
         <v>87</v>
@@ -16880,7 +16879,7 @@
         <v>745</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C191" s="0" t="s">
         <v>87</v>
@@ -16894,7 +16893,7 @@
         <v>746</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C192" s="0" t="s">
         <v>87</v>
@@ -16908,7 +16907,7 @@
         <v>747</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C193" s="0" t="s">
         <v>87</v>
@@ -16922,7 +16921,7 @@
         <v>748</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C194" s="0" t="s">
         <v>87</v>
@@ -16936,7 +16935,7 @@
         <v>749</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C195" s="0" t="s">
         <v>87</v>
@@ -16950,7 +16949,7 @@
         <v>750</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>87</v>
@@ -16964,7 +16963,7 @@
         <v>751</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C197" s="0" t="s">
         <v>87</v>
@@ -16978,7 +16977,7 @@
         <v>752</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C198" s="0" t="s">
         <v>87</v>
@@ -16992,7 +16991,7 @@
         <v>753</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C199" s="0" t="s">
         <v>87</v>
@@ -17006,7 +17005,7 @@
         <v>754</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C200" s="0" t="s">
         <v>87</v>
@@ -17020,7 +17019,7 @@
         <v>755</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C201" s="0" t="s">
         <v>87</v>
@@ -17034,7 +17033,7 @@
         <v>756</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>87</v>
@@ -17048,7 +17047,7 @@
         <v>757</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C203" s="0" t="s">
         <v>87</v>
@@ -17062,7 +17061,7 @@
         <v>758</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C204" s="0" t="s">
         <v>87</v>
@@ -17076,7 +17075,7 @@
         <v>759</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>87</v>
@@ -17090,7 +17089,7 @@
         <v>760</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>87</v>
@@ -17104,13 +17103,7 @@
         <v>761</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="C207" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F207" s="0" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17118,7 +17111,7 @@
         <v>762</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17176,6 +17169,9 @@
       <c r="B215" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E215" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
@@ -17184,9 +17180,6 @@
       <c r="B216" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E216" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
@@ -17233,7 +17226,7 @@
         <v>776</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17283,27 +17276,27 @@
       <c r="B228" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="E228" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="5" t="s">
         <v>783</v>
       </c>
       <c r="B229" s="0" t="s">
         <v>84</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
         <v>784</v>
       </c>
       <c r="B230" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="E230" s="0" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17399,7 +17392,7 @@
         <v>796</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17415,7 +17408,7 @@
         <v>798</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17423,7 +17416,7 @@
         <v>799</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17449,16 +17442,16 @@
       <c r="B248" s="0" t="s">
         <v>143</v>
       </c>
+      <c r="E248" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>803</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E249" s="0" t="s">
-        <v>549</v>
+        <v>92</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17466,7 +17459,7 @@
         <v>804</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17490,7 +17483,7 @@
         <v>807</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17500,46 +17493,46 @@
       <c r="B254" s="0" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
+      <c r="E254" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="5" t="s">
         <v>809</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>95</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
         <v>810</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E256" s="0" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="5" t="s">
         <v>811</v>
       </c>
       <c r="B257" s="0" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="258" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="5" t="s">
+      <c r="E257" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
         <v>812</v>
       </c>
       <c r="B258" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E258" s="0" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17573,6 +17566,9 @@
       <c r="B262" s="0" t="s">
         <v>96</v>
       </c>
+      <c r="E262" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
@@ -17581,16 +17577,16 @@
       <c r="B263" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E263" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>818</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="D264" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17625,6 +17621,9 @@
       <c r="D267" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E267" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
@@ -17637,7 +17636,7 @@
         <v>1</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17645,13 +17644,7 @@
         <v>823</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D269" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E269" s="0" t="s">
-        <v>578</v>
+        <v>101</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17661,6 +17654,9 @@
       <c r="B270" s="0" t="s">
         <v>101</v>
       </c>
+      <c r="E270" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
@@ -17670,29 +17666,26 @@
         <v>101</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
         <v>826</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="5" t="s">
+        <v>827</v>
       </c>
       <c r="B272" s="0" t="s">
         <v>101</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
         <v>828</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E273" s="0" t="s">
-        <v>557</v>
+        <v>99</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17700,7 +17693,7 @@
         <v>829</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17708,7 +17701,7 @@
         <v>830</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17764,7 +17757,7 @@
         <v>837</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>102</v>
+        <v>278</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17780,7 +17773,7 @@
         <v>839</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>278</v>
+        <v>106</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17790,16 +17783,16 @@
       <c r="B285" s="0" t="s">
         <v>106</v>
       </c>
+      <c r="E285" s="0" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>841</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="E286" s="0" t="s">
-        <v>578</v>
+        <v>107</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17833,27 +17826,27 @@
       <c r="B290" s="0" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
+      <c r="E290" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="5" t="s">
         <v>846</v>
       </c>
       <c r="B291" s="0" t="s">
         <v>107</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
         <v>847</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E292" s="0" t="s">
-        <v>557</v>
+        <v>249</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17861,7 +17854,7 @@
         <v>848</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>249</v>
+        <v>132</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17877,7 +17870,7 @@
         <v>850</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17885,7 +17878,7 @@
         <v>851</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17895,16 +17888,16 @@
       <c r="B297" s="0" t="s">
         <v>112</v>
       </c>
+      <c r="E297" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>853</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E298" s="0" t="s">
-        <v>549</v>
+        <v>113</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17922,27 +17915,27 @@
       <c r="B300" s="0" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
+      <c r="E300" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="5" t="s">
         <v>856</v>
       </c>
       <c r="B301" s="0" t="s">
         <v>113</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
         <v>857</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E302" s="0" t="s">
-        <v>557</v>
+        <v>117</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17950,7 +17943,7 @@
         <v>858</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17968,6 +17961,9 @@
       <c r="B305" s="0" t="s">
         <v>119</v>
       </c>
+      <c r="E305" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
@@ -17976,9 +17972,6 @@
       <c r="B306" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="E306" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
@@ -17993,7 +17986,7 @@
         <v>863</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18001,7 +17994,10 @@
         <v>864</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="E309" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18012,29 +18008,26 @@
         <v>115</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="5" t="s">
         <v>866</v>
       </c>
       <c r="B311" s="0" t="s">
         <v>115</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
         <v>867</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E312" s="0" t="s">
-        <v>557</v>
+        <v>118</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18060,6 +18053,9 @@
       <c r="B315" s="0" t="s">
         <v>118</v>
       </c>
+      <c r="E315" s="0" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
@@ -18069,29 +18065,26 @@
         <v>118</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="5" t="s">
         <v>872</v>
       </c>
       <c r="B317" s="0" t="s">
         <v>118</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
         <v>873</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="E318" s="0" t="s">
-        <v>557</v>
+        <v>137</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18123,7 +18116,7 @@
         <v>877</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18147,15 +18140,15 @@
         <v>880</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>233</v>
+        <v>881</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>882</v>
+        <v>121</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18163,7 +18156,7 @@
         <v>883</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18195,7 +18188,7 @@
         <v>887</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18205,16 +18198,16 @@
       <c r="B332" s="0" t="s">
         <v>124</v>
       </c>
+      <c r="E332" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
         <v>889</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="E333" s="0" t="s">
-        <v>549</v>
+        <v>98</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18232,43 +18225,46 @@
       <c r="B335" s="0" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
+      <c r="E335" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="5" t="s">
         <v>892</v>
       </c>
       <c r="B336" s="0" t="s">
         <v>98</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="s">
         <v>893</v>
       </c>
       <c r="B337" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E337" s="0" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="7" t="s">
+      <c r="A338" s="0" t="s">
         <v>894</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>98</v>
+        <v>895</v>
+      </c>
+      <c r="D338" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="B339" s="0" t="s">
         <v>895</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>896</v>
       </c>
       <c r="D339" s="0" t="n">
         <v>1</v>
@@ -18279,7 +18275,7 @@
         <v>897</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>896</v>
+        <v>97</v>
       </c>
       <c r="D340" s="0" t="n">
         <v>1</v>
@@ -18312,10 +18308,7 @@
         <v>900</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D343" s="0" t="n">
-        <v>1</v>
+        <v>126</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18323,7 +18316,7 @@
         <v>901</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18331,7 +18324,7 @@
         <v>902</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18341,6 +18334,9 @@
       <c r="B346" s="0" t="s">
         <v>133</v>
       </c>
+      <c r="E346" s="0" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
@@ -18350,7 +18346,7 @@
         <v>133</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>827</v>
+        <v>549</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18360,9 +18356,6 @@
       <c r="B348" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E348" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
@@ -18372,15 +18365,18 @@
         <v>133</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
+    <row r="350" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="5" t="s">
         <v>907</v>
       </c>
       <c r="B350" s="0" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="351" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E350" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="5" t="s">
         <v>908</v>
       </c>
@@ -18388,18 +18384,15 @@
         <v>133</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="5" t="s">
+      <c r="A352" s="0" t="s">
         <v>909</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E352" s="0" t="s">
-        <v>578</v>
+        <v>135</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18407,7 +18400,7 @@
         <v>910</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18415,7 +18408,10 @@
         <v>911</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18434,10 +18430,7 @@
         <v>913</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C356" s="0" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18453,7 +18446,7 @@
         <v>915</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18461,7 +18454,10 @@
         <v>916</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>136</v>
+        <v>125</v>
+      </c>
+      <c r="C359" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18469,10 +18465,7 @@
         <v>917</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C360" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18480,7 +18473,7 @@
         <v>918</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18512,7 +18505,7 @@
         <v>922</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18520,7 +18513,7 @@
         <v>923</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18528,15 +18521,15 @@
         <v>924</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>144</v>
+        <v>925</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>926</v>
+        <v>291</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18552,7 +18545,7 @@
         <v>928</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>291</v>
+        <v>142</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18560,7 +18553,10 @@
         <v>929</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18634,10 +18630,7 @@
         <v>936</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C378" s="0" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18655,6 +18648,9 @@
       <c r="B380" s="0" t="s">
         <v>145</v>
       </c>
+      <c r="E380" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
@@ -18664,7 +18660,7 @@
         <v>145</v>
       </c>
       <c r="E381" s="0" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18672,10 +18668,7 @@
         <v>940</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E382" s="0" t="s">
-        <v>578</v>
+        <v>140</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18683,7 +18676,7 @@
         <v>941</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18691,7 +18684,7 @@
         <v>942</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>268</v>
+        <v>152</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18701,16 +18694,16 @@
       <c r="B385" s="0" t="s">
         <v>152</v>
       </c>
+      <c r="E385" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
         <v>944</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="E386" s="0" t="s">
-        <v>549</v>
+        <v>148</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18720,16 +18713,16 @@
       <c r="B387" s="0" t="s">
         <v>148</v>
       </c>
+      <c r="E387" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
         <v>946</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="E388" s="0" t="s">
-        <v>549</v>
+        <v>146</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18739,16 +18732,16 @@
       <c r="B389" s="0" t="s">
         <v>146</v>
       </c>
+      <c r="E389" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
         <v>948</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="E390" s="0" t="s">
-        <v>549</v>
+        <v>150</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18788,7 +18781,7 @@
         <v>953</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18798,16 +18791,16 @@
       <c r="B396" s="0" t="s">
         <v>151</v>
       </c>
+      <c r="E396" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
         <v>955</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E397" s="0" t="s">
-        <v>549</v>
+        <v>149</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18825,16 +18818,19 @@
       <c r="B399" s="0" t="s">
         <v>149</v>
       </c>
+      <c r="E399" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
         <v>958</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="E400" s="0" t="s">
-        <v>549</v>
+        <v>147</v>
+      </c>
+      <c r="C400" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18842,10 +18838,10 @@
         <v>959</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C401" s="0" t="s">
-        <v>123</v>
+        <v>153</v>
+      </c>
+      <c r="E401" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18855,16 +18851,13 @@
       <c r="B402" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="E402" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
         <v>961</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18874,6 +18867,9 @@
       <c r="B404" s="0" t="s">
         <v>154</v>
       </c>
+      <c r="E404" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
@@ -18882,16 +18878,13 @@
       <c r="B405" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="E405" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
         <v>964</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18899,7 +18892,10 @@
         <v>965</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="E407" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18909,16 +18905,16 @@
       <c r="B408" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E408" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
         <v>967</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18926,10 +18922,7 @@
         <v>968</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C410" s="0" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18939,27 +18932,27 @@
       <c r="B411" s="0" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="0" t="s">
+      <c r="E411" s="0" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="5" t="s">
         <v>970</v>
       </c>
       <c r="B412" s="0" t="s">
         <v>157</v>
       </c>
       <c r="E412" s="0" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
         <v>971</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="E413" s="0" t="s">
-        <v>557</v>
+        <v>159</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18969,27 +18962,27 @@
       <c r="B414" s="0" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
+      <c r="E414" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="5" t="s">
         <v>973</v>
       </c>
       <c r="B415" s="0" t="s">
         <v>159</v>
       </c>
       <c r="E415" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
         <v>974</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E416" s="0" t="s">
-        <v>557</v>
+        <v>160</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18997,7 +18990,7 @@
         <v>975</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19005,7 +18998,7 @@
         <v>976</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19013,7 +19006,7 @@
         <v>977</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19103,16 +19096,16 @@
       <c r="B430" s="0" t="s">
         <v>229</v>
       </c>
+      <c r="E430" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
         <v>989</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="E431" s="0" t="s">
-        <v>549</v>
+        <v>165</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19131,23 +19124,23 @@
         <v>165</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="0" t="s">
+    <row r="434" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="5" t="s">
         <v>992</v>
       </c>
       <c r="B434" s="0" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="435" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="5" t="s">
+      <c r="E434" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
         <v>993</v>
       </c>
       <c r="B435" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="E435" s="0" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19221,6 +19214,9 @@
       <c r="B444" s="0" t="s">
         <v>165</v>
       </c>
+      <c r="E444" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
@@ -19229,9 +19225,6 @@
       <c r="B445" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E445" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
@@ -19254,7 +19247,7 @@
         <v>1006</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19262,7 +19255,7 @@
         <v>1007</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19280,6 +19273,9 @@
       <c r="B451" s="0" t="s">
         <v>161</v>
       </c>
+      <c r="E451" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
@@ -19288,9 +19284,6 @@
       <c r="B452" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E452" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
@@ -19305,7 +19298,7 @@
         <v>1012</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19329,7 +19322,7 @@
         <v>1015</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19339,27 +19332,30 @@
       <c r="B458" s="0" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="s">
+      <c r="E458" s="0" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="5" t="s">
         <v>1017</v>
       </c>
       <c r="B459" s="0" t="s">
         <v>178</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="460" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
         <v>1018</v>
       </c>
       <c r="B460" s="0" t="s">
         <v>178</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19367,10 +19363,7 @@
         <v>1019</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E461" s="0" t="s">
-        <v>549</v>
+        <v>169</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19388,16 +19381,16 @@
       <c r="B463" s="0" t="s">
         <v>169</v>
       </c>
+      <c r="E463" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
         <v>1022</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="E464" s="0" t="s">
-        <v>549</v>
+        <v>175</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19405,7 +19398,7 @@
         <v>1023</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19413,7 +19406,7 @@
         <v>1024</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19431,16 +19424,16 @@
       <c r="B468" s="0" t="s">
         <v>171</v>
       </c>
+      <c r="E468" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
         <v>1027</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E469" s="0" t="s">
-        <v>549</v>
+        <v>173</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19448,7 +19441,7 @@
         <v>1028</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19466,16 +19459,16 @@
       <c r="B472" s="0" t="s">
         <v>176</v>
       </c>
+      <c r="E472" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
         <v>1031</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="E473" s="0" t="s">
-        <v>549</v>
+        <v>177</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19485,27 +19478,30 @@
       <c r="B474" s="0" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="0" t="s">
+      <c r="E474" s="0" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="5" t="s">
         <v>1033</v>
       </c>
       <c r="B475" s="0" t="s">
         <v>177</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
         <v>1034</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="E476" s="0" t="s">
-        <v>557</v>
+        <v>179</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19546,10 +19542,7 @@
         <v>1038</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C480" s="0" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19575,6 +19568,9 @@
       <c r="B483" s="0" t="s">
         <v>191</v>
       </c>
+      <c r="E483" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
@@ -19583,9 +19579,6 @@
       <c r="B484" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E484" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
@@ -19626,27 +19619,27 @@
       <c r="B489" s="0" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="0" t="s">
+      <c r="E489" s="0" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="B490" s="0" t="s">
         <v>191</v>
       </c>
       <c r="E490" s="0" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
         <v>1049</v>
       </c>
       <c r="B491" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="E491" s="0" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19662,7 +19655,7 @@
         <v>1051</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19670,7 +19663,7 @@
         <v>1052</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19678,7 +19671,7 @@
         <v>1053</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19686,7 +19679,7 @@
         <v>1054</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19694,7 +19687,7 @@
         <v>1055</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19702,7 +19695,7 @@
         <v>1056</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19710,7 +19703,7 @@
         <v>1057</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19726,7 +19719,7 @@
         <v>1059</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19742,7 +19735,7 @@
         <v>1061</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19766,7 +19759,7 @@
         <v>1064</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19774,7 +19767,7 @@
         <v>1065</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19782,7 +19775,7 @@
         <v>1066</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19790,7 +19783,7 @@
         <v>1067</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19806,7 +19799,13 @@
         <v>1069</v>
       </c>
       <c r="B511" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C511" s="0" t="s">
         <v>187</v>
+      </c>
+      <c r="F511" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19814,7 +19813,7 @@
         <v>1070</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C512" s="0" t="s">
         <v>187</v>
@@ -19828,7 +19827,7 @@
         <v>1071</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C513" s="0" t="s">
         <v>187</v>
@@ -19842,7 +19841,7 @@
         <v>1072</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C514" s="0" t="s">
         <v>187</v>
@@ -19856,7 +19855,7 @@
         <v>1073</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C515" s="0" t="s">
         <v>187</v>
@@ -19870,7 +19869,7 @@
         <v>1074</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C516" s="0" t="s">
         <v>187</v>
@@ -19884,7 +19883,7 @@
         <v>1075</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C517" s="0" t="s">
         <v>187</v>
@@ -19898,7 +19897,7 @@
         <v>1076</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C518" s="0" t="s">
         <v>187</v>
@@ -19912,7 +19911,7 @@
         <v>1077</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>356</v>
+        <v>1078</v>
       </c>
       <c r="C519" s="0" t="s">
         <v>187</v>
@@ -19923,10 +19922,10 @@
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B520" s="0" t="s">
         <v>1078</v>
-      </c>
-      <c r="B520" s="0" t="s">
-        <v>1079</v>
       </c>
       <c r="C520" s="0" t="s">
         <v>187</v>
@@ -19940,7 +19939,7 @@
         <v>1080</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C521" s="0" t="s">
         <v>187</v>
@@ -19954,7 +19953,7 @@
         <v>1081</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>1079</v>
+        <v>357</v>
       </c>
       <c r="C522" s="0" t="s">
         <v>187</v>
@@ -19968,7 +19967,7 @@
         <v>1082</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C523" s="0" t="s">
         <v>187</v>
@@ -19982,7 +19981,7 @@
         <v>1083</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C524" s="0" t="s">
         <v>187</v>
@@ -19996,7 +19995,7 @@
         <v>1084</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C525" s="0" t="s">
         <v>187</v>
@@ -20010,7 +20009,7 @@
         <v>1085</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C526" s="0" t="s">
         <v>187</v>
@@ -20024,7 +20023,7 @@
         <v>1086</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C527" s="0" t="s">
         <v>187</v>
@@ -20052,7 +20051,7 @@
         <v>1088</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C529" s="0" t="s">
         <v>187</v>
@@ -20080,7 +20079,7 @@
         <v>1090</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C531" s="0" t="s">
         <v>187</v>
@@ -20094,7 +20093,7 @@
         <v>1091</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C532" s="0" t="s">
         <v>187</v>
@@ -20108,7 +20107,7 @@
         <v>1092</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C533" s="0" t="s">
         <v>187</v>
@@ -20136,7 +20135,7 @@
         <v>1094</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C535" s="0" t="s">
         <v>187</v>
@@ -20150,7 +20149,7 @@
         <v>1095</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C536" s="0" t="s">
         <v>187</v>
@@ -20164,7 +20163,7 @@
         <v>1096</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C537" s="0" t="s">
         <v>187</v>
@@ -20178,7 +20177,7 @@
         <v>1097</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C538" s="0" t="s">
         <v>187</v>
@@ -20192,7 +20191,7 @@
         <v>1098</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C539" s="0" t="s">
         <v>187</v>
@@ -20206,7 +20205,7 @@
         <v>1099</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C540" s="0" t="s">
         <v>187</v>
@@ -20220,7 +20219,7 @@
         <v>1100</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C541" s="0" t="s">
         <v>187</v>
@@ -20234,7 +20233,7 @@
         <v>1101</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C542" s="0" t="s">
         <v>187</v>
@@ -20248,7 +20247,7 @@
         <v>1102</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C543" s="0" t="s">
         <v>187</v>
@@ -20262,7 +20261,7 @@
         <v>1103</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C544" s="0" t="s">
         <v>187</v>
@@ -20276,7 +20275,7 @@
         <v>1104</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C545" s="0" t="s">
         <v>187</v>
@@ -20290,7 +20289,7 @@
         <v>1105</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C546" s="0" t="s">
         <v>187</v>
@@ -20318,7 +20317,7 @@
         <v>1107</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C548" s="0" t="s">
         <v>187</v>
@@ -20332,13 +20331,7 @@
         <v>1108</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="C549" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="F549" s="0" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20372,6 +20365,9 @@
       <c r="B553" s="0" t="s">
         <v>120</v>
       </c>
+      <c r="E553" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
@@ -20380,9 +20376,6 @@
       <c r="B554" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="E554" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
@@ -20397,39 +20390,39 @@
         <v>1115</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>120</v>
+        <v>190</v>
+      </c>
+      <c r="G556" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H556" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I556" s="0" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="G557" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H557" s="0" t="s">
-        <v>1117</v>
-      </c>
-      <c r="I557" s="0" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E557" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="B558" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="E558" s="0" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="559" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="5" t="s">
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="0" t="s">
         <v>1120</v>
       </c>
       <c r="B559" s="0" t="s">
@@ -20457,7 +20450,7 @@
         <v>1123</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20465,7 +20458,7 @@
         <v>1124</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20475,16 +20468,16 @@
       <c r="B564" s="0" t="s">
         <v>196</v>
       </c>
+      <c r="E564" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
         <v>1126</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="E565" s="0" t="s">
-        <v>549</v>
+        <v>195</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20492,7 +20485,7 @@
         <v>1127</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20500,7 +20493,7 @@
         <v>1128</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20534,6 +20527,9 @@
       <c r="B571" s="0" t="s">
         <v>181</v>
       </c>
+      <c r="E571" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
@@ -20543,7 +20539,7 @@
         <v>181</v>
       </c>
       <c r="E572" s="0" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20551,10 +20547,7 @@
         <v>1134</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E573" s="0" t="s">
-        <v>578</v>
+        <v>198</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20570,7 +20563,7 @@
         <v>1136</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20594,7 +20587,7 @@
         <v>1139</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20602,7 +20595,7 @@
         <v>1140</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20610,7 +20603,7 @@
         <v>1141</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20618,7 +20611,7 @@
         <v>1142</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20637,23 +20630,23 @@
         <v>213</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="0" t="s">
+    <row r="584" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="5" t="s">
         <v>1145</v>
       </c>
       <c r="B584" s="0" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="585" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="5" t="s">
+      <c r="E584" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="0" t="s">
         <v>1146</v>
       </c>
       <c r="B585" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="E585" s="0" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20671,16 +20664,19 @@
       <c r="B587" s="0" t="s">
         <v>213</v>
       </c>
+      <c r="E587" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
         <v>1149</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="E588" s="0" t="s">
-        <v>549</v>
+        <v>41</v>
+      </c>
+      <c r="D588" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20710,10 +20706,10 @@
         <v>1152</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D591" s="0" t="n">
-        <v>1</v>
+        <v>207</v>
+      </c>
+      <c r="C591" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20732,10 +20728,7 @@
         <v>1154</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C593" s="0" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20751,7 +20744,7 @@
         <v>1156</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20759,7 +20752,7 @@
         <v>1157</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20767,7 +20760,7 @@
         <v>1158</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20775,7 +20768,7 @@
         <v>1159</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20783,7 +20776,7 @@
         <v>1160</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>212</v>
+        <v>312</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20791,7 +20784,7 @@
         <v>1161</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20799,7 +20792,7 @@
         <v>1162</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20809,27 +20802,30 @@
       <c r="B602" s="0" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="0" t="s">
+      <c r="E602" s="0" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="5" t="s">
         <v>1164</v>
       </c>
       <c r="B603" s="0" t="s">
         <v>214</v>
       </c>
       <c r="E603" s="0" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="604" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="0" t="s">
         <v>1165</v>
       </c>
       <c r="B604" s="0" t="s">
         <v>214</v>
       </c>
       <c r="E604" s="0" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20837,10 +20833,7 @@
         <v>1166</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E605" s="0" t="s">
-        <v>549</v>
+        <v>219</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20848,7 +20841,7 @@
         <v>1167</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20856,7 +20849,7 @@
         <v>1168</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20864,7 +20857,7 @@
         <v>1169</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20914,6 +20907,9 @@
       <c r="B614" s="0" t="s">
         <v>232</v>
       </c>
+      <c r="E614" s="0" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
@@ -20922,9 +20918,6 @@
       <c r="B615" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E615" s="0" t="s">
-        <v>827</v>
-      </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
@@ -20933,16 +20926,19 @@
       <c r="B616" s="0" t="s">
         <v>232</v>
       </c>
+      <c r="I616" s="0" t="s">
+        <v>1178</v>
+      </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B617" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="I617" s="0" t="s">
-        <v>1179</v>
+      <c r="E617" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20953,7 +20949,7 @@
         <v>232</v>
       </c>
       <c r="E618" s="0" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20961,10 +20957,7 @@
         <v>1181</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="E619" s="0" t="s">
-        <v>557</v>
+        <v>122</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20972,7 +20965,7 @@
         <v>1182</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>122</v>
+        <v>298</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20980,7 +20973,7 @@
         <v>1183</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20988,7 +20981,7 @@
         <v>1184</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21004,7 +20997,7 @@
         <v>1186</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21012,7 +21005,7 @@
         <v>1187</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21020,26 +21013,26 @@
         <v>1188</v>
       </c>
       <c r="B626" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="5" t="s">
         <v>1189</v>
       </c>
       <c r="B627" s="0" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="628" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="5" t="s">
+      <c r="E627" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="0" t="s">
         <v>1190</v>
       </c>
       <c r="B628" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="E628" s="0" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21073,16 +21066,16 @@
       <c r="B632" s="0" t="s">
         <v>224</v>
       </c>
+      <c r="E632" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
         <v>1195</v>
       </c>
       <c r="B633" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="E633" s="0" t="s">
-        <v>549</v>
+        <v>222</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21098,7 +21091,7 @@
         <v>1197</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21116,16 +21109,16 @@
       <c r="B637" s="0" t="s">
         <v>227</v>
       </c>
+      <c r="E637" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
         <v>1200</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="E638" s="0" t="s">
-        <v>549</v>
+        <v>230</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21141,12 +21134,21 @@
         <v>1202</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="C640" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G640" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H640" s="0" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B641" s="0" t="s">
         <v>228</v>
@@ -21158,35 +21160,26 @@
         <v>1</v>
       </c>
       <c r="H641" s="0" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>228</v>
+        <v>1203</v>
       </c>
       <c r="C642" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="G642" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H642" s="0" t="s">
-        <v>1204</v>
-      </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B643" s="0" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C643" s="0" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21194,7 +21187,7 @@
         <v>1206</v>
       </c>
       <c r="B644" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21212,6 +21205,9 @@
       <c r="B646" s="0" t="s">
         <v>235</v>
       </c>
+      <c r="C646" s="0" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
@@ -21229,10 +21225,7 @@
         <v>1210</v>
       </c>
       <c r="B648" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C648" s="0" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21250,27 +21243,27 @@
       <c r="B650" s="0" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="0" t="s">
+      <c r="E650" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="5" t="s">
         <v>1213</v>
       </c>
       <c r="B651" s="0" t="s">
         <v>236</v>
       </c>
       <c r="E651" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="652" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="0" t="s">
         <v>1214</v>
       </c>
       <c r="B652" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="E652" s="0" t="s">
-        <v>557</v>
+        <v>237</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21280,6 +21273,9 @@
       <c r="B653" s="0" t="s">
         <v>237</v>
       </c>
+      <c r="E653" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
@@ -21288,9 +21284,6 @@
       <c r="B654" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E654" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
@@ -21300,23 +21293,23 @@
         <v>237</v>
       </c>
     </row>
-    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="0" t="s">
+    <row r="656" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="5" t="s">
         <v>1218</v>
       </c>
       <c r="B656" s="0" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="657" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="5" t="s">
+      <c r="E656" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="0" t="s">
         <v>1219</v>
       </c>
       <c r="B657" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="E657" s="0" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21324,7 +21317,7 @@
         <v>1220</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21340,7 +21333,10 @@
         <v>1222</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>238</v>
+        <v>460</v>
+      </c>
+      <c r="C660" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21359,10 +21355,7 @@
         <v>1224</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C662" s="0" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21378,7 +21371,7 @@
         <v>1226</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>246</v>
+        <v>457</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21386,7 +21379,7 @@
         <v>1227</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21402,7 +21395,7 @@
         <v>1229</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21410,7 +21403,7 @@
         <v>1230</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>459</v>
+        <v>164</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21442,7 +21435,7 @@
         <v>1234</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21458,7 +21451,10 @@
         <v>1236</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
+      </c>
+      <c r="C674" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21477,10 +21473,7 @@
         <v>1238</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C676" s="0" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21496,7 +21489,7 @@
         <v>1240</v>
       </c>
       <c r="B678" s="0" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21544,7 +21537,7 @@
         <v>1246</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21568,12 +21561,21 @@
         <v>1249</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>301</v>
+        <v>46</v>
+      </c>
+      <c r="C687" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G687" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H687" s="0" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B688" s="0" t="s">
         <v>46</v>
@@ -21585,24 +21587,15 @@
         <v>1</v>
       </c>
       <c r="H688" s="0" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B689" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C689" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G689" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H689" s="0" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21610,7 +21603,7 @@
         <v>1252</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>1251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21618,7 +21611,7 @@
         <v>1253</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21650,7 +21643,7 @@
         <v>1257</v>
       </c>
       <c r="B695" s="0" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21674,7 +21667,7 @@
         <v>1260</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21682,7 +21675,7 @@
         <v>1261</v>
       </c>
       <c r="B699" s="0" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21692,16 +21685,16 @@
       <c r="B700" s="0" t="s">
         <v>254</v>
       </c>
+      <c r="E700" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
         <v>1263</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="E701" s="0" t="s">
-        <v>549</v>
+        <v>255</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21727,20 +21720,20 @@
       <c r="B704" s="0" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="0" t="s">
+      <c r="E704" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="5" t="s">
         <v>1267</v>
       </c>
       <c r="B705" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="E705" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="706" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="5" t="s">
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="0" t="s">
         <v>1268</v>
       </c>
       <c r="B706" s="0" t="s">
@@ -21768,7 +21761,7 @@
         <v>1271</v>
       </c>
       <c r="B709" s="0" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21776,7 +21769,7 @@
         <v>1272</v>
       </c>
       <c r="B710" s="0" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21792,7 +21785,7 @@
         <v>1274</v>
       </c>
       <c r="B712" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21808,7 +21801,7 @@
         <v>1276</v>
       </c>
       <c r="B714" s="0" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21816,7 +21809,10 @@
         <v>1277</v>
       </c>
       <c r="B715" s="0" t="s">
-        <v>244</v>
+        <v>265</v>
+      </c>
+      <c r="C715" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21835,10 +21831,7 @@
         <v>1279</v>
       </c>
       <c r="B717" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C717" s="0" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21864,6 +21857,9 @@
       <c r="B720" s="0" t="s">
         <v>261</v>
       </c>
+      <c r="E720" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
@@ -21872,27 +21868,24 @@
       <c r="B721" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E721" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="0" t="s">
+    </row>
+    <row r="722" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="5" t="s">
         <v>1284</v>
       </c>
       <c r="B722" s="0" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="723" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="5" t="s">
+      <c r="E722" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="0" t="s">
         <v>1285</v>
       </c>
       <c r="B723" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="E723" s="0" t="s">
-        <v>557</v>
+        <v>262</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21902,27 +21895,27 @@
       <c r="B724" s="0" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="0" t="s">
+      <c r="E724" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="5" t="s">
         <v>1287</v>
       </c>
       <c r="B725" s="0" t="s">
         <v>262</v>
       </c>
       <c r="E725" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="726" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="0" t="s">
         <v>1288</v>
       </c>
       <c r="B726" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E726" s="0" t="s">
-        <v>557</v>
+        <v>247</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21938,7 +21931,7 @@
         <v>1290</v>
       </c>
       <c r="B728" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21946,7 +21939,7 @@
         <v>1291</v>
       </c>
       <c r="B729" s="0" t="s">
-        <v>251</v>
+        <v>462</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21954,26 +21947,26 @@
         <v>1292</v>
       </c>
       <c r="B730" s="0" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="5" t="s">
         <v>1293</v>
       </c>
       <c r="B731" s="0" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="732" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="5" t="s">
+      <c r="E731" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="0" t="s">
         <v>1294</v>
       </c>
       <c r="B732" s="0" t="s">
         <v>305</v>
-      </c>
-      <c r="E732" s="0" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21983,6 +21976,9 @@
       <c r="B733" s="0" t="s">
         <v>305</v>
       </c>
+      <c r="E733" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
@@ -21991,9 +21987,6 @@
       <c r="B734" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E734" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
@@ -22016,7 +22009,7 @@
         <v>1299</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22024,7 +22017,7 @@
         <v>1300</v>
       </c>
       <c r="B738" s="0" t="s">
-        <v>306</v>
+        <v>464</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22032,7 +22025,7 @@
         <v>1301</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>464</v>
+        <v>257</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22040,7 +22033,7 @@
         <v>1302</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>257</v>
+        <v>111</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22066,16 +22059,16 @@
       <c r="B743" s="0" t="s">
         <v>111</v>
       </c>
+      <c r="E743" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
         <v>1306</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="E744" s="0" t="s">
-        <v>549</v>
+        <v>174</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22091,7 +22084,7 @@
         <v>1308</v>
       </c>
       <c r="B746" s="0" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22099,7 +22092,7 @@
         <v>1309</v>
       </c>
       <c r="B747" s="0" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22107,15 +22100,15 @@
         <v>1310</v>
       </c>
       <c r="B748" s="0" t="s">
-        <v>260</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B749" s="0" t="s">
-        <v>1312</v>
+        <v>264</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22123,7 +22116,7 @@
         <v>1313</v>
       </c>
       <c r="B750" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22133,6 +22126,9 @@
       <c r="B751" s="0" t="s">
         <v>263</v>
       </c>
+      <c r="E751" s="0" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
@@ -22142,29 +22138,26 @@
         <v>263</v>
       </c>
       <c r="E752" s="0" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="5" t="s">
         <v>1316</v>
       </c>
       <c r="B753" s="0" t="s">
         <v>263</v>
       </c>
       <c r="E753" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="754" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="0" t="s">
         <v>1317</v>
       </c>
       <c r="B754" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="E754" s="0" t="s">
-        <v>557</v>
+        <v>77</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22190,6 +22183,7 @@
       <c r="B757" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="E757" s="7"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
@@ -22198,13 +22192,15 @@
       <c r="B758" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E758" s="8"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
         <v>1322</v>
       </c>
       <c r="B759" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C759" s="0" t="s">
         <v>77</v>
       </c>
     </row>
@@ -22213,7 +22209,7 @@
         <v>1323</v>
       </c>
       <c r="B760" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C760" s="0" t="s">
         <v>77</v>
@@ -22224,10 +22220,7 @@
         <v>1324</v>
       </c>
       <c r="B761" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C761" s="0" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22245,6 +22238,9 @@
       <c r="B763" s="0" t="s">
         <v>267</v>
       </c>
+      <c r="E763" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
@@ -22253,16 +22249,13 @@
       <c r="B764" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="E764" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
         <v>1328</v>
       </c>
       <c r="B765" s="0" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22318,7 +22311,7 @@
         <v>1335</v>
       </c>
       <c r="B772" s="0" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22326,7 +22319,7 @@
         <v>1336</v>
       </c>
       <c r="B773" s="0" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22358,7 +22351,7 @@
         <v>1340</v>
       </c>
       <c r="B777" s="0" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22374,7 +22367,7 @@
         <v>1342</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22390,7 +22383,7 @@
         <v>1344</v>
       </c>
       <c r="B781" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22398,7 +22391,7 @@
         <v>1345</v>
       </c>
       <c r="B782" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22406,7 +22399,7 @@
         <v>1346</v>
       </c>
       <c r="B783" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22414,7 +22407,7 @@
         <v>1347</v>
       </c>
       <c r="B784" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22422,7 +22415,7 @@
         <v>1348</v>
       </c>
       <c r="B785" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22432,6 +22425,9 @@
       <c r="B786" s="0" t="s">
         <v>280</v>
       </c>
+      <c r="E786" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
@@ -22440,9 +22436,6 @@
       <c r="B787" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="E787" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
@@ -22457,7 +22450,7 @@
         <v>1352</v>
       </c>
       <c r="B789" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22467,6 +22460,9 @@
       <c r="B790" s="0" t="s">
         <v>281</v>
       </c>
+      <c r="E790" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
@@ -22476,7 +22472,7 @@
         <v>281</v>
       </c>
       <c r="E791" s="0" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22484,29 +22480,26 @@
         <v>1355</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="E792" s="0" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A793" s="5" t="s">
         <v>1356</v>
       </c>
       <c r="B793" s="0" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="794" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="5" t="s">
+      <c r="E793" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="0" t="s">
         <v>1357</v>
       </c>
       <c r="B794" s="0" t="s">
         <v>282</v>
-      </c>
-      <c r="E794" s="0" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22516,6 +22509,9 @@
       <c r="B795" s="0" t="s">
         <v>282</v>
       </c>
+      <c r="E795" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
@@ -22525,7 +22521,7 @@
         <v>282</v>
       </c>
       <c r="E796" s="0" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22535,15 +22531,15 @@
       <c r="B797" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E797" s="0" t="s">
-        <v>578</v>
-      </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
         <v>1361</v>
       </c>
       <c r="B798" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C798" s="0" t="s">
         <v>282</v>
       </c>
     </row>
@@ -22563,10 +22559,7 @@
         <v>1363</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C800" s="0" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22574,7 +22567,7 @@
         <v>1364</v>
       </c>
       <c r="B801" s="0" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22582,7 +22575,7 @@
         <v>1365</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22590,7 +22583,7 @@
         <v>1366</v>
       </c>
       <c r="B803" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22598,7 +22591,7 @@
         <v>1367</v>
       </c>
       <c r="B804" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22622,7 +22615,7 @@
         <v>1370</v>
       </c>
       <c r="B807" s="0" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22656,16 +22649,16 @@
       <c r="B811" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="E811" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
         <v>1375</v>
       </c>
       <c r="B812" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E812" s="0" t="s">
-        <v>549</v>
+        <v>123</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22683,6 +22676,9 @@
       <c r="B814" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="E814" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
@@ -22692,7 +22688,7 @@
         <v>123</v>
       </c>
       <c r="E815" s="0" t="s">
-        <v>549</v>
+        <v>826</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22702,9 +22698,6 @@
       <c r="B816" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E816" s="0" t="s">
-        <v>827</v>
-      </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
@@ -22714,23 +22707,23 @@
         <v>123</v>
       </c>
     </row>
-    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="0" t="s">
+    <row r="818" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="5" t="s">
         <v>1381</v>
       </c>
       <c r="B818" s="0" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="819" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="5" t="s">
+      <c r="E818" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="0" t="s">
         <v>1382</v>
       </c>
       <c r="B819" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="E819" s="0" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22738,6 +22731,9 @@
         <v>1383</v>
       </c>
       <c r="B820" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C820" s="0" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22757,7 +22753,7 @@
         <v>1385</v>
       </c>
       <c r="B822" s="0" t="s">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="C822" s="0" t="s">
         <v>123</v>
@@ -22768,7 +22764,7 @@
         <v>1386</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C823" s="0" t="s">
         <v>123</v>
@@ -22779,23 +22775,20 @@
         <v>1387</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="C824" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
-        <v>1388</v>
+        <v>289</v>
       </c>
       <c r="B825" s="0" t="s">
-        <v>123</v>
+        <v>289</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
-        <v>289</v>
+        <v>1388</v>
       </c>
       <c r="B826" s="0" t="s">
         <v>289</v>
@@ -22830,12 +22823,21 @@
         <v>1392</v>
       </c>
       <c r="B830" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C830" s="0" t="s">
         <v>289</v>
+      </c>
+      <c r="G830" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H830" s="0" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="0" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B831" s="0" t="s">
         <v>1394</v>
@@ -22843,19 +22845,13 @@
       <c r="C831" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="G831" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H831" s="0" t="s">
-        <v>1395</v>
-      </c>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="B832" s="0" t="s">
-        <v>1395</v>
+        <v>313</v>
       </c>
       <c r="C832" s="0" t="s">
         <v>289</v>
@@ -22866,10 +22862,13 @@
         <v>1396</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>313</v>
+        <v>407</v>
       </c>
       <c r="C833" s="0" t="s">
         <v>289</v>
+      </c>
+      <c r="F833" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22877,7 +22876,7 @@
         <v>1397</v>
       </c>
       <c r="B834" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C834" s="0" t="s">
         <v>289</v>
@@ -22891,7 +22890,7 @@
         <v>1398</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C835" s="0" t="s">
         <v>289</v>
@@ -22905,7 +22904,7 @@
         <v>1399</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C836" s="0" t="s">
         <v>289</v>
@@ -22919,7 +22918,7 @@
         <v>1400</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C837" s="0" t="s">
         <v>289</v>
@@ -22933,7 +22932,7 @@
         <v>1401</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C838" s="0" t="s">
         <v>289</v>
@@ -22947,7 +22946,7 @@
         <v>1402</v>
       </c>
       <c r="B839" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C839" s="0" t="s">
         <v>289</v>
@@ -22961,7 +22960,7 @@
         <v>1403</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C840" s="0" t="s">
         <v>289</v>
@@ -22975,7 +22974,7 @@
         <v>1404</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>414</v>
+        <v>1405</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>289</v>
@@ -22986,10 +22985,10 @@
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>1406</v>
+        <v>415</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>289</v>
@@ -22999,11 +22998,11 @@
       </c>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="0" t="s">
-        <v>1407</v>
+      <c r="A843" s="8" t="s">
+        <v>887</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C843" s="0" t="s">
         <v>289</v>
@@ -23014,7 +23013,7 @@
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="0" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B844" s="0" t="s">
         <v>416</v>
@@ -23028,7 +23027,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B845" s="0" t="s">
         <v>416</v>
@@ -23042,7 +23041,7 @@
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="0" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B846" s="0" t="s">
         <v>417</v>
@@ -23056,7 +23055,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B847" s="0" t="s">
         <v>418</v>
@@ -23070,7 +23069,7 @@
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="0" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B848" s="0" t="s">
         <v>419</v>
@@ -23084,7 +23083,7 @@
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="0" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B849" s="0" t="s">
         <v>420</v>
@@ -23098,7 +23097,7 @@
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="0" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B850" s="0" t="s">
         <v>421</v>
@@ -23112,7 +23111,7 @@
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B851" s="0" t="s">
         <v>422</v>
@@ -23126,7 +23125,7 @@
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="0" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B852" s="0" t="s">
         <v>423</v>
@@ -23140,7 +23139,7 @@
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="0" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B853" s="0" t="s">
         <v>424</v>
@@ -23154,7 +23153,7 @@
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="0" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B854" s="0" t="s">
         <v>425</v>
@@ -23168,7 +23167,7 @@
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="0" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B855" s="0" t="s">
         <v>426</v>
@@ -23182,7 +23181,7 @@
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="0" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B856" s="0" t="s">
         <v>427</v>
@@ -23196,7 +23195,7 @@
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="0" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B857" s="0" t="s">
         <v>428</v>
@@ -23210,7 +23209,7 @@
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B858" s="0" t="s">
         <v>429</v>
@@ -23224,7 +23223,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B859" s="0" t="s">
         <v>430</v>
@@ -23238,7 +23237,7 @@
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="0" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B860" s="0" t="s">
         <v>431</v>
@@ -23252,7 +23251,7 @@
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="0" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B861" s="0" t="s">
         <v>432</v>
@@ -23266,7 +23265,7 @@
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="0" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B862" s="0" t="s">
         <v>433</v>
@@ -23280,7 +23279,7 @@
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B863" s="0" t="s">
         <v>434</v>
@@ -23294,7 +23293,7 @@
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="0" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B864" s="0" t="s">
         <v>435</v>
@@ -23308,7 +23307,7 @@
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="0" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B865" s="0" t="s">
         <v>436</v>
@@ -23322,7 +23321,7 @@
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="0" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B866" s="0" t="s">
         <v>437</v>
@@ -23336,7 +23335,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B867" s="0" t="s">
         <v>438</v>
@@ -23350,7 +23349,7 @@
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B868" s="0" t="s">
         <v>439</v>
@@ -23364,7 +23363,7 @@
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="0" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B869" s="0" t="s">
         <v>440</v>
@@ -23378,7 +23377,7 @@
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B870" s="0" t="s">
         <v>441</v>
@@ -23392,7 +23391,7 @@
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B871" s="0" t="s">
         <v>442</v>
@@ -23406,7 +23405,7 @@
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B872" s="0" t="s">
         <v>443</v>
@@ -23420,7 +23419,7 @@
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B873" s="0" t="s">
         <v>444</v>
@@ -23434,7 +23433,7 @@
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="0" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B874" s="0" t="s">
         <v>445</v>
@@ -23448,7 +23447,7 @@
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="0" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B875" s="0" t="s">
         <v>446</v>
@@ -23462,7 +23461,7 @@
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="0" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B876" s="0" t="s">
         <v>447</v>
@@ -23476,7 +23475,7 @@
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B877" s="0" t="s">
         <v>448</v>
@@ -23490,7 +23489,7 @@
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B878" s="0" t="s">
         <v>449</v>
@@ -23504,7 +23503,7 @@
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B879" s="0" t="s">
         <v>450</v>
@@ -23518,7 +23517,7 @@
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B880" s="0" t="s">
         <v>451</v>
@@ -23532,7 +23531,7 @@
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B881" s="0" t="s">
         <v>452</v>
@@ -23546,7 +23545,7 @@
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B882" s="0" t="s">
         <v>453</v>
@@ -23560,7 +23559,7 @@
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B883" s="0" t="s">
         <v>454</v>
@@ -23574,7 +23573,7 @@
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="0" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B884" s="0" t="s">
         <v>455</v>
@@ -23588,7 +23587,7 @@
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B885" s="0" t="s">
         <v>456</v>
@@ -23602,7 +23601,7 @@
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B886" s="0" t="s">
         <v>288</v>
@@ -23610,7 +23609,7 @@
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B887" s="0" t="s">
         <v>259</v>
@@ -23618,7 +23617,7 @@
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B888" s="0" t="s">
         <v>259</v>
@@ -23629,7 +23628,7 @@
     </row>
     <row r="889" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="5" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B889" s="0" t="s">
         <v>259</v>
@@ -23640,7 +23639,7 @@
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B890" s="0" t="s">
         <v>259</v>
@@ -23654,7 +23653,7 @@
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B891" s="0" t="s">
         <v>290</v>
@@ -23662,7 +23661,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B892" s="0" t="s">
         <v>290</v>
@@ -23673,7 +23672,7 @@
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B893" s="0" t="s">
         <v>297</v>
@@ -23681,7 +23680,7 @@
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B894" s="0" t="s">
         <v>293</v>
@@ -23689,7 +23688,7 @@
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B895" s="0" t="s">
         <v>293</v>
@@ -23697,7 +23696,7 @@
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B896" s="0" t="s">
         <v>293</v>
@@ -23705,7 +23704,7 @@
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B897" s="0" t="s">
         <v>293</v>
@@ -23713,7 +23712,7 @@
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B898" s="0" t="s">
         <v>293</v>
@@ -23721,7 +23720,7 @@
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B899" s="0" t="s">
         <v>296</v>
@@ -23732,7 +23731,7 @@
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B900" s="0" t="s">
         <v>296</v>
@@ -23740,7 +23739,7 @@
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B901" s="0" t="s">
         <v>294</v>
@@ -23752,15 +23751,15 @@
         <v>1</v>
       </c>
       <c r="H901" s="0" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I901" s="0" t="s">
         <v>1466</v>
-      </c>
-      <c r="I901" s="0" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B902" s="0" t="s">
         <v>294</v>
@@ -23772,32 +23771,32 @@
         <v>1</v>
       </c>
       <c r="H902" s="0" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I902" s="0" t="s">
         <v>1466</v>
-      </c>
-      <c r="I902" s="0" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B903" s="0" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C903" s="0" t="s">
         <v>123</v>
       </c>
       <c r="H903" s="0" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I903" s="0" t="s">
         <v>1466</v>
-      </c>
-      <c r="I903" s="0" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B904" s="0" t="s">
         <v>295</v>
@@ -23809,15 +23808,15 @@
         <v>1</v>
       </c>
       <c r="H904" s="0" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I904" s="0" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B905" s="0" t="s">
         <v>295</v>
@@ -23829,15 +23828,15 @@
         <v>1</v>
       </c>
       <c r="H905" s="0" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I905" s="0" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B906" s="0" t="s">
         <v>295</v>
@@ -23849,15 +23848,15 @@
         <v>1</v>
       </c>
       <c r="H906" s="0" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I906" s="0" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B907" s="0" t="s">
         <v>295</v>
@@ -23869,15 +23868,15 @@
         <v>1</v>
       </c>
       <c r="H907" s="0" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I907" s="0" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B908" s="0" t="s">
         <v>295</v>
@@ -23889,15 +23888,15 @@
         <v>1</v>
       </c>
       <c r="H908" s="0" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I908" s="0" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B909" s="0" t="s">
         <v>295</v>
@@ -23909,15 +23908,15 @@
         <v>1</v>
       </c>
       <c r="H909" s="0" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I909" s="0" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B910" s="0" t="s">
         <v>295</v>
@@ -23929,15 +23928,15 @@
         <v>1</v>
       </c>
       <c r="H910" s="0" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I910" s="0" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B911" s="0" t="s">
         <v>295</v>
@@ -23949,18 +23948,18 @@
         <v>1</v>
       </c>
       <c r="H911" s="0" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I911" s="0" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C912" s="0" t="s">
         <v>289</v>
@@ -23968,7 +23967,7 @@
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B913" s="0" t="s">
         <v>300</v>
@@ -23976,7 +23975,7 @@
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B914" s="0" t="s">
         <v>300</v>
@@ -23984,7 +23983,7 @@
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B915" s="0" t="s">
         <v>110</v>
@@ -23992,7 +23991,7 @@
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B916" s="0" t="s">
         <v>110</v>
@@ -24000,7 +23999,7 @@
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B917" s="0" t="s">
         <v>110</v>
@@ -24008,7 +24007,7 @@
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B918" s="0" t="s">
         <v>301</v>
@@ -24016,7 +24015,7 @@
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B919" s="0" t="s">
         <v>302</v>
@@ -24024,7 +24023,7 @@
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B920" s="0" t="s">
         <v>302</v>
@@ -24032,7 +24031,7 @@
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B921" s="0" t="s">
         <v>302</v>
@@ -24040,7 +24039,7 @@
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B922" s="0" t="s">
         <v>302</v>
@@ -24048,7 +24047,7 @@
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B923" s="0" t="s">
         <v>304</v>
@@ -24059,7 +24058,7 @@
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B924" s="0" t="s">
         <v>304</v>
@@ -24070,7 +24069,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B925" s="0" t="s">
         <v>304</v>
@@ -24081,7 +24080,7 @@
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B926" s="0" t="s">
         <v>303</v>
@@ -24092,7 +24091,7 @@
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B927" s="0" t="s">
         <v>303</v>
@@ -24103,7 +24102,7 @@
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B928" s="0" t="s">
         <v>303</v>
@@ -24117,7 +24116,7 @@
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B929" s="0" t="s">
         <v>303</v>
@@ -24128,7 +24127,7 @@
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B930" s="0" t="s">
         <v>307</v>
@@ -24136,7 +24135,7 @@
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B931" s="0" t="s">
         <v>308</v>
@@ -24144,7 +24143,7 @@
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B932" s="0" t="s">
         <v>105</v>
@@ -24152,7 +24151,7 @@
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B933" s="0" t="s">
         <v>114</v>
@@ -24160,7 +24159,7 @@
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B934" s="0" t="s">
         <v>76</v>
@@ -24172,12 +24171,12 @@
         <v>1</v>
       </c>
       <c r="H934" s="0" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B935" s="0" t="s">
         <v>76</v>
@@ -24189,12 +24188,12 @@
         <v>1</v>
       </c>
       <c r="H935" s="0" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B936" s="0" t="s">
         <v>76</v>
@@ -24206,20 +24205,20 @@
         <v>1</v>
       </c>
       <c r="H936" s="0" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B937" s="0" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B938" s="0" t="s">
         <v>458</v>
@@ -24227,7 +24226,7 @@
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B939" s="0" t="s">
         <v>461</v>
@@ -24235,7 +24234,7 @@
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B940" s="0" t="s">
         <v>465</v>
@@ -24243,7 +24242,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B941" s="0" t="s">
         <v>466</v>
@@ -24251,7 +24250,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B942" s="0" t="s">
         <v>467</v>
@@ -24259,7 +24258,7 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B943" s="0" t="s">
         <v>468</v>
@@ -24267,10 +24266,10 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B944" s="0" t="s">
         <v>1509</v>
-      </c>
-      <c r="B944" s="0" t="s">
-        <v>1510</v>
       </c>
       <c r="C944" s="0" t="s">
         <v>43</v>
@@ -24281,10 +24280,10 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B945" s="0" t="s">
         <v>1511</v>
-      </c>
-      <c r="B945" s="0" t="s">
-        <v>1512</v>
       </c>
       <c r="C945" s="0" t="s">
         <v>43</v>
@@ -24295,10 +24294,10 @@
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B946" s="0" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C946" s="0" t="s">
         <v>43</v>
@@ -24309,10 +24308,10 @@
     </row>
     <row r="947" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="5" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B947" s="0" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C947" s="0" t="s">
         <v>43</v>
@@ -24322,11 +24321,11 @@
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="9" t="s">
-        <v>1515</v>
+      <c r="A948" s="6" t="s">
+        <v>1514</v>
       </c>
       <c r="B948" s="0" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C948" s="0" t="s">
         <v>43</v>
@@ -24336,11 +24335,11 @@
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="9" t="s">
-        <v>1516</v>
+      <c r="A949" s="6" t="s">
+        <v>1515</v>
       </c>
       <c r="B949" s="0" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C949" s="0" t="s">
         <v>43</v>
@@ -24351,10 +24350,10 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B950" s="0" t="s">
         <v>1517</v>
-      </c>
-      <c r="B950" s="0" t="s">
-        <v>1518</v>
       </c>
       <c r="C950" s="0" t="s">
         <v>43</v>
@@ -24365,10 +24364,10 @@
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B951" s="0" t="s">
         <v>1519</v>
-      </c>
-      <c r="B951" s="0" t="s">
-        <v>1520</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>43</v>
@@ -24379,10 +24378,10 @@
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B952" s="0" t="s">
         <v>1521</v>
-      </c>
-      <c r="B952" s="0" t="s">
-        <v>1522</v>
       </c>
       <c r="C952" s="0" t="s">
         <v>43</v>
@@ -24393,10 +24392,10 @@
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B953" s="0" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>43</v>
@@ -24407,10 +24406,10 @@
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B954" s="0" t="s">
         <v>1524</v>
-      </c>
-      <c r="B954" s="0" t="s">
-        <v>1525</v>
       </c>
       <c r="C954" s="0" t="s">
         <v>43</v>
@@ -24421,10 +24420,10 @@
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B955" s="0" t="s">
         <v>1526</v>
-      </c>
-      <c r="B955" s="0" t="s">
-        <v>1527</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>43</v>
@@ -24435,10 +24434,10 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B956" s="0" t="s">
         <v>1528</v>
-      </c>
-      <c r="B956" s="0" t="s">
-        <v>1529</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>43</v>
@@ -24449,10 +24448,10 @@
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B957" s="0" t="s">
         <v>1530</v>
-      </c>
-      <c r="B957" s="0" t="s">
-        <v>1531</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>43</v>
@@ -24463,10 +24462,10 @@
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B958" s="0" t="s">
         <v>1532</v>
-      </c>
-      <c r="B958" s="0" t="s">
-        <v>1533</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>43</v>
@@ -24477,10 +24476,10 @@
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B959" s="0" t="s">
         <v>1534</v>
-      </c>
-      <c r="B959" s="0" t="s">
-        <v>1535</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>43</v>
@@ -24491,10 +24490,10 @@
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B960" s="0" t="s">
         <v>1536</v>
-      </c>
-      <c r="B960" s="0" t="s">
-        <v>1537</v>
       </c>
       <c r="C960" s="0" t="s">
         <v>43</v>
@@ -24505,10 +24504,10 @@
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B961" s="0" t="s">
         <v>1538</v>
-      </c>
-      <c r="B961" s="0" t="s">
-        <v>1539</v>
       </c>
       <c r="C961" s="0" t="s">
         <v>43</v>
@@ -24519,10 +24518,10 @@
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B962" s="0" t="s">
         <v>1540</v>
-      </c>
-      <c r="B962" s="0" t="s">
-        <v>1541</v>
       </c>
       <c r="C962" s="0" t="s">
         <v>43</v>
@@ -24533,10 +24532,10 @@
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B963" s="0" t="s">
         <v>1542</v>
-      </c>
-      <c r="B963" s="0" t="s">
-        <v>1543</v>
       </c>
       <c r="C963" s="0" t="s">
         <v>43</v>
@@ -24547,10 +24546,10 @@
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B964" s="0" t="s">
         <v>1544</v>
-      </c>
-      <c r="B964" s="0" t="s">
-        <v>1545</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>43</v>
@@ -24561,10 +24560,10 @@
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B965" s="0" t="s">
         <v>1546</v>
-      </c>
-      <c r="B965" s="0" t="s">
-        <v>1547</v>
       </c>
       <c r="C965" s="0" t="s">
         <v>43</v>
@@ -24575,10 +24574,10 @@
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B966" s="0" t="s">
         <v>1548</v>
-      </c>
-      <c r="B966" s="0" t="s">
-        <v>1549</v>
       </c>
       <c r="C966" s="0" t="s">
         <v>43</v>
@@ -24589,10 +24588,10 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B967" s="0" t="s">
         <v>1550</v>
-      </c>
-      <c r="B967" s="0" t="s">
-        <v>1551</v>
       </c>
       <c r="C967" s="0" t="s">
         <v>43</v>
@@ -24603,10 +24602,10 @@
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B968" s="0" t="s">
         <v>1552</v>
-      </c>
-      <c r="B968" s="0" t="s">
-        <v>1553</v>
       </c>
       <c r="C968" s="0" t="s">
         <v>43</v>
@@ -24617,10 +24616,10 @@
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B969" s="0" t="s">
         <v>1554</v>
-      </c>
-      <c r="B969" s="0" t="s">
-        <v>1555</v>
       </c>
       <c r="C969" s="0" t="s">
         <v>43</v>
@@ -24631,10 +24630,10 @@
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B970" s="0" t="s">
         <v>1556</v>
-      </c>
-      <c r="B970" s="0" t="s">
-        <v>1557</v>
       </c>
       <c r="C970" s="0" t="s">
         <v>43</v>
@@ -24645,10 +24644,10 @@
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B971" s="0" t="s">
         <v>1558</v>
-      </c>
-      <c r="B971" s="0" t="s">
-        <v>1559</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>43</v>
@@ -24662,7 +24661,7 @@
         <v>1701</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>43</v>
@@ -24676,7 +24675,7 @@
         <v>1702</v>
       </c>
       <c r="B973" s="0" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C973" s="0" t="s">
         <v>43</v>
@@ -24690,7 +24689,7 @@
         <v>1703</v>
       </c>
       <c r="B974" s="0" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C974" s="0" t="s">
         <v>43</v>
@@ -24704,7 +24703,7 @@
         <v>1704</v>
       </c>
       <c r="B975" s="0" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C975" s="0" t="s">
         <v>43</v>
@@ -24718,7 +24717,7 @@
         <v>1705</v>
       </c>
       <c r="B976" s="0" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C976" s="0" t="s">
         <v>43</v>
@@ -24732,7 +24731,7 @@
         <v>1706</v>
       </c>
       <c r="B977" s="0" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C977" s="0" t="s">
         <v>43</v>
@@ -24746,7 +24745,7 @@
         <v>1707</v>
       </c>
       <c r="B978" s="0" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C978" s="0" t="s">
         <v>43</v>
@@ -24760,7 +24759,7 @@
         <v>1708</v>
       </c>
       <c r="B979" s="0" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>43</v>
@@ -24774,7 +24773,7 @@
         <v>1709</v>
       </c>
       <c r="B980" s="0" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>43</v>
@@ -24788,7 +24787,7 @@
         <v>1710</v>
       </c>
       <c r="B981" s="0" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C981" s="0" t="s">
         <v>43</v>
@@ -24802,7 +24801,7 @@
         <v>1711</v>
       </c>
       <c r="B982" s="0" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C982" s="0" t="s">
         <v>43</v>
@@ -24816,7 +24815,7 @@
         <v>1712</v>
       </c>
       <c r="B983" s="0" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>43</v>
@@ -24830,7 +24829,7 @@
         <v>1713</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>43</v>
@@ -24844,7 +24843,7 @@
         <v>1714</v>
       </c>
       <c r="B985" s="0" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C985" s="0" t="s">
         <v>43</v>
@@ -24858,7 +24857,7 @@
         <v>1715</v>
       </c>
       <c r="B986" s="0" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C986" s="0" t="s">
         <v>43</v>
@@ -24872,7 +24871,7 @@
         <v>1716</v>
       </c>
       <c r="B987" s="0" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C987" s="0" t="s">
         <v>43</v>
@@ -24886,7 +24885,7 @@
         <v>1717</v>
       </c>
       <c r="B988" s="0" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C988" s="0" t="s">
         <v>43</v>
@@ -24900,7 +24899,7 @@
         <v>1718</v>
       </c>
       <c r="B989" s="0" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>43</v>
@@ -24914,7 +24913,7 @@
         <v>1719</v>
       </c>
       <c r="B990" s="0" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C990" s="0" t="s">
         <v>43</v>
@@ -24928,7 +24927,7 @@
         <v>1720</v>
       </c>
       <c r="B991" s="0" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>43</v>
@@ -24942,7 +24941,7 @@
         <v>1721</v>
       </c>
       <c r="B992" s="0" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C992" s="0" t="s">
         <v>43</v>
@@ -24956,7 +24955,7 @@
         <v>1722</v>
       </c>
       <c r="B993" s="0" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C993" s="0" t="s">
         <v>43</v>
@@ -24970,7 +24969,7 @@
         <v>1723</v>
       </c>
       <c r="B994" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C994" s="0" t="s">
         <v>43</v>
@@ -24981,24 +24980,24 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B995" s="0" t="s">
         <v>1560</v>
-      </c>
-      <c r="B995" s="0" t="s">
-        <v>1561</v>
       </c>
       <c r="C995" s="0" t="s">
         <v>293</v>
       </c>
       <c r="J995" s="0" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B996" s="0" t="s">
         <v>1563</v>
-      </c>
-      <c r="B996" s="0" t="s">
-        <v>1564</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>293</v>
@@ -25007,15 +25006,15 @@
         <v>1</v>
       </c>
       <c r="J996" s="0" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>293</v>
@@ -25024,15 +25023,15 @@
         <v>1</v>
       </c>
       <c r="J997" s="0" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>293</v>
@@ -25041,15 +25040,15 @@
         <v>1</v>
       </c>
       <c r="J998" s="0" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B999" s="0" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>293</v>
@@ -25058,15 +25057,15 @@
         <v>1</v>
       </c>
       <c r="J999" s="0" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B1000" s="0" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>293</v>
@@ -25075,15 +25074,15 @@
         <v>1</v>
       </c>
       <c r="J1000" s="0" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>293</v>
@@ -25092,15 +25091,15 @@
         <v>1</v>
       </c>
       <c r="J1001" s="0" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1002" s="0" t="s">
         <v>1572</v>
-      </c>
-      <c r="B1002" s="0" t="s">
-        <v>1573</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>293</v>
@@ -25109,15 +25108,15 @@
         <v>1</v>
       </c>
       <c r="J1002" s="0" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B1003" s="0" t="s">
         <v>1575</v>
-      </c>
-      <c r="B1003" s="0" t="s">
-        <v>1576</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>293</v>
@@ -25126,15 +25125,15 @@
         <v>1</v>
       </c>
       <c r="J1003" s="0" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B1004" s="0" t="s">
         <v>1578</v>
-      </c>
-      <c r="B1004" s="0" t="s">
-        <v>1579</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>293</v>
@@ -25143,15 +25142,15 @@
         <v>1</v>
       </c>
       <c r="J1004" s="0" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1005" s="0" t="s">
         <v>1581</v>
-      </c>
-      <c r="B1005" s="0" t="s">
-        <v>1582</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>293</v>
@@ -25160,15 +25159,15 @@
         <v>1</v>
       </c>
       <c r="J1005" s="0" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C1006" s="0" t="s">
         <v>293</v>
@@ -25177,15 +25176,15 @@
         <v>1</v>
       </c>
       <c r="J1006" s="0" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1007" s="0" t="s">
         <v>1586</v>
-      </c>
-      <c r="B1007" s="0" t="s">
-        <v>1587</v>
       </c>
       <c r="C1007" s="0" t="s">
         <v>293</v>
@@ -25194,15 +25193,15 @@
         <v>1</v>
       </c>
       <c r="J1007" s="0" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1008" s="0" t="s">
         <v>1589</v>
-      </c>
-      <c r="B1008" s="0" t="s">
-        <v>1590</v>
       </c>
       <c r="C1008" s="0" t="s">
         <v>293</v>
@@ -25211,15 +25210,15 @@
         <v>1</v>
       </c>
       <c r="J1008" s="0" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1009" s="0" t="s">
         <v>1592</v>
-      </c>
-      <c r="B1009" s="0" t="s">
-        <v>1593</v>
       </c>
       <c r="C1009" s="0" t="s">
         <v>293</v>
@@ -25228,15 +25227,15 @@
         <v>1</v>
       </c>
       <c r="J1009" s="0" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1010" s="0" t="s">
         <v>1595</v>
-      </c>
-      <c r="B1010" s="0" t="s">
-        <v>1596</v>
       </c>
       <c r="C1010" s="0" t="s">
         <v>293</v>
@@ -25245,15 +25244,15 @@
         <v>1</v>
       </c>
       <c r="J1010" s="0" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1011" s="0" t="s">
         <v>1598</v>
-      </c>
-      <c r="B1011" s="0" t="s">
-        <v>1599</v>
       </c>
       <c r="C1011" s="0" t="s">
         <v>293</v>
@@ -25262,15 +25261,15 @@
         <v>1</v>
       </c>
       <c r="J1011" s="0" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1012" s="0" t="s">
         <v>1601</v>
-      </c>
-      <c r="B1012" s="0" t="s">
-        <v>1602</v>
       </c>
       <c r="C1012" s="0" t="s">
         <v>293</v>
@@ -25279,15 +25278,15 @@
         <v>1</v>
       </c>
       <c r="J1012" s="0" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B1013" s="0" t="s">
         <v>1604</v>
-      </c>
-      <c r="B1013" s="0" t="s">
-        <v>1605</v>
       </c>
       <c r="C1013" s="0" t="s">
         <v>293</v>
@@ -25296,15 +25295,15 @@
         <v>1</v>
       </c>
       <c r="J1013" s="0" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1014" s="0" t="s">
         <v>1116</v>
-      </c>
-      <c r="B1014" s="0" t="s">
-        <v>1117</v>
       </c>
       <c r="C1014" s="0" t="s">
         <v>293</v>
@@ -25313,15 +25312,15 @@
         <v>1</v>
       </c>
       <c r="J1014" s="0" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1015" s="0" t="s">
         <v>1608</v>
-      </c>
-      <c r="B1015" s="0" t="s">
-        <v>1609</v>
       </c>
       <c r="C1015" s="0" t="s">
         <v>293</v>
@@ -25330,15 +25329,15 @@
         <v>1</v>
       </c>
       <c r="J1015" s="0" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1016" s="0" t="s">
         <v>1611</v>
-      </c>
-      <c r="B1016" s="0" t="s">
-        <v>1612</v>
       </c>
       <c r="C1016" s="0" t="s">
         <v>293</v>
@@ -25347,15 +25346,15 @@
         <v>1</v>
       </c>
       <c r="J1016" s="0" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1017" s="0" t="s">
         <v>1614</v>
-      </c>
-      <c r="B1017" s="0" t="s">
-        <v>1615</v>
       </c>
       <c r="C1017" s="0" t="s">
         <v>293</v>
@@ -25364,15 +25363,15 @@
         <v>1</v>
       </c>
       <c r="J1017" s="0" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B1018" s="0" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C1018" s="0" t="s">
         <v>293</v>
@@ -25381,15 +25380,15 @@
         <v>1</v>
       </c>
       <c r="J1018" s="0" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1019" s="0" t="s">
         <v>1619</v>
-      </c>
-      <c r="B1019" s="0" t="s">
-        <v>1620</v>
       </c>
       <c r="C1019" s="0" t="s">
         <v>293</v>
@@ -25398,15 +25397,15 @@
         <v>1</v>
       </c>
       <c r="J1019" s="0" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1020" s="0" t="s">
         <v>1622</v>
-      </c>
-      <c r="B1020" s="0" t="s">
-        <v>1623</v>
       </c>
       <c r="C1020" s="0" t="s">
         <v>293</v>
@@ -25415,15 +25414,15 @@
         <v>1</v>
       </c>
       <c r="J1020" s="0" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1021" s="0" t="s">
         <v>1625</v>
-      </c>
-      <c r="B1021" s="0" t="s">
-        <v>1626</v>
       </c>
       <c r="C1021" s="0" t="s">
         <v>293</v>
@@ -25432,15 +25431,15 @@
         <v>1</v>
       </c>
       <c r="J1021" s="0" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1022" s="0" t="s">
         <v>1628</v>
-      </c>
-      <c r="B1022" s="0" t="s">
-        <v>1629</v>
       </c>
       <c r="C1022" s="0" t="s">
         <v>293</v>
@@ -25449,15 +25448,15 @@
         <v>1</v>
       </c>
       <c r="J1022" s="0" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1023" s="0" t="s">
         <v>1631</v>
-      </c>
-      <c r="B1023" s="0" t="s">
-        <v>1632</v>
       </c>
       <c r="C1023" s="0" t="s">
         <v>293</v>
@@ -25466,7 +25465,7 @@
         <v>1</v>
       </c>
       <c r="J1023" s="0" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="1641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="1642">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -2815,6 +2815,9 @@
   </si>
   <si>
     <t xml:space="preserve">Holy See (Vatican City State)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy See</t>
   </si>
   <si>
     <t xml:space="preserve">Honduras</t>
@@ -4956,7 +4959,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5065,11 +5068,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -5219,7 +5217,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5245,10 +5243,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5362,32 +5356,32 @@
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="6.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="35" style="0" width="8.71"/>
@@ -14900,14 +14894,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1033"/>
+  <dimension ref="A1:J1034"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B351" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A311" activeCellId="0" sqref="A311"/>
-      <selection pane="bottomRight" activeCell="D324" activeCellId="0" sqref="D324"/>
+      <selection pane="bottomLeft" activeCell="A351" activeCellId="0" sqref="A351"/>
+      <selection pane="bottomRight" activeCell="C373" activeCellId="0" sqref="C373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18579,7 +18573,7 @@
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="7" t="s">
+      <c r="A371" s="6" t="s">
         <v>929</v>
       </c>
       <c r="B371" s="0" t="s">
@@ -18595,19 +18589,19 @@
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="7" t="s">
-        <v>929</v>
+      <c r="A373" s="0" t="s">
+        <v>931</v>
       </c>
       <c r="B373" s="0" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="0" t="s">
-        <v>931</v>
+      <c r="A374" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>142</v>
+        <v>291</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18615,10 +18609,7 @@
         <v>932</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C375" s="0" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18692,7 +18683,10 @@
         <v>939</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18710,9 +18704,6 @@
       <c r="B384" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E384" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
@@ -18722,7 +18713,7 @@
         <v>145</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18730,7 +18721,10 @@
         <v>943</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="E386" s="0" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18738,7 +18732,7 @@
         <v>944</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>268</v>
+        <v>140</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18746,7 +18740,7 @@
         <v>945</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18756,16 +18750,16 @@
       <c r="B389" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="E389" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
         <v>947</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
+      </c>
+      <c r="E390" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18775,16 +18769,16 @@
       <c r="B391" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="E391" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
         <v>949</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="E392" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18794,16 +18788,16 @@
       <c r="B393" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="E393" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
         <v>951</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="E394" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18843,7 +18837,7 @@
         <v>956</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18853,16 +18847,16 @@
       <c r="B400" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="E400" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
         <v>958</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="E401" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18880,19 +18874,16 @@
       <c r="B403" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="E403" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
         <v>961</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C404" s="0" t="s">
-        <v>123</v>
+        <v>149</v>
+      </c>
+      <c r="E404" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18900,10 +18891,10 @@
         <v>962</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="E405" s="0" t="s">
-        <v>549</v>
+        <v>147</v>
+      </c>
+      <c r="C405" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18913,13 +18904,16 @@
       <c r="B406" s="0" t="s">
         <v>153</v>
       </c>
+      <c r="E406" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
         <v>964</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18929,9 +18923,6 @@
       <c r="B408" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="E408" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
@@ -18940,13 +18931,16 @@
       <c r="B409" s="0" t="s">
         <v>154</v>
       </c>
+      <c r="E409" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
         <v>967</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18954,10 +18948,7 @@
         <v>968</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E411" s="0" t="s">
-        <v>549</v>
+        <v>155</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18967,16 +18958,16 @@
       <c r="B412" s="0" t="s">
         <v>158</v>
       </c>
+      <c r="E412" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
         <v>970</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C413" s="0" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18984,7 +18975,10 @@
         <v>971</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="C414" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18994,27 +18988,27 @@
       <c r="B415" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E415" s="0" t="s">
-        <v>826</v>
-      </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="5" t="s">
+      <c r="A416" s="0" t="s">
         <v>973</v>
       </c>
       <c r="B416" s="0" t="s">
         <v>157</v>
       </c>
       <c r="E416" s="0" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E417" s="0" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="0" t="s">
-        <v>974</v>
-      </c>
-      <c r="B417" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19024,27 +19018,27 @@
       <c r="B418" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="E418" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="5" t="s">
+      <c r="A419" s="0" t="s">
         <v>976</v>
       </c>
       <c r="B419" s="0" t="s">
         <v>159</v>
       </c>
       <c r="E419" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E420" s="0" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B420" s="0" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19052,7 +19046,7 @@
         <v>978</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19060,7 +19054,7 @@
         <v>979</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19068,7 +19062,7 @@
         <v>980</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19158,16 +19152,16 @@
       <c r="B434" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="E434" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
         <v>992</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>165</v>
+        <v>229</v>
+      </c>
+      <c r="E435" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19187,22 +19181,22 @@
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="5" t="s">
+      <c r="A438" s="0" t="s">
         <v>995</v>
       </c>
       <c r="B438" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E438" s="0" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="0" t="s">
+      <c r="A439" s="5" t="s">
         <v>996</v>
       </c>
       <c r="B439" s="0" t="s">
         <v>165</v>
+      </c>
+      <c r="E439" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19276,9 +19270,6 @@
       <c r="B448" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E448" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
@@ -19287,6 +19278,9 @@
       <c r="B449" s="0" t="s">
         <v>165</v>
       </c>
+      <c r="E449" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
@@ -19309,7 +19303,7 @@
         <v>1009</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19317,7 +19311,7 @@
         <v>1010</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19335,9 +19329,6 @@
       <c r="B455" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E455" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
@@ -19346,6 +19337,9 @@
       <c r="B456" s="0" t="s">
         <v>161</v>
       </c>
+      <c r="E456" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
@@ -19360,7 +19354,7 @@
         <v>1015</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19384,7 +19378,7 @@
         <v>1018</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19394,30 +19388,27 @@
       <c r="B462" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="E462" s="0" t="s">
-        <v>826</v>
-      </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="5" t="s">
+      <c r="A463" s="0" t="s">
         <v>1020</v>
       </c>
       <c r="B463" s="0" t="s">
         <v>178</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>557</v>
+        <v>826</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="0" t="s">
+      <c r="A464" s="5" t="s">
         <v>1021</v>
       </c>
       <c r="B464" s="0" t="s">
         <v>178</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19425,7 +19416,10 @@
         <v>1022</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
+      </c>
+      <c r="E465" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19443,16 +19437,16 @@
       <c r="B467" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="E467" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
         <v>1025</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="E468" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19460,7 +19454,7 @@
         <v>1026</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19468,7 +19462,7 @@
         <v>1027</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19486,16 +19480,16 @@
       <c r="B472" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="E472" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
         <v>1030</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="E473" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19503,7 +19497,7 @@
         <v>1031</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19521,16 +19515,16 @@
       <c r="B476" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="E476" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
         <v>1034</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="E477" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19540,30 +19534,27 @@
       <c r="B478" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E478" s="0" t="s">
-        <v>826</v>
-      </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="5" t="s">
+      <c r="A479" s="0" t="s">
         <v>1036</v>
       </c>
       <c r="B479" s="0" t="s">
         <v>177</v>
       </c>
       <c r="E479" s="0" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E480" s="0" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="0" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B480" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C480" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19604,7 +19595,10 @@
         <v>1041</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19630,9 +19624,6 @@
       <c r="B487" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E487" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
@@ -19641,6 +19632,9 @@
       <c r="B488" s="0" t="s">
         <v>191</v>
       </c>
+      <c r="E488" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
@@ -19681,27 +19675,27 @@
       <c r="B493" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E493" s="0" t="s">
-        <v>826</v>
-      </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="5" t="s">
+      <c r="A494" s="0" t="s">
         <v>1051</v>
       </c>
       <c r="B494" s="0" t="s">
         <v>191</v>
       </c>
       <c r="E494" s="0" t="s">
-        <v>557</v>
+        <v>826</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="0" t="s">
+      <c r="A495" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="B495" s="0" t="s">
         <v>191</v>
+      </c>
+      <c r="E495" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19725,7 +19719,7 @@
         <v>1055</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19733,7 +19727,7 @@
         <v>1056</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19741,7 +19735,7 @@
         <v>1057</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19749,7 +19743,7 @@
         <v>1058</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19757,7 +19751,7 @@
         <v>1059</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19765,7 +19759,7 @@
         <v>1060</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19773,7 +19767,7 @@
         <v>1061</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19789,7 +19783,7 @@
         <v>1063</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19805,7 +19799,7 @@
         <v>1065</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19829,7 +19823,7 @@
         <v>1068</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19837,7 +19831,7 @@
         <v>1069</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19845,7 +19839,7 @@
         <v>1070</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19853,7 +19847,7 @@
         <v>1071</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19869,13 +19863,7 @@
         <v>1073</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C516" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="F516" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19883,7 +19871,7 @@
         <v>1074</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C517" s="0" t="s">
         <v>187</v>
@@ -19897,7 +19885,7 @@
         <v>1075</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C518" s="0" t="s">
         <v>187</v>
@@ -19911,7 +19899,7 @@
         <v>1076</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C519" s="0" t="s">
         <v>187</v>
@@ -19925,7 +19913,7 @@
         <v>1077</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C520" s="0" t="s">
         <v>187</v>
@@ -19939,7 +19927,7 @@
         <v>1078</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C521" s="0" t="s">
         <v>187</v>
@@ -19953,7 +19941,7 @@
         <v>1079</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C522" s="0" t="s">
         <v>187</v>
@@ -19967,7 +19955,7 @@
         <v>1080</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C523" s="0" t="s">
         <v>187</v>
@@ -19981,7 +19969,7 @@
         <v>1081</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>1082</v>
+        <v>356</v>
       </c>
       <c r="C524" s="0" t="s">
         <v>187</v>
@@ -19992,10 +19980,10 @@
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B525" s="0" t="s">
         <v>1083</v>
-      </c>
-      <c r="B525" s="0" t="s">
-        <v>1082</v>
       </c>
       <c r="C525" s="0" t="s">
         <v>187</v>
@@ -20009,7 +19997,7 @@
         <v>1084</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C526" s="0" t="s">
         <v>187</v>
@@ -20023,7 +20011,7 @@
         <v>1085</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>357</v>
+        <v>1083</v>
       </c>
       <c r="C527" s="0" t="s">
         <v>187</v>
@@ -20037,7 +20025,7 @@
         <v>1086</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C528" s="0" t="s">
         <v>187</v>
@@ -20051,7 +20039,7 @@
         <v>1087</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C529" s="0" t="s">
         <v>187</v>
@@ -20065,7 +20053,7 @@
         <v>1088</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C530" s="0" t="s">
         <v>187</v>
@@ -20079,7 +20067,7 @@
         <v>1089</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C531" s="0" t="s">
         <v>187</v>
@@ -20093,7 +20081,7 @@
         <v>1090</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C532" s="0" t="s">
         <v>187</v>
@@ -20121,7 +20109,7 @@
         <v>1092</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C534" s="0" t="s">
         <v>187</v>
@@ -20149,7 +20137,7 @@
         <v>1094</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C536" s="0" t="s">
         <v>187</v>
@@ -20163,7 +20151,7 @@
         <v>1095</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C537" s="0" t="s">
         <v>187</v>
@@ -20177,7 +20165,7 @@
         <v>1096</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C538" s="0" t="s">
         <v>187</v>
@@ -20205,7 +20193,7 @@
         <v>1098</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C540" s="0" t="s">
         <v>187</v>
@@ -20219,7 +20207,7 @@
         <v>1099</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C541" s="0" t="s">
         <v>187</v>
@@ -20233,7 +20221,7 @@
         <v>1100</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C542" s="0" t="s">
         <v>187</v>
@@ -20247,7 +20235,7 @@
         <v>1101</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C543" s="0" t="s">
         <v>187</v>
@@ -20261,7 +20249,7 @@
         <v>1102</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C544" s="0" t="s">
         <v>187</v>
@@ -20275,7 +20263,7 @@
         <v>1103</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C545" s="0" t="s">
         <v>187</v>
@@ -20289,7 +20277,7 @@
         <v>1104</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C546" s="0" t="s">
         <v>187</v>
@@ -20303,7 +20291,7 @@
         <v>1105</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C547" s="0" t="s">
         <v>187</v>
@@ -20317,7 +20305,7 @@
         <v>1106</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C548" s="0" t="s">
         <v>187</v>
@@ -20331,7 +20319,7 @@
         <v>1107</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C549" s="0" t="s">
         <v>187</v>
@@ -20345,7 +20333,7 @@
         <v>1108</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C550" s="0" t="s">
         <v>187</v>
@@ -20359,7 +20347,7 @@
         <v>1109</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C551" s="0" t="s">
         <v>187</v>
@@ -20387,7 +20375,7 @@
         <v>1111</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C553" s="0" t="s">
         <v>187</v>
@@ -20401,7 +20389,13 @@
         <v>1112</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>120</v>
+        <v>379</v>
+      </c>
+      <c r="C554" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F554" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20435,9 +20429,6 @@
       <c r="B558" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="E558" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
@@ -20446,6 +20437,9 @@
       <c r="B559" s="0" t="s">
         <v>120</v>
       </c>
+      <c r="E559" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
@@ -20460,39 +20454,39 @@
         <v>1119</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="G561" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H561" s="0" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I561" s="0" t="s">
-        <v>1121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B562" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G562" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H562" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I562" s="0" t="s">
         <v>1122</v>
       </c>
-      <c r="B562" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E562" s="0" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="5" t="s">
+      <c r="A563" s="0" t="s">
         <v>1123</v>
       </c>
       <c r="B563" s="0" t="s">
         <v>184</v>
       </c>
+      <c r="E563" s="0" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="0" t="s">
+      <c r="A564" s="5" t="s">
         <v>1124</v>
       </c>
       <c r="B564" s="0" t="s">
@@ -20520,7 +20514,7 @@
         <v>1127</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20528,7 +20522,7 @@
         <v>1128</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20538,16 +20532,16 @@
       <c r="B569" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E569" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
         <v>1130</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="E570" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20555,7 +20549,7 @@
         <v>1131</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20563,7 +20557,7 @@
         <v>1132</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20597,9 +20591,6 @@
       <c r="B576" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E576" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
@@ -20609,7 +20600,7 @@
         <v>181</v>
       </c>
       <c r="E577" s="0" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20617,7 +20608,10 @@
         <v>1138</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>198</v>
+        <v>181</v>
+      </c>
+      <c r="E578" s="0" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20633,7 +20627,7 @@
         <v>1140</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20657,7 +20651,7 @@
         <v>1143</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20665,7 +20659,7 @@
         <v>1144</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20673,7 +20667,7 @@
         <v>1145</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20681,7 +20675,7 @@
         <v>1146</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20701,22 +20695,22 @@
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="5" t="s">
+      <c r="A589" s="0" t="s">
         <v>1149</v>
       </c>
       <c r="B589" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E589" s="0" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="0" t="s">
+      <c r="A590" s="5" t="s">
         <v>1150</v>
       </c>
       <c r="B590" s="0" t="s">
         <v>213</v>
+      </c>
+      <c r="E590" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20734,19 +20728,16 @@
       <c r="B592" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E592" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
         <v>1153</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D593" s="0" t="n">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="E593" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20787,10 +20778,10 @@
         <v>1157</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C597" s="0" t="s">
-        <v>118</v>
+        <v>41</v>
+      </c>
+      <c r="D597" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20809,7 +20800,10 @@
         <v>1159</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>218</v>
+        <v>207</v>
+      </c>
+      <c r="C599" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20825,7 +20819,7 @@
         <v>1161</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20833,7 +20827,7 @@
         <v>1162</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20841,7 +20835,7 @@
         <v>1163</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20849,7 +20843,7 @@
         <v>1164</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20857,7 +20851,7 @@
         <v>1165</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20865,7 +20859,7 @@
         <v>1166</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20873,7 +20867,7 @@
         <v>1167</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20883,30 +20877,27 @@
       <c r="B608" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E608" s="0" t="s">
-        <v>826</v>
-      </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="5" t="s">
+      <c r="A609" s="0" t="s">
         <v>1169</v>
       </c>
       <c r="B609" s="0" t="s">
         <v>214</v>
       </c>
       <c r="E609" s="0" t="s">
-        <v>557</v>
+        <v>826</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="0" t="s">
+      <c r="A610" s="5" t="s">
         <v>1170</v>
       </c>
       <c r="B610" s="0" t="s">
         <v>214</v>
       </c>
       <c r="E610" s="0" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20914,7 +20905,10 @@
         <v>1171</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
+      </c>
+      <c r="E611" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20922,7 +20916,7 @@
         <v>1172</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20930,7 +20924,7 @@
         <v>1173</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20938,7 +20932,7 @@
         <v>1174</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20988,9 +20982,6 @@
       <c r="B620" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E620" s="0" t="s">
-        <v>826</v>
-      </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
@@ -20999,6 +20990,9 @@
       <c r="B621" s="0" t="s">
         <v>232</v>
       </c>
+      <c r="E621" s="0" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
@@ -21007,19 +21001,16 @@
       <c r="B622" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="I622" s="0" t="s">
-        <v>1183</v>
-      </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B623" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E623" s="0" t="s">
-        <v>549</v>
+      <c r="I623" s="0" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21030,7 +21021,7 @@
         <v>232</v>
       </c>
       <c r="E624" s="0" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21038,7 +21029,10 @@
         <v>1186</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>122</v>
+        <v>232</v>
+      </c>
+      <c r="E625" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21046,7 +21040,7 @@
         <v>1187</v>
       </c>
       <c r="B626" s="0" t="s">
-        <v>298</v>
+        <v>122</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21054,7 +21048,7 @@
         <v>1188</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21062,7 +21056,7 @@
         <v>1189</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21078,7 +21072,7 @@
         <v>1191</v>
       </c>
       <c r="B630" s="0" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21086,7 +21080,7 @@
         <v>1192</v>
       </c>
       <c r="B631" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21094,26 +21088,26 @@
         <v>1193</v>
       </c>
       <c r="B632" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="5" t="s">
+      <c r="A633" s="0" t="s">
         <v>1194</v>
       </c>
       <c r="B633" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E633" s="0" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="0" t="s">
+      <c r="A634" s="5" t="s">
         <v>1195</v>
       </c>
       <c r="B634" s="0" t="s">
         <v>224</v>
+      </c>
+      <c r="E634" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21147,16 +21141,16 @@
       <c r="B638" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E638" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
         <v>1200</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="E639" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21172,7 +21166,7 @@
         <v>1202</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21190,16 +21184,16 @@
       <c r="B643" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E643" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
         <v>1205</v>
       </c>
       <c r="B644" s="0" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="E644" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21215,21 +21209,12 @@
         <v>1207</v>
       </c>
       <c r="B646" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C646" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G646" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H646" s="0" t="s">
-        <v>1208</v>
+        <v>230</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B647" s="0" t="s">
         <v>228</v>
@@ -21241,26 +21226,35 @@
         <v>1</v>
       </c>
       <c r="H647" s="0" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="B648" s="0" t="s">
-        <v>1208</v>
+        <v>228</v>
       </c>
       <c r="C648" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G648" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H648" s="0" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B649" s="0" t="s">
-        <v>234</v>
+        <v>1209</v>
+      </c>
+      <c r="C649" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21268,7 +21262,7 @@
         <v>1211</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21286,9 +21280,6 @@
       <c r="B652" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C652" s="0" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
@@ -21306,7 +21297,10 @@
         <v>1215</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="C654" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21324,27 +21318,27 @@
       <c r="B656" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="E656" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="5" t="s">
+      <c r="A657" s="0" t="s">
         <v>1218</v>
       </c>
       <c r="B657" s="0" t="s">
         <v>236</v>
       </c>
       <c r="E657" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B658" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E658" s="0" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="0" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B658" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21354,9 +21348,6 @@
       <c r="B659" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E659" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
@@ -21365,6 +21356,9 @@
       <c r="B660" s="0" t="s">
         <v>237</v>
       </c>
+      <c r="E660" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
@@ -21375,22 +21369,22 @@
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="5" t="s">
+      <c r="A662" s="0" t="s">
         <v>1223</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E662" s="0" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="0" t="s">
+      <c r="A663" s="5" t="s">
         <v>1224</v>
       </c>
       <c r="B663" s="0" t="s">
         <v>237</v>
+      </c>
+      <c r="E663" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21398,7 +21392,7 @@
         <v>1225</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21414,10 +21408,7 @@
         <v>1227</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C666" s="0" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21436,7 +21427,10 @@
         <v>1229</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>246</v>
+        <v>460</v>
+      </c>
+      <c r="C668" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21452,7 +21446,7 @@
         <v>1231</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>457</v>
+        <v>246</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21460,7 +21454,7 @@
         <v>1232</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21476,7 +21470,7 @@
         <v>1234</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21484,7 +21478,7 @@
         <v>1235</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21516,7 +21510,7 @@
         <v>1239</v>
       </c>
       <c r="B678" s="0" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21532,10 +21526,7 @@
         <v>1241</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C680" s="0" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21554,7 +21545,10 @@
         <v>1243</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>253</v>
+        <v>180</v>
+      </c>
+      <c r="C682" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21570,7 +21564,7 @@
         <v>1245</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21626,7 +21620,7 @@
         <v>1252</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21650,21 +21644,12 @@
         <v>1255</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C694" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G694" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H694" s="0" t="s">
-        <v>1256</v>
+        <v>301</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B695" s="0" t="s">
         <v>46</v>
@@ -21676,15 +21661,24 @@
         <v>1</v>
       </c>
       <c r="H695" s="0" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B696" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C696" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G696" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H696" s="0" t="s">
         <v>1257</v>
-      </c>
-      <c r="B696" s="0" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21692,7 +21686,7 @@
         <v>1258</v>
       </c>
       <c r="B697" s="0" t="s">
-        <v>250</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21700,7 +21694,7 @@
         <v>1259</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21732,7 +21726,7 @@
         <v>1263</v>
       </c>
       <c r="B702" s="0" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21756,7 +21750,7 @@
         <v>1266</v>
       </c>
       <c r="B705" s="0" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21764,7 +21758,7 @@
         <v>1267</v>
       </c>
       <c r="B706" s="0" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21774,16 +21768,16 @@
       <c r="B707" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="E707" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
         <v>1269</v>
       </c>
       <c r="B708" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="E708" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21809,20 +21803,20 @@
       <c r="B711" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="E711" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="5" t="s">
+      <c r="A712" s="0" t="s">
         <v>1273</v>
       </c>
       <c r="B712" s="0" t="s">
         <v>255</v>
       </c>
+      <c r="E712" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="0" t="s">
+      <c r="A713" s="5" t="s">
         <v>1274</v>
       </c>
       <c r="B713" s="0" t="s">
@@ -21850,7 +21844,7 @@
         <v>1277</v>
       </c>
       <c r="B716" s="0" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21858,7 +21852,7 @@
         <v>1278</v>
       </c>
       <c r="B717" s="0" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21874,7 +21868,7 @@
         <v>1280</v>
       </c>
       <c r="B719" s="0" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21890,7 +21884,7 @@
         <v>1282</v>
       </c>
       <c r="B721" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21898,10 +21892,7 @@
         <v>1283</v>
       </c>
       <c r="B722" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C722" s="0" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21920,7 +21911,10 @@
         <v>1285</v>
       </c>
       <c r="B724" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
+      </c>
+      <c r="C724" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21946,9 +21940,6 @@
       <c r="B727" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E727" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
@@ -21957,24 +21948,27 @@
       <c r="B728" s="0" t="s">
         <v>261</v>
       </c>
+      <c r="E728" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="5" t="s">
+      <c r="A729" s="0" t="s">
         <v>1290</v>
       </c>
       <c r="B729" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E729" s="0" t="s">
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B730" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E730" s="0" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="0" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B730" s="0" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21984,27 +21978,27 @@
       <c r="B731" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="E731" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="5" t="s">
+      <c r="A732" s="0" t="s">
         <v>1293</v>
       </c>
       <c r="B732" s="0" t="s">
         <v>262</v>
       </c>
       <c r="E732" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B733" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E733" s="0" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="0" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B733" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22020,7 +22014,7 @@
         <v>1296</v>
       </c>
       <c r="B735" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22028,7 +22022,7 @@
         <v>1297</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>462</v>
+        <v>251</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22036,26 +22030,26 @@
         <v>1298</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>305</v>
+        <v>462</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="5" t="s">
+      <c r="A738" s="0" t="s">
         <v>1299</v>
       </c>
       <c r="B738" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E738" s="0" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="0" t="s">
+      <c r="A739" s="5" t="s">
         <v>1300</v>
       </c>
       <c r="B739" s="0" t="s">
         <v>305</v>
+      </c>
+      <c r="E739" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22065,9 +22059,6 @@
       <c r="B740" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E740" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
@@ -22076,6 +22067,9 @@
       <c r="B741" s="0" t="s">
         <v>305</v>
       </c>
+      <c r="E741" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
@@ -22098,7 +22092,7 @@
         <v>1305</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22106,7 +22100,7 @@
         <v>1306</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>464</v>
+        <v>306</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22114,7 +22108,7 @@
         <v>1307</v>
       </c>
       <c r="B746" s="0" t="s">
-        <v>257</v>
+        <v>464</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22122,7 +22116,7 @@
         <v>1308</v>
       </c>
       <c r="B747" s="0" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22148,16 +22142,16 @@
       <c r="B750" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E750" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
         <v>1312</v>
       </c>
       <c r="B751" s="0" t="s">
-        <v>174</v>
+        <v>111</v>
+      </c>
+      <c r="E751" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22173,7 +22167,7 @@
         <v>1314</v>
       </c>
       <c r="B753" s="0" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22181,7 +22175,7 @@
         <v>1315</v>
       </c>
       <c r="B754" s="0" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22189,15 +22183,15 @@
         <v>1316</v>
       </c>
       <c r="B755" s="0" t="s">
-        <v>1317</v>
+        <v>260</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B756" s="0" t="s">
         <v>1318</v>
-      </c>
-      <c r="B756" s="0" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22205,7 +22199,7 @@
         <v>1319</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22215,9 +22209,6 @@
       <c r="B758" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E758" s="0" t="s">
-        <v>826</v>
-      </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
@@ -22227,26 +22218,29 @@
         <v>263</v>
       </c>
       <c r="E759" s="0" t="s">
-        <v>549</v>
+        <v>826</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="5" t="s">
+      <c r="A760" s="0" t="s">
         <v>1322</v>
       </c>
       <c r="B760" s="0" t="s">
         <v>263</v>
       </c>
       <c r="E760" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B761" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E761" s="0" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="0" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B761" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22272,7 +22266,6 @@
       <c r="B764" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E764" s="8"/>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
@@ -22281,15 +22274,13 @@
       <c r="B765" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="E765" s="7"/>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
         <v>1328</v>
       </c>
       <c r="B766" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C766" s="0" t="s">
         <v>77</v>
       </c>
     </row>
@@ -22298,7 +22289,7 @@
         <v>1329</v>
       </c>
       <c r="B767" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C767" s="0" t="s">
         <v>77</v>
@@ -22309,7 +22300,10 @@
         <v>1330</v>
       </c>
       <c r="B768" s="0" t="s">
-        <v>267</v>
+        <v>78</v>
+      </c>
+      <c r="C768" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22327,9 +22321,6 @@
       <c r="B770" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="E770" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
@@ -22338,13 +22329,16 @@
       <c r="B771" s="0" t="s">
         <v>267</v>
       </c>
+      <c r="E771" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
         <v>1334</v>
       </c>
       <c r="B772" s="0" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22400,7 +22394,7 @@
         <v>1341</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22408,7 +22402,7 @@
         <v>1342</v>
       </c>
       <c r="B780" s="0" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22440,7 +22434,7 @@
         <v>1346</v>
       </c>
       <c r="B784" s="0" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22456,7 +22450,7 @@
         <v>1348</v>
       </c>
       <c r="B786" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22472,7 +22466,7 @@
         <v>1350</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22480,7 +22474,7 @@
         <v>1351</v>
       </c>
       <c r="B789" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22488,7 +22482,7 @@
         <v>1352</v>
       </c>
       <c r="B790" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22496,7 +22490,7 @@
         <v>1353</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22504,7 +22498,7 @@
         <v>1354</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22514,9 +22508,6 @@
       <c r="B793" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="E793" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
@@ -22525,6 +22516,9 @@
       <c r="B794" s="0" t="s">
         <v>280</v>
       </c>
+      <c r="E794" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
@@ -22539,7 +22533,7 @@
         <v>1358</v>
       </c>
       <c r="B796" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22549,9 +22543,6 @@
       <c r="B797" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="E797" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
@@ -22561,7 +22552,7 @@
         <v>281</v>
       </c>
       <c r="E798" s="0" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22569,26 +22560,29 @@
         <v>1361</v>
       </c>
       <c r="B799" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="E799" s="0" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="5" t="s">
+      <c r="A800" s="0" t="s">
         <v>1362</v>
       </c>
       <c r="B800" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E800" s="0" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="0" t="s">
+      <c r="A801" s="5" t="s">
         <v>1363</v>
       </c>
       <c r="B801" s="0" t="s">
         <v>282</v>
+      </c>
+      <c r="E801" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22598,9 +22592,6 @@
       <c r="B802" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E802" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="0" t="s">
@@ -22610,7 +22601,7 @@
         <v>282</v>
       </c>
       <c r="E803" s="0" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22620,15 +22611,15 @@
       <c r="B804" s="0" t="s">
         <v>282</v>
       </c>
+      <c r="E804" s="0" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
         <v>1367</v>
       </c>
       <c r="B805" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C805" s="0" t="s">
         <v>282</v>
       </c>
     </row>
@@ -22648,7 +22639,10 @@
         <v>1369</v>
       </c>
       <c r="B807" s="0" t="s">
-        <v>276</v>
+        <v>315</v>
+      </c>
+      <c r="C807" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22656,7 +22650,7 @@
         <v>1370</v>
       </c>
       <c r="B808" s="0" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22664,7 +22658,7 @@
         <v>1371</v>
       </c>
       <c r="B809" s="0" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22672,7 +22666,7 @@
         <v>1372</v>
       </c>
       <c r="B810" s="0" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22680,7 +22674,7 @@
         <v>1373</v>
       </c>
       <c r="B811" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22704,7 +22698,7 @@
         <v>1376</v>
       </c>
       <c r="B814" s="0" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22738,16 +22732,16 @@
       <c r="B818" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E818" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
         <v>1381</v>
       </c>
       <c r="B819" s="0" t="s">
-        <v>123</v>
+        <v>42</v>
+      </c>
+      <c r="E819" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22765,9 +22759,6 @@
       <c r="B821" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E821" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
@@ -22777,7 +22768,7 @@
         <v>123</v>
       </c>
       <c r="E822" s="0" t="s">
-        <v>826</v>
+        <v>549</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22787,6 +22778,9 @@
       <c r="B823" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="E823" s="0" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
@@ -22805,22 +22799,22 @@
       </c>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="5" t="s">
+      <c r="A826" s="0" t="s">
         <v>1388</v>
       </c>
       <c r="B826" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E826" s="0" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="0" t="s">
+      <c r="A827" s="5" t="s">
         <v>1389</v>
       </c>
       <c r="B827" s="0" t="s">
         <v>123</v>
+      </c>
+      <c r="E827" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22828,9 +22822,6 @@
         <v>1390</v>
       </c>
       <c r="B828" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C828" s="0" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22850,7 +22841,7 @@
         <v>1392</v>
       </c>
       <c r="B830" s="0" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="C830" s="0" t="s">
         <v>123</v>
@@ -22861,7 +22852,7 @@
         <v>1393</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C831" s="0" t="s">
         <v>123</v>
@@ -22872,20 +22863,23 @@
         <v>1394</v>
       </c>
       <c r="B832" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C832" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="s">
-        <v>289</v>
+        <v>1395</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="s">
-        <v>1395</v>
+        <v>289</v>
       </c>
       <c r="B834" s="0" t="s">
         <v>289</v>
@@ -22928,21 +22922,12 @@
         <v>1400</v>
       </c>
       <c r="B839" s="0" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C839" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="G839" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H839" s="0" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B840" s="0" t="s">
         <v>1402</v>
@@ -22950,13 +22935,19 @@
       <c r="C840" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G840" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H840" s="0" t="s">
+        <v>1403</v>
+      </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B841" s="0" t="s">
         <v>1403</v>
-      </c>
-      <c r="B841" s="0" t="s">
-        <v>313</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>289</v>
@@ -22967,13 +22958,10 @@
         <v>1404</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>407</v>
+        <v>313</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="F842" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22981,7 +22969,7 @@
         <v>1405</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C843" s="0" t="s">
         <v>289</v>
@@ -22995,7 +22983,7 @@
         <v>1406</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C844" s="0" t="s">
         <v>289</v>
@@ -23009,7 +22997,7 @@
         <v>1407</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C845" s="0" t="s">
         <v>289</v>
@@ -23023,7 +23011,7 @@
         <v>1408</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C846" s="0" t="s">
         <v>289</v>
@@ -23037,7 +23025,7 @@
         <v>1409</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C847" s="0" t="s">
         <v>289</v>
@@ -23051,7 +23039,7 @@
         <v>1410</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C848" s="0" t="s">
         <v>289</v>
@@ -23065,7 +23053,7 @@
         <v>1411</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C849" s="0" t="s">
         <v>289</v>
@@ -23079,7 +23067,7 @@
         <v>1412</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>1413</v>
+        <v>414</v>
       </c>
       <c r="C850" s="0" t="s">
         <v>289</v>
@@ -23090,10 +23078,10 @@
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B851" s="0" t="s">
         <v>1414</v>
-      </c>
-      <c r="B851" s="0" t="s">
-        <v>415</v>
       </c>
       <c r="C851" s="0" t="s">
         <v>289</v>
@@ -23103,11 +23091,11 @@
       </c>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="6" t="s">
-        <v>888</v>
+      <c r="A852" s="0" t="s">
+        <v>1415</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C852" s="0" t="s">
         <v>289</v>
@@ -23117,8 +23105,8 @@
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="0" t="s">
-        <v>1415</v>
+      <c r="A853" s="6" t="s">
+        <v>888</v>
       </c>
       <c r="B853" s="0" t="s">
         <v>416</v>
@@ -23149,7 +23137,7 @@
         <v>1417</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C855" s="0" t="s">
         <v>289</v>
@@ -23163,7 +23151,7 @@
         <v>1418</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>289</v>
@@ -23177,7 +23165,7 @@
         <v>1419</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C857" s="0" t="s">
         <v>289</v>
@@ -23191,7 +23179,7 @@
         <v>1420</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C858" s="0" t="s">
         <v>289</v>
@@ -23205,7 +23193,7 @@
         <v>1421</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C859" s="0" t="s">
         <v>289</v>
@@ -23219,7 +23207,7 @@
         <v>1422</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C860" s="0" t="s">
         <v>289</v>
@@ -23233,7 +23221,7 @@
         <v>1423</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C861" s="0" t="s">
         <v>289</v>
@@ -23247,7 +23235,7 @@
         <v>1424</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C862" s="0" t="s">
         <v>289</v>
@@ -23261,7 +23249,7 @@
         <v>1425</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C863" s="0" t="s">
         <v>289</v>
@@ -23275,7 +23263,7 @@
         <v>1426</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C864" s="0" t="s">
         <v>289</v>
@@ -23289,7 +23277,7 @@
         <v>1427</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C865" s="0" t="s">
         <v>289</v>
@@ -23303,7 +23291,7 @@
         <v>1428</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C866" s="0" t="s">
         <v>289</v>
@@ -23317,7 +23305,7 @@
         <v>1429</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C867" s="0" t="s">
         <v>289</v>
@@ -23331,7 +23319,7 @@
         <v>1430</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C868" s="0" t="s">
         <v>289</v>
@@ -23345,7 +23333,7 @@
         <v>1431</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C869" s="0" t="s">
         <v>289</v>
@@ -23359,7 +23347,7 @@
         <v>1432</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C870" s="0" t="s">
         <v>289</v>
@@ -23373,7 +23361,7 @@
         <v>1433</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>289</v>
@@ -23387,7 +23375,7 @@
         <v>1434</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>289</v>
@@ -23401,7 +23389,7 @@
         <v>1435</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C873" s="0" t="s">
         <v>289</v>
@@ -23415,7 +23403,7 @@
         <v>1436</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C874" s="0" t="s">
         <v>289</v>
@@ -23429,7 +23417,7 @@
         <v>1437</v>
       </c>
       <c r="B875" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C875" s="0" t="s">
         <v>289</v>
@@ -23443,7 +23431,7 @@
         <v>1438</v>
       </c>
       <c r="B876" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C876" s="0" t="s">
         <v>289</v>
@@ -23457,7 +23445,7 @@
         <v>1439</v>
       </c>
       <c r="B877" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C877" s="0" t="s">
         <v>289</v>
@@ -23471,7 +23459,7 @@
         <v>1440</v>
       </c>
       <c r="B878" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C878" s="0" t="s">
         <v>289</v>
@@ -23485,7 +23473,7 @@
         <v>1441</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C879" s="0" t="s">
         <v>289</v>
@@ -23499,7 +23487,7 @@
         <v>1442</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C880" s="0" t="s">
         <v>289</v>
@@ -23513,7 +23501,7 @@
         <v>1443</v>
       </c>
       <c r="B881" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C881" s="0" t="s">
         <v>289</v>
@@ -23527,7 +23515,7 @@
         <v>1444</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C882" s="0" t="s">
         <v>289</v>
@@ -23541,7 +23529,7 @@
         <v>1445</v>
       </c>
       <c r="B883" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C883" s="0" t="s">
         <v>289</v>
@@ -23555,7 +23543,7 @@
         <v>1446</v>
       </c>
       <c r="B884" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C884" s="0" t="s">
         <v>289</v>
@@ -23569,7 +23557,7 @@
         <v>1447</v>
       </c>
       <c r="B885" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C885" s="0" t="s">
         <v>289</v>
@@ -23583,7 +23571,7 @@
         <v>1448</v>
       </c>
       <c r="B886" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C886" s="0" t="s">
         <v>289</v>
@@ -23597,7 +23585,7 @@
         <v>1449</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C887" s="0" t="s">
         <v>289</v>
@@ -23611,7 +23599,7 @@
         <v>1450</v>
       </c>
       <c r="B888" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C888" s="0" t="s">
         <v>289</v>
@@ -23625,7 +23613,7 @@
         <v>1451</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C889" s="0" t="s">
         <v>289</v>
@@ -23639,7 +23627,7 @@
         <v>1452</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C890" s="0" t="s">
         <v>289</v>
@@ -23653,7 +23641,7 @@
         <v>1453</v>
       </c>
       <c r="B891" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C891" s="0" t="s">
         <v>289</v>
@@ -23667,7 +23655,7 @@
         <v>1454</v>
       </c>
       <c r="B892" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C892" s="0" t="s">
         <v>289</v>
@@ -23681,7 +23669,7 @@
         <v>1455</v>
       </c>
       <c r="B893" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C893" s="0" t="s">
         <v>289</v>
@@ -23695,7 +23683,7 @@
         <v>1456</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C894" s="0" t="s">
         <v>289</v>
@@ -23709,7 +23697,13 @@
         <v>1457</v>
       </c>
       <c r="B895" s="0" t="s">
-        <v>288</v>
+        <v>456</v>
+      </c>
+      <c r="C895" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F895" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23717,7 +23711,7 @@
         <v>1458</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23727,12 +23721,9 @@
       <c r="B897" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="D897" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="5" t="s">
+      <c r="A898" s="0" t="s">
         <v>1460</v>
       </c>
       <c r="B898" s="0" t="s">
@@ -23743,7 +23734,7 @@
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="0" t="s">
+      <c r="A899" s="5" t="s">
         <v>1461</v>
       </c>
       <c r="B899" s="0" t="s">
@@ -23751,9 +23742,6 @@
       </c>
       <c r="D899" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E899" s="0" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23761,7 +23749,13 @@
         <v>1462</v>
       </c>
       <c r="B900" s="0" t="s">
-        <v>290</v>
+        <v>259</v>
+      </c>
+      <c r="D900" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E900" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23771,16 +23765,16 @@
       <c r="B901" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="E901" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
         <v>1464</v>
       </c>
       <c r="B902" s="0" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="E902" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23788,7 +23782,7 @@
         <v>1465</v>
       </c>
       <c r="B903" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23828,10 +23822,7 @@
         <v>1470</v>
       </c>
       <c r="B908" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="E908" s="0" t="s">
-        <v>549</v>
+        <v>293</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23841,30 +23832,21 @@
       <c r="B909" s="0" t="s">
         <v>296</v>
       </c>
+      <c r="E909" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
         <v>1472</v>
       </c>
       <c r="B910" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C910" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G910" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H910" s="0" t="s">
-        <v>1473</v>
-      </c>
-      <c r="I910" s="0" t="s">
-        <v>1474</v>
+        <v>296</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B911" s="0" t="s">
         <v>294</v>
@@ -23876,27 +23858,30 @@
         <v>1</v>
       </c>
       <c r="H911" s="0" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="I911" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>1473</v>
+        <v>294</v>
       </c>
       <c r="C912" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="G912" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H912" s="0" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="I912" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23904,24 +23889,21 @@
         <v>1476</v>
       </c>
       <c r="B913" s="0" t="s">
-        <v>295</v>
+        <v>1474</v>
       </c>
       <c r="C913" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G913" s="0" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="H913" s="0" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="I913" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B914" s="0" t="s">
         <v>295</v>
@@ -23933,10 +23915,10 @@
         <v>1</v>
       </c>
       <c r="H914" s="0" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="I914" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23953,10 +23935,10 @@
         <v>1</v>
       </c>
       <c r="H915" s="0" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="I915" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23973,10 +23955,10 @@
         <v>1</v>
       </c>
       <c r="H916" s="0" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="I916" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23993,10 +23975,10 @@
         <v>1</v>
       </c>
       <c r="H917" s="0" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="I917" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24013,10 +23995,10 @@
         <v>1</v>
       </c>
       <c r="H918" s="0" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="I918" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24033,10 +24015,10 @@
         <v>1</v>
       </c>
       <c r="H919" s="0" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="I919" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24053,21 +24035,30 @@
         <v>1</v>
       </c>
       <c r="H920" s="0" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="I920" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>1479</v>
+        <v>1485</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>1477</v>
+        <v>295</v>
       </c>
       <c r="C921" s="0" t="s">
         <v>289</v>
+      </c>
+      <c r="G921" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H921" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I921" s="0" t="s">
+        <v>1475</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24075,7 +24066,7 @@
         <v>1480</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C922" s="0" t="s">
         <v>289</v>
@@ -24083,10 +24074,13 @@
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="B923" s="0" t="s">
-        <v>300</v>
+        <v>1478</v>
+      </c>
+      <c r="C923" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24102,7 +24096,7 @@
         <v>1487</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24126,7 +24120,7 @@
         <v>1490</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24134,7 +24128,7 @@
         <v>1491</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24166,10 +24160,7 @@
         <v>1495</v>
       </c>
       <c r="B933" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D933" s="0" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24199,7 +24190,7 @@
         <v>1498</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D936" s="0" t="n">
         <v>1</v>
@@ -24226,9 +24217,6 @@
       <c r="D938" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E938" s="0" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
@@ -24240,13 +24228,19 @@
       <c r="D939" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E939" s="0" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
         <v>1502</v>
       </c>
       <c r="B940" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="D940" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24254,7 +24248,7 @@
         <v>1503</v>
       </c>
       <c r="B941" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24262,7 +24256,7 @@
         <v>1504</v>
       </c>
       <c r="B942" s="0" t="s">
-        <v>105</v>
+        <v>308</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24270,7 +24264,7 @@
         <v>1505</v>
       </c>
       <c r="B943" s="0" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24278,21 +24272,12 @@
         <v>1506</v>
       </c>
       <c r="B944" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C944" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G944" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H944" s="0" t="s">
-        <v>1507</v>
+        <v>114</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B945" s="0" t="s">
         <v>76</v>
@@ -24304,7 +24289,7 @@
         <v>1</v>
       </c>
       <c r="H945" s="0" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24321,15 +24306,24 @@
         <v>1</v>
       </c>
       <c r="H946" s="0" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B947" s="0" t="s">
-        <v>1507</v>
+        <v>76</v>
+      </c>
+      <c r="C947" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G947" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H947" s="0" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24337,7 +24331,7 @@
         <v>1510</v>
       </c>
       <c r="B948" s="0" t="s">
-        <v>458</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24345,7 +24339,7 @@
         <v>1511</v>
       </c>
       <c r="B949" s="0" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24353,7 +24347,7 @@
         <v>1512</v>
       </c>
       <c r="B950" s="0" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24361,7 +24355,7 @@
         <v>1513</v>
       </c>
       <c r="B951" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24369,7 +24363,7 @@
         <v>1514</v>
       </c>
       <c r="B952" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24377,7 +24371,7 @@
         <v>1515</v>
       </c>
       <c r="B953" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24385,21 +24379,15 @@
         <v>1516</v>
       </c>
       <c r="B954" s="0" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C954" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F954" s="0" t="n">
-        <v>1</v>
+        <v>468</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B955" s="0" t="s">
         <v>1518</v>
-      </c>
-      <c r="B955" s="0" t="s">
-        <v>1519</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>43</v>
@@ -24410,10 +24398,10 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B956" s="0" t="s">
         <v>1520</v>
-      </c>
-      <c r="B956" s="0" t="s">
-        <v>1519</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>43</v>
@@ -24423,11 +24411,11 @@
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="5" t="s">
+      <c r="A957" s="0" t="s">
         <v>1521</v>
       </c>
       <c r="B957" s="0" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>43</v>
@@ -24437,11 +24425,11 @@
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="6" t="s">
+      <c r="A958" s="5" t="s">
         <v>1522</v>
       </c>
       <c r="B958" s="0" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>43</v>
@@ -24455,7 +24443,7 @@
         <v>1523</v>
       </c>
       <c r="B959" s="0" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>43</v>
@@ -24465,11 +24453,11 @@
       </c>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="0" t="s">
+      <c r="A960" s="6" t="s">
         <v>1524</v>
       </c>
       <c r="B960" s="0" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="C960" s="0" t="s">
         <v>43</v>
@@ -24480,10 +24468,10 @@
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B961" s="0" t="s">
         <v>1526</v>
-      </c>
-      <c r="B961" s="0" t="s">
-        <v>1527</v>
       </c>
       <c r="C961" s="0" t="s">
         <v>43</v>
@@ -24494,10 +24482,10 @@
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B962" s="0" t="s">
         <v>1528</v>
-      </c>
-      <c r="B962" s="0" t="s">
-        <v>1529</v>
       </c>
       <c r="C962" s="0" t="s">
         <v>43</v>
@@ -24508,7 +24496,7 @@
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>738</v>
+        <v>1529</v>
       </c>
       <c r="B963" s="0" t="s">
         <v>1530</v>
@@ -24522,10 +24510,10 @@
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="B964" s="0" t="s">
         <v>1531</v>
-      </c>
-      <c r="B964" s="0" t="s">
-        <v>1532</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>43</v>
@@ -24536,10 +24524,10 @@
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B965" s="0" t="s">
         <v>1533</v>
-      </c>
-      <c r="B965" s="0" t="s">
-        <v>1534</v>
       </c>
       <c r="C965" s="0" t="s">
         <v>43</v>
@@ -24550,10 +24538,10 @@
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B966" s="0" t="s">
         <v>1535</v>
-      </c>
-      <c r="B966" s="0" t="s">
-        <v>1536</v>
       </c>
       <c r="C966" s="0" t="s">
         <v>43</v>
@@ -24564,10 +24552,10 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B967" s="0" t="s">
         <v>1537</v>
-      </c>
-      <c r="B967" s="0" t="s">
-        <v>1538</v>
       </c>
       <c r="C967" s="0" t="s">
         <v>43</v>
@@ -24578,10 +24566,10 @@
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B968" s="0" t="s">
         <v>1539</v>
-      </c>
-      <c r="B968" s="0" t="s">
-        <v>1540</v>
       </c>
       <c r="C968" s="0" t="s">
         <v>43</v>
@@ -24592,10 +24580,10 @@
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B969" s="0" t="s">
         <v>1541</v>
-      </c>
-      <c r="B969" s="0" t="s">
-        <v>1542</v>
       </c>
       <c r="C969" s="0" t="s">
         <v>43</v>
@@ -24606,10 +24594,10 @@
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B970" s="0" t="s">
         <v>1543</v>
-      </c>
-      <c r="B970" s="0" t="s">
-        <v>1544</v>
       </c>
       <c r="C970" s="0" t="s">
         <v>43</v>
@@ -24620,10 +24608,10 @@
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B971" s="0" t="s">
         <v>1545</v>
-      </c>
-      <c r="B971" s="0" t="s">
-        <v>1546</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>43</v>
@@ -24634,10 +24622,10 @@
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B972" s="0" t="s">
         <v>1547</v>
-      </c>
-      <c r="B972" s="0" t="s">
-        <v>1548</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>43</v>
@@ -24648,10 +24636,10 @@
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B973" s="0" t="s">
         <v>1549</v>
-      </c>
-      <c r="B973" s="0" t="s">
-        <v>1550</v>
       </c>
       <c r="C973" s="0" t="s">
         <v>43</v>
@@ -24662,10 +24650,10 @@
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B974" s="0" t="s">
         <v>1551</v>
-      </c>
-      <c r="B974" s="0" t="s">
-        <v>1552</v>
       </c>
       <c r="C974" s="0" t="s">
         <v>43</v>
@@ -24676,10 +24664,10 @@
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B975" s="0" t="s">
         <v>1553</v>
-      </c>
-      <c r="B975" s="0" t="s">
-        <v>1554</v>
       </c>
       <c r="C975" s="0" t="s">
         <v>43</v>
@@ -24690,10 +24678,10 @@
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B976" s="0" t="s">
         <v>1555</v>
-      </c>
-      <c r="B976" s="0" t="s">
-        <v>1556</v>
       </c>
       <c r="C976" s="0" t="s">
         <v>43</v>
@@ -24704,10 +24692,10 @@
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B977" s="0" t="s">
         <v>1557</v>
-      </c>
-      <c r="B977" s="0" t="s">
-        <v>1558</v>
       </c>
       <c r="C977" s="0" t="s">
         <v>43</v>
@@ -24718,10 +24706,10 @@
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B978" s="0" t="s">
         <v>1559</v>
-      </c>
-      <c r="B978" s="0" t="s">
-        <v>1560</v>
       </c>
       <c r="C978" s="0" t="s">
         <v>43</v>
@@ -24732,10 +24720,10 @@
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B979" s="0" t="s">
         <v>1561</v>
-      </c>
-      <c r="B979" s="0" t="s">
-        <v>1562</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>43</v>
@@ -24746,10 +24734,10 @@
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B980" s="0" t="s">
         <v>1563</v>
-      </c>
-      <c r="B980" s="0" t="s">
-        <v>1564</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>43</v>
@@ -24760,10 +24748,10 @@
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B981" s="0" t="s">
         <v>1565</v>
-      </c>
-      <c r="B981" s="0" t="s">
-        <v>1566</v>
       </c>
       <c r="C981" s="0" t="s">
         <v>43</v>
@@ -24773,11 +24761,11 @@
       </c>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="0" t="n">
-        <v>1701</v>
+      <c r="A982" s="0" t="s">
+        <v>1566</v>
       </c>
       <c r="B982" s="0" t="s">
-        <v>1519</v>
+        <v>1567</v>
       </c>
       <c r="C982" s="0" t="s">
         <v>43</v>
@@ -24788,10 +24776,10 @@
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="n">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B983" s="0" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>43</v>
@@ -24802,10 +24790,10 @@
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="n">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>1560</v>
+        <v>1531</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>43</v>
@@ -24816,10 +24804,10 @@
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="n">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B985" s="0" t="s">
-        <v>1534</v>
+        <v>1561</v>
       </c>
       <c r="C985" s="0" t="s">
         <v>43</v>
@@ -24830,10 +24818,10 @@
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="n">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B986" s="0" t="s">
-        <v>1546</v>
+        <v>1535</v>
       </c>
       <c r="C986" s="0" t="s">
         <v>43</v>
@@ -24844,10 +24832,10 @@
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="n">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B987" s="0" t="s">
-        <v>1532</v>
+        <v>1547</v>
       </c>
       <c r="C987" s="0" t="s">
         <v>43</v>
@@ -24858,10 +24846,10 @@
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="n">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B988" s="0" t="s">
-        <v>1527</v>
+        <v>1533</v>
       </c>
       <c r="C988" s="0" t="s">
         <v>43</v>
@@ -24872,10 +24860,10 @@
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="n">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B989" s="0" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>43</v>
@@ -24886,10 +24874,10 @@
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="n">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B990" s="0" t="s">
-        <v>1552</v>
+        <v>1537</v>
       </c>
       <c r="C990" s="0" t="s">
         <v>43</v>
@@ -24900,10 +24888,10 @@
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="n">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B991" s="0" t="s">
-        <v>1562</v>
+        <v>1553</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>43</v>
@@ -24914,10 +24902,10 @@
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="n">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B992" s="0" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C992" s="0" t="s">
         <v>43</v>
@@ -24928,10 +24916,10 @@
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="n">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B993" s="0" t="s">
-        <v>1525</v>
+        <v>1567</v>
       </c>
       <c r="C993" s="0" t="s">
         <v>43</v>
@@ -24942,10 +24930,10 @@
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="n">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B994" s="0" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
       <c r="C994" s="0" t="s">
         <v>43</v>
@@ -24956,10 +24944,10 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="n">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B995" s="0" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="C995" s="0" t="s">
         <v>43</v>
@@ -24970,10 +24958,10 @@
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="n">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B996" s="0" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>43</v>
@@ -24984,10 +24972,10 @@
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="n">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>43</v>
@@ -24998,10 +24986,10 @@
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="n">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>1542</v>
+        <v>1557</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>43</v>
@@ -25012,10 +25000,10 @@
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="n">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B999" s="0" t="s">
-        <v>1529</v>
+        <v>1543</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>43</v>
@@ -25026,10 +25014,10 @@
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="n">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B1000" s="0" t="s">
-        <v>1548</v>
+        <v>1530</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>43</v>
@@ -25040,10 +25028,10 @@
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>43</v>
@@ -25054,10 +25042,10 @@
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="n">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B1002" s="0" t="s">
-        <v>1564</v>
+        <v>1551</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>43</v>
@@ -25068,10 +25056,10 @@
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="n">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B1003" s="0" t="s">
-        <v>1517</v>
+        <v>1565</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>43</v>
@@ -25082,10 +25070,10 @@
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="n">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B1004" s="0" t="s">
-        <v>1540</v>
+        <v>1518</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>43</v>
@@ -25095,42 +25083,39 @@
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="0" t="s">
-        <v>1567</v>
+      <c r="A1005" s="0" t="n">
+        <v>1723</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>1568</v>
+        <v>1541</v>
       </c>
       <c r="C1005" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1005" s="0" t="s">
-        <v>1569</v>
+        <v>43</v>
+      </c>
+      <c r="F1005" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C1006" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F1006" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J1006" s="0" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B1007" s="0" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="C1007" s="0" t="s">
         <v>293</v>
@@ -25139,7 +25124,7 @@
         <v>1</v>
       </c>
       <c r="J1007" s="0" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25147,7 +25132,7 @@
         <v>1574</v>
       </c>
       <c r="B1008" s="0" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="C1008" s="0" t="s">
         <v>293</v>
@@ -25156,15 +25141,15 @@
         <v>1</v>
       </c>
       <c r="J1008" s="0" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>642</v>
+        <v>1575</v>
       </c>
       <c r="B1009" s="0" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="C1009" s="0" t="s">
         <v>293</v>
@@ -25173,15 +25158,15 @@
         <v>1</v>
       </c>
       <c r="J1009" s="0" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>1577</v>
+        <v>642</v>
       </c>
       <c r="B1010" s="0" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C1010" s="0" t="s">
         <v>293</v>
@@ -25190,7 +25175,7 @@
         <v>1</v>
       </c>
       <c r="J1010" s="0" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25198,7 +25183,7 @@
         <v>1578</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C1011" s="0" t="s">
         <v>293</v>
@@ -25207,7 +25192,7 @@
         <v>1</v>
       </c>
       <c r="J1011" s="0" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25215,7 +25200,7 @@
         <v>1579</v>
       </c>
       <c r="B1012" s="0" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="C1012" s="0" t="s">
         <v>293</v>
@@ -25224,15 +25209,15 @@
         <v>1</v>
       </c>
       <c r="J1012" s="0" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B1013" s="0" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C1013" s="0" t="s">
         <v>293</v>
@@ -25241,15 +25226,15 @@
         <v>1</v>
       </c>
       <c r="J1013" s="0" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B1014" s="0" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C1014" s="0" t="s">
         <v>293</v>
@@ -25258,15 +25243,15 @@
         <v>1</v>
       </c>
       <c r="J1014" s="0" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B1015" s="0" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C1015" s="0" t="s">
         <v>293</v>
@@ -25275,15 +25260,15 @@
         <v>1</v>
       </c>
       <c r="J1015" s="0" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>729</v>
+        <v>1589</v>
       </c>
       <c r="B1016" s="0" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C1016" s="0" t="s">
         <v>293</v>
@@ -25292,15 +25277,15 @@
         <v>1</v>
       </c>
       <c r="J1016" s="0" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>1593</v>
+        <v>729</v>
       </c>
       <c r="B1017" s="0" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C1017" s="0" t="s">
         <v>293</v>
@@ -25309,15 +25294,15 @@
         <v>1</v>
       </c>
       <c r="J1017" s="0" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B1018" s="0" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C1018" s="0" t="s">
         <v>293</v>
@@ -25326,15 +25311,15 @@
         <v>1</v>
       </c>
       <c r="J1018" s="0" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B1019" s="0" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C1019" s="0" t="s">
         <v>293</v>
@@ -25343,15 +25328,15 @@
         <v>1</v>
       </c>
       <c r="J1019" s="0" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B1020" s="0" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="C1020" s="0" t="s">
         <v>293</v>
@@ -25360,15 +25345,15 @@
         <v>1</v>
       </c>
       <c r="J1020" s="0" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B1021" s="0" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C1021" s="0" t="s">
         <v>293</v>
@@ -25377,15 +25362,15 @@
         <v>1</v>
       </c>
       <c r="J1021" s="0" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B1022" s="0" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C1022" s="0" t="s">
         <v>293</v>
@@ -25394,15 +25379,15 @@
         <v>1</v>
       </c>
       <c r="J1022" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B1023" s="0" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="C1023" s="0" t="s">
         <v>293</v>
@@ -25411,15 +25396,15 @@
         <v>1</v>
       </c>
       <c r="J1023" s="0" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>1119</v>
+        <v>1612</v>
       </c>
       <c r="B1024" s="0" t="s">
-        <v>1120</v>
+        <v>1613</v>
       </c>
       <c r="C1024" s="0" t="s">
         <v>293</v>
@@ -25433,10 +25418,10 @@
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>1615</v>
+        <v>1120</v>
       </c>
       <c r="B1025" s="0" t="s">
-        <v>1616</v>
+        <v>1121</v>
       </c>
       <c r="C1025" s="0" t="s">
         <v>293</v>
@@ -25445,15 +25430,15 @@
         <v>1</v>
       </c>
       <c r="J1025" s="0" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B1026" s="0" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C1026" s="0" t="s">
         <v>293</v>
@@ -25462,15 +25447,15 @@
         <v>1</v>
       </c>
       <c r="J1026" s="0" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B1027" s="0" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="C1027" s="0" t="s">
         <v>293</v>
@@ -25479,15 +25464,15 @@
         <v>1</v>
       </c>
       <c r="J1027" s="0" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
-        <v>756</v>
+        <v>1622</v>
       </c>
       <c r="B1028" s="0" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C1028" s="0" t="s">
         <v>293</v>
@@ -25496,15 +25481,15 @@
         <v>1</v>
       </c>
       <c r="J1028" s="0" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
-        <v>1626</v>
+        <v>756</v>
       </c>
       <c r="B1029" s="0" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="C1029" s="0" t="s">
         <v>293</v>
@@ -25513,15 +25498,15 @@
         <v>1</v>
       </c>
       <c r="J1029" s="0" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B1030" s="0" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C1030" s="0" t="s">
         <v>293</v>
@@ -25530,15 +25515,15 @@
         <v>1</v>
       </c>
       <c r="J1030" s="0" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B1031" s="0" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C1031" s="0" t="s">
         <v>293</v>
@@ -25547,15 +25532,15 @@
         <v>1</v>
       </c>
       <c r="J1031" s="0" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B1032" s="0" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="C1032" s="0" t="s">
         <v>293</v>
@@ -25564,15 +25549,15 @@
         <v>1</v>
       </c>
       <c r="J1032" s="0" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B1033" s="0" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="C1033" s="0" t="s">
         <v>293</v>
@@ -25581,7 +25566,24 @@
         <v>1</v>
       </c>
       <c r="J1033" s="0" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="0" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1034" s="0" t="s">
         <v>1640</v>
+      </c>
+      <c r="C1034" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1034" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1034" s="0" t="s">
+        <v>1641</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="1643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="1644">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -4951,6 +4951,9 @@
   </si>
   <si>
     <t xml:space="preserve">VE-V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">world</t>
   </si>
 </sst>
 </file>
@@ -5359,32 +5362,32 @@
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="6.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="35" style="0" width="8.71"/>
@@ -14897,14 +14900,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1035"/>
+  <dimension ref="A1:J1036"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1027" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
-      <selection pane="bottomRight" activeCell="A71" activeCellId="0" sqref="A71"/>
+      <selection pane="bottomLeft" activeCell="A1027" activeCellId="0" sqref="A1027"/>
+      <selection pane="bottomRight" activeCell="F1052" activeCellId="0" sqref="F1052"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14913,7 +14916,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25604,6 +25609,14 @@
       </c>
       <c r="J1035" s="0" t="s">
         <v>1642</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="0" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1036" s="0" t="s">
+        <v>1643</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="1668">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -3204,6 +3204,9 @@
     <t xml:space="preserve">France (Martinique)</t>
   </si>
   <si>
+    <t xml:space="preserve">FRA_MTQ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mauritania</t>
   </si>
   <si>
@@ -4885,6 +4888,144 @@
   </si>
   <si>
     <t xml:space="preserve">NL-BQ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aisen del General Carlos Ibanez del Campo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antofagasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arica y Parinacota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atacama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biobio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coquimbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Araucania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Araucania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libertador General Bernardo O'Higgins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Lagos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Rios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magallanes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region Metropolitana de Santiago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-RM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-RM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarapaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valparaiso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL-VS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL-VS</t>
   </si>
 </sst>
 </file>
@@ -4896,7 +5037,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4924,11 +5065,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4973,7 +5109,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4999,10 +5135,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5039,9 +5171,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.76"/>
@@ -5051,24 +5183,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="21.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="21.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="25.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="9.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="9.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="9.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="6.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="6.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="35" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="35" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14578,14 +14710,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1016"/>
+  <dimension ref="A1:J1033"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1001" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O16" activeCellId="0" sqref="O16"/>
+      <selection pane="bottomLeft" activeCell="A1001" activeCellId="0" sqref="A1001"/>
+      <selection pane="bottomRight" activeCell="E1034" activeCellId="0" sqref="E1034"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15819,7 +15951,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="6" t="s">
         <v>671</v>
       </c>
       <c r="B117" s="0" t="s">
@@ -19435,6 +19567,9 @@
       <c r="B503" s="0" t="s">
         <v>201</v>
       </c>
+      <c r="C503" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
@@ -19443,13 +19578,19 @@
       <c r="B504" s="0" t="s">
         <v>201</v>
       </c>
+      <c r="C504" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B505" s="0" t="s">
         <v>1060</v>
       </c>
-      <c r="B505" s="0" t="s">
-        <v>199</v>
+      <c r="C505" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19457,7 +19598,7 @@
         <v>1061</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19465,7 +19606,7 @@
         <v>1062</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19473,7 +19614,7 @@
         <v>1063</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19489,13 +19630,7 @@
         <v>1065</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C510" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="F510" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19503,7 +19638,7 @@
         <v>1066</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C511" s="0" t="s">
         <v>187</v>
@@ -19517,7 +19652,7 @@
         <v>1067</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C512" s="0" t="s">
         <v>187</v>
@@ -19531,7 +19666,7 @@
         <v>1068</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C513" s="0" t="s">
         <v>187</v>
@@ -19545,7 +19680,7 @@
         <v>1069</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C514" s="0" t="s">
         <v>187</v>
@@ -19559,7 +19694,7 @@
         <v>1070</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C515" s="0" t="s">
         <v>187</v>
@@ -19573,7 +19708,7 @@
         <v>1071</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C516" s="0" t="s">
         <v>187</v>
@@ -19587,7 +19722,7 @@
         <v>1072</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C517" s="0" t="s">
         <v>187</v>
@@ -19601,7 +19736,7 @@
         <v>1073</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>1074</v>
+        <v>356</v>
       </c>
       <c r="C518" s="0" t="s">
         <v>187</v>
@@ -19612,10 +19747,10 @@
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>644</v>
+        <v>1074</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C519" s="0" t="s">
         <v>187</v>
@@ -19626,10 +19761,10 @@
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B520" s="0" t="s">
         <v>1075</v>
-      </c>
-      <c r="B520" s="0" t="s">
-        <v>357</v>
       </c>
       <c r="C520" s="0" t="s">
         <v>187</v>
@@ -19643,7 +19778,7 @@
         <v>1076</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C521" s="0" t="s">
         <v>187</v>
@@ -19657,7 +19792,7 @@
         <v>1077</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C522" s="0" t="s">
         <v>187</v>
@@ -19671,7 +19806,7 @@
         <v>1078</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C523" s="0" t="s">
         <v>187</v>
@@ -19685,7 +19820,7 @@
         <v>1079</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C524" s="0" t="s">
         <v>187</v>
@@ -19699,7 +19834,7 @@
         <v>1080</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C525" s="0" t="s">
         <v>187</v>
@@ -19727,7 +19862,7 @@
         <v>1082</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C527" s="0" t="s">
         <v>187</v>
@@ -19755,7 +19890,7 @@
         <v>1084</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C529" s="0" t="s">
         <v>187</v>
@@ -19769,7 +19904,7 @@
         <v>1085</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C530" s="0" t="s">
         <v>187</v>
@@ -19783,7 +19918,7 @@
         <v>1086</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C531" s="0" t="s">
         <v>187</v>
@@ -19811,7 +19946,7 @@
         <v>1088</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C533" s="0" t="s">
         <v>187</v>
@@ -19825,7 +19960,7 @@
         <v>1089</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C534" s="0" t="s">
         <v>187</v>
@@ -19839,7 +19974,7 @@
         <v>1090</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C535" s="0" t="s">
         <v>187</v>
@@ -19853,7 +19988,7 @@
         <v>1091</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C536" s="0" t="s">
         <v>187</v>
@@ -19867,7 +20002,7 @@
         <v>1092</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C537" s="0" t="s">
         <v>187</v>
@@ -19881,7 +20016,7 @@
         <v>1093</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C538" s="0" t="s">
         <v>187</v>
@@ -19895,7 +20030,7 @@
         <v>1094</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C539" s="0" t="s">
         <v>187</v>
@@ -19909,7 +20044,7 @@
         <v>1095</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C540" s="0" t="s">
         <v>187</v>
@@ -19923,7 +20058,7 @@
         <v>1096</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C541" s="0" t="s">
         <v>187</v>
@@ -19937,7 +20072,7 @@
         <v>1097</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C542" s="0" t="s">
         <v>187</v>
@@ -19951,7 +20086,7 @@
         <v>1098</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C543" s="0" t="s">
         <v>187</v>
@@ -19965,7 +20100,7 @@
         <v>1099</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C544" s="0" t="s">
         <v>187</v>
@@ -19993,7 +20128,7 @@
         <v>1101</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C546" s="0" t="s">
         <v>187</v>
@@ -20007,7 +20142,13 @@
         <v>1102</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>120</v>
+        <v>379</v>
+      </c>
+      <c r="C547" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F547" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20041,9 +20182,6 @@
       <c r="B551" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="E551" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
@@ -20052,6 +20190,9 @@
       <c r="B552" s="0" t="s">
         <v>120</v>
       </c>
+      <c r="E552" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
@@ -20066,39 +20207,39 @@
         <v>1109</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="G554" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H554" s="0" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I554" s="0" t="s">
-        <v>1111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B555" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G555" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H555" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I555" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="B555" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E555" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="5" t="s">
+      <c r="A556" s="0" t="s">
         <v>1113</v>
       </c>
       <c r="B556" s="0" t="s">
         <v>184</v>
       </c>
+      <c r="E556" s="0" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="0" t="s">
+      <c r="A557" s="5" t="s">
         <v>1114</v>
       </c>
       <c r="B557" s="0" t="s">
@@ -20126,7 +20267,7 @@
         <v>1117</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20134,7 +20275,7 @@
         <v>1118</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20144,16 +20285,16 @@
       <c r="B562" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E562" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
         <v>1120</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="E563" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20161,7 +20302,7 @@
         <v>1121</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20169,7 +20310,7 @@
         <v>1122</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20203,9 +20344,6 @@
       <c r="B569" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E569" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
@@ -20215,7 +20353,7 @@
         <v>181</v>
       </c>
       <c r="E570" s="0" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20223,7 +20361,10 @@
         <v>1128</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>198</v>
+        <v>181</v>
+      </c>
+      <c r="E571" s="0" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20239,7 +20380,7 @@
         <v>1130</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20263,7 +20404,7 @@
         <v>1133</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20271,7 +20412,7 @@
         <v>1134</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20279,7 +20420,7 @@
         <v>1135</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20287,7 +20428,7 @@
         <v>1136</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20307,22 +20448,22 @@
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="5" t="s">
+      <c r="A582" s="0" t="s">
         <v>1139</v>
       </c>
       <c r="B582" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E582" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="0" t="s">
+      <c r="A583" s="5" t="s">
         <v>1140</v>
       </c>
       <c r="B583" s="0" t="s">
         <v>213</v>
+      </c>
+      <c r="E583" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20340,19 +20481,16 @@
       <c r="B585" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E585" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
         <v>1143</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D586" s="0" t="n">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="E586" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20382,10 +20520,10 @@
         <v>1146</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C589" s="0" t="s">
-        <v>118</v>
+        <v>41</v>
+      </c>
+      <c r="D589" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20393,7 +20531,10 @@
         <v>1147</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>218</v>
+        <v>207</v>
+      </c>
+      <c r="C590" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20409,7 +20550,7 @@
         <v>1149</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20417,7 +20558,7 @@
         <v>1150</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20425,7 +20566,7 @@
         <v>1151</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20433,7 +20574,7 @@
         <v>1152</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20441,7 +20582,7 @@
         <v>1153</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20449,7 +20590,7 @@
         <v>1154</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20457,7 +20598,7 @@
         <v>1155</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20467,30 +20608,27 @@
       <c r="B599" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E599" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="5" t="s">
+      <c r="A600" s="0" t="s">
         <v>1157</v>
       </c>
       <c r="B600" s="0" t="s">
         <v>214</v>
       </c>
       <c r="E600" s="0" t="s">
-        <v>556</v>
+        <v>675</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="0" t="s">
+      <c r="A601" s="5" t="s">
         <v>1158</v>
       </c>
       <c r="B601" s="0" t="s">
         <v>214</v>
       </c>
       <c r="E601" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20498,7 +20636,10 @@
         <v>1159</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
+      </c>
+      <c r="E602" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20506,7 +20647,7 @@
         <v>1160</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20514,7 +20655,7 @@
         <v>1161</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20522,7 +20663,7 @@
         <v>1162</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20572,9 +20713,6 @@
       <c r="B611" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E611" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
@@ -20583,6 +20721,9 @@
       <c r="B612" s="0" t="s">
         <v>232</v>
       </c>
+      <c r="E612" s="0" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
@@ -20591,19 +20732,16 @@
       <c r="B613" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="I613" s="0" t="s">
-        <v>1171</v>
-      </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B614" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E614" s="0" t="s">
-        <v>548</v>
+      <c r="I614" s="0" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20614,7 +20752,7 @@
         <v>232</v>
       </c>
       <c r="E615" s="0" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20622,7 +20760,10 @@
         <v>1174</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>122</v>
+        <v>232</v>
+      </c>
+      <c r="E616" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20630,7 +20771,7 @@
         <v>1175</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>298</v>
+        <v>122</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20638,7 +20779,7 @@
         <v>1176</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20646,7 +20787,7 @@
         <v>1177</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20662,7 +20803,7 @@
         <v>1179</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20670,7 +20811,7 @@
         <v>1180</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20678,26 +20819,26 @@
         <v>1181</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="5" t="s">
+      <c r="A624" s="0" t="s">
         <v>1182</v>
       </c>
       <c r="B624" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E624" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="0" t="s">
+      <c r="A625" s="5" t="s">
         <v>1183</v>
       </c>
       <c r="B625" s="0" t="s">
         <v>224</v>
+      </c>
+      <c r="E625" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20731,16 +20872,16 @@
       <c r="B629" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E629" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
         <v>1188</v>
       </c>
       <c r="B630" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="E630" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20756,7 +20897,7 @@
         <v>1190</v>
       </c>
       <c r="B632" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20774,16 +20915,16 @@
       <c r="B634" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E634" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
         <v>1193</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="E635" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20799,35 +20940,35 @@
         <v>1195</v>
       </c>
       <c r="B637" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C637" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G637" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H637" s="0" t="s">
-        <v>1196</v>
+        <v>230</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>1196</v>
+        <v>228</v>
       </c>
       <c r="C638" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G638" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H638" s="0" t="s">
+        <v>1197</v>
+      </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B639" s="0" t="s">
         <v>1197</v>
       </c>
-      <c r="B639" s="0" t="s">
-        <v>234</v>
+      <c r="C639" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20835,7 +20976,7 @@
         <v>1198</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20851,7 +20992,7 @@
         <v>1200</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20869,27 +21010,27 @@
       <c r="B644" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="E644" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="5" t="s">
+      <c r="A645" s="0" t="s">
         <v>1203</v>
       </c>
       <c r="B645" s="0" t="s">
         <v>236</v>
       </c>
       <c r="E645" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B646" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E646" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="0" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B646" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20899,9 +21040,6 @@
       <c r="B647" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E647" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
@@ -20910,6 +21048,9 @@
       <c r="B648" s="0" t="s">
         <v>237</v>
       </c>
+      <c r="E648" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
@@ -20920,22 +21061,22 @@
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="5" t="s">
+      <c r="A650" s="0" t="s">
         <v>1208</v>
       </c>
       <c r="B650" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E650" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="0" t="s">
+      <c r="A651" s="5" t="s">
         <v>1209</v>
       </c>
       <c r="B651" s="0" t="s">
         <v>237</v>
+      </c>
+      <c r="E651" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20943,7 +21084,7 @@
         <v>1210</v>
       </c>
       <c r="B652" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20959,10 +21100,7 @@
         <v>1212</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C654" s="0" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20981,7 +21119,10 @@
         <v>1214</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>246</v>
+        <v>460</v>
+      </c>
+      <c r="C656" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20997,7 +21138,7 @@
         <v>1216</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>457</v>
+        <v>246</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21005,7 +21146,7 @@
         <v>1217</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21021,7 +21162,7 @@
         <v>1219</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21029,7 +21170,7 @@
         <v>1220</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21061,7 +21202,7 @@
         <v>1224</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21077,10 +21218,7 @@
         <v>1226</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C668" s="0" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21099,7 +21237,10 @@
         <v>1228</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>253</v>
+        <v>180</v>
+      </c>
+      <c r="C670" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21115,7 +21256,7 @@
         <v>1230</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21171,7 +21312,7 @@
         <v>1237</v>
       </c>
       <c r="B679" s="0" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21195,21 +21336,12 @@
         <v>1240</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C682" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G682" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H682" s="0" t="s">
-        <v>1241</v>
+        <v>301</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B683" s="0" t="s">
         <v>46</v>
@@ -21221,15 +21353,24 @@
         <v>1</v>
       </c>
       <c r="H683" s="0" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B684" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C684" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G684" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H684" s="0" t="s">
         <v>1242</v>
-      </c>
-      <c r="B684" s="0" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21237,7 +21378,7 @@
         <v>1243</v>
       </c>
       <c r="B685" s="0" t="s">
-        <v>250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21245,7 +21386,7 @@
         <v>1244</v>
       </c>
       <c r="B686" s="0" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21277,7 +21418,7 @@
         <v>1248</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21301,7 +21442,7 @@
         <v>1251</v>
       </c>
       <c r="B693" s="0" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21309,7 +21450,7 @@
         <v>1252</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21319,16 +21460,16 @@
       <c r="B695" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="E695" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
         <v>1254</v>
       </c>
       <c r="B696" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="E696" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21354,20 +21495,20 @@
       <c r="B699" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="E699" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="5" t="s">
+      <c r="A700" s="0" t="s">
         <v>1258</v>
       </c>
       <c r="B700" s="0" t="s">
         <v>255</v>
       </c>
+      <c r="E700" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="0" t="s">
+      <c r="A701" s="5" t="s">
         <v>1259</v>
       </c>
       <c r="B701" s="0" t="s">
@@ -21395,7 +21536,7 @@
         <v>1262</v>
       </c>
       <c r="B704" s="0" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21403,7 +21544,7 @@
         <v>1263</v>
       </c>
       <c r="B705" s="0" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21419,7 +21560,7 @@
         <v>1265</v>
       </c>
       <c r="B707" s="0" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21435,7 +21576,7 @@
         <v>1267</v>
       </c>
       <c r="B709" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21443,10 +21584,7 @@
         <v>1268</v>
       </c>
       <c r="B710" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C710" s="0" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21465,7 +21603,10 @@
         <v>1270</v>
       </c>
       <c r="B712" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
+      </c>
+      <c r="C712" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21491,9 +21632,6 @@
       <c r="B715" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E715" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
@@ -21502,24 +21640,27 @@
       <c r="B716" s="0" t="s">
         <v>261</v>
       </c>
+      <c r="E716" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="5" t="s">
+      <c r="A717" s="0" t="s">
         <v>1275</v>
       </c>
       <c r="B717" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E717" s="0" t="s">
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B718" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E718" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="0" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B718" s="0" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21529,27 +21670,27 @@
       <c r="B719" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="E719" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="5" t="s">
+      <c r="A720" s="0" t="s">
         <v>1278</v>
       </c>
       <c r="B720" s="0" t="s">
         <v>262</v>
       </c>
       <c r="E720" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B721" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E721" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="0" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B721" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21565,7 +21706,7 @@
         <v>1281</v>
       </c>
       <c r="B723" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21573,7 +21714,7 @@
         <v>1282</v>
       </c>
       <c r="B724" s="0" t="s">
-        <v>462</v>
+        <v>251</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21581,26 +21722,26 @@
         <v>1283</v>
       </c>
       <c r="B725" s="0" t="s">
-        <v>305</v>
+        <v>462</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="5" t="s">
+      <c r="A726" s="0" t="s">
         <v>1284</v>
       </c>
       <c r="B726" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E726" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="0" t="s">
+      <c r="A727" s="5" t="s">
         <v>1285</v>
       </c>
       <c r="B727" s="0" t="s">
         <v>305</v>
+      </c>
+      <c r="E727" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21610,9 +21751,6 @@
       <c r="B728" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E728" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="s">
@@ -21621,6 +21759,9 @@
       <c r="B729" s="0" t="s">
         <v>305</v>
       </c>
+      <c r="E729" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
@@ -21643,7 +21784,7 @@
         <v>1290</v>
       </c>
       <c r="B732" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21651,7 +21792,7 @@
         <v>1291</v>
       </c>
       <c r="B733" s="0" t="s">
-        <v>464</v>
+        <v>306</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21659,7 +21800,7 @@
         <v>1292</v>
       </c>
       <c r="B734" s="0" t="s">
-        <v>257</v>
+        <v>464</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21667,7 +21808,7 @@
         <v>1293</v>
       </c>
       <c r="B735" s="0" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21693,16 +21834,16 @@
       <c r="B738" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E738" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
         <v>1297</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>174</v>
+        <v>111</v>
+      </c>
+      <c r="E739" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21718,7 +21859,7 @@
         <v>1299</v>
       </c>
       <c r="B741" s="0" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21726,7 +21867,7 @@
         <v>1300</v>
       </c>
       <c r="B742" s="0" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21734,15 +21875,15 @@
         <v>1301</v>
       </c>
       <c r="B743" s="0" t="s">
-        <v>1302</v>
+        <v>260</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B744" s="0" t="s">
         <v>1303</v>
-      </c>
-      <c r="B744" s="0" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21750,7 +21891,7 @@
         <v>1304</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21760,9 +21901,6 @@
       <c r="B746" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E746" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
@@ -21772,26 +21910,29 @@
         <v>263</v>
       </c>
       <c r="E747" s="0" t="s">
-        <v>548</v>
+        <v>675</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="5" t="s">
+      <c r="A748" s="0" t="s">
         <v>1307</v>
       </c>
       <c r="B748" s="0" t="s">
         <v>263</v>
       </c>
       <c r="E748" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B749" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E749" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="0" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B749" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21817,7 +21958,6 @@
       <c r="B752" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E752" s="8"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
@@ -21826,15 +21966,13 @@
       <c r="B753" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="E753" s="7"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
         <v>1313</v>
       </c>
       <c r="B754" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C754" s="0" t="s">
         <v>77</v>
       </c>
     </row>
@@ -21843,7 +21981,7 @@
         <v>1314</v>
       </c>
       <c r="B755" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C755" s="0" t="s">
         <v>77</v>
@@ -21854,7 +21992,10 @@
         <v>1315</v>
       </c>
       <c r="B756" s="0" t="s">
-        <v>267</v>
+        <v>78</v>
+      </c>
+      <c r="C756" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21872,9 +22013,6 @@
       <c r="B758" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="E758" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
@@ -21883,13 +22021,16 @@
       <c r="B759" s="0" t="s">
         <v>267</v>
       </c>
+      <c r="E759" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
         <v>1319</v>
       </c>
       <c r="B760" s="0" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21945,7 +22086,7 @@
         <v>1326</v>
       </c>
       <c r="B767" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21953,7 +22094,7 @@
         <v>1327</v>
       </c>
       <c r="B768" s="0" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21985,7 +22126,7 @@
         <v>1331</v>
       </c>
       <c r="B772" s="0" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22001,7 +22142,7 @@
         <v>1333</v>
       </c>
       <c r="B774" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22017,7 +22158,7 @@
         <v>1335</v>
       </c>
       <c r="B776" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22025,7 +22166,7 @@
         <v>1336</v>
       </c>
       <c r="B777" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22033,7 +22174,7 @@
         <v>1337</v>
       </c>
       <c r="B778" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22041,7 +22182,7 @@
         <v>1338</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22049,7 +22190,7 @@
         <v>1339</v>
       </c>
       <c r="B780" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22059,9 +22200,6 @@
       <c r="B781" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="E781" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
@@ -22070,6 +22208,9 @@
       <c r="B782" s="0" t="s">
         <v>280</v>
       </c>
+      <c r="E782" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
@@ -22084,7 +22225,7 @@
         <v>1343</v>
       </c>
       <c r="B784" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22094,9 +22235,6 @@
       <c r="B785" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="E785" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
@@ -22106,7 +22244,7 @@
         <v>281</v>
       </c>
       <c r="E786" s="0" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22114,26 +22252,29 @@
         <v>1346</v>
       </c>
       <c r="B787" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="E787" s="0" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="5" t="s">
+      <c r="A788" s="0" t="s">
         <v>1347</v>
       </c>
       <c r="B788" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E788" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="0" t="s">
+      <c r="A789" s="5" t="s">
         <v>1348</v>
       </c>
       <c r="B789" s="0" t="s">
         <v>282</v>
+      </c>
+      <c r="E789" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22143,9 +22284,6 @@
       <c r="B790" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E790" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
@@ -22155,7 +22293,7 @@
         <v>282</v>
       </c>
       <c r="E791" s="0" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22165,15 +22303,15 @@
       <c r="B792" s="0" t="s">
         <v>282</v>
       </c>
+      <c r="E792" s="0" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
         <v>1352</v>
       </c>
       <c r="B793" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C793" s="0" t="s">
         <v>282</v>
       </c>
     </row>
@@ -22193,7 +22331,10 @@
         <v>1354</v>
       </c>
       <c r="B795" s="0" t="s">
-        <v>276</v>
+        <v>315</v>
+      </c>
+      <c r="C795" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22201,7 +22342,7 @@
         <v>1355</v>
       </c>
       <c r="B796" s="0" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22209,7 +22350,7 @@
         <v>1356</v>
       </c>
       <c r="B797" s="0" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22217,7 +22358,7 @@
         <v>1357</v>
       </c>
       <c r="B798" s="0" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22225,7 +22366,7 @@
         <v>1358</v>
       </c>
       <c r="B799" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22249,7 +22390,7 @@
         <v>1361</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22283,16 +22424,16 @@
       <c r="B806" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E806" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
         <v>1366</v>
       </c>
       <c r="B807" s="0" t="s">
-        <v>123</v>
+        <v>42</v>
+      </c>
+      <c r="E807" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22310,9 +22451,6 @@
       <c r="B809" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E809" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="0" t="s">
@@ -22322,7 +22460,7 @@
         <v>123</v>
       </c>
       <c r="E810" s="0" t="s">
-        <v>675</v>
+        <v>548</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22332,6 +22470,9 @@
       <c r="B811" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="E811" s="0" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
@@ -22350,22 +22491,22 @@
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="5" t="s">
+      <c r="A814" s="0" t="s">
         <v>1373</v>
       </c>
       <c r="B814" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E814" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="0" t="s">
+      <c r="A815" s="5" t="s">
         <v>1374</v>
       </c>
       <c r="B815" s="0" t="s">
         <v>123</v>
+      </c>
+      <c r="E815" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22373,9 +22514,6 @@
         <v>1375</v>
       </c>
       <c r="B816" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C816" s="0" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22395,7 +22533,7 @@
         <v>1377</v>
       </c>
       <c r="B818" s="0" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="C818" s="0" t="s">
         <v>123</v>
@@ -22406,7 +22544,7 @@
         <v>1378</v>
       </c>
       <c r="B819" s="0" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C819" s="0" t="s">
         <v>123</v>
@@ -22417,20 +22555,23 @@
         <v>1379</v>
       </c>
       <c r="B820" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C820" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
-        <v>289</v>
+        <v>1380</v>
       </c>
       <c r="B821" s="0" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
-        <v>1380</v>
+        <v>289</v>
       </c>
       <c r="B822" s="0" t="s">
         <v>289</v>
@@ -22473,21 +22614,12 @@
         <v>1385</v>
       </c>
       <c r="B827" s="0" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C827" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="G827" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H827" s="0" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B828" s="0" t="s">
         <v>1387</v>
@@ -22495,13 +22627,19 @@
       <c r="C828" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G828" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H828" s="0" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B829" s="0" t="s">
         <v>1388</v>
-      </c>
-      <c r="B829" s="0" t="s">
-        <v>313</v>
       </c>
       <c r="C829" s="0" t="s">
         <v>289</v>
@@ -22512,13 +22650,10 @@
         <v>1389</v>
       </c>
       <c r="B830" s="0" t="s">
-        <v>407</v>
+        <v>313</v>
       </c>
       <c r="C830" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="F830" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22526,7 +22661,7 @@
         <v>1390</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C831" s="0" t="s">
         <v>289</v>
@@ -22540,7 +22675,7 @@
         <v>1391</v>
       </c>
       <c r="B832" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C832" s="0" t="s">
         <v>289</v>
@@ -22554,7 +22689,7 @@
         <v>1392</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C833" s="0" t="s">
         <v>289</v>
@@ -22568,7 +22703,7 @@
         <v>1393</v>
       </c>
       <c r="B834" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C834" s="0" t="s">
         <v>289</v>
@@ -22582,7 +22717,7 @@
         <v>1394</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C835" s="0" t="s">
         <v>289</v>
@@ -22596,7 +22731,7 @@
         <v>1395</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C836" s="0" t="s">
         <v>289</v>
@@ -22610,7 +22745,7 @@
         <v>1396</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C837" s="0" t="s">
         <v>289</v>
@@ -22624,7 +22759,7 @@
         <v>1397</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>1398</v>
+        <v>414</v>
       </c>
       <c r="C838" s="0" t="s">
         <v>289</v>
@@ -22635,10 +22770,10 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B839" s="0" t="s">
         <v>1399</v>
-      </c>
-      <c r="B839" s="0" t="s">
-        <v>415</v>
       </c>
       <c r="C839" s="0" t="s">
         <v>289</v>
@@ -22648,11 +22783,11 @@
       </c>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="6" t="s">
-        <v>882</v>
+      <c r="A840" s="0" t="s">
+        <v>1400</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C840" s="0" t="s">
         <v>289</v>
@@ -22662,11 +22797,11 @@
       </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="0" t="s">
-        <v>1400</v>
+      <c r="A841" s="6" t="s">
+        <v>882</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>289</v>
@@ -22680,7 +22815,7 @@
         <v>1401</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>289</v>
@@ -22694,7 +22829,7 @@
         <v>1402</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C843" s="0" t="s">
         <v>289</v>
@@ -22708,7 +22843,7 @@
         <v>1403</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C844" s="0" t="s">
         <v>289</v>
@@ -22722,7 +22857,7 @@
         <v>1404</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C845" s="0" t="s">
         <v>289</v>
@@ -22736,7 +22871,7 @@
         <v>1405</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C846" s="0" t="s">
         <v>289</v>
@@ -22750,7 +22885,7 @@
         <v>1406</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C847" s="0" t="s">
         <v>289</v>
@@ -22764,7 +22899,7 @@
         <v>1407</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C848" s="0" t="s">
         <v>289</v>
@@ -22778,7 +22913,7 @@
         <v>1408</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C849" s="0" t="s">
         <v>289</v>
@@ -22792,7 +22927,7 @@
         <v>1409</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C850" s="0" t="s">
         <v>289</v>
@@ -22806,7 +22941,7 @@
         <v>1410</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C851" s="0" t="s">
         <v>289</v>
@@ -22820,7 +22955,7 @@
         <v>1411</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C852" s="0" t="s">
         <v>289</v>
@@ -22834,7 +22969,7 @@
         <v>1412</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C853" s="0" t="s">
         <v>289</v>
@@ -22848,7 +22983,7 @@
         <v>1413</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C854" s="0" t="s">
         <v>289</v>
@@ -22862,7 +22997,7 @@
         <v>1414</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C855" s="0" t="s">
         <v>289</v>
@@ -22876,7 +23011,7 @@
         <v>1415</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>289</v>
@@ -22890,7 +23025,7 @@
         <v>1416</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C857" s="0" t="s">
         <v>289</v>
@@ -22904,7 +23039,7 @@
         <v>1417</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C858" s="0" t="s">
         <v>289</v>
@@ -22918,7 +23053,7 @@
         <v>1418</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C859" s="0" t="s">
         <v>289</v>
@@ -22932,7 +23067,7 @@
         <v>1419</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C860" s="0" t="s">
         <v>289</v>
@@ -22946,7 +23081,7 @@
         <v>1420</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C861" s="0" t="s">
         <v>289</v>
@@ -22960,7 +23095,7 @@
         <v>1421</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C862" s="0" t="s">
         <v>289</v>
@@ -22974,7 +23109,7 @@
         <v>1422</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C863" s="0" t="s">
         <v>289</v>
@@ -22988,7 +23123,7 @@
         <v>1423</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C864" s="0" t="s">
         <v>289</v>
@@ -23002,7 +23137,7 @@
         <v>1424</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C865" s="0" t="s">
         <v>289</v>
@@ -23016,7 +23151,7 @@
         <v>1425</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C866" s="0" t="s">
         <v>289</v>
@@ -23030,7 +23165,7 @@
         <v>1426</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C867" s="0" t="s">
         <v>289</v>
@@ -23044,7 +23179,7 @@
         <v>1427</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C868" s="0" t="s">
         <v>289</v>
@@ -23058,7 +23193,7 @@
         <v>1428</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C869" s="0" t="s">
         <v>289</v>
@@ -23072,7 +23207,7 @@
         <v>1429</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C870" s="0" t="s">
         <v>289</v>
@@ -23086,7 +23221,7 @@
         <v>1430</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>289</v>
@@ -23100,7 +23235,7 @@
         <v>1431</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>289</v>
@@ -23114,7 +23249,7 @@
         <v>1432</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C873" s="0" t="s">
         <v>289</v>
@@ -23128,7 +23263,7 @@
         <v>1433</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C874" s="0" t="s">
         <v>289</v>
@@ -23142,7 +23277,7 @@
         <v>1434</v>
       </c>
       <c r="B875" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C875" s="0" t="s">
         <v>289</v>
@@ -23156,7 +23291,7 @@
         <v>1435</v>
       </c>
       <c r="B876" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C876" s="0" t="s">
         <v>289</v>
@@ -23170,7 +23305,7 @@
         <v>1436</v>
       </c>
       <c r="B877" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C877" s="0" t="s">
         <v>289</v>
@@ -23184,7 +23319,7 @@
         <v>1437</v>
       </c>
       <c r="B878" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C878" s="0" t="s">
         <v>289</v>
@@ -23198,7 +23333,7 @@
         <v>1438</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C879" s="0" t="s">
         <v>289</v>
@@ -23212,7 +23347,7 @@
         <v>1439</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C880" s="0" t="s">
         <v>289</v>
@@ -23226,7 +23361,13 @@
         <v>1440</v>
       </c>
       <c r="B881" s="0" t="s">
-        <v>288</v>
+        <v>456</v>
+      </c>
+      <c r="C881" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F881" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23234,7 +23375,7 @@
         <v>1441</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23244,12 +23385,9 @@
       <c r="B883" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="D883" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="5" t="s">
+      <c r="A884" s="0" t="s">
         <v>1443</v>
       </c>
       <c r="B884" s="0" t="s">
@@ -23260,7 +23398,7 @@
       </c>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="0" t="s">
+      <c r="A885" s="5" t="s">
         <v>1444</v>
       </c>
       <c r="B885" s="0" t="s">
@@ -23268,9 +23406,6 @@
       </c>
       <c r="D885" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E885" s="0" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23278,7 +23413,13 @@
         <v>1445</v>
       </c>
       <c r="B886" s="0" t="s">
-        <v>290</v>
+        <v>259</v>
+      </c>
+      <c r="D886" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E886" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23288,16 +23429,16 @@
       <c r="B887" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="E887" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
         <v>1447</v>
       </c>
       <c r="B888" s="0" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="E888" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23305,7 +23446,7 @@
         <v>1448</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23345,10 +23486,7 @@
         <v>1453</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="E894" s="0" t="s">
-        <v>548</v>
+        <v>293</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23358,30 +23496,21 @@
       <c r="B895" s="0" t="s">
         <v>296</v>
       </c>
+      <c r="E895" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
         <v>1455</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C896" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G896" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H896" s="0" t="s">
-        <v>1456</v>
-      </c>
-      <c r="I896" s="0" t="s">
-        <v>1457</v>
+        <v>296</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B897" s="0" t="s">
         <v>294</v>
@@ -23393,27 +23522,30 @@
         <v>1</v>
       </c>
       <c r="H897" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="I897" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>1456</v>
+        <v>294</v>
       </c>
       <c r="C898" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="G898" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H898" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="I898" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23421,24 +23553,21 @@
         <v>1459</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>295</v>
+        <v>1457</v>
       </c>
       <c r="C899" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G899" s="0" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="H899" s="0" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="I899" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B900" s="0" t="s">
         <v>295</v>
@@ -23450,10 +23579,10 @@
         <v>1</v>
       </c>
       <c r="H900" s="0" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="I900" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23470,10 +23599,10 @@
         <v>1</v>
       </c>
       <c r="H901" s="0" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="I901" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23490,10 +23619,10 @@
         <v>1</v>
       </c>
       <c r="H902" s="0" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="I902" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23510,10 +23639,10 @@
         <v>1</v>
       </c>
       <c r="H903" s="0" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="I903" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23530,10 +23659,10 @@
         <v>1</v>
       </c>
       <c r="H904" s="0" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="I904" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23550,21 +23679,30 @@
         <v>1</v>
       </c>
       <c r="H905" s="0" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="I905" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
-        <v>1461</v>
+        <v>1467</v>
       </c>
       <c r="B906" s="0" t="s">
-        <v>1460</v>
+        <v>295</v>
       </c>
       <c r="C906" s="0" t="s">
         <v>289</v>
+      </c>
+      <c r="G906" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H906" s="0" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I906" s="0" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23572,7 +23710,7 @@
         <v>1462</v>
       </c>
       <c r="B907" s="0" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C907" s="0" t="s">
         <v>289</v>
@@ -23580,10 +23718,13 @@
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="B908" s="0" t="s">
-        <v>300</v>
+        <v>1461</v>
+      </c>
+      <c r="C908" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23599,7 +23740,7 @@
         <v>1469</v>
       </c>
       <c r="B910" s="0" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23623,7 +23764,7 @@
         <v>1472</v>
       </c>
       <c r="B913" s="0" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23631,7 +23772,7 @@
         <v>1473</v>
       </c>
       <c r="B914" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23663,10 +23804,7 @@
         <v>1477</v>
       </c>
       <c r="B918" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D918" s="0" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23679,9 +23817,6 @@
       <c r="D919" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E919" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
@@ -23693,13 +23828,16 @@
       <c r="D920" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E920" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
         <v>1480</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D921" s="0" t="n">
         <v>1</v>
@@ -23726,9 +23864,6 @@
       <c r="D923" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E923" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
@@ -23740,13 +23875,19 @@
       <c r="D924" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E924" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
         <v>1484</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="D925" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23754,7 +23895,7 @@
         <v>1485</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23762,7 +23903,7 @@
         <v>1486</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>105</v>
+        <v>308</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23770,7 +23911,7 @@
         <v>1487</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23778,21 +23919,12 @@
         <v>1488</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C929" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G929" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H929" s="0" t="s">
-        <v>1489</v>
+        <v>114</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B930" s="0" t="s">
         <v>76</v>
@@ -23804,7 +23936,7 @@
         <v>1</v>
       </c>
       <c r="H930" s="0" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23821,15 +23953,24 @@
         <v>1</v>
       </c>
       <c r="H931" s="0" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B932" s="0" t="s">
-        <v>1489</v>
+        <v>76</v>
+      </c>
+      <c r="C932" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G932" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H932" s="0" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23837,7 +23978,7 @@
         <v>1492</v>
       </c>
       <c r="B933" s="0" t="s">
-        <v>458</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23845,7 +23986,7 @@
         <v>1493</v>
       </c>
       <c r="B934" s="0" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23853,7 +23994,7 @@
         <v>1494</v>
       </c>
       <c r="B935" s="0" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23861,7 +24002,7 @@
         <v>1495</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23869,7 +24010,7 @@
         <v>1496</v>
       </c>
       <c r="B937" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23877,7 +24018,7 @@
         <v>1497</v>
       </c>
       <c r="B938" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23885,21 +24026,15 @@
         <v>1498</v>
       </c>
       <c r="B939" s="0" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C939" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F939" s="0" t="n">
-        <v>1</v>
+        <v>468</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B940" s="0" t="s">
         <v>1500</v>
-      </c>
-      <c r="B940" s="0" t="s">
-        <v>1501</v>
       </c>
       <c r="C940" s="0" t="s">
         <v>43</v>
@@ -23910,10 +24045,10 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B941" s="0" t="s">
         <v>1502</v>
-      </c>
-      <c r="B941" s="0" t="s">
-        <v>1501</v>
       </c>
       <c r="C941" s="0" t="s">
         <v>43</v>
@@ -23923,11 +24058,11 @@
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="5" t="s">
+      <c r="A942" s="0" t="s">
         <v>1503</v>
       </c>
       <c r="B942" s="0" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C942" s="0" t="s">
         <v>43</v>
@@ -23937,11 +24072,11 @@
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="6" t="s">
+      <c r="A943" s="5" t="s">
         <v>1504</v>
       </c>
       <c r="B943" s="0" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C943" s="0" t="s">
         <v>43</v>
@@ -23955,7 +24090,7 @@
         <v>1505</v>
       </c>
       <c r="B944" s="0" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C944" s="0" t="s">
         <v>43</v>
@@ -23965,11 +24100,11 @@
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="0" t="s">
+      <c r="A945" s="6" t="s">
         <v>1506</v>
       </c>
       <c r="B945" s="0" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="C945" s="0" t="s">
         <v>43</v>
@@ -23980,10 +24115,10 @@
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B946" s="0" t="s">
         <v>1508</v>
-      </c>
-      <c r="B946" s="0" t="s">
-        <v>1509</v>
       </c>
       <c r="C946" s="0" t="s">
         <v>43</v>
@@ -23994,10 +24129,10 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B947" s="0" t="s">
         <v>1510</v>
-      </c>
-      <c r="B947" s="0" t="s">
-        <v>1511</v>
       </c>
       <c r="C947" s="0" t="s">
         <v>43</v>
@@ -24008,7 +24143,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>732</v>
+        <v>1511</v>
       </c>
       <c r="B948" s="0" t="s">
         <v>1512</v>
@@ -24022,10 +24157,10 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="B949" s="0" t="s">
         <v>1513</v>
-      </c>
-      <c r="B949" s="0" t="s">
-        <v>1514</v>
       </c>
       <c r="C949" s="0" t="s">
         <v>43</v>
@@ -24036,10 +24171,10 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B950" s="0" t="s">
         <v>1515</v>
-      </c>
-      <c r="B950" s="0" t="s">
-        <v>1516</v>
       </c>
       <c r="C950" s="0" t="s">
         <v>43</v>
@@ -24050,10 +24185,10 @@
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B951" s="0" t="s">
         <v>1517</v>
-      </c>
-      <c r="B951" s="0" t="s">
-        <v>1518</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>43</v>
@@ -24064,10 +24199,10 @@
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B952" s="0" t="s">
         <v>1519</v>
-      </c>
-      <c r="B952" s="0" t="s">
-        <v>1520</v>
       </c>
       <c r="C952" s="0" t="s">
         <v>43</v>
@@ -24078,10 +24213,10 @@
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B953" s="0" t="s">
         <v>1521</v>
-      </c>
-      <c r="B953" s="0" t="s">
-        <v>1522</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>43</v>
@@ -24092,10 +24227,10 @@
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B954" s="0" t="s">
         <v>1523</v>
-      </c>
-      <c r="B954" s="0" t="s">
-        <v>1524</v>
       </c>
       <c r="C954" s="0" t="s">
         <v>43</v>
@@ -24106,10 +24241,10 @@
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B955" s="0" t="s">
         <v>1525</v>
-      </c>
-      <c r="B955" s="0" t="s">
-        <v>1526</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>43</v>
@@ -24120,10 +24255,10 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B956" s="0" t="s">
         <v>1527</v>
-      </c>
-      <c r="B956" s="0" t="s">
-        <v>1528</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>43</v>
@@ -24134,10 +24269,10 @@
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B957" s="0" t="s">
         <v>1529</v>
-      </c>
-      <c r="B957" s="0" t="s">
-        <v>1530</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>43</v>
@@ -24148,10 +24283,10 @@
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B958" s="0" t="s">
         <v>1531</v>
-      </c>
-      <c r="B958" s="0" t="s">
-        <v>1532</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>43</v>
@@ -24162,10 +24297,10 @@
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B959" s="0" t="s">
         <v>1533</v>
-      </c>
-      <c r="B959" s="0" t="s">
-        <v>1534</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>43</v>
@@ -24176,10 +24311,10 @@
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B960" s="0" t="s">
         <v>1535</v>
-      </c>
-      <c r="B960" s="0" t="s">
-        <v>1536</v>
       </c>
       <c r="C960" s="0" t="s">
         <v>43</v>
@@ -24190,10 +24325,10 @@
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B961" s="0" t="s">
         <v>1537</v>
-      </c>
-      <c r="B961" s="0" t="s">
-        <v>1538</v>
       </c>
       <c r="C961" s="0" t="s">
         <v>43</v>
@@ -24204,10 +24339,10 @@
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B962" s="0" t="s">
         <v>1539</v>
-      </c>
-      <c r="B962" s="0" t="s">
-        <v>1540</v>
       </c>
       <c r="C962" s="0" t="s">
         <v>43</v>
@@ -24218,10 +24353,10 @@
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B963" s="0" t="s">
         <v>1541</v>
-      </c>
-      <c r="B963" s="0" t="s">
-        <v>1542</v>
       </c>
       <c r="C963" s="0" t="s">
         <v>43</v>
@@ -24232,10 +24367,10 @@
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B964" s="0" t="s">
         <v>1543</v>
-      </c>
-      <c r="B964" s="0" t="s">
-        <v>1544</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>43</v>
@@ -24246,10 +24381,10 @@
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B965" s="0" t="s">
         <v>1545</v>
-      </c>
-      <c r="B965" s="0" t="s">
-        <v>1546</v>
       </c>
       <c r="C965" s="0" t="s">
         <v>43</v>
@@ -24260,10 +24395,10 @@
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B966" s="0" t="s">
         <v>1547</v>
-      </c>
-      <c r="B966" s="0" t="s">
-        <v>1548</v>
       </c>
       <c r="C966" s="0" t="s">
         <v>43</v>
@@ -24273,11 +24408,11 @@
       </c>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="0" t="n">
-        <v>1701</v>
+      <c r="A967" s="0" t="s">
+        <v>1548</v>
       </c>
       <c r="B967" s="0" t="s">
-        <v>1501</v>
+        <v>1549</v>
       </c>
       <c r="C967" s="0" t="s">
         <v>43</v>
@@ -24288,10 +24423,10 @@
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="n">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B968" s="0" t="s">
-        <v>1512</v>
+        <v>1502</v>
       </c>
       <c r="C968" s="0" t="s">
         <v>43</v>
@@ -24302,10 +24437,10 @@
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="n">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B969" s="0" t="s">
-        <v>1542</v>
+        <v>1513</v>
       </c>
       <c r="C969" s="0" t="s">
         <v>43</v>
@@ -24316,10 +24451,10 @@
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="n">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B970" s="0" t="s">
-        <v>1516</v>
+        <v>1543</v>
       </c>
       <c r="C970" s="0" t="s">
         <v>43</v>
@@ -24330,10 +24465,10 @@
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="n">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B971" s="0" t="s">
-        <v>1528</v>
+        <v>1517</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>43</v>
@@ -24344,10 +24479,10 @@
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="n">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>1514</v>
+        <v>1529</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>43</v>
@@ -24358,10 +24493,10 @@
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="n">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B973" s="0" t="s">
-        <v>1509</v>
+        <v>1515</v>
       </c>
       <c r="C973" s="0" t="s">
         <v>43</v>
@@ -24372,10 +24507,10 @@
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="n">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B974" s="0" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="C974" s="0" t="s">
         <v>43</v>
@@ -24386,10 +24521,10 @@
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="n">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B975" s="0" t="s">
-        <v>1534</v>
+        <v>1519</v>
       </c>
       <c r="C975" s="0" t="s">
         <v>43</v>
@@ -24400,10 +24535,10 @@
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="n">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B976" s="0" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
       <c r="C976" s="0" t="s">
         <v>43</v>
@@ -24414,10 +24549,10 @@
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="n">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B977" s="0" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="C977" s="0" t="s">
         <v>43</v>
@@ -24428,10 +24563,10 @@
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="n">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B978" s="0" t="s">
-        <v>1507</v>
+        <v>1549</v>
       </c>
       <c r="C978" s="0" t="s">
         <v>43</v>
@@ -24442,10 +24577,10 @@
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="n">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B979" s="0" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>43</v>
@@ -24456,10 +24591,10 @@
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="n">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B980" s="0" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>43</v>
@@ -24470,10 +24605,10 @@
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="n">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B981" s="0" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="C981" s="0" t="s">
         <v>43</v>
@@ -24484,10 +24619,10 @@
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="n">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B982" s="0" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C982" s="0" t="s">
         <v>43</v>
@@ -24498,10 +24633,10 @@
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="n">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B983" s="0" t="s">
-        <v>1524</v>
+        <v>1539</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>43</v>
@@ -24512,10 +24647,10 @@
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="n">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>1511</v>
+        <v>1525</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>43</v>
@@ -24526,10 +24661,10 @@
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="n">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B985" s="0" t="s">
-        <v>1530</v>
+        <v>1512</v>
       </c>
       <c r="C985" s="0" t="s">
         <v>43</v>
@@ -24540,10 +24675,10 @@
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B986" s="0" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C986" s="0" t="s">
         <v>43</v>
@@ -24554,10 +24689,10 @@
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="n">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B987" s="0" t="s">
-        <v>1546</v>
+        <v>1533</v>
       </c>
       <c r="C987" s="0" t="s">
         <v>43</v>
@@ -24568,10 +24703,10 @@
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="n">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B988" s="0" t="s">
-        <v>1499</v>
+        <v>1547</v>
       </c>
       <c r="C988" s="0" t="s">
         <v>43</v>
@@ -24582,10 +24717,10 @@
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="n">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B989" s="0" t="s">
-        <v>1522</v>
+        <v>1500</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>43</v>
@@ -24595,42 +24730,39 @@
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="0" t="s">
-        <v>1549</v>
+      <c r="A990" s="0" t="n">
+        <v>1723</v>
       </c>
       <c r="B990" s="0" t="s">
-        <v>1550</v>
+        <v>1523</v>
       </c>
       <c r="C990" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="J990" s="0" t="s">
-        <v>1551</v>
+        <v>43</v>
+      </c>
+      <c r="F990" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="s">
-        <v>644</v>
+        <v>1550</v>
       </c>
       <c r="B991" s="0" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F991" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J991" s="0" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B992" s="0" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C992" s="0" t="s">
         <v>293</v>
@@ -24639,15 +24771,15 @@
         <v>1</v>
       </c>
       <c r="J992" s="0" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>1556</v>
+        <v>641</v>
       </c>
       <c r="B993" s="0" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="C993" s="0" t="s">
         <v>293</v>
@@ -24656,15 +24788,15 @@
         <v>1</v>
       </c>
       <c r="J993" s="0" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B994" s="0" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="C994" s="0" t="s">
         <v>293</v>
@@ -24673,15 +24805,15 @@
         <v>1</v>
       </c>
       <c r="J994" s="0" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B995" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C995" s="0" t="s">
         <v>293</v>
@@ -24690,15 +24822,15 @@
         <v>1</v>
       </c>
       <c r="J995" s="0" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B996" s="0" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>293</v>
@@ -24707,15 +24839,15 @@
         <v>1</v>
       </c>
       <c r="J996" s="0" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>723</v>
+        <v>1566</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>293</v>
@@ -24724,15 +24856,15 @@
         <v>1</v>
       </c>
       <c r="J997" s="0" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>1570</v>
+        <v>723</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>293</v>
@@ -24741,15 +24873,15 @@
         <v>1</v>
       </c>
       <c r="J998" s="0" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B999" s="0" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>293</v>
@@ -24758,15 +24890,15 @@
         <v>1</v>
       </c>
       <c r="J999" s="0" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B1000" s="0" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>293</v>
@@ -24775,15 +24907,15 @@
         <v>1</v>
       </c>
       <c r="J1000" s="0" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>293</v>
@@ -24792,15 +24924,15 @@
         <v>1</v>
       </c>
       <c r="J1001" s="0" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B1002" s="0" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>293</v>
@@ -24809,15 +24941,15 @@
         <v>1</v>
       </c>
       <c r="J1002" s="0" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B1003" s="0" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>293</v>
@@ -24826,15 +24958,15 @@
         <v>1</v>
       </c>
       <c r="J1003" s="0" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B1004" s="0" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>293</v>
@@ -24843,15 +24975,15 @@
         <v>1</v>
       </c>
       <c r="J1004" s="0" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>1109</v>
+        <v>1589</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>1110</v>
+        <v>1590</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>293</v>
@@ -24865,10 +24997,10 @@
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>1592</v>
+        <v>1110</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>1593</v>
+        <v>1111</v>
       </c>
       <c r="C1006" s="0" t="s">
         <v>293</v>
@@ -24877,15 +25009,15 @@
         <v>1</v>
       </c>
       <c r="J1006" s="0" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B1007" s="0" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="C1007" s="0" t="s">
         <v>293</v>
@@ -24894,15 +25026,15 @@
         <v>1</v>
       </c>
       <c r="J1007" s="0" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B1008" s="0" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C1008" s="0" t="s">
         <v>293</v>
@@ -24911,15 +25043,15 @@
         <v>1</v>
       </c>
       <c r="J1008" s="0" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>750</v>
+        <v>1599</v>
       </c>
       <c r="B1009" s="0" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C1009" s="0" t="s">
         <v>293</v>
@@ -24928,15 +25060,15 @@
         <v>1</v>
       </c>
       <c r="J1009" s="0" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>1603</v>
+        <v>750</v>
       </c>
       <c r="B1010" s="0" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="C1010" s="0" t="s">
         <v>293</v>
@@ -24945,15 +25077,15 @@
         <v>1</v>
       </c>
       <c r="J1010" s="0" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C1011" s="0" t="s">
         <v>293</v>
@@ -24962,15 +25094,15 @@
         <v>1</v>
       </c>
       <c r="J1011" s="0" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B1012" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C1012" s="0" t="s">
         <v>293</v>
@@ -24979,15 +25111,15 @@
         <v>1</v>
       </c>
       <c r="J1012" s="0" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B1013" s="0" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C1013" s="0" t="s">
         <v>293</v>
@@ -24996,15 +25128,15 @@
         <v>1</v>
       </c>
       <c r="J1013" s="0" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B1014" s="0" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C1014" s="0" t="s">
         <v>293</v>
@@ -25013,14 +25145,23 @@
         <v>1</v>
       </c>
       <c r="J1014" s="0" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B1015" s="0" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1015" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1015" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1015" s="0" t="s">
         <v>1618</v>
       </c>
     </row>
@@ -25028,14 +25169,294 @@
       <c r="A1016" s="0" t="s">
         <v>1619</v>
       </c>
-      <c r="B1016" s="5" t="s">
+      <c r="B1016" s="0" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="0" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1017" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="C1016" s="0" t="s">
+      <c r="C1017" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="J1016" s="0" t="s">
-        <v>1620</v>
+      <c r="J1017" s="0" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="0" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1018" s="0" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C1018" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1018" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1018" s="0" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="0" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1019" s="0" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C1019" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1019" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1019" s="0" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="0" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1020" s="0" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C1020" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1020" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1020" s="0" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="0" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1021" s="0" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C1021" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1021" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1021" s="0" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="0" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1022" s="0" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C1022" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1022" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1022" s="0" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="0" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1023" s="0" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C1023" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1023" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1023" s="0" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="0" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1024" s="0" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C1024" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1024" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1024" s="0" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="0" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1025" s="0" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C1025" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1025" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1025" s="0" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="0" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1026" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C1026" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1026" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1026" s="0" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1027" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1027" s="0" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C1027" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1027" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1027" s="0" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1028" s="0" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1028" s="0" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1028" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1028" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1028" s="0" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="0" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1029" s="0" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C1029" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1029" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1029" s="0" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1030" s="0" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1030" s="0" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1030" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1030" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1030" s="0" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="0" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1031" s="0" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C1031" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1031" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1031" s="0" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="0" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1032" s="0" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C1032" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1032" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1032" s="0" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="0" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1033" s="0" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C1033" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1033" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1033" s="0" t="s">
+        <v>1667</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="1668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="1669">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -4474,6 +4474,9 @@
   </si>
   <si>
     <t xml:space="preserve">Jugoslavien, Forbundsrepublikken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det tidligere Jugoslavien</t>
   </si>
   <si>
     <t xml:space="preserve">Yugoslavia, Federal Republic</t>
@@ -14710,14 +14713,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1033"/>
+  <dimension ref="A1:J1034"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1001" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B899" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A1001" activeCellId="0" sqref="A1001"/>
-      <selection pane="bottomRight" activeCell="E1034" activeCellId="0" sqref="E1034"/>
+      <selection pane="bottomLeft" activeCell="A899" activeCellId="0" sqref="A899"/>
+      <selection pane="bottomRight" activeCell="E925" activeCellId="0" sqref="E925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23884,10 +23887,13 @@
         <v>1484</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D925" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E925" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23895,7 +23901,10 @@
         <v>1485</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="D926" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23903,7 +23912,7 @@
         <v>1486</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23911,7 +23920,7 @@
         <v>1487</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>105</v>
+        <v>308</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23919,7 +23928,7 @@
         <v>1488</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23927,21 +23936,12 @@
         <v>1489</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C930" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G930" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H930" s="0" t="s">
-        <v>1490</v>
+        <v>114</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B931" s="0" t="s">
         <v>76</v>
@@ -23953,7 +23953,7 @@
         <v>1</v>
       </c>
       <c r="H931" s="0" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23970,15 +23970,24 @@
         <v>1</v>
       </c>
       <c r="H932" s="0" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B933" s="0" t="s">
-        <v>1490</v>
+        <v>76</v>
+      </c>
+      <c r="C933" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G933" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H933" s="0" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23986,7 +23995,7 @@
         <v>1493</v>
       </c>
       <c r="B934" s="0" t="s">
-        <v>458</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23994,7 +24003,7 @@
         <v>1494</v>
       </c>
       <c r="B935" s="0" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24002,7 +24011,7 @@
         <v>1495</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24010,7 +24019,7 @@
         <v>1496</v>
       </c>
       <c r="B937" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24018,7 +24027,7 @@
         <v>1497</v>
       </c>
       <c r="B938" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24026,7 +24035,7 @@
         <v>1498</v>
       </c>
       <c r="B939" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24034,21 +24043,15 @@
         <v>1499</v>
       </c>
       <c r="B940" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C940" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F940" s="0" t="n">
-        <v>1</v>
+        <v>468</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B941" s="0" t="s">
         <v>1501</v>
-      </c>
-      <c r="B941" s="0" t="s">
-        <v>1502</v>
       </c>
       <c r="C941" s="0" t="s">
         <v>43</v>
@@ -24059,10 +24062,10 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B942" s="0" t="s">
         <v>1503</v>
-      </c>
-      <c r="B942" s="0" t="s">
-        <v>1502</v>
       </c>
       <c r="C942" s="0" t="s">
         <v>43</v>
@@ -24072,11 +24075,11 @@
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="5" t="s">
+      <c r="A943" s="0" t="s">
         <v>1504</v>
       </c>
       <c r="B943" s="0" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C943" s="0" t="s">
         <v>43</v>
@@ -24086,11 +24089,11 @@
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="6" t="s">
+      <c r="A944" s="5" t="s">
         <v>1505</v>
       </c>
       <c r="B944" s="0" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C944" s="0" t="s">
         <v>43</v>
@@ -24104,7 +24107,7 @@
         <v>1506</v>
       </c>
       <c r="B945" s="0" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C945" s="0" t="s">
         <v>43</v>
@@ -24114,11 +24117,11 @@
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="0" t="s">
+      <c r="A946" s="6" t="s">
         <v>1507</v>
       </c>
       <c r="B946" s="0" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="C946" s="0" t="s">
         <v>43</v>
@@ -24129,10 +24132,10 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B947" s="0" t="s">
         <v>1509</v>
-      </c>
-      <c r="B947" s="0" t="s">
-        <v>1510</v>
       </c>
       <c r="C947" s="0" t="s">
         <v>43</v>
@@ -24143,10 +24146,10 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B948" s="0" t="s">
         <v>1511</v>
-      </c>
-      <c r="B948" s="0" t="s">
-        <v>1512</v>
       </c>
       <c r="C948" s="0" t="s">
         <v>43</v>
@@ -24157,7 +24160,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
-        <v>732</v>
+        <v>1512</v>
       </c>
       <c r="B949" s="0" t="s">
         <v>1513</v>
@@ -24171,10 +24174,10 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="B950" s="0" t="s">
         <v>1514</v>
-      </c>
-      <c r="B950" s="0" t="s">
-        <v>1515</v>
       </c>
       <c r="C950" s="0" t="s">
         <v>43</v>
@@ -24185,10 +24188,10 @@
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B951" s="0" t="s">
         <v>1516</v>
-      </c>
-      <c r="B951" s="0" t="s">
-        <v>1517</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>43</v>
@@ -24199,10 +24202,10 @@
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B952" s="0" t="s">
         <v>1518</v>
-      </c>
-      <c r="B952" s="0" t="s">
-        <v>1519</v>
       </c>
       <c r="C952" s="0" t="s">
         <v>43</v>
@@ -24213,10 +24216,10 @@
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B953" s="0" t="s">
         <v>1520</v>
-      </c>
-      <c r="B953" s="0" t="s">
-        <v>1521</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>43</v>
@@ -24227,10 +24230,10 @@
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B954" s="0" t="s">
         <v>1522</v>
-      </c>
-      <c r="B954" s="0" t="s">
-        <v>1523</v>
       </c>
       <c r="C954" s="0" t="s">
         <v>43</v>
@@ -24241,10 +24244,10 @@
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B955" s="0" t="s">
         <v>1524</v>
-      </c>
-      <c r="B955" s="0" t="s">
-        <v>1525</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>43</v>
@@ -24255,10 +24258,10 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B956" s="0" t="s">
         <v>1526</v>
-      </c>
-      <c r="B956" s="0" t="s">
-        <v>1527</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>43</v>
@@ -24269,10 +24272,10 @@
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B957" s="0" t="s">
         <v>1528</v>
-      </c>
-      <c r="B957" s="0" t="s">
-        <v>1529</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>43</v>
@@ -24283,10 +24286,10 @@
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B958" s="0" t="s">
         <v>1530</v>
-      </c>
-      <c r="B958" s="0" t="s">
-        <v>1531</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>43</v>
@@ -24297,10 +24300,10 @@
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B959" s="0" t="s">
         <v>1532</v>
-      </c>
-      <c r="B959" s="0" t="s">
-        <v>1533</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>43</v>
@@ -24311,10 +24314,10 @@
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B960" s="0" t="s">
         <v>1534</v>
-      </c>
-      <c r="B960" s="0" t="s">
-        <v>1535</v>
       </c>
       <c r="C960" s="0" t="s">
         <v>43</v>
@@ -24325,10 +24328,10 @@
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B961" s="0" t="s">
         <v>1536</v>
-      </c>
-      <c r="B961" s="0" t="s">
-        <v>1537</v>
       </c>
       <c r="C961" s="0" t="s">
         <v>43</v>
@@ -24339,10 +24342,10 @@
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B962" s="0" t="s">
         <v>1538</v>
-      </c>
-      <c r="B962" s="0" t="s">
-        <v>1539</v>
       </c>
       <c r="C962" s="0" t="s">
         <v>43</v>
@@ -24353,10 +24356,10 @@
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B963" s="0" t="s">
         <v>1540</v>
-      </c>
-      <c r="B963" s="0" t="s">
-        <v>1541</v>
       </c>
       <c r="C963" s="0" t="s">
         <v>43</v>
@@ -24367,10 +24370,10 @@
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B964" s="0" t="s">
         <v>1542</v>
-      </c>
-      <c r="B964" s="0" t="s">
-        <v>1543</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>43</v>
@@ -24381,10 +24384,10 @@
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B965" s="0" t="s">
         <v>1544</v>
-      </c>
-      <c r="B965" s="0" t="s">
-        <v>1545</v>
       </c>
       <c r="C965" s="0" t="s">
         <v>43</v>
@@ -24395,10 +24398,10 @@
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B966" s="0" t="s">
         <v>1546</v>
-      </c>
-      <c r="B966" s="0" t="s">
-        <v>1547</v>
       </c>
       <c r="C966" s="0" t="s">
         <v>43</v>
@@ -24409,10 +24412,10 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B967" s="0" t="s">
         <v>1548</v>
-      </c>
-      <c r="B967" s="0" t="s">
-        <v>1549</v>
       </c>
       <c r="C967" s="0" t="s">
         <v>43</v>
@@ -24422,11 +24425,11 @@
       </c>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="0" t="n">
-        <v>1701</v>
+      <c r="A968" s="0" t="s">
+        <v>1549</v>
       </c>
       <c r="B968" s="0" t="s">
-        <v>1502</v>
+        <v>1550</v>
       </c>
       <c r="C968" s="0" t="s">
         <v>43</v>
@@ -24437,10 +24440,10 @@
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="n">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B969" s="0" t="s">
-        <v>1513</v>
+        <v>1503</v>
       </c>
       <c r="C969" s="0" t="s">
         <v>43</v>
@@ -24451,10 +24454,10 @@
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="n">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B970" s="0" t="s">
-        <v>1543</v>
+        <v>1514</v>
       </c>
       <c r="C970" s="0" t="s">
         <v>43</v>
@@ -24465,10 +24468,10 @@
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="n">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B971" s="0" t="s">
-        <v>1517</v>
+        <v>1544</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>43</v>
@@ -24479,10 +24482,10 @@
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="n">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>1529</v>
+        <v>1518</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>43</v>
@@ -24493,10 +24496,10 @@
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="n">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B973" s="0" t="s">
-        <v>1515</v>
+        <v>1530</v>
       </c>
       <c r="C973" s="0" t="s">
         <v>43</v>
@@ -24507,10 +24510,10 @@
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="n">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B974" s="0" t="s">
-        <v>1510</v>
+        <v>1516</v>
       </c>
       <c r="C974" s="0" t="s">
         <v>43</v>
@@ -24521,10 +24524,10 @@
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="n">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B975" s="0" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="C975" s="0" t="s">
         <v>43</v>
@@ -24535,10 +24538,10 @@
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="n">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B976" s="0" t="s">
-        <v>1535</v>
+        <v>1520</v>
       </c>
       <c r="C976" s="0" t="s">
         <v>43</v>
@@ -24549,10 +24552,10 @@
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="n">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B977" s="0" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
       <c r="C977" s="0" t="s">
         <v>43</v>
@@ -24563,10 +24566,10 @@
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="n">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B978" s="0" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="C978" s="0" t="s">
         <v>43</v>
@@ -24577,10 +24580,10 @@
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="n">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B979" s="0" t="s">
-        <v>1508</v>
+        <v>1550</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>43</v>
@@ -24591,10 +24594,10 @@
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="n">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B980" s="0" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>43</v>
@@ -24605,10 +24608,10 @@
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="n">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B981" s="0" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="C981" s="0" t="s">
         <v>43</v>
@@ -24619,10 +24622,10 @@
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="n">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B982" s="0" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
       <c r="C982" s="0" t="s">
         <v>43</v>
@@ -24633,10 +24636,10 @@
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="n">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B983" s="0" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>43</v>
@@ -24647,10 +24650,10 @@
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="n">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>1525</v>
+        <v>1540</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>43</v>
@@ -24661,10 +24664,10 @@
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="n">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B985" s="0" t="s">
-        <v>1512</v>
+        <v>1526</v>
       </c>
       <c r="C985" s="0" t="s">
         <v>43</v>
@@ -24675,10 +24678,10 @@
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="n">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B986" s="0" t="s">
-        <v>1531</v>
+        <v>1513</v>
       </c>
       <c r="C986" s="0" t="s">
         <v>43</v>
@@ -24689,10 +24692,10 @@
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B987" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C987" s="0" t="s">
         <v>43</v>
@@ -24703,10 +24706,10 @@
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="n">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B988" s="0" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="C988" s="0" t="s">
         <v>43</v>
@@ -24717,10 +24720,10 @@
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="n">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B989" s="0" t="s">
-        <v>1500</v>
+        <v>1548</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>43</v>
@@ -24731,10 +24734,10 @@
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="n">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B990" s="0" t="s">
-        <v>1523</v>
+        <v>1501</v>
       </c>
       <c r="C990" s="0" t="s">
         <v>43</v>
@@ -24744,42 +24747,39 @@
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="0" t="s">
-        <v>1550</v>
+      <c r="A991" s="0" t="n">
+        <v>1723</v>
       </c>
       <c r="B991" s="0" t="s">
-        <v>1551</v>
+        <v>1524</v>
       </c>
       <c r="C991" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="J991" s="0" t="s">
-        <v>1552</v>
+        <v>43</v>
+      </c>
+      <c r="F991" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>644</v>
+        <v>1551</v>
       </c>
       <c r="B992" s="0" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C992" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F992" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J992" s="0" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B993" s="0" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C993" s="0" t="s">
         <v>293</v>
@@ -24788,15 +24788,15 @@
         <v>1</v>
       </c>
       <c r="J993" s="0" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>1557</v>
+        <v>641</v>
       </c>
       <c r="B994" s="0" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="C994" s="0" t="s">
         <v>293</v>
@@ -24805,15 +24805,15 @@
         <v>1</v>
       </c>
       <c r="J994" s="0" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B995" s="0" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C995" s="0" t="s">
         <v>293</v>
@@ -24822,15 +24822,15 @@
         <v>1</v>
       </c>
       <c r="J995" s="0" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B996" s="0" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>293</v>
@@ -24839,15 +24839,15 @@
         <v>1</v>
       </c>
       <c r="J996" s="0" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>293</v>
@@ -24856,15 +24856,15 @@
         <v>1</v>
       </c>
       <c r="J997" s="0" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>723</v>
+        <v>1567</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>293</v>
@@ -24873,15 +24873,15 @@
         <v>1</v>
       </c>
       <c r="J998" s="0" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>1571</v>
+        <v>723</v>
       </c>
       <c r="B999" s="0" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>293</v>
@@ -24890,15 +24890,15 @@
         <v>1</v>
       </c>
       <c r="J999" s="0" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B1000" s="0" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>293</v>
@@ -24907,15 +24907,15 @@
         <v>1</v>
       </c>
       <c r="J1000" s="0" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>293</v>
@@ -24924,15 +24924,15 @@
         <v>1</v>
       </c>
       <c r="J1001" s="0" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B1002" s="0" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>293</v>
@@ -24941,15 +24941,15 @@
         <v>1</v>
       </c>
       <c r="J1002" s="0" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B1003" s="0" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>293</v>
@@ -24958,15 +24958,15 @@
         <v>1</v>
       </c>
       <c r="J1003" s="0" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B1004" s="0" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>293</v>
@@ -24975,15 +24975,15 @@
         <v>1</v>
       </c>
       <c r="J1004" s="0" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>293</v>
@@ -24992,15 +24992,15 @@
         <v>1</v>
       </c>
       <c r="J1005" s="0" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>1110</v>
+        <v>1590</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>1111</v>
+        <v>1591</v>
       </c>
       <c r="C1006" s="0" t="s">
         <v>293</v>
@@ -25014,10 +25014,10 @@
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>1593</v>
+        <v>1110</v>
       </c>
       <c r="B1007" s="0" t="s">
-        <v>1594</v>
+        <v>1111</v>
       </c>
       <c r="C1007" s="0" t="s">
         <v>293</v>
@@ -25026,15 +25026,15 @@
         <v>1</v>
       </c>
       <c r="J1007" s="0" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B1008" s="0" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C1008" s="0" t="s">
         <v>293</v>
@@ -25043,15 +25043,15 @@
         <v>1</v>
       </c>
       <c r="J1008" s="0" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B1009" s="0" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C1009" s="0" t="s">
         <v>293</v>
@@ -25060,15 +25060,15 @@
         <v>1</v>
       </c>
       <c r="J1009" s="0" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="B1010" s="0" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C1010" s="0" t="s">
         <v>293</v>
@@ -25077,15 +25077,15 @@
         <v>1</v>
       </c>
       <c r="J1010" s="0" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>1604</v>
+        <v>750</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C1011" s="0" t="s">
         <v>293</v>
@@ -25094,15 +25094,15 @@
         <v>1</v>
       </c>
       <c r="J1011" s="0" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B1012" s="0" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="C1012" s="0" t="s">
         <v>293</v>
@@ -25111,15 +25111,15 @@
         <v>1</v>
       </c>
       <c r="J1012" s="0" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B1013" s="0" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C1013" s="0" t="s">
         <v>293</v>
@@ -25128,15 +25128,15 @@
         <v>1</v>
       </c>
       <c r="J1013" s="0" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B1014" s="0" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C1014" s="0" t="s">
         <v>293</v>
@@ -25145,15 +25145,15 @@
         <v>1</v>
       </c>
       <c r="J1014" s="0" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B1015" s="0" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="C1015" s="0" t="s">
         <v>293</v>
@@ -25162,14 +25162,23 @@
         <v>1</v>
       </c>
       <c r="J1015" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B1016" s="0" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1016" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1016" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1016" s="0" t="s">
         <v>1619</v>
       </c>
     </row>
@@ -25177,39 +25186,30 @@
       <c r="A1017" s="0" t="s">
         <v>1620</v>
       </c>
-      <c r="B1017" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="C1017" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1017" s="0" t="s">
-        <v>1621</v>
+      <c r="B1017" s="0" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1018" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C1018" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1018" s="0" t="s">
         <v>1622</v>
-      </c>
-      <c r="B1018" s="0" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C1018" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1018" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1018" s="0" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B1019" s="0" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="C1019" s="0" t="s">
         <v>80</v>
@@ -25218,15 +25218,15 @@
         <v>1</v>
       </c>
       <c r="J1019" s="0" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B1020" s="0" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="C1020" s="0" t="s">
         <v>80</v>
@@ -25235,15 +25235,15 @@
         <v>1</v>
       </c>
       <c r="J1020" s="0" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="B1021" s="0" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="C1021" s="0" t="s">
         <v>80</v>
@@ -25252,15 +25252,15 @@
         <v>1</v>
       </c>
       <c r="J1021" s="0" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B1022" s="0" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="C1022" s="0" t="s">
         <v>80</v>
@@ -25269,15 +25269,15 @@
         <v>1</v>
       </c>
       <c r="J1022" s="0" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B1023" s="0" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C1023" s="0" t="s">
         <v>80</v>
@@ -25286,15 +25286,15 @@
         <v>1</v>
       </c>
       <c r="J1023" s="0" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B1024" s="0" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="C1024" s="0" t="s">
         <v>80</v>
@@ -25303,15 +25303,15 @@
         <v>1</v>
       </c>
       <c r="J1024" s="0" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B1025" s="0" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C1025" s="0" t="s">
         <v>80</v>
@@ -25320,7 +25320,7 @@
         <v>1</v>
       </c>
       <c r="J1025" s="0" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25328,7 +25328,7 @@
         <v>1644</v>
       </c>
       <c r="B1026" s="0" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="C1026" s="0" t="s">
         <v>80</v>
@@ -25337,15 +25337,15 @@
         <v>1</v>
       </c>
       <c r="J1026" s="0" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="B1027" s="0" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C1027" s="0" t="s">
         <v>80</v>
@@ -25354,15 +25354,15 @@
         <v>1</v>
       </c>
       <c r="J1027" s="0" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="B1028" s="0" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="C1028" s="0" t="s">
         <v>80</v>
@@ -25371,15 +25371,15 @@
         <v>1</v>
       </c>
       <c r="J1028" s="0" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B1029" s="0" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="C1029" s="0" t="s">
         <v>80</v>
@@ -25388,15 +25388,15 @@
         <v>1</v>
       </c>
       <c r="J1029" s="0" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="B1030" s="0" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="C1030" s="0" t="s">
         <v>80</v>
@@ -25405,15 +25405,15 @@
         <v>1</v>
       </c>
       <c r="J1030" s="0" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B1031" s="0" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="C1031" s="0" t="s">
         <v>80</v>
@@ -25422,15 +25422,15 @@
         <v>1</v>
       </c>
       <c r="J1031" s="0" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B1032" s="0" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C1032" s="0" t="s">
         <v>80</v>
@@ -25439,15 +25439,15 @@
         <v>1</v>
       </c>
       <c r="J1032" s="0" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B1033" s="0" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C1033" s="0" t="s">
         <v>80</v>
@@ -25456,7 +25456,24 @@
         <v>1</v>
       </c>
       <c r="J1033" s="0" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="0" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1034" s="0" t="s">
         <v>1667</v>
+      </c>
+      <c r="C1034" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1034" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1034" s="0" t="s">
+        <v>1668</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -14716,11 +14716,11 @@
   <dimension ref="A1:J1034"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B899" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B736" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A899" activeCellId="0" sqref="A899"/>
-      <selection pane="bottomRight" activeCell="E925" activeCellId="0" sqref="E925"/>
+      <selection pane="bottomLeft" activeCell="A736" activeCellId="0" sqref="A736"/>
+      <selection pane="bottomRight" activeCell="E757" activeCellId="0" sqref="E757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="1669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="1670">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -3091,6 +3091,9 @@
   </si>
   <si>
     <t xml:space="preserve">Libyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libyan Arab Jamahiriya</t>
   </si>
   <si>
     <t xml:space="preserve">Liechtenstein</t>
@@ -14713,14 +14716,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1034"/>
+  <dimension ref="A1:J1035"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B736" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B444" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A736" activeCellId="0" sqref="A736"/>
-      <selection pane="bottomRight" activeCell="E757" activeCellId="0" sqref="E757"/>
+      <selection pane="bottomLeft" activeCell="A444" activeCellId="0" sqref="A444"/>
+      <selection pane="bottomRight" activeCell="C468" activeCellId="0" sqref="C468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19258,7 +19261,7 @@
         <v>1023</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19266,7 +19269,7 @@
         <v>1024</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19284,16 +19287,16 @@
       <c r="B471" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="E471" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
         <v>1027</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="E472" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19303,30 +19306,27 @@
       <c r="B473" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E473" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="5" t="s">
+      <c r="A474" s="0" t="s">
         <v>1029</v>
       </c>
       <c r="B474" s="0" t="s">
         <v>177</v>
       </c>
       <c r="E474" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E475" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="0" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B475" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C475" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19367,7 +19367,10 @@
         <v>1034</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19393,9 +19396,6 @@
       <c r="B482" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E482" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
@@ -19404,6 +19404,9 @@
       <c r="B483" s="0" t="s">
         <v>191</v>
       </c>
+      <c r="E483" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
@@ -19444,27 +19447,27 @@
       <c r="B488" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E488" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="5" t="s">
+      <c r="A489" s="0" t="s">
         <v>1044</v>
       </c>
       <c r="B489" s="0" t="s">
         <v>191</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>556</v>
+        <v>675</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="0" t="s">
+      <c r="A490" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="B490" s="0" t="s">
         <v>191</v>
+      </c>
+      <c r="E490" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19488,7 +19491,7 @@
         <v>1048</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19496,7 +19499,7 @@
         <v>1049</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19504,7 +19507,7 @@
         <v>1050</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19512,7 +19515,7 @@
         <v>1051</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19520,7 +19523,7 @@
         <v>1052</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19528,7 +19531,7 @@
         <v>1053</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19536,7 +19539,7 @@
         <v>1054</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19552,7 +19555,7 @@
         <v>1056</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19568,10 +19571,7 @@
         <v>1058</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="C503" s="5" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19587,10 +19587,10 @@
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>1060</v>
+        <v>201</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>118</v>
@@ -19598,10 +19598,13 @@
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B506" s="0" t="s">
         <v>1061</v>
       </c>
-      <c r="B506" s="0" t="s">
-        <v>199</v>
+      <c r="C506" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19609,7 +19612,7 @@
         <v>1062</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19617,7 +19620,7 @@
         <v>1063</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19625,7 +19628,7 @@
         <v>1064</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19641,13 +19644,7 @@
         <v>1066</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C511" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="F511" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19655,7 +19652,7 @@
         <v>1067</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C512" s="0" t="s">
         <v>187</v>
@@ -19669,7 +19666,7 @@
         <v>1068</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C513" s="0" t="s">
         <v>187</v>
@@ -19683,7 +19680,7 @@
         <v>1069</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C514" s="0" t="s">
         <v>187</v>
@@ -19697,7 +19694,7 @@
         <v>1070</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C515" s="0" t="s">
         <v>187</v>
@@ -19711,7 +19708,7 @@
         <v>1071</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C516" s="0" t="s">
         <v>187</v>
@@ -19725,7 +19722,7 @@
         <v>1072</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C517" s="0" t="s">
         <v>187</v>
@@ -19739,7 +19736,7 @@
         <v>1073</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C518" s="0" t="s">
         <v>187</v>
@@ -19753,7 +19750,7 @@
         <v>1074</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>1075</v>
+        <v>356</v>
       </c>
       <c r="C519" s="0" t="s">
         <v>187</v>
@@ -19764,10 +19761,10 @@
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>644</v>
+        <v>1075</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C520" s="0" t="s">
         <v>187</v>
@@ -19778,10 +19775,10 @@
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B521" s="0" t="s">
         <v>1076</v>
-      </c>
-      <c r="B521" s="0" t="s">
-        <v>357</v>
       </c>
       <c r="C521" s="0" t="s">
         <v>187</v>
@@ -19795,7 +19792,7 @@
         <v>1077</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C522" s="0" t="s">
         <v>187</v>
@@ -19809,7 +19806,7 @@
         <v>1078</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C523" s="0" t="s">
         <v>187</v>
@@ -19823,7 +19820,7 @@
         <v>1079</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C524" s="0" t="s">
         <v>187</v>
@@ -19837,7 +19834,7 @@
         <v>1080</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C525" s="0" t="s">
         <v>187</v>
@@ -19851,7 +19848,7 @@
         <v>1081</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C526" s="0" t="s">
         <v>187</v>
@@ -19879,7 +19876,7 @@
         <v>1083</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C528" s="0" t="s">
         <v>187</v>
@@ -19907,7 +19904,7 @@
         <v>1085</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C530" s="0" t="s">
         <v>187</v>
@@ -19921,7 +19918,7 @@
         <v>1086</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C531" s="0" t="s">
         <v>187</v>
@@ -19935,7 +19932,7 @@
         <v>1087</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C532" s="0" t="s">
         <v>187</v>
@@ -19963,7 +19960,7 @@
         <v>1089</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C534" s="0" t="s">
         <v>187</v>
@@ -19977,7 +19974,7 @@
         <v>1090</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C535" s="0" t="s">
         <v>187</v>
@@ -19991,7 +19988,7 @@
         <v>1091</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C536" s="0" t="s">
         <v>187</v>
@@ -20005,7 +20002,7 @@
         <v>1092</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C537" s="0" t="s">
         <v>187</v>
@@ -20019,7 +20016,7 @@
         <v>1093</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C538" s="0" t="s">
         <v>187</v>
@@ -20033,7 +20030,7 @@
         <v>1094</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C539" s="0" t="s">
         <v>187</v>
@@ -20047,7 +20044,7 @@
         <v>1095</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C540" s="0" t="s">
         <v>187</v>
@@ -20061,7 +20058,7 @@
         <v>1096</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C541" s="0" t="s">
         <v>187</v>
@@ -20075,7 +20072,7 @@
         <v>1097</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C542" s="0" t="s">
         <v>187</v>
@@ -20089,7 +20086,7 @@
         <v>1098</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C543" s="0" t="s">
         <v>187</v>
@@ -20103,7 +20100,7 @@
         <v>1099</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C544" s="0" t="s">
         <v>187</v>
@@ -20117,7 +20114,7 @@
         <v>1100</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C545" s="0" t="s">
         <v>187</v>
@@ -20145,7 +20142,7 @@
         <v>1102</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C547" s="0" t="s">
         <v>187</v>
@@ -20159,7 +20156,13 @@
         <v>1103</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>120</v>
+        <v>379</v>
+      </c>
+      <c r="C548" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F548" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20193,9 +20196,6 @@
       <c r="B552" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="E552" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
@@ -20204,6 +20204,9 @@
       <c r="B553" s="0" t="s">
         <v>120</v>
       </c>
+      <c r="E553" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
@@ -20218,39 +20221,39 @@
         <v>1110</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="G555" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H555" s="0" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I555" s="0" t="s">
-        <v>1112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B556" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G556" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H556" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I556" s="0" t="s">
         <v>1113</v>
       </c>
-      <c r="B556" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E556" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="5" t="s">
+      <c r="A557" s="0" t="s">
         <v>1114</v>
       </c>
       <c r="B557" s="0" t="s">
         <v>184</v>
       </c>
+      <c r="E557" s="0" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="0" t="s">
+      <c r="A558" s="5" t="s">
         <v>1115</v>
       </c>
       <c r="B558" s="0" t="s">
@@ -20278,7 +20281,7 @@
         <v>1118</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20286,7 +20289,7 @@
         <v>1119</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20296,16 +20299,16 @@
       <c r="B563" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E563" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
         <v>1121</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="E564" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20313,7 +20316,7 @@
         <v>1122</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20321,7 +20324,7 @@
         <v>1123</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20355,9 +20358,6 @@
       <c r="B570" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E570" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
@@ -20367,7 +20367,7 @@
         <v>181</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20375,7 +20375,10 @@
         <v>1129</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>198</v>
+        <v>181</v>
+      </c>
+      <c r="E572" s="0" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20391,7 +20394,7 @@
         <v>1131</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20415,7 +20418,7 @@
         <v>1134</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20423,7 +20426,7 @@
         <v>1135</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20431,7 +20434,7 @@
         <v>1136</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20439,7 +20442,7 @@
         <v>1137</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20459,22 +20462,22 @@
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="5" t="s">
+      <c r="A583" s="0" t="s">
         <v>1140</v>
       </c>
       <c r="B583" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E583" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="0" t="s">
+      <c r="A584" s="5" t="s">
         <v>1141</v>
       </c>
       <c r="B584" s="0" t="s">
         <v>213</v>
+      </c>
+      <c r="E584" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20492,19 +20495,16 @@
       <c r="B586" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E586" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
         <v>1144</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D587" s="0" t="n">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="E587" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20534,10 +20534,10 @@
         <v>1147</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C590" s="0" t="s">
-        <v>118</v>
+        <v>41</v>
+      </c>
+      <c r="D590" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20545,7 +20545,10 @@
         <v>1148</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>218</v>
+        <v>207</v>
+      </c>
+      <c r="C591" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20561,7 +20564,7 @@
         <v>1150</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20569,7 +20572,7 @@
         <v>1151</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20577,7 +20580,7 @@
         <v>1152</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20585,7 +20588,7 @@
         <v>1153</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20593,7 +20596,7 @@
         <v>1154</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20601,7 +20604,7 @@
         <v>1155</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20609,7 +20612,7 @@
         <v>1156</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20619,30 +20622,27 @@
       <c r="B600" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E600" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="5" t="s">
+      <c r="A601" s="0" t="s">
         <v>1158</v>
       </c>
       <c r="B601" s="0" t="s">
         <v>214</v>
       </c>
       <c r="E601" s="0" t="s">
-        <v>556</v>
+        <v>675</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="0" t="s">
+      <c r="A602" s="5" t="s">
         <v>1159</v>
       </c>
       <c r="B602" s="0" t="s">
         <v>214</v>
       </c>
       <c r="E602" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20650,7 +20650,10 @@
         <v>1160</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
+      </c>
+      <c r="E603" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20658,7 +20661,7 @@
         <v>1161</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20666,7 +20669,7 @@
         <v>1162</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20674,7 +20677,7 @@
         <v>1163</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20724,9 +20727,6 @@
       <c r="B612" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E612" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
@@ -20735,6 +20735,9 @@
       <c r="B613" s="0" t="s">
         <v>232</v>
       </c>
+      <c r="E613" s="0" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
@@ -20743,19 +20746,16 @@
       <c r="B614" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="I614" s="0" t="s">
-        <v>1172</v>
-      </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B615" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E615" s="0" t="s">
-        <v>548</v>
+      <c r="I615" s="0" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20766,7 +20766,7 @@
         <v>232</v>
       </c>
       <c r="E616" s="0" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20774,7 +20774,10 @@
         <v>1175</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>122</v>
+        <v>232</v>
+      </c>
+      <c r="E617" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20782,7 +20785,7 @@
         <v>1176</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>298</v>
+        <v>122</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20790,7 +20793,7 @@
         <v>1177</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20798,7 +20801,7 @@
         <v>1178</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20814,7 +20817,7 @@
         <v>1180</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20822,7 +20825,7 @@
         <v>1181</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20830,26 +20833,26 @@
         <v>1182</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="5" t="s">
+      <c r="A625" s="0" t="s">
         <v>1183</v>
       </c>
       <c r="B625" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E625" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="0" t="s">
+      <c r="A626" s="5" t="s">
         <v>1184</v>
       </c>
       <c r="B626" s="0" t="s">
         <v>224</v>
+      </c>
+      <c r="E626" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20883,16 +20886,16 @@
       <c r="B630" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E630" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
         <v>1189</v>
       </c>
       <c r="B631" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="E631" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20908,7 +20911,7 @@
         <v>1191</v>
       </c>
       <c r="B633" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20926,16 +20929,16 @@
       <c r="B635" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E635" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
         <v>1194</v>
       </c>
       <c r="B636" s="0" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="E636" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20951,35 +20954,35 @@
         <v>1196</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C638" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G638" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H638" s="0" t="s">
-        <v>1197</v>
+        <v>230</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>1197</v>
+        <v>228</v>
       </c>
       <c r="C639" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G639" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H639" s="0" t="s">
+        <v>1198</v>
+      </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B640" s="0" t="s">
         <v>1198</v>
       </c>
-      <c r="B640" s="0" t="s">
-        <v>234</v>
+      <c r="C640" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20987,7 +20990,7 @@
         <v>1199</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21003,7 +21006,7 @@
         <v>1201</v>
       </c>
       <c r="B643" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21021,27 +21024,27 @@
       <c r="B645" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="E645" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="5" t="s">
+      <c r="A646" s="0" t="s">
         <v>1204</v>
       </c>
       <c r="B646" s="0" t="s">
         <v>236</v>
       </c>
       <c r="E646" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B647" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E647" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="0" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B647" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21051,9 +21054,6 @@
       <c r="B648" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E648" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
@@ -21062,6 +21062,9 @@
       <c r="B649" s="0" t="s">
         <v>237</v>
       </c>
+      <c r="E649" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
@@ -21072,22 +21075,22 @@
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="5" t="s">
+      <c r="A651" s="0" t="s">
         <v>1209</v>
       </c>
       <c r="B651" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E651" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="0" t="s">
+      <c r="A652" s="5" t="s">
         <v>1210</v>
       </c>
       <c r="B652" s="0" t="s">
         <v>237</v>
+      </c>
+      <c r="E652" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21095,7 +21098,7 @@
         <v>1211</v>
       </c>
       <c r="B653" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21111,10 +21114,7 @@
         <v>1213</v>
       </c>
       <c r="B655" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C655" s="0" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21133,7 +21133,10 @@
         <v>1215</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>246</v>
+        <v>460</v>
+      </c>
+      <c r="C657" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21149,7 +21152,7 @@
         <v>1217</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>457</v>
+        <v>246</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21157,7 +21160,7 @@
         <v>1218</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21173,7 +21176,7 @@
         <v>1220</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21181,7 +21184,7 @@
         <v>1221</v>
       </c>
       <c r="B663" s="0" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21213,7 +21216,7 @@
         <v>1225</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21229,10 +21232,7 @@
         <v>1227</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C669" s="0" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21251,7 +21251,10 @@
         <v>1229</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>253</v>
+        <v>180</v>
+      </c>
+      <c r="C671" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21267,7 +21270,7 @@
         <v>1231</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21323,7 +21326,7 @@
         <v>1238</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21347,21 +21350,12 @@
         <v>1241</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C683" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G683" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H683" s="0" t="s">
-        <v>1242</v>
+        <v>301</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B684" s="0" t="s">
         <v>46</v>
@@ -21373,15 +21367,24 @@
         <v>1</v>
       </c>
       <c r="H684" s="0" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B685" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C685" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G685" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H685" s="0" t="s">
         <v>1243</v>
-      </c>
-      <c r="B685" s="0" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21389,7 +21392,7 @@
         <v>1244</v>
       </c>
       <c r="B686" s="0" t="s">
-        <v>250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21397,7 +21400,7 @@
         <v>1245</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21429,7 +21432,7 @@
         <v>1249</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21453,7 +21456,7 @@
         <v>1252</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21461,7 +21464,7 @@
         <v>1253</v>
       </c>
       <c r="B695" s="0" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21471,16 +21474,16 @@
       <c r="B696" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="E696" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
         <v>1255</v>
       </c>
       <c r="B697" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="E697" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21506,20 +21509,20 @@
       <c r="B700" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="E700" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="5" t="s">
+      <c r="A701" s="0" t="s">
         <v>1259</v>
       </c>
       <c r="B701" s="0" t="s">
         <v>255</v>
       </c>
+      <c r="E701" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="0" t="s">
+      <c r="A702" s="5" t="s">
         <v>1260</v>
       </c>
       <c r="B702" s="0" t="s">
@@ -21547,7 +21550,7 @@
         <v>1263</v>
       </c>
       <c r="B705" s="0" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21555,7 +21558,7 @@
         <v>1264</v>
       </c>
       <c r="B706" s="0" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21571,7 +21574,7 @@
         <v>1266</v>
       </c>
       <c r="B708" s="0" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21587,7 +21590,7 @@
         <v>1268</v>
       </c>
       <c r="B710" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21595,10 +21598,7 @@
         <v>1269</v>
       </c>
       <c r="B711" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C711" s="0" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21617,7 +21617,10 @@
         <v>1271</v>
       </c>
       <c r="B713" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
+      </c>
+      <c r="C713" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21643,9 +21646,6 @@
       <c r="B716" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E716" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
@@ -21654,24 +21654,27 @@
       <c r="B717" s="0" t="s">
         <v>261</v>
       </c>
+      <c r="E717" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="5" t="s">
+      <c r="A718" s="0" t="s">
         <v>1276</v>
       </c>
       <c r="B718" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E718" s="0" t="s">
+    </row>
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B719" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E719" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B719" s="0" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21681,27 +21684,27 @@
       <c r="B720" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="E720" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="5" t="s">
+      <c r="A721" s="0" t="s">
         <v>1279</v>
       </c>
       <c r="B721" s="0" t="s">
         <v>262</v>
       </c>
       <c r="E721" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B722" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E722" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B722" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21717,7 +21720,7 @@
         <v>1282</v>
       </c>
       <c r="B724" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21725,7 +21728,7 @@
         <v>1283</v>
       </c>
       <c r="B725" s="0" t="s">
-        <v>462</v>
+        <v>251</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21733,26 +21736,26 @@
         <v>1284</v>
       </c>
       <c r="B726" s="0" t="s">
-        <v>305</v>
+        <v>462</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="5" t="s">
+      <c r="A727" s="0" t="s">
         <v>1285</v>
       </c>
       <c r="B727" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E727" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="0" t="s">
+      <c r="A728" s="5" t="s">
         <v>1286</v>
       </c>
       <c r="B728" s="0" t="s">
         <v>305</v>
+      </c>
+      <c r="E728" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21762,9 +21765,6 @@
       <c r="B729" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E729" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
@@ -21773,6 +21773,9 @@
       <c r="B730" s="0" t="s">
         <v>305</v>
       </c>
+      <c r="E730" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
@@ -21795,7 +21798,7 @@
         <v>1291</v>
       </c>
       <c r="B733" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21803,7 +21806,7 @@
         <v>1292</v>
       </c>
       <c r="B734" s="0" t="s">
-        <v>464</v>
+        <v>306</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21811,7 +21814,7 @@
         <v>1293</v>
       </c>
       <c r="B735" s="0" t="s">
-        <v>257</v>
+        <v>464</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21819,7 +21822,7 @@
         <v>1294</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21845,16 +21848,16 @@
       <c r="B739" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E739" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
         <v>1298</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>174</v>
+        <v>111</v>
+      </c>
+      <c r="E740" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21870,7 +21873,7 @@
         <v>1300</v>
       </c>
       <c r="B742" s="0" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21878,7 +21881,7 @@
         <v>1301</v>
       </c>
       <c r="B743" s="0" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21886,15 +21889,15 @@
         <v>1302</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>1303</v>
+        <v>260</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B745" s="0" t="s">
         <v>1304</v>
-      </c>
-      <c r="B745" s="0" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21902,7 +21905,7 @@
         <v>1305</v>
       </c>
       <c r="B746" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21912,9 +21915,6 @@
       <c r="B747" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E747" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
@@ -21924,26 +21924,29 @@
         <v>263</v>
       </c>
       <c r="E748" s="0" t="s">
-        <v>548</v>
+        <v>675</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="5" t="s">
+      <c r="A749" s="0" t="s">
         <v>1308</v>
       </c>
       <c r="B749" s="0" t="s">
         <v>263</v>
       </c>
       <c r="E749" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B750" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E750" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="0" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B750" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21969,7 +21972,6 @@
       <c r="B753" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E753" s="7"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
@@ -21978,15 +21980,13 @@
       <c r="B754" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="E754" s="7"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
         <v>1314</v>
       </c>
       <c r="B755" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C755" s="0" t="s">
         <v>77</v>
       </c>
     </row>
@@ -21995,7 +21995,7 @@
         <v>1315</v>
       </c>
       <c r="B756" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C756" s="0" t="s">
         <v>77</v>
@@ -22006,7 +22006,10 @@
         <v>1316</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>267</v>
+        <v>78</v>
+      </c>
+      <c r="C757" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22024,9 +22027,6 @@
       <c r="B759" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="E759" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
@@ -22035,13 +22035,16 @@
       <c r="B760" s="0" t="s">
         <v>267</v>
       </c>
+      <c r="E760" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
         <v>1320</v>
       </c>
       <c r="B761" s="0" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22097,7 +22100,7 @@
         <v>1327</v>
       </c>
       <c r="B768" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22105,7 +22108,7 @@
         <v>1328</v>
       </c>
       <c r="B769" s="0" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22137,7 +22140,7 @@
         <v>1332</v>
       </c>
       <c r="B773" s="0" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22153,7 +22156,7 @@
         <v>1334</v>
       </c>
       <c r="B775" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22169,7 +22172,7 @@
         <v>1336</v>
       </c>
       <c r="B777" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22177,7 +22180,7 @@
         <v>1337</v>
       </c>
       <c r="B778" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22185,7 +22188,7 @@
         <v>1338</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22193,7 +22196,7 @@
         <v>1339</v>
       </c>
       <c r="B780" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22201,7 +22204,7 @@
         <v>1340</v>
       </c>
       <c r="B781" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22211,9 +22214,6 @@
       <c r="B782" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="E782" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
@@ -22222,6 +22222,9 @@
       <c r="B783" s="0" t="s">
         <v>280</v>
       </c>
+      <c r="E783" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
@@ -22236,7 +22239,7 @@
         <v>1344</v>
       </c>
       <c r="B785" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22246,9 +22249,6 @@
       <c r="B786" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="E786" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
@@ -22258,7 +22258,7 @@
         <v>281</v>
       </c>
       <c r="E787" s="0" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22266,26 +22266,29 @@
         <v>1347</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="E788" s="0" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="5" t="s">
+      <c r="A789" s="0" t="s">
         <v>1348</v>
       </c>
       <c r="B789" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E789" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="0" t="s">
+      <c r="A790" s="5" t="s">
         <v>1349</v>
       </c>
       <c r="B790" s="0" t="s">
         <v>282</v>
+      </c>
+      <c r="E790" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22295,9 +22298,6 @@
       <c r="B791" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E791" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
@@ -22307,7 +22307,7 @@
         <v>282</v>
       </c>
       <c r="E792" s="0" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22317,15 +22317,15 @@
       <c r="B793" s="0" t="s">
         <v>282</v>
       </c>
+      <c r="E793" s="0" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
         <v>1353</v>
       </c>
       <c r="B794" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C794" s="0" t="s">
         <v>282</v>
       </c>
     </row>
@@ -22345,7 +22345,10 @@
         <v>1355</v>
       </c>
       <c r="B796" s="0" t="s">
-        <v>276</v>
+        <v>315</v>
+      </c>
+      <c r="C796" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22353,7 +22356,7 @@
         <v>1356</v>
       </c>
       <c r="B797" s="0" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22361,7 +22364,7 @@
         <v>1357</v>
       </c>
       <c r="B798" s="0" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22369,7 +22372,7 @@
         <v>1358</v>
       </c>
       <c r="B799" s="0" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22377,7 +22380,7 @@
         <v>1359</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22401,7 +22404,7 @@
         <v>1362</v>
       </c>
       <c r="B803" s="0" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22435,16 +22438,16 @@
       <c r="B807" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E807" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
         <v>1367</v>
       </c>
       <c r="B808" s="0" t="s">
-        <v>123</v>
+        <v>42</v>
+      </c>
+      <c r="E808" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22462,9 +22465,6 @@
       <c r="B810" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E810" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
@@ -22474,7 +22474,7 @@
         <v>123</v>
       </c>
       <c r="E811" s="0" t="s">
-        <v>675</v>
+        <v>548</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22484,6 +22484,9 @@
       <c r="B812" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="E812" s="0" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
@@ -22502,22 +22505,22 @@
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="5" t="s">
+      <c r="A815" s="0" t="s">
         <v>1374</v>
       </c>
       <c r="B815" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E815" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="0" t="s">
+      <c r="A816" s="5" t="s">
         <v>1375</v>
       </c>
       <c r="B816" s="0" t="s">
         <v>123</v>
+      </c>
+      <c r="E816" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22525,9 +22528,6 @@
         <v>1376</v>
       </c>
       <c r="B817" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C817" s="0" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22547,7 +22547,7 @@
         <v>1378</v>
       </c>
       <c r="B819" s="0" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="C819" s="0" t="s">
         <v>123</v>
@@ -22558,7 +22558,7 @@
         <v>1379</v>
       </c>
       <c r="B820" s="0" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C820" s="0" t="s">
         <v>123</v>
@@ -22569,20 +22569,23 @@
         <v>1380</v>
       </c>
       <c r="B821" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C821" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
-        <v>289</v>
+        <v>1381</v>
       </c>
       <c r="B822" s="0" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
-        <v>1381</v>
+        <v>289</v>
       </c>
       <c r="B823" s="0" t="s">
         <v>289</v>
@@ -22625,21 +22628,12 @@
         <v>1386</v>
       </c>
       <c r="B828" s="0" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C828" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="G828" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H828" s="0" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B829" s="0" t="s">
         <v>1388</v>
@@ -22647,13 +22641,19 @@
       <c r="C829" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G829" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H829" s="0" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B830" s="0" t="s">
         <v>1389</v>
-      </c>
-      <c r="B830" s="0" t="s">
-        <v>313</v>
       </c>
       <c r="C830" s="0" t="s">
         <v>289</v>
@@ -22664,13 +22664,10 @@
         <v>1390</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>407</v>
+        <v>313</v>
       </c>
       <c r="C831" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="F831" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22678,7 +22675,7 @@
         <v>1391</v>
       </c>
       <c r="B832" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C832" s="0" t="s">
         <v>289</v>
@@ -22692,7 +22689,7 @@
         <v>1392</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C833" s="0" t="s">
         <v>289</v>
@@ -22706,7 +22703,7 @@
         <v>1393</v>
       </c>
       <c r="B834" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C834" s="0" t="s">
         <v>289</v>
@@ -22720,7 +22717,7 @@
         <v>1394</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C835" s="0" t="s">
         <v>289</v>
@@ -22734,7 +22731,7 @@
         <v>1395</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C836" s="0" t="s">
         <v>289</v>
@@ -22748,7 +22745,7 @@
         <v>1396</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C837" s="0" t="s">
         <v>289</v>
@@ -22762,7 +22759,7 @@
         <v>1397</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C838" s="0" t="s">
         <v>289</v>
@@ -22776,7 +22773,7 @@
         <v>1398</v>
       </c>
       <c r="B839" s="0" t="s">
-        <v>1399</v>
+        <v>414</v>
       </c>
       <c r="C839" s="0" t="s">
         <v>289</v>
@@ -22787,10 +22784,10 @@
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B840" s="0" t="s">
         <v>1400</v>
-      </c>
-      <c r="B840" s="0" t="s">
-        <v>415</v>
       </c>
       <c r="C840" s="0" t="s">
         <v>289</v>
@@ -22800,11 +22797,11 @@
       </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="6" t="s">
-        <v>882</v>
+      <c r="A841" s="0" t="s">
+        <v>1401</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>289</v>
@@ -22814,11 +22811,11 @@
       </c>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="0" t="s">
-        <v>1401</v>
+      <c r="A842" s="6" t="s">
+        <v>882</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>289</v>
@@ -22832,7 +22829,7 @@
         <v>1402</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C843" s="0" t="s">
         <v>289</v>
@@ -22846,7 +22843,7 @@
         <v>1403</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C844" s="0" t="s">
         <v>289</v>
@@ -22860,7 +22857,7 @@
         <v>1404</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C845" s="0" t="s">
         <v>289</v>
@@ -22874,7 +22871,7 @@
         <v>1405</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C846" s="0" t="s">
         <v>289</v>
@@ -22888,7 +22885,7 @@
         <v>1406</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C847" s="0" t="s">
         <v>289</v>
@@ -22902,7 +22899,7 @@
         <v>1407</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C848" s="0" t="s">
         <v>289</v>
@@ -22916,7 +22913,7 @@
         <v>1408</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C849" s="0" t="s">
         <v>289</v>
@@ -22930,7 +22927,7 @@
         <v>1409</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C850" s="0" t="s">
         <v>289</v>
@@ -22944,7 +22941,7 @@
         <v>1410</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C851" s="0" t="s">
         <v>289</v>
@@ -22958,7 +22955,7 @@
         <v>1411</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C852" s="0" t="s">
         <v>289</v>
@@ -22972,7 +22969,7 @@
         <v>1412</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C853" s="0" t="s">
         <v>289</v>
@@ -22986,7 +22983,7 @@
         <v>1413</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C854" s="0" t="s">
         <v>289</v>
@@ -23000,7 +22997,7 @@
         <v>1414</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C855" s="0" t="s">
         <v>289</v>
@@ -23014,7 +23011,7 @@
         <v>1415</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>289</v>
@@ -23028,7 +23025,7 @@
         <v>1416</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C857" s="0" t="s">
         <v>289</v>
@@ -23042,7 +23039,7 @@
         <v>1417</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C858" s="0" t="s">
         <v>289</v>
@@ -23056,7 +23053,7 @@
         <v>1418</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C859" s="0" t="s">
         <v>289</v>
@@ -23070,7 +23067,7 @@
         <v>1419</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C860" s="0" t="s">
         <v>289</v>
@@ -23084,7 +23081,7 @@
         <v>1420</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C861" s="0" t="s">
         <v>289</v>
@@ -23098,7 +23095,7 @@
         <v>1421</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C862" s="0" t="s">
         <v>289</v>
@@ -23112,7 +23109,7 @@
         <v>1422</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C863" s="0" t="s">
         <v>289</v>
@@ -23126,7 +23123,7 @@
         <v>1423</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C864" s="0" t="s">
         <v>289</v>
@@ -23140,7 +23137,7 @@
         <v>1424</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C865" s="0" t="s">
         <v>289</v>
@@ -23154,7 +23151,7 @@
         <v>1425</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C866" s="0" t="s">
         <v>289</v>
@@ -23168,7 +23165,7 @@
         <v>1426</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C867" s="0" t="s">
         <v>289</v>
@@ -23182,7 +23179,7 @@
         <v>1427</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C868" s="0" t="s">
         <v>289</v>
@@ -23196,7 +23193,7 @@
         <v>1428</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C869" s="0" t="s">
         <v>289</v>
@@ -23210,7 +23207,7 @@
         <v>1429</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C870" s="0" t="s">
         <v>289</v>
@@ -23224,7 +23221,7 @@
         <v>1430</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>289</v>
@@ -23238,7 +23235,7 @@
         <v>1431</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>289</v>
@@ -23252,7 +23249,7 @@
         <v>1432</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C873" s="0" t="s">
         <v>289</v>
@@ -23266,7 +23263,7 @@
         <v>1433</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C874" s="0" t="s">
         <v>289</v>
@@ -23280,7 +23277,7 @@
         <v>1434</v>
       </c>
       <c r="B875" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C875" s="0" t="s">
         <v>289</v>
@@ -23294,7 +23291,7 @@
         <v>1435</v>
       </c>
       <c r="B876" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C876" s="0" t="s">
         <v>289</v>
@@ -23308,7 +23305,7 @@
         <v>1436</v>
       </c>
       <c r="B877" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C877" s="0" t="s">
         <v>289</v>
@@ -23322,7 +23319,7 @@
         <v>1437</v>
       </c>
       <c r="B878" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C878" s="0" t="s">
         <v>289</v>
@@ -23336,7 +23333,7 @@
         <v>1438</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C879" s="0" t="s">
         <v>289</v>
@@ -23350,7 +23347,7 @@
         <v>1439</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C880" s="0" t="s">
         <v>289</v>
@@ -23364,7 +23361,7 @@
         <v>1440</v>
       </c>
       <c r="B881" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C881" s="0" t="s">
         <v>289</v>
@@ -23378,7 +23375,13 @@
         <v>1441</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>288</v>
+        <v>456</v>
+      </c>
+      <c r="C882" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F882" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23386,7 +23389,7 @@
         <v>1442</v>
       </c>
       <c r="B883" s="0" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23396,12 +23399,9 @@
       <c r="B884" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="D884" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="5" t="s">
+      <c r="A885" s="0" t="s">
         <v>1444</v>
       </c>
       <c r="B885" s="0" t="s">
@@ -23412,7 +23412,7 @@
       </c>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="0" t="s">
+      <c r="A886" s="5" t="s">
         <v>1445</v>
       </c>
       <c r="B886" s="0" t="s">
@@ -23420,9 +23420,6 @@
       </c>
       <c r="D886" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E886" s="0" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23430,7 +23427,13 @@
         <v>1446</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>290</v>
+        <v>259</v>
+      </c>
+      <c r="D887" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E887" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23440,16 +23443,16 @@
       <c r="B888" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="E888" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
         <v>1448</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="E889" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23457,7 +23460,7 @@
         <v>1449</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23497,10 +23500,7 @@
         <v>1454</v>
       </c>
       <c r="B895" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="E895" s="0" t="s">
-        <v>548</v>
+        <v>293</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23510,30 +23510,21 @@
       <c r="B896" s="0" t="s">
         <v>296</v>
       </c>
+      <c r="E896" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
         <v>1456</v>
       </c>
       <c r="B897" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C897" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G897" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H897" s="0" t="s">
-        <v>1457</v>
-      </c>
-      <c r="I897" s="0" t="s">
-        <v>1458</v>
+        <v>296</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B898" s="0" t="s">
         <v>294</v>
@@ -23545,27 +23536,30 @@
         <v>1</v>
       </c>
       <c r="H898" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="I898" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>1457</v>
+        <v>294</v>
       </c>
       <c r="C899" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="G899" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H899" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="I899" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23573,24 +23567,21 @@
         <v>1460</v>
       </c>
       <c r="B900" s="0" t="s">
-        <v>295</v>
+        <v>1458</v>
       </c>
       <c r="C900" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G900" s="0" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="H900" s="0" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="I900" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B901" s="0" t="s">
         <v>295</v>
@@ -23602,10 +23593,10 @@
         <v>1</v>
       </c>
       <c r="H901" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I901" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23622,10 +23613,10 @@
         <v>1</v>
       </c>
       <c r="H902" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I902" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23642,10 +23633,10 @@
         <v>1</v>
       </c>
       <c r="H903" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I903" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23662,10 +23653,10 @@
         <v>1</v>
       </c>
       <c r="H904" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I904" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23682,10 +23673,10 @@
         <v>1</v>
       </c>
       <c r="H905" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I905" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23702,21 +23693,30 @@
         <v>1</v>
       </c>
       <c r="H906" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I906" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>1462</v>
+        <v>1468</v>
       </c>
       <c r="B907" s="0" t="s">
-        <v>1461</v>
+        <v>295</v>
       </c>
       <c r="C907" s="0" t="s">
         <v>289</v>
+      </c>
+      <c r="G907" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H907" s="0" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I907" s="0" t="s">
+        <v>1459</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23724,7 +23724,7 @@
         <v>1463</v>
       </c>
       <c r="B908" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C908" s="0" t="s">
         <v>289</v>
@@ -23732,10 +23732,13 @@
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="B909" s="0" t="s">
-        <v>300</v>
+        <v>1462</v>
+      </c>
+      <c r="C909" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23751,7 +23754,7 @@
         <v>1470</v>
       </c>
       <c r="B911" s="0" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23775,7 +23778,7 @@
         <v>1473</v>
       </c>
       <c r="B914" s="0" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23783,7 +23786,7 @@
         <v>1474</v>
       </c>
       <c r="B915" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23815,10 +23818,7 @@
         <v>1478</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D919" s="0" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23831,9 +23831,6 @@
       <c r="D920" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E920" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
@@ -23845,13 +23842,16 @@
       <c r="D921" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E921" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
         <v>1481</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D922" s="0" t="n">
         <v>1</v>
@@ -23878,16 +23878,13 @@
       <c r="D924" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E924" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
         <v>1484</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D925" s="0" t="n">
         <v>1</v>
@@ -23901,10 +23898,13 @@
         <v>1485</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D926" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E926" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23912,7 +23912,10 @@
         <v>1486</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="D927" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23920,7 +23923,7 @@
         <v>1487</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23928,7 +23931,7 @@
         <v>1488</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>105</v>
+        <v>308</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23936,7 +23939,7 @@
         <v>1489</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23944,21 +23947,12 @@
         <v>1490</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C931" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G931" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H931" s="0" t="s">
-        <v>1491</v>
+        <v>114</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B932" s="0" t="s">
         <v>76</v>
@@ -23970,7 +23964,7 @@
         <v>1</v>
       </c>
       <c r="H932" s="0" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23987,15 +23981,24 @@
         <v>1</v>
       </c>
       <c r="H933" s="0" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B934" s="0" t="s">
-        <v>1491</v>
+        <v>76</v>
+      </c>
+      <c r="C934" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G934" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H934" s="0" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24003,7 +24006,7 @@
         <v>1494</v>
       </c>
       <c r="B935" s="0" t="s">
-        <v>458</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24011,7 +24014,7 @@
         <v>1495</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24019,7 +24022,7 @@
         <v>1496</v>
       </c>
       <c r="B937" s="0" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24027,7 +24030,7 @@
         <v>1497</v>
       </c>
       <c r="B938" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24035,7 +24038,7 @@
         <v>1498</v>
       </c>
       <c r="B939" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24043,7 +24046,7 @@
         <v>1499</v>
       </c>
       <c r="B940" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24051,21 +24054,15 @@
         <v>1500</v>
       </c>
       <c r="B941" s="0" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C941" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F941" s="0" t="n">
-        <v>1</v>
+        <v>468</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B942" s="0" t="s">
         <v>1502</v>
-      </c>
-      <c r="B942" s="0" t="s">
-        <v>1503</v>
       </c>
       <c r="C942" s="0" t="s">
         <v>43</v>
@@ -24076,10 +24073,10 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B943" s="0" t="s">
         <v>1504</v>
-      </c>
-      <c r="B943" s="0" t="s">
-        <v>1503</v>
       </c>
       <c r="C943" s="0" t="s">
         <v>43</v>
@@ -24089,11 +24086,11 @@
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="5" t="s">
+      <c r="A944" s="0" t="s">
         <v>1505</v>
       </c>
       <c r="B944" s="0" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C944" s="0" t="s">
         <v>43</v>
@@ -24103,11 +24100,11 @@
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="6" t="s">
+      <c r="A945" s="5" t="s">
         <v>1506</v>
       </c>
       <c r="B945" s="0" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C945" s="0" t="s">
         <v>43</v>
@@ -24121,7 +24118,7 @@
         <v>1507</v>
       </c>
       <c r="B946" s="0" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C946" s="0" t="s">
         <v>43</v>
@@ -24131,11 +24128,11 @@
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="0" t="s">
+      <c r="A947" s="6" t="s">
         <v>1508</v>
       </c>
       <c r="B947" s="0" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="C947" s="0" t="s">
         <v>43</v>
@@ -24146,10 +24143,10 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B948" s="0" t="s">
         <v>1510</v>
-      </c>
-      <c r="B948" s="0" t="s">
-        <v>1511</v>
       </c>
       <c r="C948" s="0" t="s">
         <v>43</v>
@@ -24160,10 +24157,10 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B949" s="0" t="s">
         <v>1512</v>
-      </c>
-      <c r="B949" s="0" t="s">
-        <v>1513</v>
       </c>
       <c r="C949" s="0" t="s">
         <v>43</v>
@@ -24174,7 +24171,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
-        <v>732</v>
+        <v>1513</v>
       </c>
       <c r="B950" s="0" t="s">
         <v>1514</v>
@@ -24188,10 +24185,10 @@
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="B951" s="0" t="s">
         <v>1515</v>
-      </c>
-      <c r="B951" s="0" t="s">
-        <v>1516</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>43</v>
@@ -24202,10 +24199,10 @@
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B952" s="0" t="s">
         <v>1517</v>
-      </c>
-      <c r="B952" s="0" t="s">
-        <v>1518</v>
       </c>
       <c r="C952" s="0" t="s">
         <v>43</v>
@@ -24216,10 +24213,10 @@
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B953" s="0" t="s">
         <v>1519</v>
-      </c>
-      <c r="B953" s="0" t="s">
-        <v>1520</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>43</v>
@@ -24230,10 +24227,10 @@
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B954" s="0" t="s">
         <v>1521</v>
-      </c>
-      <c r="B954" s="0" t="s">
-        <v>1522</v>
       </c>
       <c r="C954" s="0" t="s">
         <v>43</v>
@@ -24244,10 +24241,10 @@
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B955" s="0" t="s">
         <v>1523</v>
-      </c>
-      <c r="B955" s="0" t="s">
-        <v>1524</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>43</v>
@@ -24258,10 +24255,10 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B956" s="0" t="s">
         <v>1525</v>
-      </c>
-      <c r="B956" s="0" t="s">
-        <v>1526</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>43</v>
@@ -24272,10 +24269,10 @@
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B957" s="0" t="s">
         <v>1527</v>
-      </c>
-      <c r="B957" s="0" t="s">
-        <v>1528</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>43</v>
@@ -24286,10 +24283,10 @@
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B958" s="0" t="s">
         <v>1529</v>
-      </c>
-      <c r="B958" s="0" t="s">
-        <v>1530</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>43</v>
@@ -24300,10 +24297,10 @@
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B959" s="0" t="s">
         <v>1531</v>
-      </c>
-      <c r="B959" s="0" t="s">
-        <v>1532</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>43</v>
@@ -24314,10 +24311,10 @@
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B960" s="0" t="s">
         <v>1533</v>
-      </c>
-      <c r="B960" s="0" t="s">
-        <v>1534</v>
       </c>
       <c r="C960" s="0" t="s">
         <v>43</v>
@@ -24328,10 +24325,10 @@
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B961" s="0" t="s">
         <v>1535</v>
-      </c>
-      <c r="B961" s="0" t="s">
-        <v>1536</v>
       </c>
       <c r="C961" s="0" t="s">
         <v>43</v>
@@ -24342,10 +24339,10 @@
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B962" s="0" t="s">
         <v>1537</v>
-      </c>
-      <c r="B962" s="0" t="s">
-        <v>1538</v>
       </c>
       <c r="C962" s="0" t="s">
         <v>43</v>
@@ -24356,10 +24353,10 @@
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B963" s="0" t="s">
         <v>1539</v>
-      </c>
-      <c r="B963" s="0" t="s">
-        <v>1540</v>
       </c>
       <c r="C963" s="0" t="s">
         <v>43</v>
@@ -24370,10 +24367,10 @@
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B964" s="0" t="s">
         <v>1541</v>
-      </c>
-      <c r="B964" s="0" t="s">
-        <v>1542</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>43</v>
@@ -24384,10 +24381,10 @@
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B965" s="0" t="s">
         <v>1543</v>
-      </c>
-      <c r="B965" s="0" t="s">
-        <v>1544</v>
       </c>
       <c r="C965" s="0" t="s">
         <v>43</v>
@@ -24398,10 +24395,10 @@
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B966" s="0" t="s">
         <v>1545</v>
-      </c>
-      <c r="B966" s="0" t="s">
-        <v>1546</v>
       </c>
       <c r="C966" s="0" t="s">
         <v>43</v>
@@ -24412,10 +24409,10 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B967" s="0" t="s">
         <v>1547</v>
-      </c>
-      <c r="B967" s="0" t="s">
-        <v>1548</v>
       </c>
       <c r="C967" s="0" t="s">
         <v>43</v>
@@ -24426,10 +24423,10 @@
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B968" s="0" t="s">
         <v>1549</v>
-      </c>
-      <c r="B968" s="0" t="s">
-        <v>1550</v>
       </c>
       <c r="C968" s="0" t="s">
         <v>43</v>
@@ -24439,11 +24436,11 @@
       </c>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="0" t="n">
-        <v>1701</v>
+      <c r="A969" s="0" t="s">
+        <v>1550</v>
       </c>
       <c r="B969" s="0" t="s">
-        <v>1503</v>
+        <v>1551</v>
       </c>
       <c r="C969" s="0" t="s">
         <v>43</v>
@@ -24454,10 +24451,10 @@
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="n">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B970" s="0" t="s">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="C970" s="0" t="s">
         <v>43</v>
@@ -24468,10 +24465,10 @@
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="n">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B971" s="0" t="s">
-        <v>1544</v>
+        <v>1515</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>43</v>
@@ -24482,10 +24479,10 @@
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="n">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>1518</v>
+        <v>1545</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>43</v>
@@ -24496,10 +24493,10 @@
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="n">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B973" s="0" t="s">
-        <v>1530</v>
+        <v>1519</v>
       </c>
       <c r="C973" s="0" t="s">
         <v>43</v>
@@ -24510,10 +24507,10 @@
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="n">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B974" s="0" t="s">
-        <v>1516</v>
+        <v>1531</v>
       </c>
       <c r="C974" s="0" t="s">
         <v>43</v>
@@ -24524,10 +24521,10 @@
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="n">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B975" s="0" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
       <c r="C975" s="0" t="s">
         <v>43</v>
@@ -24538,10 +24535,10 @@
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="n">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B976" s="0" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="C976" s="0" t="s">
         <v>43</v>
@@ -24552,10 +24549,10 @@
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="n">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B977" s="0" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
       <c r="C977" s="0" t="s">
         <v>43</v>
@@ -24566,10 +24563,10 @@
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="n">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B978" s="0" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
       <c r="C978" s="0" t="s">
         <v>43</v>
@@ -24580,10 +24577,10 @@
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="n">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B979" s="0" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>43</v>
@@ -24594,10 +24591,10 @@
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="n">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B980" s="0" t="s">
-        <v>1509</v>
+        <v>1551</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>43</v>
@@ -24608,10 +24605,10 @@
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="n">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B981" s="0" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
       <c r="C981" s="0" t="s">
         <v>43</v>
@@ -24622,10 +24619,10 @@
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="n">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B982" s="0" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="C982" s="0" t="s">
         <v>43</v>
@@ -24636,10 +24633,10 @@
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="n">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B983" s="0" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>43</v>
@@ -24650,10 +24647,10 @@
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="n">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>43</v>
@@ -24664,10 +24661,10 @@
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="n">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B985" s="0" t="s">
-        <v>1526</v>
+        <v>1541</v>
       </c>
       <c r="C985" s="0" t="s">
         <v>43</v>
@@ -24678,10 +24675,10 @@
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="n">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B986" s="0" t="s">
-        <v>1513</v>
+        <v>1527</v>
       </c>
       <c r="C986" s="0" t="s">
         <v>43</v>
@@ -24692,10 +24689,10 @@
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="n">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B987" s="0" t="s">
-        <v>1532</v>
+        <v>1514</v>
       </c>
       <c r="C987" s="0" t="s">
         <v>43</v>
@@ -24706,10 +24703,10 @@
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B988" s="0" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C988" s="0" t="s">
         <v>43</v>
@@ -24720,10 +24717,10 @@
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="n">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B989" s="0" t="s">
-        <v>1548</v>
+        <v>1535</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>43</v>
@@ -24734,10 +24731,10 @@
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="n">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B990" s="0" t="s">
-        <v>1501</v>
+        <v>1549</v>
       </c>
       <c r="C990" s="0" t="s">
         <v>43</v>
@@ -24748,10 +24745,10 @@
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="n">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B991" s="0" t="s">
-        <v>1524</v>
+        <v>1502</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>43</v>
@@ -24761,42 +24758,39 @@
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="0" t="s">
-        <v>1551</v>
+      <c r="A992" s="0" t="n">
+        <v>1723</v>
       </c>
       <c r="B992" s="0" t="s">
-        <v>1552</v>
+        <v>1525</v>
       </c>
       <c r="C992" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="J992" s="0" t="s">
-        <v>1553</v>
+        <v>43</v>
+      </c>
+      <c r="F992" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>644</v>
+        <v>1552</v>
       </c>
       <c r="B993" s="0" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C993" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F993" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J993" s="0" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B994" s="0" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C994" s="0" t="s">
         <v>293</v>
@@ -24805,15 +24799,15 @@
         <v>1</v>
       </c>
       <c r="J994" s="0" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>1558</v>
+        <v>641</v>
       </c>
       <c r="B995" s="0" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C995" s="0" t="s">
         <v>293</v>
@@ -24822,15 +24816,15 @@
         <v>1</v>
       </c>
       <c r="J995" s="0" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B996" s="0" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>293</v>
@@ -24839,15 +24833,15 @@
         <v>1</v>
       </c>
       <c r="J996" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>293</v>
@@ -24856,15 +24850,15 @@
         <v>1</v>
       </c>
       <c r="J997" s="0" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>293</v>
@@ -24873,15 +24867,15 @@
         <v>1</v>
       </c>
       <c r="J998" s="0" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>723</v>
+        <v>1568</v>
       </c>
       <c r="B999" s="0" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>293</v>
@@ -24890,15 +24884,15 @@
         <v>1</v>
       </c>
       <c r="J999" s="0" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>1572</v>
+        <v>723</v>
       </c>
       <c r="B1000" s="0" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>293</v>
@@ -24907,15 +24901,15 @@
         <v>1</v>
       </c>
       <c r="J1000" s="0" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>293</v>
@@ -24924,15 +24918,15 @@
         <v>1</v>
       </c>
       <c r="J1001" s="0" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B1002" s="0" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>293</v>
@@ -24941,15 +24935,15 @@
         <v>1</v>
       </c>
       <c r="J1002" s="0" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B1003" s="0" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>293</v>
@@ -24958,15 +24952,15 @@
         <v>1</v>
       </c>
       <c r="J1003" s="0" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B1004" s="0" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>293</v>
@@ -24975,15 +24969,15 @@
         <v>1</v>
       </c>
       <c r="J1004" s="0" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>293</v>
@@ -24992,15 +24986,15 @@
         <v>1</v>
       </c>
       <c r="J1005" s="0" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C1006" s="0" t="s">
         <v>293</v>
@@ -25009,15 +25003,15 @@
         <v>1</v>
       </c>
       <c r="J1006" s="0" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>1110</v>
+        <v>1591</v>
       </c>
       <c r="B1007" s="0" t="s">
-        <v>1111</v>
+        <v>1592</v>
       </c>
       <c r="C1007" s="0" t="s">
         <v>293</v>
@@ -25031,10 +25025,10 @@
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1594</v>
+        <v>1111</v>
       </c>
       <c r="B1008" s="0" t="s">
-        <v>1595</v>
+        <v>1112</v>
       </c>
       <c r="C1008" s="0" t="s">
         <v>293</v>
@@ -25043,15 +25037,15 @@
         <v>1</v>
       </c>
       <c r="J1008" s="0" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B1009" s="0" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C1009" s="0" t="s">
         <v>293</v>
@@ -25060,15 +25054,15 @@
         <v>1</v>
       </c>
       <c r="J1009" s="0" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B1010" s="0" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C1010" s="0" t="s">
         <v>293</v>
@@ -25077,15 +25071,15 @@
         <v>1</v>
       </c>
       <c r="J1010" s="0" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>750</v>
+        <v>1601</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C1011" s="0" t="s">
         <v>293</v>
@@ -25094,15 +25088,15 @@
         <v>1</v>
       </c>
       <c r="J1011" s="0" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>1605</v>
+        <v>750</v>
       </c>
       <c r="B1012" s="0" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C1012" s="0" t="s">
         <v>293</v>
@@ -25111,15 +25105,15 @@
         <v>1</v>
       </c>
       <c r="J1012" s="0" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B1013" s="0" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C1013" s="0" t="s">
         <v>293</v>
@@ -25128,15 +25122,15 @@
         <v>1</v>
       </c>
       <c r="J1013" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B1014" s="0" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="C1014" s="0" t="s">
         <v>293</v>
@@ -25145,15 +25139,15 @@
         <v>1</v>
       </c>
       <c r="J1014" s="0" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B1015" s="0" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="C1015" s="0" t="s">
         <v>293</v>
@@ -25162,15 +25156,15 @@
         <v>1</v>
       </c>
       <c r="J1015" s="0" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B1016" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C1016" s="0" t="s">
         <v>293</v>
@@ -25179,14 +25173,23 @@
         <v>1</v>
       </c>
       <c r="J1016" s="0" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B1017" s="0" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C1017" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1017" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1017" s="0" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -25194,39 +25197,30 @@
       <c r="A1018" s="0" t="s">
         <v>1621</v>
       </c>
-      <c r="B1018" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="C1018" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1018" s="0" t="s">
-        <v>1622</v>
+      <c r="B1018" s="0" t="s">
+        <v>1621</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1019" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C1019" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1019" s="0" t="s">
         <v>1623</v>
-      </c>
-      <c r="B1019" s="0" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C1019" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1019" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1019" s="0" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B1020" s="0" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="C1020" s="0" t="s">
         <v>80</v>
@@ -25235,15 +25229,15 @@
         <v>1</v>
       </c>
       <c r="J1020" s="0" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B1021" s="0" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C1021" s="0" t="s">
         <v>80</v>
@@ -25252,15 +25246,15 @@
         <v>1</v>
       </c>
       <c r="J1021" s="0" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B1022" s="0" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C1022" s="0" t="s">
         <v>80</v>
@@ -25269,15 +25263,15 @@
         <v>1</v>
       </c>
       <c r="J1022" s="0" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B1023" s="0" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="C1023" s="0" t="s">
         <v>80</v>
@@ -25286,15 +25280,15 @@
         <v>1</v>
       </c>
       <c r="J1023" s="0" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B1024" s="0" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="C1024" s="0" t="s">
         <v>80</v>
@@ -25303,15 +25297,15 @@
         <v>1</v>
       </c>
       <c r="J1024" s="0" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B1025" s="0" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="C1025" s="0" t="s">
         <v>80</v>
@@ -25320,15 +25314,15 @@
         <v>1</v>
       </c>
       <c r="J1025" s="0" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="B1026" s="0" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C1026" s="0" t="s">
         <v>80</v>
@@ -25337,7 +25331,7 @@
         <v>1</v>
       </c>
       <c r="J1026" s="0" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25345,7 +25339,7 @@
         <v>1645</v>
       </c>
       <c r="B1027" s="0" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="C1027" s="0" t="s">
         <v>80</v>
@@ -25354,15 +25348,15 @@
         <v>1</v>
       </c>
       <c r="J1027" s="0" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="B1028" s="0" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="C1028" s="0" t="s">
         <v>80</v>
@@ -25371,15 +25365,15 @@
         <v>1</v>
       </c>
       <c r="J1028" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B1029" s="0" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C1029" s="0" t="s">
         <v>80</v>
@@ -25388,15 +25382,15 @@
         <v>1</v>
       </c>
       <c r="J1029" s="0" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="B1030" s="0" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="C1030" s="0" t="s">
         <v>80</v>
@@ -25405,15 +25399,15 @@
         <v>1</v>
       </c>
       <c r="J1030" s="0" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B1031" s="0" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="C1031" s="0" t="s">
         <v>80</v>
@@ -25422,15 +25416,15 @@
         <v>1</v>
       </c>
       <c r="J1031" s="0" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="B1032" s="0" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C1032" s="0" t="s">
         <v>80</v>
@@ -25439,15 +25433,15 @@
         <v>1</v>
       </c>
       <c r="J1032" s="0" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B1033" s="0" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C1033" s="0" t="s">
         <v>80</v>
@@ -25456,15 +25450,15 @@
         <v>1</v>
       </c>
       <c r="J1033" s="0" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="0" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="B1034" s="0" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C1034" s="0" t="s">
         <v>80</v>
@@ -25473,7 +25467,24 @@
         <v>1</v>
       </c>
       <c r="J1034" s="0" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="0" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B1035" s="0" t="s">
         <v>1668</v>
+      </c>
+      <c r="C1035" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1035" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1035" s="0" t="s">
+        <v>1669</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="1670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="1674">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -2886,6 +2886,9 @@
     <t xml:space="preserve">Irland</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Ireland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Isle of Man</t>
   </si>
   <si>
@@ -3993,6 +3996,9 @@
     <t xml:space="preserve">Taiwan, Province of China</t>
   </si>
   <si>
+    <t xml:space="preserve">Taiwan, Republic of China</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taiwan, China</t>
   </si>
   <si>
@@ -4165,6 +4171,12 @@
   </si>
   <si>
     <t xml:space="preserve">N. Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordirland</t>
   </si>
   <si>
     <t xml:space="preserve">United K.</t>
@@ -14716,14 +14728,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1035"/>
+  <dimension ref="A1:J1039"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B444" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B742" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A444" activeCellId="0" sqref="A444"/>
-      <selection pane="bottomRight" activeCell="C468" activeCellId="0" sqref="C468"/>
+      <selection pane="bottomLeft" activeCell="A742" activeCellId="0" sqref="A742"/>
+      <selection pane="bottomRight" activeCell="A765" activeCellId="0" sqref="A765"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18655,10 +18667,7 @@
         <v>954</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C399" s="0" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18666,10 +18675,10 @@
         <v>955</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="E400" s="0" t="s">
-        <v>548</v>
+        <v>147</v>
+      </c>
+      <c r="C400" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18679,13 +18688,16 @@
       <c r="B401" s="0" t="s">
         <v>153</v>
       </c>
+      <c r="E401" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
         <v>957</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18695,9 +18707,6 @@
       <c r="B403" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="E403" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
@@ -18706,13 +18715,16 @@
       <c r="B404" s="0" t="s">
         <v>154</v>
       </c>
+      <c r="E404" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
         <v>960</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18720,10 +18732,7 @@
         <v>961</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E406" s="0" t="s">
-        <v>548</v>
+        <v>155</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18733,16 +18742,16 @@
       <c r="B407" s="0" t="s">
         <v>158</v>
       </c>
+      <c r="E407" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
         <v>963</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C408" s="0" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18750,7 +18759,10 @@
         <v>964</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18760,27 +18772,27 @@
       <c r="B410" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E410" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="5" t="s">
+      <c r="A411" s="0" t="s">
         <v>966</v>
       </c>
       <c r="B411" s="0" t="s">
         <v>157</v>
       </c>
       <c r="E411" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E412" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18790,27 +18802,27 @@
       <c r="B413" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="E413" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="5" t="s">
+      <c r="A414" s="0" t="s">
         <v>969</v>
       </c>
       <c r="B414" s="0" t="s">
         <v>159</v>
       </c>
       <c r="E414" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E415" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
-        <v>970</v>
-      </c>
-      <c r="B415" s="0" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18818,7 +18830,7 @@
         <v>971</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18826,7 +18838,7 @@
         <v>972</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18834,7 +18846,7 @@
         <v>973</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18924,16 +18936,16 @@
       <c r="B429" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="E429" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
         <v>985</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>165</v>
+        <v>229</v>
+      </c>
+      <c r="E430" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18953,22 +18965,22 @@
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="5" t="s">
+      <c r="A433" s="0" t="s">
         <v>988</v>
       </c>
       <c r="B433" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E433" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="0" t="s">
+      <c r="A434" s="5" t="s">
         <v>989</v>
       </c>
       <c r="B434" s="0" t="s">
         <v>165</v>
+      </c>
+      <c r="E434" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19042,9 +19054,6 @@
       <c r="B443" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E443" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
@@ -19053,6 +19062,9 @@
       <c r="B444" s="0" t="s">
         <v>165</v>
       </c>
+      <c r="E444" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
@@ -19075,7 +19087,7 @@
         <v>1002</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19083,7 +19095,7 @@
         <v>1003</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19101,9 +19113,6 @@
       <c r="B450" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E450" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
@@ -19112,6 +19121,9 @@
       <c r="B451" s="0" t="s">
         <v>161</v>
       </c>
+      <c r="E451" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
@@ -19126,7 +19138,7 @@
         <v>1008</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19150,7 +19162,7 @@
         <v>1011</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19160,30 +19172,27 @@
       <c r="B457" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="E457" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="5" t="s">
+      <c r="A458" s="0" t="s">
         <v>1013</v>
       </c>
       <c r="B458" s="0" t="s">
         <v>178</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>556</v>
+        <v>675</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="s">
+      <c r="A459" s="5" t="s">
         <v>1014</v>
       </c>
       <c r="B459" s="0" t="s">
         <v>178</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19191,7 +19200,10 @@
         <v>1015</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
+      </c>
+      <c r="E460" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19209,16 +19221,16 @@
       <c r="B462" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="E462" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
         <v>1018</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="E463" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19226,7 +19238,7 @@
         <v>1019</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19234,7 +19246,7 @@
         <v>1020</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19252,9 +19264,6 @@
       <c r="B467" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="E467" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
@@ -19263,13 +19272,16 @@
       <c r="B468" s="0" t="s">
         <v>171</v>
       </c>
+      <c r="E468" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
         <v>1024</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19277,7 +19289,7 @@
         <v>1025</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19295,16 +19307,16 @@
       <c r="B472" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="E472" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
         <v>1028</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="E473" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19314,30 +19326,27 @@
       <c r="B474" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E474" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="5" t="s">
+      <c r="A475" s="0" t="s">
         <v>1030</v>
       </c>
       <c r="B475" s="0" t="s">
         <v>177</v>
       </c>
       <c r="E475" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E476" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="0" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B476" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C476" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19378,7 +19387,10 @@
         <v>1035</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="C480" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19404,9 +19416,6 @@
       <c r="B483" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E483" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
@@ -19415,6 +19424,9 @@
       <c r="B484" s="0" t="s">
         <v>191</v>
       </c>
+      <c r="E484" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
@@ -19455,27 +19467,27 @@
       <c r="B489" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E489" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="5" t="s">
+      <c r="A490" s="0" t="s">
         <v>1045</v>
       </c>
       <c r="B490" s="0" t="s">
         <v>191</v>
       </c>
       <c r="E490" s="0" t="s">
-        <v>556</v>
+        <v>675</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="0" t="s">
+      <c r="A491" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="B491" s="0" t="s">
         <v>191</v>
+      </c>
+      <c r="E491" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19499,7 +19511,7 @@
         <v>1049</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19507,7 +19519,7 @@
         <v>1050</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19515,7 +19527,7 @@
         <v>1051</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19523,7 +19535,7 @@
         <v>1052</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19531,7 +19543,7 @@
         <v>1053</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19539,7 +19551,7 @@
         <v>1054</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19547,7 +19559,7 @@
         <v>1055</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19563,7 +19575,7 @@
         <v>1057</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19579,10 +19591,7 @@
         <v>1059</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="C504" s="5" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19598,10 +19607,10 @@
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>1061</v>
+        <v>201</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>118</v>
@@ -19609,10 +19618,13 @@
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B507" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="B507" s="0" t="s">
-        <v>199</v>
+      <c r="C507" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19620,7 +19632,7 @@
         <v>1063</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19628,7 +19640,7 @@
         <v>1064</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19636,7 +19648,7 @@
         <v>1065</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19652,13 +19664,7 @@
         <v>1067</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C512" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="F512" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19666,7 +19672,7 @@
         <v>1068</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C513" s="0" t="s">
         <v>187</v>
@@ -19680,7 +19686,7 @@
         <v>1069</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C514" s="0" t="s">
         <v>187</v>
@@ -19694,7 +19700,7 @@
         <v>1070</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C515" s="0" t="s">
         <v>187</v>
@@ -19708,7 +19714,7 @@
         <v>1071</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C516" s="0" t="s">
         <v>187</v>
@@ -19722,7 +19728,7 @@
         <v>1072</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C517" s="0" t="s">
         <v>187</v>
@@ -19736,7 +19742,7 @@
         <v>1073</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C518" s="0" t="s">
         <v>187</v>
@@ -19750,7 +19756,7 @@
         <v>1074</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C519" s="0" t="s">
         <v>187</v>
@@ -19764,7 +19770,7 @@
         <v>1075</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>1076</v>
+        <v>356</v>
       </c>
       <c r="C520" s="0" t="s">
         <v>187</v>
@@ -19775,10 +19781,10 @@
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>644</v>
+        <v>1076</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C521" s="0" t="s">
         <v>187</v>
@@ -19789,10 +19795,10 @@
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B522" s="0" t="s">
         <v>1077</v>
-      </c>
-      <c r="B522" s="0" t="s">
-        <v>357</v>
       </c>
       <c r="C522" s="0" t="s">
         <v>187</v>
@@ -19806,7 +19812,7 @@
         <v>1078</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C523" s="0" t="s">
         <v>187</v>
@@ -19820,7 +19826,7 @@
         <v>1079</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C524" s="0" t="s">
         <v>187</v>
@@ -19834,7 +19840,7 @@
         <v>1080</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C525" s="0" t="s">
         <v>187</v>
@@ -19848,7 +19854,7 @@
         <v>1081</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C526" s="0" t="s">
         <v>187</v>
@@ -19862,7 +19868,7 @@
         <v>1082</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C527" s="0" t="s">
         <v>187</v>
@@ -19890,7 +19896,7 @@
         <v>1084</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C529" s="0" t="s">
         <v>187</v>
@@ -19918,7 +19924,7 @@
         <v>1086</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C531" s="0" t="s">
         <v>187</v>
@@ -19932,7 +19938,7 @@
         <v>1087</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C532" s="0" t="s">
         <v>187</v>
@@ -19946,7 +19952,7 @@
         <v>1088</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C533" s="0" t="s">
         <v>187</v>
@@ -19974,7 +19980,7 @@
         <v>1090</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C535" s="0" t="s">
         <v>187</v>
@@ -19988,7 +19994,7 @@
         <v>1091</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C536" s="0" t="s">
         <v>187</v>
@@ -20002,7 +20008,7 @@
         <v>1092</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C537" s="0" t="s">
         <v>187</v>
@@ -20016,7 +20022,7 @@
         <v>1093</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C538" s="0" t="s">
         <v>187</v>
@@ -20030,7 +20036,7 @@
         <v>1094</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C539" s="0" t="s">
         <v>187</v>
@@ -20044,7 +20050,7 @@
         <v>1095</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C540" s="0" t="s">
         <v>187</v>
@@ -20058,7 +20064,7 @@
         <v>1096</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C541" s="0" t="s">
         <v>187</v>
@@ -20072,7 +20078,7 @@
         <v>1097</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C542" s="0" t="s">
         <v>187</v>
@@ -20086,7 +20092,7 @@
         <v>1098</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C543" s="0" t="s">
         <v>187</v>
@@ -20100,7 +20106,7 @@
         <v>1099</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C544" s="0" t="s">
         <v>187</v>
@@ -20114,7 +20120,7 @@
         <v>1100</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C545" s="0" t="s">
         <v>187</v>
@@ -20128,7 +20134,7 @@
         <v>1101</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C546" s="0" t="s">
         <v>187</v>
@@ -20156,7 +20162,7 @@
         <v>1103</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C548" s="0" t="s">
         <v>187</v>
@@ -20170,7 +20176,13 @@
         <v>1104</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>120</v>
+        <v>379</v>
+      </c>
+      <c r="C549" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F549" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20204,9 +20216,6 @@
       <c r="B553" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="E553" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
@@ -20215,6 +20224,9 @@
       <c r="B554" s="0" t="s">
         <v>120</v>
       </c>
+      <c r="E554" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
@@ -20229,39 +20241,39 @@
         <v>1111</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="G556" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H556" s="0" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I556" s="0" t="s">
-        <v>1113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B557" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G557" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H557" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I557" s="0" t="s">
         <v>1114</v>
       </c>
-      <c r="B557" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E557" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="5" t="s">
+      <c r="A558" s="0" t="s">
         <v>1115</v>
       </c>
       <c r="B558" s="0" t="s">
         <v>184</v>
       </c>
+      <c r="E558" s="0" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="0" t="s">
+      <c r="A559" s="5" t="s">
         <v>1116</v>
       </c>
       <c r="B559" s="0" t="s">
@@ -20289,7 +20301,7 @@
         <v>1119</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20297,7 +20309,7 @@
         <v>1120</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20307,16 +20319,16 @@
       <c r="B564" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E564" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
         <v>1122</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="E565" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20324,7 +20336,7 @@
         <v>1123</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20332,7 +20344,7 @@
         <v>1124</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20366,9 +20378,6 @@
       <c r="B571" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E571" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
@@ -20378,7 +20387,7 @@
         <v>181</v>
       </c>
       <c r="E572" s="0" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20386,7 +20395,10 @@
         <v>1130</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>198</v>
+        <v>181</v>
+      </c>
+      <c r="E573" s="0" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20402,7 +20414,7 @@
         <v>1132</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20426,7 +20438,7 @@
         <v>1135</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20434,7 +20446,7 @@
         <v>1136</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20442,7 +20454,7 @@
         <v>1137</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20450,7 +20462,7 @@
         <v>1138</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20470,22 +20482,22 @@
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="5" t="s">
+      <c r="A584" s="0" t="s">
         <v>1141</v>
       </c>
       <c r="B584" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E584" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="0" t="s">
+      <c r="A585" s="5" t="s">
         <v>1142</v>
       </c>
       <c r="B585" s="0" t="s">
         <v>213</v>
+      </c>
+      <c r="E585" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20503,19 +20515,16 @@
       <c r="B587" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E587" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
         <v>1145</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D588" s="0" t="n">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="E588" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20545,10 +20554,10 @@
         <v>1148</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C591" s="0" t="s">
-        <v>118</v>
+        <v>41</v>
+      </c>
+      <c r="D591" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20556,7 +20565,10 @@
         <v>1149</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>218</v>
+        <v>207</v>
+      </c>
+      <c r="C592" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20572,7 +20584,7 @@
         <v>1151</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20580,7 +20592,7 @@
         <v>1152</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20588,7 +20600,7 @@
         <v>1153</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20596,7 +20608,7 @@
         <v>1154</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20604,7 +20616,7 @@
         <v>1155</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20612,7 +20624,7 @@
         <v>1156</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20620,7 +20632,7 @@
         <v>1157</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20630,30 +20642,27 @@
       <c r="B601" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E601" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="5" t="s">
+      <c r="A602" s="0" t="s">
         <v>1159</v>
       </c>
       <c r="B602" s="0" t="s">
         <v>214</v>
       </c>
       <c r="E602" s="0" t="s">
-        <v>556</v>
+        <v>675</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="0" t="s">
+      <c r="A603" s="5" t="s">
         <v>1160</v>
       </c>
       <c r="B603" s="0" t="s">
         <v>214</v>
       </c>
       <c r="E603" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20661,7 +20670,10 @@
         <v>1161</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
+      </c>
+      <c r="E604" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20669,7 +20681,7 @@
         <v>1162</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20677,7 +20689,7 @@
         <v>1163</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20685,7 +20697,7 @@
         <v>1164</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20735,9 +20747,6 @@
       <c r="B613" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E613" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
@@ -20746,6 +20755,9 @@
       <c r="B614" s="0" t="s">
         <v>232</v>
       </c>
+      <c r="E614" s="0" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
@@ -20754,19 +20766,16 @@
       <c r="B615" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="I615" s="0" t="s">
-        <v>1173</v>
-      </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B616" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E616" s="0" t="s">
-        <v>548</v>
+      <c r="I616" s="0" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20777,7 +20786,7 @@
         <v>232</v>
       </c>
       <c r="E617" s="0" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20785,7 +20794,10 @@
         <v>1176</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>122</v>
+        <v>232</v>
+      </c>
+      <c r="E618" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20793,7 +20805,7 @@
         <v>1177</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>298</v>
+        <v>122</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20801,7 +20813,7 @@
         <v>1178</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20809,7 +20821,7 @@
         <v>1179</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20825,7 +20837,7 @@
         <v>1181</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20833,7 +20845,7 @@
         <v>1182</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20841,26 +20853,26 @@
         <v>1183</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="5" t="s">
+      <c r="A626" s="0" t="s">
         <v>1184</v>
       </c>
       <c r="B626" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E626" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="0" t="s">
+      <c r="A627" s="5" t="s">
         <v>1185</v>
       </c>
       <c r="B627" s="0" t="s">
         <v>224</v>
+      </c>
+      <c r="E627" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20894,16 +20906,16 @@
       <c r="B631" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E631" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
         <v>1190</v>
       </c>
       <c r="B632" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="E632" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20919,7 +20931,7 @@
         <v>1192</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20937,16 +20949,16 @@
       <c r="B636" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E636" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
         <v>1195</v>
       </c>
       <c r="B637" s="0" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="E637" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20962,35 +20974,35 @@
         <v>1197</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C639" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G639" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H639" s="0" t="s">
-        <v>1198</v>
+        <v>230</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>1198</v>
+        <v>228</v>
       </c>
       <c r="C640" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G640" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H640" s="0" t="s">
+        <v>1199</v>
+      </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B641" s="0" t="s">
         <v>1199</v>
       </c>
-      <c r="B641" s="0" t="s">
-        <v>234</v>
+      <c r="C641" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20998,7 +21010,7 @@
         <v>1200</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21014,7 +21026,7 @@
         <v>1202</v>
       </c>
       <c r="B644" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21032,27 +21044,27 @@
       <c r="B646" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="E646" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="5" t="s">
+      <c r="A647" s="0" t="s">
         <v>1205</v>
       </c>
       <c r="B647" s="0" t="s">
         <v>236</v>
       </c>
       <c r="E647" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B648" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E648" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="0" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B648" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21062,9 +21074,6 @@
       <c r="B649" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E649" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
@@ -21073,6 +21082,9 @@
       <c r="B650" s="0" t="s">
         <v>237</v>
       </c>
+      <c r="E650" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
@@ -21083,22 +21095,22 @@
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="5" t="s">
+      <c r="A652" s="0" t="s">
         <v>1210</v>
       </c>
       <c r="B652" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E652" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="0" t="s">
+      <c r="A653" s="5" t="s">
         <v>1211</v>
       </c>
       <c r="B653" s="0" t="s">
         <v>237</v>
+      </c>
+      <c r="E653" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21106,7 +21118,7 @@
         <v>1212</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21122,10 +21134,7 @@
         <v>1214</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C656" s="0" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21144,7 +21153,10 @@
         <v>1216</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>246</v>
+        <v>460</v>
+      </c>
+      <c r="C658" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21160,7 +21172,7 @@
         <v>1218</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>457</v>
+        <v>246</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21168,7 +21180,7 @@
         <v>1219</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21184,7 +21196,7 @@
         <v>1221</v>
       </c>
       <c r="B663" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21192,7 +21204,7 @@
         <v>1222</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21224,7 +21236,7 @@
         <v>1226</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21240,10 +21252,7 @@
         <v>1228</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C670" s="0" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21262,7 +21271,10 @@
         <v>1230</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>253</v>
+        <v>180</v>
+      </c>
+      <c r="C672" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21278,7 +21290,7 @@
         <v>1232</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21334,7 +21346,7 @@
         <v>1239</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21358,21 +21370,12 @@
         <v>1242</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C684" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G684" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H684" s="0" t="s">
-        <v>1243</v>
+        <v>301</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B685" s="0" t="s">
         <v>46</v>
@@ -21384,15 +21387,24 @@
         <v>1</v>
       </c>
       <c r="H685" s="0" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B686" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C686" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G686" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H686" s="0" t="s">
         <v>1244</v>
-      </c>
-      <c r="B686" s="0" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21400,7 +21412,7 @@
         <v>1245</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>250</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21408,7 +21420,7 @@
         <v>1246</v>
       </c>
       <c r="B688" s="0" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21440,7 +21452,7 @@
         <v>1250</v>
       </c>
       <c r="B692" s="0" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21464,7 +21476,7 @@
         <v>1253</v>
       </c>
       <c r="B695" s="0" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21472,7 +21484,7 @@
         <v>1254</v>
       </c>
       <c r="B696" s="0" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21482,16 +21494,16 @@
       <c r="B697" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="E697" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
         <v>1256</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="E698" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21517,20 +21529,20 @@
       <c r="B701" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="E701" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="5" t="s">
+      <c r="A702" s="0" t="s">
         <v>1260</v>
       </c>
       <c r="B702" s="0" t="s">
         <v>255</v>
       </c>
+      <c r="E702" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="0" t="s">
+      <c r="A703" s="5" t="s">
         <v>1261</v>
       </c>
       <c r="B703" s="0" t="s">
@@ -21558,7 +21570,7 @@
         <v>1264</v>
       </c>
       <c r="B706" s="0" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21566,7 +21578,7 @@
         <v>1265</v>
       </c>
       <c r="B707" s="0" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21582,7 +21594,7 @@
         <v>1267</v>
       </c>
       <c r="B709" s="0" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21598,7 +21610,7 @@
         <v>1269</v>
       </c>
       <c r="B711" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21606,10 +21618,7 @@
         <v>1270</v>
       </c>
       <c r="B712" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C712" s="0" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21628,7 +21637,10 @@
         <v>1272</v>
       </c>
       <c r="B714" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
+      </c>
+      <c r="C714" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21654,9 +21666,6 @@
       <c r="B717" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E717" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
@@ -21665,24 +21674,27 @@
       <c r="B718" s="0" t="s">
         <v>261</v>
       </c>
+      <c r="E718" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="5" t="s">
+      <c r="A719" s="0" t="s">
         <v>1277</v>
       </c>
       <c r="B719" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E719" s="0" t="s">
+    </row>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B720" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E720" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="0" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B720" s="0" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21692,27 +21704,27 @@
       <c r="B721" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="E721" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="5" t="s">
+      <c r="A722" s="0" t="s">
         <v>1280</v>
       </c>
       <c r="B722" s="0" t="s">
         <v>262</v>
       </c>
       <c r="E722" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B723" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E723" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="0" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B723" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21728,7 +21740,7 @@
         <v>1283</v>
       </c>
       <c r="B725" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21736,7 +21748,7 @@
         <v>1284</v>
       </c>
       <c r="B726" s="0" t="s">
-        <v>462</v>
+        <v>251</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21744,26 +21756,26 @@
         <v>1285</v>
       </c>
       <c r="B727" s="0" t="s">
-        <v>305</v>
+        <v>462</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="5" t="s">
+      <c r="A728" s="0" t="s">
         <v>1286</v>
       </c>
       <c r="B728" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E728" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="0" t="s">
+      <c r="A729" s="5" t="s">
         <v>1287</v>
       </c>
       <c r="B729" s="0" t="s">
         <v>305</v>
+      </c>
+      <c r="E729" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21773,9 +21785,6 @@
       <c r="B730" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E730" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
@@ -21784,6 +21793,9 @@
       <c r="B731" s="0" t="s">
         <v>305</v>
       </c>
+      <c r="E731" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="s">
@@ -21806,7 +21818,7 @@
         <v>1292</v>
       </c>
       <c r="B734" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21814,7 +21826,7 @@
         <v>1293</v>
       </c>
       <c r="B735" s="0" t="s">
-        <v>464</v>
+        <v>306</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21822,7 +21834,7 @@
         <v>1294</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>257</v>
+        <v>464</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21830,7 +21842,7 @@
         <v>1295</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21856,16 +21868,16 @@
       <c r="B740" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E740" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
         <v>1299</v>
       </c>
       <c r="B741" s="0" t="s">
-        <v>174</v>
+        <v>111</v>
+      </c>
+      <c r="E741" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21881,7 +21893,7 @@
         <v>1301</v>
       </c>
       <c r="B743" s="0" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21889,7 +21901,7 @@
         <v>1302</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21897,15 +21909,15 @@
         <v>1303</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>1304</v>
+        <v>260</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B746" s="0" t="s">
         <v>1305</v>
-      </c>
-      <c r="B746" s="0" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21913,7 +21925,7 @@
         <v>1306</v>
       </c>
       <c r="B747" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21923,9 +21935,6 @@
       <c r="B748" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E748" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
@@ -21935,26 +21944,29 @@
         <v>263</v>
       </c>
       <c r="E749" s="0" t="s">
-        <v>548</v>
+        <v>675</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="5" t="s">
+      <c r="A750" s="0" t="s">
         <v>1309</v>
       </c>
       <c r="B750" s="0" t="s">
         <v>263</v>
       </c>
       <c r="E750" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B751" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E751" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="0" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B751" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21980,7 +21992,6 @@
       <c r="B754" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E754" s="7"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
@@ -21989,15 +22000,13 @@
       <c r="B755" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="E755" s="7"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
         <v>1315</v>
       </c>
       <c r="B756" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C756" s="0" t="s">
         <v>77</v>
       </c>
     </row>
@@ -22006,7 +22015,7 @@
         <v>1316</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C757" s="0" t="s">
         <v>77</v>
@@ -22017,7 +22026,10 @@
         <v>1317</v>
       </c>
       <c r="B758" s="0" t="s">
-        <v>267</v>
+        <v>78</v>
+      </c>
+      <c r="C758" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22035,9 +22047,6 @@
       <c r="B760" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="E760" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
@@ -22046,13 +22055,16 @@
       <c r="B761" s="0" t="s">
         <v>267</v>
       </c>
+      <c r="E761" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
         <v>1321</v>
       </c>
       <c r="B762" s="0" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22108,7 +22120,7 @@
         <v>1328</v>
       </c>
       <c r="B769" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22116,7 +22128,7 @@
         <v>1329</v>
       </c>
       <c r="B770" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22124,7 +22136,7 @@
         <v>1330</v>
       </c>
       <c r="B771" s="0" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22148,7 +22160,7 @@
         <v>1333</v>
       </c>
       <c r="B774" s="0" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22156,7 +22168,7 @@
         <v>1334</v>
       </c>
       <c r="B775" s="0" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22164,7 +22176,7 @@
         <v>1335</v>
       </c>
       <c r="B776" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22172,7 +22184,7 @@
         <v>1336</v>
       </c>
       <c r="B777" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22180,7 +22192,7 @@
         <v>1337</v>
       </c>
       <c r="B778" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22188,7 +22200,7 @@
         <v>1338</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22196,7 +22208,7 @@
         <v>1339</v>
       </c>
       <c r="B780" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22204,7 +22216,7 @@
         <v>1340</v>
       </c>
       <c r="B781" s="0" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22212,7 +22224,7 @@
         <v>1341</v>
       </c>
       <c r="B782" s="0" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22220,10 +22232,7 @@
         <v>1342</v>
       </c>
       <c r="B783" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="E783" s="0" t="s">
-        <v>548</v>
+        <v>279</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22241,13 +22250,16 @@
       <c r="B785" s="0" t="s">
         <v>280</v>
       </c>
+      <c r="E785" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
         <v>1345</v>
       </c>
       <c r="B786" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22255,10 +22267,7 @@
         <v>1346</v>
       </c>
       <c r="B787" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="E787" s="0" t="s">
-        <v>548</v>
+        <v>280</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22268,27 +22277,27 @@
       <c r="B788" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="E788" s="0" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
         <v>1348</v>
       </c>
       <c r="B789" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="E789" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="5" t="s">
+      <c r="A790" s="0" t="s">
         <v>1349</v>
       </c>
       <c r="B790" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E790" s="0" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22300,14 +22309,14 @@
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="0" t="s">
+      <c r="A792" s="5" t="s">
         <v>1351</v>
       </c>
       <c r="B792" s="0" t="s">
         <v>282</v>
       </c>
       <c r="E792" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22317,9 +22326,6 @@
       <c r="B793" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E793" s="0" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
@@ -22328,16 +22334,19 @@
       <c r="B794" s="0" t="s">
         <v>282</v>
       </c>
+      <c r="E794" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
         <v>1354</v>
       </c>
       <c r="B795" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C795" s="0" t="s">
         <v>282</v>
+      </c>
+      <c r="E795" s="0" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22345,9 +22354,6 @@
         <v>1355</v>
       </c>
       <c r="B796" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C796" s="0" t="s">
         <v>282</v>
       </c>
     </row>
@@ -22356,7 +22362,10 @@
         <v>1356</v>
       </c>
       <c r="B797" s="0" t="s">
-        <v>276</v>
+        <v>315</v>
+      </c>
+      <c r="C797" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22364,7 +22373,10 @@
         <v>1357</v>
       </c>
       <c r="B798" s="0" t="s">
-        <v>269</v>
+        <v>315</v>
+      </c>
+      <c r="C798" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22372,7 +22384,7 @@
         <v>1358</v>
       </c>
       <c r="B799" s="0" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22380,7 +22392,7 @@
         <v>1359</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22388,7 +22400,7 @@
         <v>1360</v>
       </c>
       <c r="B801" s="0" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22396,7 +22408,7 @@
         <v>1361</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22412,7 +22424,7 @@
         <v>1363</v>
       </c>
       <c r="B804" s="0" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22420,7 +22432,7 @@
         <v>1364</v>
       </c>
       <c r="B805" s="0" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22446,16 +22458,13 @@
       <c r="B808" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E808" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
         <v>1368</v>
       </c>
       <c r="B809" s="0" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22463,7 +22472,10 @@
         <v>1369</v>
       </c>
       <c r="B810" s="0" t="s">
-        <v>123</v>
+        <v>42</v>
+      </c>
+      <c r="E810" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22473,9 +22485,6 @@
       <c r="B811" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E811" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
@@ -22484,9 +22493,6 @@
       <c r="B812" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E812" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
@@ -22495,6 +22501,9 @@
       <c r="B813" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="E813" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="s">
@@ -22503,6 +22512,9 @@
       <c r="B814" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="E814" s="0" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
@@ -22513,14 +22525,11 @@
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="5" t="s">
+      <c r="A816" s="0" t="s">
         <v>1375</v>
       </c>
       <c r="B816" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="E816" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22532,14 +22541,14 @@
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="0" t="s">
+      <c r="A818" s="5" t="s">
         <v>1377</v>
       </c>
       <c r="B818" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C818" s="0" t="s">
         <v>123</v>
+      </c>
+      <c r="E818" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22547,9 +22556,6 @@
         <v>1378</v>
       </c>
       <c r="B819" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C819" s="0" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22558,7 +22564,7 @@
         <v>1379</v>
       </c>
       <c r="B820" s="0" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="C820" s="0" t="s">
         <v>123</v>
@@ -22569,7 +22575,7 @@
         <v>1380</v>
       </c>
       <c r="B821" s="0" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C821" s="0" t="s">
         <v>123</v>
@@ -22580,44 +22586,59 @@
         <v>1381</v>
       </c>
       <c r="B822" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C822" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
-        <v>289</v>
+        <v>1382</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>289</v>
+        <v>211</v>
+      </c>
+      <c r="C823" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>289</v>
+        <v>211</v>
+      </c>
+      <c r="C824" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B825" s="0" t="s">
-        <v>289</v>
+        <v>211</v>
+      </c>
+      <c r="C825" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E825" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B826" s="0" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
-        <v>1385</v>
+        <v>289</v>
       </c>
       <c r="B827" s="0" t="s">
         <v>289</v>
@@ -22636,80 +22657,59 @@
         <v>1387</v>
       </c>
       <c r="B829" s="0" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C829" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="G829" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H829" s="0" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B830" s="0" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C830" s="0" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="0" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="C831" s="0" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B832" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="C832" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="F832" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B833" s="0" t="s">
         <v>1392</v>
-      </c>
-      <c r="B833" s="0" t="s">
-        <v>408</v>
       </c>
       <c r="C833" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="F833" s="0" t="n">
-        <v>1</v>
+      <c r="G833" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H833" s="0" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B834" s="0" t="s">
         <v>1393</v>
-      </c>
-      <c r="B834" s="0" t="s">
-        <v>409</v>
       </c>
       <c r="C834" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="F834" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22717,13 +22717,10 @@
         <v>1394</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="C835" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="F835" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22731,7 +22728,7 @@
         <v>1395</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C836" s="0" t="s">
         <v>289</v>
@@ -22745,7 +22742,7 @@
         <v>1396</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C837" s="0" t="s">
         <v>289</v>
@@ -22759,7 +22756,7 @@
         <v>1397</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C838" s="0" t="s">
         <v>289</v>
@@ -22773,7 +22770,7 @@
         <v>1398</v>
       </c>
       <c r="B839" s="0" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C839" s="0" t="s">
         <v>289</v>
@@ -22787,7 +22784,7 @@
         <v>1399</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>1400</v>
+        <v>411</v>
       </c>
       <c r="C840" s="0" t="s">
         <v>289</v>
@@ -22798,10 +22795,10 @@
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>289</v>
@@ -22811,11 +22808,11 @@
       </c>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="6" t="s">
-        <v>882</v>
+      <c r="A842" s="0" t="s">
+        <v>1401</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>289</v>
@@ -22829,7 +22826,7 @@
         <v>1402</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C843" s="0" t="s">
         <v>289</v>
@@ -22843,7 +22840,7 @@
         <v>1403</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>418</v>
+        <v>1404</v>
       </c>
       <c r="C844" s="0" t="s">
         <v>289</v>
@@ -22854,10 +22851,10 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C845" s="0" t="s">
         <v>289</v>
@@ -22867,11 +22864,11 @@
       </c>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="0" t="s">
-        <v>1405</v>
+      <c r="A846" s="6" t="s">
+        <v>882</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C846" s="0" t="s">
         <v>289</v>
@@ -22885,7 +22882,7 @@
         <v>1406</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C847" s="0" t="s">
         <v>289</v>
@@ -22899,7 +22896,7 @@
         <v>1407</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C848" s="0" t="s">
         <v>289</v>
@@ -22913,7 +22910,7 @@
         <v>1408</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C849" s="0" t="s">
         <v>289</v>
@@ -22927,7 +22924,7 @@
         <v>1409</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C850" s="0" t="s">
         <v>289</v>
@@ -22941,7 +22938,7 @@
         <v>1410</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C851" s="0" t="s">
         <v>289</v>
@@ -22955,7 +22952,7 @@
         <v>1411</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C852" s="0" t="s">
         <v>289</v>
@@ -22969,7 +22966,7 @@
         <v>1412</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C853" s="0" t="s">
         <v>289</v>
@@ -22983,7 +22980,7 @@
         <v>1413</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C854" s="0" t="s">
         <v>289</v>
@@ -22997,7 +22994,7 @@
         <v>1414</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C855" s="0" t="s">
         <v>289</v>
@@ -23011,7 +23008,7 @@
         <v>1415</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>289</v>
@@ -23025,7 +23022,7 @@
         <v>1416</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C857" s="0" t="s">
         <v>289</v>
@@ -23039,7 +23036,7 @@
         <v>1417</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C858" s="0" t="s">
         <v>289</v>
@@ -23053,7 +23050,7 @@
         <v>1418</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C859" s="0" t="s">
         <v>289</v>
@@ -23067,7 +23064,7 @@
         <v>1419</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C860" s="0" t="s">
         <v>289</v>
@@ -23081,7 +23078,7 @@
         <v>1420</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C861" s="0" t="s">
         <v>289</v>
@@ -23095,7 +23092,7 @@
         <v>1421</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C862" s="0" t="s">
         <v>289</v>
@@ -23109,7 +23106,7 @@
         <v>1422</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C863" s="0" t="s">
         <v>289</v>
@@ -23123,7 +23120,7 @@
         <v>1423</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C864" s="0" t="s">
         <v>289</v>
@@ -23137,7 +23134,7 @@
         <v>1424</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C865" s="0" t="s">
         <v>289</v>
@@ -23151,7 +23148,7 @@
         <v>1425</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C866" s="0" t="s">
         <v>289</v>
@@ -23165,7 +23162,7 @@
         <v>1426</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C867" s="0" t="s">
         <v>289</v>
@@ -23179,7 +23176,7 @@
         <v>1427</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C868" s="0" t="s">
         <v>289</v>
@@ -23193,7 +23190,7 @@
         <v>1428</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C869" s="0" t="s">
         <v>289</v>
@@ -23207,7 +23204,7 @@
         <v>1429</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C870" s="0" t="s">
         <v>289</v>
@@ -23221,7 +23218,7 @@
         <v>1430</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>289</v>
@@ -23235,7 +23232,7 @@
         <v>1431</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>289</v>
@@ -23249,7 +23246,7 @@
         <v>1432</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C873" s="0" t="s">
         <v>289</v>
@@ -23263,7 +23260,7 @@
         <v>1433</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C874" s="0" t="s">
         <v>289</v>
@@ -23277,7 +23274,7 @@
         <v>1434</v>
       </c>
       <c r="B875" s="0" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C875" s="0" t="s">
         <v>289</v>
@@ -23291,7 +23288,7 @@
         <v>1435</v>
       </c>
       <c r="B876" s="0" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C876" s="0" t="s">
         <v>289</v>
@@ -23305,7 +23302,7 @@
         <v>1436</v>
       </c>
       <c r="B877" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C877" s="0" t="s">
         <v>289</v>
@@ -23319,7 +23316,7 @@
         <v>1437</v>
       </c>
       <c r="B878" s="0" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C878" s="0" t="s">
         <v>289</v>
@@ -23333,7 +23330,7 @@
         <v>1438</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C879" s="0" t="s">
         <v>289</v>
@@ -23347,7 +23344,7 @@
         <v>1439</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C880" s="0" t="s">
         <v>289</v>
@@ -23361,7 +23358,7 @@
         <v>1440</v>
       </c>
       <c r="B881" s="0" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C881" s="0" t="s">
         <v>289</v>
@@ -23375,7 +23372,7 @@
         <v>1441</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C882" s="0" t="s">
         <v>289</v>
@@ -23389,7 +23386,13 @@
         <v>1442</v>
       </c>
       <c r="B883" s="0" t="s">
-        <v>288</v>
+        <v>453</v>
+      </c>
+      <c r="C883" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F883" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23397,7 +23400,13 @@
         <v>1443</v>
       </c>
       <c r="B884" s="0" t="s">
-        <v>259</v>
+        <v>454</v>
+      </c>
+      <c r="C884" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F884" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23405,20 +23414,26 @@
         <v>1444</v>
       </c>
       <c r="B885" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D885" s="0" t="n">
+        <v>455</v>
+      </c>
+      <c r="C885" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F885" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="5" t="s">
+      <c r="A886" s="0" t="s">
         <v>1445</v>
       </c>
       <c r="B886" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D886" s="0" t="n">
+        <v>456</v>
+      </c>
+      <c r="C886" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F886" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23427,13 +23442,7 @@
         <v>1446</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D887" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E887" s="0" t="s">
-        <v>548</v>
+        <v>288</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23441,7 +23450,7 @@
         <v>1447</v>
       </c>
       <c r="B888" s="0" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23449,18 +23458,21 @@
         <v>1448</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="E889" s="0" t="s">
-        <v>548</v>
+        <v>259</v>
+      </c>
+      <c r="D889" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="0" t="s">
+      <c r="A890" s="5" t="s">
         <v>1449</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>297</v>
+        <v>259</v>
+      </c>
+      <c r="D890" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23468,7 +23480,13 @@
         <v>1450</v>
       </c>
       <c r="B891" s="0" t="s">
-        <v>293</v>
+        <v>259</v>
+      </c>
+      <c r="D891" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E891" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23476,7 +23494,7 @@
         <v>1451</v>
       </c>
       <c r="B892" s="0" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23484,7 +23502,10 @@
         <v>1452</v>
       </c>
       <c r="B893" s="0" t="s">
-        <v>293</v>
+        <v>290</v>
+      </c>
+      <c r="E893" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23492,7 +23513,7 @@
         <v>1453</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23508,10 +23529,7 @@
         <v>1455</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="E896" s="0" t="s">
-        <v>548</v>
+        <v>293</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23519,7 +23537,7 @@
         <v>1456</v>
       </c>
       <c r="B897" s="0" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23527,87 +23545,45 @@
         <v>1457</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C898" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G898" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H898" s="0" t="s">
-        <v>1458</v>
-      </c>
-      <c r="I898" s="0" t="s">
-        <v>1459</v>
+        <v>293</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C899" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G899" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H899" s="0" t="s">
-        <v>1458</v>
-      </c>
-      <c r="I899" s="0" t="s">
-        <v>1459</v>
+        <v>293</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B900" s="0" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C900" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H900" s="0" t="s">
-        <v>1458</v>
-      </c>
-      <c r="I900" s="0" t="s">
-        <v>1459</v>
+        <v>296</v>
+      </c>
+      <c r="E900" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C901" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G901" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H901" s="0" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I901" s="0" t="s">
-        <v>1459</v>
+        <v>296</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B902" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C902" s="0" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c r="G902" s="0" t="n">
         <v>1</v>
@@ -23616,7 +23592,7 @@
         <v>1462</v>
       </c>
       <c r="I902" s="0" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23624,10 +23600,10 @@
         <v>1464</v>
       </c>
       <c r="B903" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C903" s="0" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c r="G903" s="0" t="n">
         <v>1</v>
@@ -23636,32 +23612,29 @@
         <v>1462</v>
       </c>
       <c r="I903" s="0" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B904" s="0" t="s">
-        <v>295</v>
+        <v>1462</v>
       </c>
       <c r="C904" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G904" s="0" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="H904" s="0" t="s">
         <v>1462</v>
       </c>
       <c r="I904" s="0" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B905" s="0" t="s">
         <v>295</v>
@@ -23673,10 +23646,10 @@
         <v>1</v>
       </c>
       <c r="H905" s="0" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="I905" s="0" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23693,10 +23666,10 @@
         <v>1</v>
       </c>
       <c r="H906" s="0" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="I906" s="0" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23713,64 +23686,112 @@
         <v>1</v>
       </c>
       <c r="H907" s="0" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="I907" s="0" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>1463</v>
+        <v>1469</v>
       </c>
       <c r="B908" s="0" t="s">
-        <v>1462</v>
+        <v>295</v>
       </c>
       <c r="C908" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G908" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H908" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I908" s="0" t="s">
+        <v>1463</v>
+      </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B909" s="0" t="s">
-        <v>1462</v>
+        <v>295</v>
       </c>
       <c r="C909" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G909" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H909" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I909" s="0" t="s">
+        <v>1463</v>
+      </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="B910" s="0" t="s">
-        <v>300</v>
+        <v>295</v>
+      </c>
+      <c r="C910" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G910" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H910" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I910" s="0" t="s">
+        <v>1463</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="B911" s="0" t="s">
-        <v>300</v>
+        <v>295</v>
+      </c>
+      <c r="C911" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G911" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H911" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I911" s="0" t="s">
+        <v>1463</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>110</v>
+        <v>1466</v>
+      </c>
+      <c r="C912" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="B913" s="0" t="s">
-        <v>110</v>
+        <v>1466</v>
+      </c>
+      <c r="C913" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23778,7 +23799,7 @@
         <v>1473</v>
       </c>
       <c r="B914" s="0" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23786,7 +23807,7 @@
         <v>1474</v>
       </c>
       <c r="B915" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23794,7 +23815,7 @@
         <v>1475</v>
       </c>
       <c r="B916" s="0" t="s">
-        <v>302</v>
+        <v>110</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23802,7 +23823,7 @@
         <v>1476</v>
       </c>
       <c r="B917" s="0" t="s">
-        <v>302</v>
+        <v>110</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23810,7 +23831,7 @@
         <v>1477</v>
       </c>
       <c r="B918" s="0" t="s">
-        <v>302</v>
+        <v>110</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23818,7 +23839,7 @@
         <v>1478</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23826,10 +23847,7 @@
         <v>1479</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D920" s="0" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23837,13 +23855,7 @@
         <v>1480</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D921" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E921" s="0" t="s">
-        <v>548</v>
+        <v>302</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23851,10 +23863,7 @@
         <v>1481</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D922" s="0" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23862,10 +23871,7 @@
         <v>1482</v>
       </c>
       <c r="B923" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="D923" s="0" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23873,7 +23879,7 @@
         <v>1483</v>
       </c>
       <c r="B924" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D924" s="0" t="n">
         <v>1</v>
@@ -23884,7 +23890,7 @@
         <v>1484</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D925" s="0" t="n">
         <v>1</v>
@@ -23903,9 +23909,6 @@
       <c r="D926" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E926" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="s">
@@ -23923,7 +23926,10 @@
         <v>1487</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="D928" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23931,7 +23937,13 @@
         <v>1488</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="D929" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E929" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23939,7 +23951,13 @@
         <v>1489</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>105</v>
+        <v>304</v>
+      </c>
+      <c r="D930" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E930" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23947,7 +23965,10 @@
         <v>1490</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>114</v>
+        <v>303</v>
+      </c>
+      <c r="D931" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23955,50 +23976,23 @@
         <v>1491</v>
       </c>
       <c r="B932" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C932" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G932" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H932" s="0" t="s">
-        <v>1492</v>
+        <v>307</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B933" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C933" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G933" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H933" s="0" t="s">
-        <v>1492</v>
+        <v>308</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B934" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C934" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G934" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H934" s="0" t="s">
-        <v>1492</v>
+        <v>105</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24006,7 +24000,7 @@
         <v>1494</v>
       </c>
       <c r="B935" s="0" t="s">
-        <v>1492</v>
+        <v>114</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24014,23 +24008,50 @@
         <v>1495</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>458</v>
+        <v>76</v>
+      </c>
+      <c r="C936" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G936" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H936" s="0" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B937" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C937" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G937" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H937" s="0" t="s">
         <v>1496</v>
-      </c>
-      <c r="B937" s="0" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B938" s="0" t="s">
-        <v>465</v>
+        <v>76</v>
+      </c>
+      <c r="C938" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G938" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H938" s="0" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24038,7 +24059,7 @@
         <v>1498</v>
       </c>
       <c r="B939" s="0" t="s">
-        <v>466</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24046,7 +24067,7 @@
         <v>1499</v>
       </c>
       <c r="B940" s="0" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24054,7 +24075,7 @@
         <v>1500</v>
       </c>
       <c r="B941" s="0" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24062,63 +24083,39 @@
         <v>1501</v>
       </c>
       <c r="B942" s="0" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C942" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F942" s="0" t="n">
-        <v>1</v>
+        <v>465</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B943" s="0" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C943" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F943" s="0" t="n">
-        <v>1</v>
+        <v>466</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B944" s="0" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A945" s="0" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B945" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="0" t="s">
         <v>1505</v>
       </c>
-      <c r="B944" s="0" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C944" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F944" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="5" t="s">
+      <c r="B946" s="0" t="s">
         <v>1506</v>
-      </c>
-      <c r="B945" s="0" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C945" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F945" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="6" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B946" s="0" t="s">
-        <v>1504</v>
       </c>
       <c r="C946" s="0" t="s">
         <v>43</v>
@@ -24128,11 +24125,11 @@
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="6" t="s">
+      <c r="A947" s="0" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B947" s="0" t="s">
         <v>1508</v>
-      </c>
-      <c r="B947" s="0" t="s">
-        <v>1504</v>
       </c>
       <c r="C947" s="0" t="s">
         <v>43</v>
@@ -24146,7 +24143,7 @@
         <v>1509</v>
       </c>
       <c r="B948" s="0" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C948" s="0" t="s">
         <v>43</v>
@@ -24156,11 +24153,11 @@
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="0" t="s">
-        <v>1511</v>
+      <c r="A949" s="5" t="s">
+        <v>1510</v>
       </c>
       <c r="B949" s="0" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C949" s="0" t="s">
         <v>43</v>
@@ -24170,11 +24167,11 @@
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="0" t="s">
-        <v>1513</v>
+      <c r="A950" s="6" t="s">
+        <v>1511</v>
       </c>
       <c r="B950" s="0" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="C950" s="0" t="s">
         <v>43</v>
@@ -24184,11 +24181,11 @@
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="0" t="s">
-        <v>732</v>
+      <c r="A951" s="6" t="s">
+        <v>1512</v>
       </c>
       <c r="B951" s="0" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>43</v>
@@ -24199,10 +24196,10 @@
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="B952" s="0" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C952" s="0" t="s">
         <v>43</v>
@@ -24213,10 +24210,10 @@
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B953" s="0" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>43</v>
@@ -24227,10 +24224,10 @@
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="B954" s="0" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="C954" s="0" t="s">
         <v>43</v>
@@ -24241,10 +24238,10 @@
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
-        <v>1522</v>
+        <v>732</v>
       </c>
       <c r="B955" s="0" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>43</v>
@@ -24255,10 +24252,10 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="B956" s="0" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>43</v>
@@ -24269,10 +24266,10 @@
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="B957" s="0" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>43</v>
@@ -24283,10 +24280,10 @@
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="B958" s="0" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>43</v>
@@ -24297,10 +24294,10 @@
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="B959" s="0" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>43</v>
@@ -24311,10 +24308,10 @@
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B960" s="0" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="C960" s="0" t="s">
         <v>43</v>
@@ -24325,10 +24322,10 @@
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="B961" s="0" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="C961" s="0" t="s">
         <v>43</v>
@@ -24339,10 +24336,10 @@
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="B962" s="0" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="C962" s="0" t="s">
         <v>43</v>
@@ -24353,10 +24350,10 @@
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="B963" s="0" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="C963" s="0" t="s">
         <v>43</v>
@@ -24367,10 +24364,10 @@
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>43</v>
@@ -24381,10 +24378,10 @@
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="B965" s="0" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="C965" s="0" t="s">
         <v>43</v>
@@ -24395,10 +24392,10 @@
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="B966" s="0" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="C966" s="0" t="s">
         <v>43</v>
@@ -24409,10 +24406,10 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="B967" s="0" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="C967" s="0" t="s">
         <v>43</v>
@@ -24423,10 +24420,10 @@
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="B968" s="0" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="C968" s="0" t="s">
         <v>43</v>
@@ -24437,10 +24434,10 @@
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="B969" s="0" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="C969" s="0" t="s">
         <v>43</v>
@@ -24450,11 +24447,11 @@
       </c>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="0" t="n">
-        <v>1701</v>
+      <c r="A970" s="0" t="s">
+        <v>1548</v>
       </c>
       <c r="B970" s="0" t="s">
-        <v>1504</v>
+        <v>1549</v>
       </c>
       <c r="C970" s="0" t="s">
         <v>43</v>
@@ -24464,11 +24461,11 @@
       </c>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="0" t="n">
-        <v>1702</v>
+      <c r="A971" s="0" t="s">
+        <v>1550</v>
       </c>
       <c r="B971" s="0" t="s">
-        <v>1515</v>
+        <v>1551</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>43</v>
@@ -24478,11 +24475,11 @@
       </c>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="0" t="n">
-        <v>1703</v>
+      <c r="A972" s="0" t="s">
+        <v>1552</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>1545</v>
+        <v>1553</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>43</v>
@@ -24492,11 +24489,11 @@
       </c>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="0" t="n">
-        <v>1704</v>
+      <c r="A973" s="0" t="s">
+        <v>1554</v>
       </c>
       <c r="B973" s="0" t="s">
-        <v>1519</v>
+        <v>1555</v>
       </c>
       <c r="C973" s="0" t="s">
         <v>43</v>
@@ -24507,10 +24504,10 @@
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="n">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="B974" s="0" t="s">
-        <v>1531</v>
+        <v>1508</v>
       </c>
       <c r="C974" s="0" t="s">
         <v>43</v>
@@ -24521,10 +24518,10 @@
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="n">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="B975" s="0" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="C975" s="0" t="s">
         <v>43</v>
@@ -24535,10 +24532,10 @@
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="n">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="B976" s="0" t="s">
-        <v>1512</v>
+        <v>1549</v>
       </c>
       <c r="C976" s="0" t="s">
         <v>43</v>
@@ -24549,10 +24546,10 @@
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="n">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="B977" s="0" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="C977" s="0" t="s">
         <v>43</v>
@@ -24563,10 +24560,10 @@
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="n">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="B978" s="0" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C978" s="0" t="s">
         <v>43</v>
@@ -24577,10 +24574,10 @@
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="n">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B979" s="0" t="s">
-        <v>1547</v>
+        <v>1521</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>43</v>
@@ -24591,10 +24588,10 @@
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="n">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="B980" s="0" t="s">
-        <v>1551</v>
+        <v>1516</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>43</v>
@@ -24605,10 +24602,10 @@
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="n">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="B981" s="0" t="s">
-        <v>1510</v>
+        <v>1525</v>
       </c>
       <c r="C981" s="0" t="s">
         <v>43</v>
@@ -24619,10 +24616,10 @@
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="n">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="B982" s="0" t="s">
-        <v>1523</v>
+        <v>1541</v>
       </c>
       <c r="C982" s="0" t="s">
         <v>43</v>
@@ -24633,10 +24630,10 @@
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="n">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="B983" s="0" t="s">
-        <v>1529</v>
+        <v>1551</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>43</v>
@@ -24647,10 +24644,10 @@
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="n">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>1539</v>
+        <v>1555</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>43</v>
@@ -24661,10 +24658,10 @@
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="n">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="B985" s="0" t="s">
-        <v>1541</v>
+        <v>1514</v>
       </c>
       <c r="C985" s="0" t="s">
         <v>43</v>
@@ -24675,7 +24672,7 @@
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="n">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="B986" s="0" t="s">
         <v>1527</v>
@@ -24689,10 +24686,10 @@
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="n">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="B987" s="0" t="s">
-        <v>1514</v>
+        <v>1533</v>
       </c>
       <c r="C987" s="0" t="s">
         <v>43</v>
@@ -24703,10 +24700,10 @@
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="n">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="B988" s="0" t="s">
-        <v>1533</v>
+        <v>1543</v>
       </c>
       <c r="C988" s="0" t="s">
         <v>43</v>
@@ -24717,10 +24714,10 @@
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="n">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="B989" s="0" t="s">
-        <v>1535</v>
+        <v>1545</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>43</v>
@@ -24731,10 +24728,10 @@
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="n">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="B990" s="0" t="s">
-        <v>1549</v>
+        <v>1531</v>
       </c>
       <c r="C990" s="0" t="s">
         <v>43</v>
@@ -24745,10 +24742,10 @@
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="n">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="B991" s="0" t="s">
-        <v>1502</v>
+        <v>1518</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>43</v>
@@ -24759,10 +24756,10 @@
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="n">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="B992" s="0" t="s">
-        <v>1525</v>
+        <v>1537</v>
       </c>
       <c r="C992" s="0" t="s">
         <v>43</v>
@@ -24772,93 +24769,81 @@
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="0" t="s">
-        <v>1552</v>
+      <c r="A993" s="0" t="n">
+        <v>1720</v>
       </c>
       <c r="B993" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C993" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F993" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="0" t="n">
+        <v>1721</v>
+      </c>
+      <c r="B994" s="0" t="s">
         <v>1553</v>
       </c>
-      <c r="C993" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="J993" s="0" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="B994" s="0" t="s">
-        <v>1555</v>
-      </c>
       <c r="C994" s="0" t="s">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="F994" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J994" s="0" t="s">
-        <v>1556</v>
-      </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="0" t="s">
-        <v>641</v>
+      <c r="A995" s="0" t="n">
+        <v>1722</v>
       </c>
       <c r="B995" s="0" t="s">
-        <v>1557</v>
+        <v>1506</v>
       </c>
       <c r="C995" s="0" t="s">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="F995" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J995" s="0" t="s">
-        <v>1558</v>
-      </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="0" t="s">
-        <v>1559</v>
+      <c r="A996" s="0" t="n">
+        <v>1723</v>
       </c>
       <c r="B996" s="0" t="s">
-        <v>1560</v>
+        <v>1529</v>
       </c>
       <c r="C996" s="0" t="s">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="F996" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="J996" s="0" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F997" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J997" s="0" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>1565</v>
+        <v>644</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>293</v>
@@ -24867,15 +24852,15 @@
         <v>1</v>
       </c>
       <c r="J998" s="0" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>1568</v>
+        <v>641</v>
       </c>
       <c r="B999" s="0" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>293</v>
@@ -24884,15 +24869,15 @@
         <v>1</v>
       </c>
       <c r="J999" s="0" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>723</v>
+        <v>1563</v>
       </c>
       <c r="B1000" s="0" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>293</v>
@@ -24901,15 +24886,15 @@
         <v>1</v>
       </c>
       <c r="J1000" s="0" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>293</v>
@@ -24918,15 +24903,15 @@
         <v>1</v>
       </c>
       <c r="J1001" s="0" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
       <c r="B1002" s="0" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>293</v>
@@ -24935,15 +24920,15 @@
         <v>1</v>
       </c>
       <c r="J1002" s="0" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="B1003" s="0" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>293</v>
@@ -24952,15 +24937,15 @@
         <v>1</v>
       </c>
       <c r="J1003" s="0" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>1582</v>
+        <v>723</v>
       </c>
       <c r="B1004" s="0" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>293</v>
@@ -24969,15 +24954,15 @@
         <v>1</v>
       </c>
       <c r="J1004" s="0" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>293</v>
@@ -24986,15 +24971,15 @@
         <v>1</v>
       </c>
       <c r="J1005" s="0" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="C1006" s="0" t="s">
         <v>293</v>
@@ -25003,15 +24988,15 @@
         <v>1</v>
       </c>
       <c r="J1006" s="0" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="B1007" s="0" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="C1007" s="0" t="s">
         <v>293</v>
@@ -25020,15 +25005,15 @@
         <v>1</v>
       </c>
       <c r="J1007" s="0" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1111</v>
+        <v>1586</v>
       </c>
       <c r="B1008" s="0" t="s">
-        <v>1112</v>
+        <v>1587</v>
       </c>
       <c r="C1008" s="0" t="s">
         <v>293</v>
@@ -25037,15 +25022,15 @@
         <v>1</v>
       </c>
       <c r="J1008" s="0" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="B1009" s="0" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="C1009" s="0" t="s">
         <v>293</v>
@@ -25054,15 +25039,15 @@
         <v>1</v>
       </c>
       <c r="J1009" s="0" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="B1010" s="0" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="C1010" s="0" t="s">
         <v>293</v>
@@ -25071,15 +25056,15 @@
         <v>1</v>
       </c>
       <c r="J1010" s="0" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="C1011" s="0" t="s">
         <v>293</v>
@@ -25088,15 +25073,15 @@
         <v>1</v>
       </c>
       <c r="J1011" s="0" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>750</v>
+        <v>1112</v>
       </c>
       <c r="B1012" s="0" t="s">
-        <v>1604</v>
+        <v>1113</v>
       </c>
       <c r="C1012" s="0" t="s">
         <v>293</v>
@@ -25105,15 +25090,15 @@
         <v>1</v>
       </c>
       <c r="J1012" s="0" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="B1013" s="0" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="C1013" s="0" t="s">
         <v>293</v>
@@ -25122,15 +25107,15 @@
         <v>1</v>
       </c>
       <c r="J1013" s="0" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="B1014" s="0" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="C1014" s="0" t="s">
         <v>293</v>
@@ -25139,15 +25124,15 @@
         <v>1</v>
       </c>
       <c r="J1014" s="0" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="B1015" s="0" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="C1015" s="0" t="s">
         <v>293</v>
@@ -25156,15 +25141,15 @@
         <v>1</v>
       </c>
       <c r="J1015" s="0" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>1615</v>
+        <v>750</v>
       </c>
       <c r="B1016" s="0" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="C1016" s="0" t="s">
         <v>293</v>
@@ -25173,15 +25158,15 @@
         <v>1</v>
       </c>
       <c r="J1016" s="0" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="B1017" s="0" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="C1017" s="0" t="s">
         <v>293</v>
@@ -25190,105 +25175,105 @@
         <v>1</v>
       </c>
       <c r="J1017" s="0" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="B1018" s="0" t="s">
-        <v>1621</v>
+        <v>1614</v>
+      </c>
+      <c r="C1018" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1018" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1018" s="0" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B1019" s="5" t="s">
-        <v>619</v>
+        <v>1616</v>
+      </c>
+      <c r="B1019" s="0" t="s">
+        <v>1617</v>
       </c>
       <c r="C1019" s="0" t="s">
-        <v>213</v>
+        <v>293</v>
+      </c>
+      <c r="F1019" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="J1019" s="0" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="B1020" s="0" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="C1020" s="0" t="s">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="F1020" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J1020" s="0" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="B1021" s="0" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="C1021" s="0" t="s">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="F1021" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J1021" s="0" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="B1022" s="0" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C1022" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1022" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1022" s="0" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>1633</v>
-      </c>
-      <c r="B1023" s="0" t="s">
-        <v>1634</v>
+        <v>1626</v>
+      </c>
+      <c r="B1023" s="5" t="s">
+        <v>619</v>
       </c>
       <c r="C1023" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1023" s="0" t="n">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="J1023" s="0" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="B1024" s="0" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
       <c r="C1024" s="0" t="s">
         <v>80</v>
@@ -25297,15 +25282,15 @@
         <v>1</v>
       </c>
       <c r="J1024" s="0" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="B1025" s="0" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
       <c r="C1025" s="0" t="s">
         <v>80</v>
@@ -25314,15 +25299,15 @@
         <v>1</v>
       </c>
       <c r="J1025" s="0" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="B1026" s="0" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
       <c r="C1026" s="0" t="s">
         <v>80</v>
@@ -25331,15 +25316,15 @@
         <v>1</v>
       </c>
       <c r="J1026" s="0" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="B1027" s="0" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="C1027" s="0" t="s">
         <v>80</v>
@@ -25348,15 +25333,15 @@
         <v>1</v>
       </c>
       <c r="J1027" s="0" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="B1028" s="0" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="C1028" s="0" t="s">
         <v>80</v>
@@ -25365,15 +25350,15 @@
         <v>1</v>
       </c>
       <c r="J1028" s="0" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="B1029" s="0" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="C1029" s="0" t="s">
         <v>80</v>
@@ -25382,15 +25367,15 @@
         <v>1</v>
       </c>
       <c r="J1029" s="0" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="B1030" s="0" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="C1030" s="0" t="s">
         <v>80</v>
@@ -25399,15 +25384,15 @@
         <v>1</v>
       </c>
       <c r="J1030" s="0" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="B1031" s="0" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="C1031" s="0" t="s">
         <v>80</v>
@@ -25416,15 +25401,15 @@
         <v>1</v>
       </c>
       <c r="J1031" s="0" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
       <c r="B1032" s="0" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="C1032" s="0" t="s">
         <v>80</v>
@@ -25433,15 +25418,15 @@
         <v>1</v>
       </c>
       <c r="J1032" s="0" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
       <c r="B1033" s="0" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="C1033" s="0" t="s">
         <v>80</v>
@@ -25450,15 +25435,15 @@
         <v>1</v>
       </c>
       <c r="J1033" s="0" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="0" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="B1034" s="0" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="C1034" s="0" t="s">
         <v>80</v>
@@ -25467,15 +25452,15 @@
         <v>1</v>
       </c>
       <c r="J1034" s="0" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="0" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="B1035" s="0" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="C1035" s="0" t="s">
         <v>80</v>
@@ -25484,7 +25469,75 @@
         <v>1</v>
       </c>
       <c r="J1035" s="0" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="0" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1036" s="0" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C1036" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1036" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1036" s="0" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1037" s="0" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1037" s="0" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C1037" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1037" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1037" s="0" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1038" s="0" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1038" s="0" t="s">
         <v>1669</v>
+      </c>
+      <c r="C1038" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1038" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1038" s="0" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="0" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B1039" s="0" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C1039" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1039" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1039" s="0" t="s">
+        <v>1673</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="1674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="1922">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -5044,6 +5044,750 @@
   </si>
   <si>
     <t xml:space="preserve">CL-VS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lai Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lào Cai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hà Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cao Bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sơn La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yên Bái</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuyên Quang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lạng Sơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quảng Ninh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hòa Bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninh Bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thái Bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh Hóa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghệ An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hà Tĩnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quảng Bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quảng Trị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thừa Thiên–Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quảng Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kon Tum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quảng Ngãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gia Lai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bình Định</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phú Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đắk Lắk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khánh Hòa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lâm Đồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninh Thuận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tây Ninh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đồng Nai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bình Thuận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bà Rịa–Vũng Tàu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đồng Tháp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiền Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiên Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vĩnh Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bến Tre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trà Vinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sóc Trăng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bắc Kạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bắc Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạc Liêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bắc Ninh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bình Dương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bình Phước</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cà Mau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hải Dương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hà Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hưng Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nam Định</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phú Thọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thái Nguyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điện Biên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đắk Nông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hậu Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cần Thơ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đà Nẵng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-DN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-DN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-HN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-HN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hải Phòng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM-SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN-SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lai Chau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao Cai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ha Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cao Bang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yen Bai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuyen Quang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lang Son</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quang Ninh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoa Binh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninh Binh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thai Binh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh Hoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghe An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ha Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quang Binh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quang Tri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thua Thien–Hue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quang Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quang Ngai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binh Dinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phu Yen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dak Lak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khanh Hoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lam Dong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninh Thuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tay Ninh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dong Nai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binh Thuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba Ria–Vung Tau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dong Thap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tien Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kien Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinh Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Tre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tra Vinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soc Trang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bac Kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bac Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bac Lieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bac Ninh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binh Duong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binh Phuoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca Mau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai Duong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ha Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hung Yen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nam Dinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phu Tho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thai Nguyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinh Phuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dien Bien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dak Nong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hau Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Tho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Nang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ha Noi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai Phong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ho Chi Minh</t>
   </si>
 </sst>
 </file>
@@ -14728,14 +15472,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1039"/>
+  <dimension ref="A1:J1165"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B742" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1144" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A742" activeCellId="0" sqref="A742"/>
-      <selection pane="bottomRight" activeCell="A765" activeCellId="0" sqref="A765"/>
+      <selection pane="bottomLeft" activeCell="A1144" activeCellId="0" sqref="A1144"/>
+      <selection pane="bottomRight" activeCell="F1172" activeCellId="0" sqref="F1172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25540,6 +26284,2337 @@
         <v>1673</v>
       </c>
     </row>
+    <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1040" s="0" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1040" s="5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C1040" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1040" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1040" s="5" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1041" s="0" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B1041" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C1041" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1041" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1041" s="5" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1042" s="0" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1042" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C1042" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1042" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1042" s="5" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1043" s="0" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1043" s="5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C1043" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1043" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1043" s="5" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1044" s="0" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1044" s="5" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C1044" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1044" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1044" s="5" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1045" s="0" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1045" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C1045" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1045" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1045" s="5" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1046" s="0" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1046" s="5" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C1046" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1046" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1046" s="5" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1047" s="0" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1047" s="5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C1047" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1047" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1047" s="5" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048" s="0" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1048" s="5" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C1048" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1048" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1048" s="5" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1049" s="0" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B1049" s="5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C1049" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1049" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1049" s="5" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1050" s="0" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B1050" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C1050" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1050" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1050" s="5" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1051" s="0" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1051" s="5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C1051" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1051" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1051" s="5" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1052" s="0" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B1052" s="5" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C1052" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1052" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1052" s="5" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1053" s="0" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1053" s="5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C1053" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1053" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1053" s="5" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1054" s="0" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B1054" s="5" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1054" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1054" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1054" s="5" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1055" s="0" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1055" s="5" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C1055" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1055" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1055" s="5" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1056" s="0" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B1056" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C1056" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1056" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1056" s="5" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1057" s="0" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1057" s="5" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C1057" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1057" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1057" s="5" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1058" s="0" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1058" s="5" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1058" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1058" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1058" s="5" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1059" s="0" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1059" s="5" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C1059" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1059" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1059" s="5" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1060" s="0" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1060" s="5" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C1060" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1060" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1060" s="5" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1061" s="0" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1061" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1061" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1061" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1061" s="5" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1062" s="0" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1062" s="5" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C1062" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1062" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1062" s="5" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1063" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1063" s="5" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C1063" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1063" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1063" s="5" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1064" s="0" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1064" s="5" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C1064" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1064" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1064" s="5" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1065" s="0" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1065" s="5" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1065" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1065" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1065" s="5" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1066" s="0" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1066" s="5" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1066" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1066" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1066" s="5" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1067" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1067" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C1067" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1067" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1067" s="5" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1068" s="0" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1068" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C1068" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1068" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1068" s="5" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1069" s="0" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1069" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1069" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1069" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1069" s="5" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1070" s="0" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1070" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1070" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1070" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1070" s="5" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1071" s="0" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1071" s="5" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C1071" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1071" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1071" s="5" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1072" s="0" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1072" s="5" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1072" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1072" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1072" s="5" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1073" s="0" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1073" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C1073" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1073" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1073" s="5" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1074" s="0" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1074" s="5" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1074" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1074" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1074" s="5" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1075" s="0" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1075" s="5" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C1075" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1075" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1075" s="5" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1076" s="0" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1076" s="5" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1076" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1076" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1076" s="5" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1077" s="0" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1077" s="5" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C1077" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1077" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1077" s="5" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1078" s="0" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1078" s="5" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1078" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1078" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1078" s="5" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1079" s="0" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1079" s="5" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C1079" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1079" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1079" s="5" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1080" s="0" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1080" s="5" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C1080" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1080" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1080" s="5" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1081" s="0" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1081" s="5" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1081" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1081" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1081" s="5" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1082" s="0" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1082" s="5" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C1082" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1082" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1082" s="5" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1083" s="0" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1083" s="5" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C1083" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1083" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1083" s="5" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1084" s="0" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1084" s="5" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1084" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1084" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1084" s="5" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1085" s="0" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1085" s="5" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1085" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1085" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1085" s="5" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1086" s="0" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1086" s="5" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C1086" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1086" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1086" s="5" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1087" s="0" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1087" s="5" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C1087" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1087" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1087" s="5" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1088" s="0" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1088" s="5" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C1088" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1088" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1088" s="5" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1089" s="0" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1089" s="5" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C1089" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1089" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1089" s="5" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1090" s="0" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1090" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1090" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1090" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1090" s="5" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1091" s="0" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1091" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1091" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1091" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1091" s="5" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1092" s="0" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1092" s="5" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1092" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1092" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1092" s="5" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1093" s="0" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1093" s="5" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1093" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1093" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1093" s="5" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1094" s="0" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1094" s="5" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C1094" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1094" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1094" s="5" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1095" s="0" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1095" s="5" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C1095" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1095" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1095" s="5" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1096" s="0" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1096" s="5" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C1096" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1096" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1096" s="5" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1097" s="0" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1097" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1097" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1097" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1097" s="5" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1098" s="0" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1098" s="5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C1098" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1098" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1098" s="5" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1099" s="0" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1099" s="5" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C1099" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1099" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1099" s="5" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1100" s="0" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1100" s="5" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C1100" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1100" s="5" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1101" s="0" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1101" s="5" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C1101" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1101" s="5" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1102" s="0" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1102" s="5" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1102" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1102" s="5" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1103" s="0" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1103" s="5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C1103" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1103" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1103" s="5" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1104" s="0" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1104" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C1104" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1104" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1104" s="5" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1105" s="0" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1105" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C1105" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1105" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1105" s="5" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1106" s="0" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1106" s="5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C1106" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1106" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1106" s="5" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1107" s="0" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1107" s="5" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C1107" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1107" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1107" s="5" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1108" s="0" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1108" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C1108" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1108" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1108" s="5" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1109" s="0" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1109" s="5" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C1109" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1109" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1109" s="5" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1110" s="0" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1110" s="5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C1110" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1110" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1110" s="5" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1111" s="0" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1111" s="5" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C1111" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1111" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1111" s="5" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1112" s="0" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1112" s="5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C1112" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1112" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1112" s="5" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1113" s="0" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1113" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C1113" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1113" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1113" s="5" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1114" s="0" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1114" s="5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C1114" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1114" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1114" s="5" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1115" s="0" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1115" s="5" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C1115" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1115" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1115" s="5" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1116" s="0" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1116" s="5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C1116" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1116" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1116" s="5" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1117" s="0" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1117" s="5" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1117" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1117" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1117" s="5" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1118" s="0" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1118" s="5" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C1118" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1118" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1118" s="5" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1119" s="0" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1119" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C1119" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1119" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1119" s="5" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1120" s="0" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1120" s="5" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C1120" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1120" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1120" s="5" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1121" s="0" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1121" s="5" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1121" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1121" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1121" s="5" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1122" s="0" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1122" s="5" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C1122" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1122" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1122" s="5" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1123" s="0" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1123" s="5" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C1123" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1123" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1123" s="5" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1124" s="0" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1124" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1124" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1124" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1124" s="5" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1125" s="0" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1125" s="5" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C1125" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1125" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1125" s="5" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1126" s="0" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1126" s="5" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C1126" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1126" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1126" s="5" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1127" s="0" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1127" s="5" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C1127" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1127" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1127" s="5" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1128" s="0" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B1128" s="5" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1128" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1128" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1128" s="5" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1129" s="0" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1129" s="5" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1129" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1129" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1129" s="5" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1130" s="0" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1130" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C1130" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1130" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1130" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1130" s="5" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1131" s="0" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1131" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C1131" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1131" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1131" s="5" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1132" s="0" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1132" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1132" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1132" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1132" s="5" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1133" s="0" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1133" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1133" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1133" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1133" s="5" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1134" s="0" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1134" s="5" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C1134" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1134" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1134" s="5" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1135" s="0" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1135" s="5" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1135" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1135" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1135" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1135" s="5" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1136" s="0" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1136" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C1136" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1136" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1136" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1136" s="5" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1137" s="0" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1137" s="5" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1137" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1137" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1137" s="5" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1138" s="0" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B1138" s="5" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C1138" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1138" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1138" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1138" s="5" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1139" s="0" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1139" s="5" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1139" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1139" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1139" s="5" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1140" s="0" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1140" s="5" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C1140" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1140" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1140" s="5" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1141" s="0" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1141" s="5" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1141" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1141" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1141" s="5" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1142" s="0" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1142" s="5" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C1142" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1142" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1142" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1142" s="5" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1143" s="0" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1143" s="5" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C1143" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1143" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1143" s="5" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1144" s="0" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1144" s="5" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1144" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1144" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1144" s="5" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1145" s="0" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1145" s="5" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C1145" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1145" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1145" s="5" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1146" s="0" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1146" s="5" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C1146" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1146" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1146" s="5" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1147" s="0" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1147" s="5" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1147" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1147" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1147" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1147" s="5" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1148" s="0" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1148" s="5" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1148" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1148" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1148" s="5" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1149" s="0" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1149" s="5" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C1149" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1149" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1149" s="5" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1150" s="0" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1150" s="5" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C1150" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1150" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1150" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1150" s="5" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1151" s="0" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1151" s="5" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C1151" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1151" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1151" s="5" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1152" s="0" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1152" s="5" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C1152" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1152" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1152" s="5" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1153" s="0" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B1153" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1153" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1153" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1153" s="5" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1154" s="0" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B1154" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1154" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1154" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1154" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1154" s="5" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1155" s="0" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1155" s="5" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1155" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1155" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1155" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1155" s="5" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1156" s="0" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B1156" s="5" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1156" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1156" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1156" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1156" s="5" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1157" s="0" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1157" s="5" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C1157" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1157" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1157" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1157" s="5" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1158" s="0" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1158" s="5" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C1158" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1158" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1158" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1158" s="5" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1159" s="0" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1159" s="5" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C1159" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1159" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1159" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1159" s="5" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1160" s="0" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B1160" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1160" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1160" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1160" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1160" s="5" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1161" s="0" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B1161" s="5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C1161" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1161" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1161" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1161" s="5" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1162" s="0" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1162" s="5" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C1162" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1162" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1162" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1162" s="5" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1163" s="0" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B1163" s="5" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C1163" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1163" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1163" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1163" s="5" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1164" s="0" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1164" s="5" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C1164" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1164" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1164" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1164" s="5" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1165" s="0" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1165" s="5" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1165" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1165" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1165" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1165" s="5" t="s">
+        <v>1862</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="1922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3704" uniqueCount="1924">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -2868,6 +2868,9 @@
     <t xml:space="preserve">Iran (Islamic Republic of)</t>
   </si>
   <si>
+    <t xml:space="preserve">Iran (I.R.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iran Repubblica islamica dell'</t>
   </si>
   <si>
@@ -2974,6 +2977,9 @@
   </si>
   <si>
     <t xml:space="preserve">Democratic People's Republic of Korea (North)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.P.R. Korea</t>
   </si>
   <si>
     <t xml:space="preserve">Korea (DPR)</t>
@@ -5928,7 +5934,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="C19" activeCellId="1" sqref="B393 C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15210,7 +15216,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="B393 A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15472,14 +15478,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1165"/>
+  <dimension ref="A1:J1167"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B372" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A1144" activeCellId="0" sqref="A1144"/>
-      <selection pane="bottomRight" activeCell="F1172" activeCellId="0" sqref="F1172"/>
+      <selection pane="bottomLeft" activeCell="A372" activeCellId="0" sqref="A372"/>
+      <selection pane="bottomRight" activeCell="B393" activeCellId="0" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19365,7 +19371,7 @@
         <v>949</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19375,16 +19381,16 @@
       <c r="B395" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="E395" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
         <v>951</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="E396" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19402,9 +19408,6 @@
       <c r="B398" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="E398" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
@@ -19413,16 +19416,16 @@
       <c r="B399" s="0" t="s">
         <v>149</v>
       </c>
+      <c r="E399" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
         <v>955</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C400" s="0" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19430,10 +19433,10 @@
         <v>956</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="E401" s="0" t="s">
-        <v>548</v>
+        <v>147</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19443,13 +19446,16 @@
       <c r="B402" s="0" t="s">
         <v>153</v>
       </c>
+      <c r="E402" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
         <v>958</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19459,9 +19465,6 @@
       <c r="B404" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="E404" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
@@ -19470,13 +19473,16 @@
       <c r="B405" s="0" t="s">
         <v>154</v>
       </c>
+      <c r="E405" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
         <v>961</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19484,10 +19490,7 @@
         <v>962</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E407" s="0" t="s">
-        <v>548</v>
+        <v>155</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19497,16 +19500,16 @@
       <c r="B408" s="0" t="s">
         <v>158</v>
       </c>
+      <c r="E408" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
         <v>964</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C409" s="0" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19514,7 +19517,10 @@
         <v>965</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19524,27 +19530,27 @@
       <c r="B411" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E411" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="5" t="s">
+      <c r="A412" s="0" t="s">
         <v>967</v>
       </c>
       <c r="B412" s="0" t="s">
         <v>157</v>
       </c>
       <c r="E412" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E413" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="B413" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19554,27 +19560,27 @@
       <c r="B414" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="E414" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="5" t="s">
+      <c r="A415" s="0" t="s">
         <v>970</v>
       </c>
       <c r="B415" s="0" t="s">
         <v>159</v>
       </c>
       <c r="E415" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E416" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="0" t="s">
-        <v>971</v>
-      </c>
-      <c r="B416" s="0" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19582,7 +19588,7 @@
         <v>972</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19590,7 +19596,7 @@
         <v>973</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19598,7 +19604,7 @@
         <v>974</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19688,16 +19694,13 @@
       <c r="B430" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="E430" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
         <v>986</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19705,7 +19708,10 @@
         <v>987</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>165</v>
+        <v>229</v>
+      </c>
+      <c r="E432" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19717,14 +19723,11 @@
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="5" t="s">
+      <c r="A434" s="0" t="s">
         <v>989</v>
       </c>
       <c r="B434" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="E434" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19736,11 +19739,14 @@
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="0" t="s">
+      <c r="A436" s="5" t="s">
         <v>991</v>
       </c>
       <c r="B436" s="0" t="s">
         <v>165</v>
+      </c>
+      <c r="E436" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19806,9 +19812,6 @@
       <c r="B444" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E444" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
@@ -19825,6 +19828,9 @@
       <c r="B446" s="0" t="s">
         <v>165</v>
       </c>
+      <c r="E446" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
@@ -19839,7 +19845,7 @@
         <v>1003</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19847,7 +19853,7 @@
         <v>1004</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19855,7 +19861,7 @@
         <v>1005</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19865,9 +19871,6 @@
       <c r="B451" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E451" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
@@ -19884,13 +19887,16 @@
       <c r="B453" s="0" t="s">
         <v>161</v>
       </c>
+      <c r="E453" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
         <v>1009</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19898,7 +19904,7 @@
         <v>1010</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19914,7 +19920,7 @@
         <v>1012</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19922,21 +19928,15 @@
         <v>1013</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E458" s="0" t="s">
-        <v>675</v>
+        <v>168</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="5" t="s">
+      <c r="A459" s="0" t="s">
         <v>1014</v>
       </c>
       <c r="B459" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="E459" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19947,15 +19947,18 @@
         <v>178</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>548</v>
+        <v>675</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="0" t="s">
+      <c r="A461" s="5" t="s">
         <v>1016</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
+      </c>
+      <c r="E461" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19963,7 +19966,10 @@
         <v>1017</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
+      </c>
+      <c r="E462" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19973,16 +19979,13 @@
       <c r="B463" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="E463" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
         <v>1019</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19990,7 +19993,10 @@
         <v>1020</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="E465" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19998,7 +20004,7 @@
         <v>1021</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20006,7 +20012,7 @@
         <v>1022</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20016,9 +20022,6 @@
       <c r="B468" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="E468" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
@@ -20033,7 +20036,10 @@
         <v>1025</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="E470" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20041,7 +20047,7 @@
         <v>1026</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20049,7 +20055,7 @@
         <v>1027</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20059,16 +20065,13 @@
       <c r="B473" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="E473" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
         <v>1029</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20076,21 +20079,18 @@
         <v>1030</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>675</v>
+        <v>548</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="5" t="s">
+      <c r="A476" s="0" t="s">
         <v>1031</v>
       </c>
       <c r="B476" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="E476" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20098,21 +20098,21 @@
         <v>1032</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C477" s="0" t="s">
-        <v>81</v>
+        <v>177</v>
+      </c>
+      <c r="E477" s="0" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="0" t="s">
+      <c r="A478" s="5" t="s">
         <v>1033</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C478" s="0" t="s">
-        <v>81</v>
+        <v>177</v>
+      </c>
+      <c r="E478" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20142,7 +20142,10 @@
         <v>1036</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="C481" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20150,7 +20153,10 @@
         <v>1037</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="C482" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20168,9 +20174,6 @@
       <c r="B484" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E484" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
@@ -20187,6 +20190,9 @@
       <c r="B486" s="0" t="s">
         <v>191</v>
       </c>
+      <c r="E486" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
@@ -20219,19 +20225,13 @@
       <c r="B490" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E490" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="5" t="s">
+      <c r="A491" s="0" t="s">
         <v>1046</v>
       </c>
       <c r="B491" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="E491" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20241,13 +20241,19 @@
       <c r="B492" s="0" t="s">
         <v>191</v>
       </c>
+      <c r="E492" s="0" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="0" t="s">
+      <c r="A493" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="B493" s="0" t="s">
         <v>191</v>
+      </c>
+      <c r="E493" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20263,7 +20269,7 @@
         <v>1050</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20271,7 +20277,7 @@
         <v>1051</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20279,7 +20285,7 @@
         <v>1052</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20287,7 +20293,7 @@
         <v>1053</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20295,7 +20301,7 @@
         <v>1054</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20303,7 +20309,7 @@
         <v>1055</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20311,7 +20317,7 @@
         <v>1056</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20319,7 +20325,7 @@
         <v>1057</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20327,7 +20333,7 @@
         <v>1058</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20335,7 +20341,7 @@
         <v>1059</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20343,10 +20349,7 @@
         <v>1060</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="C505" s="5" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20354,18 +20357,15 @@
         <v>1061</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="C506" s="5" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>1062</v>
+        <v>201</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>118</v>
@@ -20376,15 +20376,21 @@
         <v>1063</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B509" s="0" t="s">
         <v>1064</v>
       </c>
-      <c r="B509" s="0" t="s">
-        <v>202</v>
+      <c r="C509" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20392,7 +20398,7 @@
         <v>1065</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20400,7 +20406,7 @@
         <v>1066</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20408,7 +20414,7 @@
         <v>1067</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20416,13 +20422,7 @@
         <v>1068</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C513" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="F513" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20430,13 +20430,7 @@
         <v>1069</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="C514" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="F514" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20444,7 +20438,7 @@
         <v>1070</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C515" s="0" t="s">
         <v>187</v>
@@ -20458,7 +20452,7 @@
         <v>1071</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C516" s="0" t="s">
         <v>187</v>
@@ -20472,7 +20466,7 @@
         <v>1072</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C517" s="0" t="s">
         <v>187</v>
@@ -20486,7 +20480,7 @@
         <v>1073</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C518" s="0" t="s">
         <v>187</v>
@@ -20500,7 +20494,7 @@
         <v>1074</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C519" s="0" t="s">
         <v>187</v>
@@ -20514,7 +20508,7 @@
         <v>1075</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C520" s="0" t="s">
         <v>187</v>
@@ -20528,7 +20522,7 @@
         <v>1076</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>1077</v>
+        <v>355</v>
       </c>
       <c r="C521" s="0" t="s">
         <v>187</v>
@@ -20539,10 +20533,10 @@
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>644</v>
+        <v>1077</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>1077</v>
+        <v>356</v>
       </c>
       <c r="C522" s="0" t="s">
         <v>187</v>
@@ -20556,7 +20550,7 @@
         <v>1078</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>357</v>
+        <v>1079</v>
       </c>
       <c r="C523" s="0" t="s">
         <v>187</v>
@@ -20567,10 +20561,10 @@
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B524" s="0" t="s">
         <v>1079</v>
-      </c>
-      <c r="B524" s="0" t="s">
-        <v>358</v>
       </c>
       <c r="C524" s="0" t="s">
         <v>187</v>
@@ -20584,7 +20578,7 @@
         <v>1080</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C525" s="0" t="s">
         <v>187</v>
@@ -20598,7 +20592,7 @@
         <v>1081</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C526" s="0" t="s">
         <v>187</v>
@@ -20612,7 +20606,7 @@
         <v>1082</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C527" s="0" t="s">
         <v>187</v>
@@ -20626,7 +20620,7 @@
         <v>1083</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C528" s="0" t="s">
         <v>187</v>
@@ -20640,7 +20634,7 @@
         <v>1084</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C529" s="0" t="s">
         <v>187</v>
@@ -20654,7 +20648,7 @@
         <v>1085</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C530" s="0" t="s">
         <v>187</v>
@@ -20668,7 +20662,7 @@
         <v>1086</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C531" s="0" t="s">
         <v>187</v>
@@ -20682,7 +20676,7 @@
         <v>1087</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C532" s="0" t="s">
         <v>187</v>
@@ -20696,7 +20690,7 @@
         <v>1088</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C533" s="0" t="s">
         <v>187</v>
@@ -20710,7 +20704,7 @@
         <v>1089</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C534" s="0" t="s">
         <v>187</v>
@@ -20724,7 +20718,7 @@
         <v>1090</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C535" s="0" t="s">
         <v>187</v>
@@ -20738,7 +20732,7 @@
         <v>1091</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C536" s="0" t="s">
         <v>187</v>
@@ -20752,7 +20746,7 @@
         <v>1092</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C537" s="0" t="s">
         <v>187</v>
@@ -20766,7 +20760,7 @@
         <v>1093</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C538" s="0" t="s">
         <v>187</v>
@@ -20780,7 +20774,7 @@
         <v>1094</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C539" s="0" t="s">
         <v>187</v>
@@ -20794,7 +20788,7 @@
         <v>1095</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C540" s="0" t="s">
         <v>187</v>
@@ -20808,7 +20802,7 @@
         <v>1096</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C541" s="0" t="s">
         <v>187</v>
@@ -20822,7 +20816,7 @@
         <v>1097</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C542" s="0" t="s">
         <v>187</v>
@@ -20836,7 +20830,7 @@
         <v>1098</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C543" s="0" t="s">
         <v>187</v>
@@ -20850,7 +20844,7 @@
         <v>1099</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C544" s="0" t="s">
         <v>187</v>
@@ -20864,7 +20858,7 @@
         <v>1100</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C545" s="0" t="s">
         <v>187</v>
@@ -20878,7 +20872,7 @@
         <v>1101</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C546" s="0" t="s">
         <v>187</v>
@@ -20892,7 +20886,7 @@
         <v>1102</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C547" s="0" t="s">
         <v>187</v>
@@ -20906,7 +20900,7 @@
         <v>1103</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C548" s="0" t="s">
         <v>187</v>
@@ -20920,7 +20914,7 @@
         <v>1104</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C549" s="0" t="s">
         <v>187</v>
@@ -20934,7 +20928,13 @@
         <v>1105</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>120</v>
+        <v>378</v>
+      </c>
+      <c r="C550" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F550" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20942,7 +20942,13 @@
         <v>1106</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>120</v>
+        <v>379</v>
+      </c>
+      <c r="C551" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F551" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20968,9 +20974,6 @@
       <c r="B554" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="E554" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
@@ -20987,41 +20990,41 @@
       <c r="B556" s="0" t="s">
         <v>120</v>
       </c>
+      <c r="E556" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
         <v>1112</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="G557" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H557" s="0" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I557" s="0" t="s">
-        <v>1114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B558" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B559" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G559" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H559" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="B558" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E558" s="0" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="5" t="s">
+      <c r="I559" s="0" t="s">
         <v>1116</v>
-      </c>
-      <c r="B559" s="0" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21031,9 +21034,12 @@
       <c r="B560" s="0" t="s">
         <v>184</v>
       </c>
+      <c r="E560" s="0" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="0" t="s">
+      <c r="A561" s="5" t="s">
         <v>1118</v>
       </c>
       <c r="B561" s="0" t="s">
@@ -21053,7 +21059,7 @@
         <v>1120</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21061,7 +21067,7 @@
         <v>1121</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21069,10 +21075,7 @@
         <v>1122</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="E565" s="0" t="s">
-        <v>548</v>
+        <v>183</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21080,7 +21083,7 @@
         <v>1123</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21088,7 +21091,10 @@
         <v>1124</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="E567" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21096,7 +21102,7 @@
         <v>1125</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21104,7 +21110,7 @@
         <v>1126</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21130,9 +21136,6 @@
       <c r="B572" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E572" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
@@ -21141,16 +21144,16 @@
       <c r="B573" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E573" s="0" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
         <v>1131</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>198</v>
+        <v>181</v>
+      </c>
+      <c r="E574" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21158,7 +21161,10 @@
         <v>1132</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>198</v>
+        <v>181</v>
+      </c>
+      <c r="E575" s="0" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21166,7 +21172,7 @@
         <v>1133</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21174,7 +21180,7 @@
         <v>1134</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21190,7 +21196,7 @@
         <v>1136</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21198,7 +21204,7 @@
         <v>1137</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21206,7 +21212,7 @@
         <v>1138</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21214,7 +21220,7 @@
         <v>1139</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21222,7 +21228,7 @@
         <v>1140</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21234,14 +21240,11 @@
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="5" t="s">
+      <c r="A585" s="0" t="s">
         <v>1142</v>
       </c>
       <c r="B585" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="E585" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21253,11 +21256,14 @@
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="0" t="s">
+      <c r="A587" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B587" s="0" t="s">
         <v>213</v>
+      </c>
+      <c r="E587" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21267,19 +21273,13 @@
       <c r="B588" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E588" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
         <v>1146</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D589" s="0" t="n">
-        <v>1</v>
+        <v>213</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21287,10 +21287,10 @@
         <v>1147</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D590" s="0" t="n">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="E590" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21309,10 +21309,10 @@
         <v>1149</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C592" s="0" t="s">
-        <v>118</v>
+        <v>41</v>
+      </c>
+      <c r="D592" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21320,7 +21320,10 @@
         <v>1150</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>218</v>
+        <v>41</v>
+      </c>
+      <c r="D593" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21328,7 +21331,10 @@
         <v>1151</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>218</v>
+        <v>207</v>
+      </c>
+      <c r="C594" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21336,7 +21342,7 @@
         <v>1152</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21344,7 +21350,7 @@
         <v>1153</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21352,7 +21358,7 @@
         <v>1154</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21360,7 +21366,7 @@
         <v>1155</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21368,7 +21374,7 @@
         <v>1156</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>312</v>
+        <v>209</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21376,7 +21382,7 @@
         <v>1157</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21384,7 +21390,7 @@
         <v>1158</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21392,21 +21398,15 @@
         <v>1159</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E602" s="0" t="s">
-        <v>675</v>
+        <v>197</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="5" t="s">
+      <c r="A603" s="0" t="s">
         <v>1160</v>
       </c>
       <c r="B603" s="0" t="s">
         <v>214</v>
-      </c>
-      <c r="E603" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21417,15 +21417,18 @@
         <v>214</v>
       </c>
       <c r="E604" s="0" t="s">
-        <v>548</v>
+        <v>675</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="0" t="s">
+      <c r="A605" s="5" t="s">
         <v>1162</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
+      </c>
+      <c r="E605" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21433,7 +21436,10 @@
         <v>1163</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>220</v>
+        <v>214</v>
+      </c>
+      <c r="E606" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21441,7 +21447,7 @@
         <v>1164</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21449,7 +21455,7 @@
         <v>1165</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21457,7 +21463,7 @@
         <v>1166</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21499,9 +21505,6 @@
       <c r="B614" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E614" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
@@ -21518,30 +21521,27 @@
       <c r="B616" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="I616" s="0" t="s">
-        <v>1174</v>
+      <c r="E616" s="0" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B617" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E617" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B618" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E618" s="0" t="s">
-        <v>556</v>
+      <c r="I618" s="0" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21549,7 +21549,10 @@
         <v>1177</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>122</v>
+        <v>232</v>
+      </c>
+      <c r="E619" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21557,7 +21560,10 @@
         <v>1178</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>298</v>
+        <v>232</v>
+      </c>
+      <c r="E620" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21565,7 +21571,7 @@
         <v>1179</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21573,7 +21579,7 @@
         <v>1180</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21581,7 +21587,7 @@
         <v>1181</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21589,7 +21595,7 @@
         <v>1182</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21597,7 +21603,7 @@
         <v>1183</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21605,18 +21611,15 @@
         <v>1184</v>
       </c>
       <c r="B626" s="0" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="5" t="s">
+      <c r="A627" s="0" t="s">
         <v>1185</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="E627" s="0" t="s">
-        <v>556</v>
+        <v>223</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21628,11 +21631,14 @@
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="0" t="s">
+      <c r="A629" s="5" t="s">
         <v>1187</v>
       </c>
       <c r="B629" s="0" t="s">
         <v>224</v>
+      </c>
+      <c r="E629" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21658,16 +21664,13 @@
       <c r="B632" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E632" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
         <v>1191</v>
       </c>
       <c r="B633" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21675,7 +21678,10 @@
         <v>1192</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="E634" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21683,7 +21689,7 @@
         <v>1193</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21691,7 +21697,7 @@
         <v>1194</v>
       </c>
       <c r="B636" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21701,16 +21707,13 @@
       <c r="B637" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E637" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
         <v>1196</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21718,7 +21721,10 @@
         <v>1197</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="E639" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21726,27 +21732,15 @@
         <v>1198</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C640" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G640" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H640" s="0" t="s">
-        <v>1199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C641" s="0" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21754,15 +21748,27 @@
         <v>1200</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+      <c r="C642" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G642" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H642" s="0" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B643" s="0" t="s">
         <v>1201</v>
       </c>
-      <c r="B643" s="0" t="s">
-        <v>235</v>
+      <c r="C643" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21770,7 +21776,7 @@
         <v>1202</v>
       </c>
       <c r="B644" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21778,7 +21784,7 @@
         <v>1203</v>
       </c>
       <c r="B645" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21786,7 +21792,7 @@
         <v>1204</v>
       </c>
       <c r="B646" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21796,19 +21802,13 @@
       <c r="B647" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="E647" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="5" t="s">
+      <c r="A648" s="0" t="s">
         <v>1206</v>
       </c>
       <c r="B648" s="0" t="s">
         <v>236</v>
-      </c>
-      <c r="E648" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21816,18 +21816,21 @@
         <v>1207</v>
       </c>
       <c r="B649" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="E649" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="0" t="s">
+      <c r="A650" s="5" t="s">
         <v>1208</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E650" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21845,16 +21848,16 @@
       <c r="B652" s="0" t="s">
         <v>237</v>
       </c>
+      <c r="E652" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="5" t="s">
+      <c r="A653" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="B653" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="E653" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21866,11 +21869,14 @@
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="0" t="s">
+      <c r="A655" s="5" t="s">
         <v>1213</v>
       </c>
       <c r="B655" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="E655" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21878,7 +21884,7 @@
         <v>1214</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21886,10 +21892,7 @@
         <v>1215</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C657" s="0" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21897,10 +21900,7 @@
         <v>1216</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C658" s="0" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21908,7 +21908,10 @@
         <v>1217</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>246</v>
+        <v>460</v>
+      </c>
+      <c r="C659" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21916,7 +21919,10 @@
         <v>1218</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>246</v>
+        <v>460</v>
+      </c>
+      <c r="C660" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21924,7 +21930,7 @@
         <v>1219</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>457</v>
+        <v>246</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21932,7 +21938,7 @@
         <v>1220</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>463</v>
+        <v>246</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21940,7 +21946,7 @@
         <v>1221</v>
       </c>
       <c r="B663" s="0" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21948,7 +21954,7 @@
         <v>1222</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21956,7 +21962,7 @@
         <v>1223</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>164</v>
+        <v>463</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21964,7 +21970,7 @@
         <v>1224</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21988,7 +21994,7 @@
         <v>1227</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21996,7 +22002,7 @@
         <v>1228</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22004,10 +22010,7 @@
         <v>1229</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C671" s="0" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22015,10 +22018,7 @@
         <v>1230</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C672" s="0" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22026,7 +22026,10 @@
         <v>1231</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>253</v>
+        <v>180</v>
+      </c>
+      <c r="C673" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22034,7 +22037,10 @@
         <v>1232</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>253</v>
+        <v>180</v>
+      </c>
+      <c r="C674" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22042,7 +22048,7 @@
         <v>1233</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22050,7 +22056,7 @@
         <v>1234</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22098,7 +22104,7 @@
         <v>1240</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22106,7 +22112,7 @@
         <v>1241</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22122,33 +22128,15 @@
         <v>1243</v>
       </c>
       <c r="B685" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C685" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G685" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H685" s="0" t="s">
-        <v>1244</v>
+        <v>301</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B686" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C686" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G686" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H686" s="0" t="s">
-        <v>1244</v>
+        <v>301</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22156,15 +22144,33 @@
         <v>1245</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>1244</v>
+        <v>46</v>
+      </c>
+      <c r="C687" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G687" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H687" s="0" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B688" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C688" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G688" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H688" s="0" t="s">
         <v>1246</v>
-      </c>
-      <c r="B688" s="0" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22172,7 +22178,7 @@
         <v>1247</v>
       </c>
       <c r="B689" s="0" t="s">
-        <v>258</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22180,7 +22186,7 @@
         <v>1248</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22204,7 +22210,7 @@
         <v>1251</v>
       </c>
       <c r="B693" s="0" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22212,7 +22218,7 @@
         <v>1252</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22228,7 +22234,7 @@
         <v>1254</v>
       </c>
       <c r="B696" s="0" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22236,7 +22242,7 @@
         <v>1255</v>
       </c>
       <c r="B697" s="0" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22244,10 +22250,7 @@
         <v>1256</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="E698" s="0" t="s">
-        <v>548</v>
+        <v>243</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22255,7 +22258,7 @@
         <v>1257</v>
       </c>
       <c r="B699" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22263,7 +22266,10 @@
         <v>1258</v>
       </c>
       <c r="B700" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="E700" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22281,12 +22287,9 @@
       <c r="B702" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="E702" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="5" t="s">
+      <c r="A703" s="0" t="s">
         <v>1261</v>
       </c>
       <c r="B703" s="0" t="s">
@@ -22300,9 +22303,12 @@
       <c r="B704" s="0" t="s">
         <v>255</v>
       </c>
+      <c r="E704" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="0" t="s">
+      <c r="A705" s="5" t="s">
         <v>1263</v>
       </c>
       <c r="B705" s="0" t="s">
@@ -22322,7 +22328,7 @@
         <v>1265</v>
       </c>
       <c r="B707" s="0" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22330,7 +22336,7 @@
         <v>1266</v>
       </c>
       <c r="B708" s="0" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22338,7 +22344,7 @@
         <v>1267</v>
       </c>
       <c r="B709" s="0" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22346,7 +22352,7 @@
         <v>1268</v>
       </c>
       <c r="B710" s="0" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22354,7 +22360,7 @@
         <v>1269</v>
       </c>
       <c r="B711" s="0" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22362,7 +22368,7 @@
         <v>1270</v>
       </c>
       <c r="B712" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22370,10 +22376,7 @@
         <v>1271</v>
       </c>
       <c r="B713" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C713" s="0" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22381,10 +22384,7 @@
         <v>1272</v>
       </c>
       <c r="B714" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C714" s="0" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22392,7 +22392,10 @@
         <v>1273</v>
       </c>
       <c r="B715" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
+      </c>
+      <c r="C715" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22400,7 +22403,10 @@
         <v>1274</v>
       </c>
       <c r="B716" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
+      </c>
+      <c r="C716" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22418,9 +22424,6 @@
       <c r="B718" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E718" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
@@ -22431,14 +22434,14 @@
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="5" t="s">
+      <c r="A720" s="0" t="s">
         <v>1278</v>
       </c>
       <c r="B720" s="0" t="s">
         <v>261</v>
       </c>
       <c r="E720" s="0" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22446,29 +22449,26 @@
         <v>1279</v>
       </c>
       <c r="B721" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="0" t="s">
+      <c r="A722" s="5" t="s">
         <v>1280</v>
       </c>
       <c r="B722" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E722" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="5" t="s">
+      <c r="A723" s="0" t="s">
         <v>1281</v>
       </c>
       <c r="B723" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="E723" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22476,15 +22476,21 @@
         <v>1282</v>
       </c>
       <c r="B724" s="0" t="s">
-        <v>247</v>
+        <v>262</v>
+      </c>
+      <c r="E724" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="0" t="s">
+      <c r="A725" s="5" t="s">
         <v>1283</v>
       </c>
       <c r="B725" s="0" t="s">
-        <v>247</v>
+        <v>262</v>
+      </c>
+      <c r="E725" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22492,7 +22498,7 @@
         <v>1284</v>
       </c>
       <c r="B726" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22500,7 +22506,7 @@
         <v>1285</v>
       </c>
       <c r="B727" s="0" t="s">
-        <v>462</v>
+        <v>247</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22508,18 +22514,15 @@
         <v>1286</v>
       </c>
       <c r="B728" s="0" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="5" t="s">
+      <c r="A729" s="0" t="s">
         <v>1287</v>
       </c>
       <c r="B729" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="E729" s="0" t="s">
-        <v>556</v>
+        <v>462</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22531,14 +22534,14 @@
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="0" t="s">
+      <c r="A731" s="5" t="s">
         <v>1289</v>
       </c>
       <c r="B731" s="0" t="s">
         <v>305</v>
       </c>
       <c r="E731" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22556,6 +22559,9 @@
       <c r="B733" s="0" t="s">
         <v>305</v>
       </c>
+      <c r="E733" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
@@ -22570,7 +22576,7 @@
         <v>1293</v>
       </c>
       <c r="B735" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22578,7 +22584,7 @@
         <v>1294</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>464</v>
+        <v>305</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22586,7 +22592,7 @@
         <v>1295</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22594,7 +22600,7 @@
         <v>1296</v>
       </c>
       <c r="B738" s="0" t="s">
-        <v>111</v>
+        <v>464</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22602,7 +22608,7 @@
         <v>1297</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22620,16 +22626,13 @@
       <c r="B741" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E741" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
         <v>1300</v>
       </c>
       <c r="B742" s="0" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22637,7 +22640,10 @@
         <v>1301</v>
       </c>
       <c r="B743" s="0" t="s">
-        <v>174</v>
+        <v>111</v>
+      </c>
+      <c r="E743" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22645,7 +22651,7 @@
         <v>1302</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22653,7 +22659,7 @@
         <v>1303</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22661,23 +22667,23 @@
         <v>1304</v>
       </c>
       <c r="B746" s="0" t="s">
-        <v>1305</v>
+        <v>242</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B747" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B748" s="0" t="s">
         <v>1307</v>
-      </c>
-      <c r="B748" s="0" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22685,10 +22691,7 @@
         <v>1308</v>
       </c>
       <c r="B749" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="E749" s="0" t="s">
-        <v>675</v>
+        <v>264</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22698,19 +22701,16 @@
       <c r="B750" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E750" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="5" t="s">
+      <c r="A751" s="0" t="s">
         <v>1310</v>
       </c>
       <c r="B751" s="0" t="s">
         <v>263</v>
       </c>
       <c r="E751" s="0" t="s">
-        <v>556</v>
+        <v>675</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22718,15 +22718,21 @@
         <v>1311</v>
       </c>
       <c r="B752" s="0" t="s">
-        <v>77</v>
+        <v>263</v>
+      </c>
+      <c r="E752" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="0" t="s">
+      <c r="A753" s="5" t="s">
         <v>1312</v>
       </c>
       <c r="B753" s="0" t="s">
-        <v>77</v>
+        <v>263</v>
+      </c>
+      <c r="E753" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22744,7 +22750,6 @@
       <c r="B755" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E755" s="7"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
@@ -22759,20 +22764,15 @@
         <v>1316</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C757" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="E757" s="7"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
         <v>1317</v>
       </c>
       <c r="B758" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C758" s="0" t="s">
         <v>77</v>
       </c>
     </row>
@@ -22781,7 +22781,10 @@
         <v>1318</v>
       </c>
       <c r="B759" s="0" t="s">
-        <v>267</v>
+        <v>79</v>
+      </c>
+      <c r="C759" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22789,7 +22792,10 @@
         <v>1319</v>
       </c>
       <c r="B760" s="0" t="s">
-        <v>267</v>
+        <v>78</v>
+      </c>
+      <c r="C760" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22799,9 +22805,6 @@
       <c r="B761" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="E761" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
@@ -22816,7 +22819,10 @@
         <v>1322</v>
       </c>
       <c r="B763" s="0" t="s">
-        <v>284</v>
+        <v>267</v>
+      </c>
+      <c r="E763" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22824,7 +22830,7 @@
         <v>1323</v>
       </c>
       <c r="B764" s="0" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22880,7 +22886,7 @@
         <v>1330</v>
       </c>
       <c r="B771" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22888,7 +22894,7 @@
         <v>1331</v>
       </c>
       <c r="B772" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22896,7 +22902,7 @@
         <v>1332</v>
       </c>
       <c r="B773" s="0" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22920,7 +22926,7 @@
         <v>1335</v>
       </c>
       <c r="B776" s="0" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22928,7 +22934,7 @@
         <v>1336</v>
       </c>
       <c r="B777" s="0" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22936,7 +22942,7 @@
         <v>1337</v>
       </c>
       <c r="B778" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22944,7 +22950,7 @@
         <v>1338</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22952,7 +22958,7 @@
         <v>1339</v>
       </c>
       <c r="B780" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22960,7 +22966,7 @@
         <v>1340</v>
       </c>
       <c r="B781" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22968,7 +22974,7 @@
         <v>1341</v>
       </c>
       <c r="B782" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22976,7 +22982,7 @@
         <v>1342</v>
       </c>
       <c r="B783" s="0" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22984,7 +22990,7 @@
         <v>1343</v>
       </c>
       <c r="B784" s="0" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22992,10 +22998,7 @@
         <v>1344</v>
       </c>
       <c r="B785" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="E785" s="0" t="s">
-        <v>548</v>
+        <v>279</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23013,13 +23016,16 @@
       <c r="B787" s="0" t="s">
         <v>280</v>
       </c>
+      <c r="E787" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
         <v>1347</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23027,10 +23033,7 @@
         <v>1348</v>
       </c>
       <c r="B789" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="E789" s="0" t="s">
-        <v>548</v>
+        <v>280</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23040,27 +23043,27 @@
       <c r="B790" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="E790" s="0" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
         <v>1350</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="E791" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="5" t="s">
+      <c r="A792" s="0" t="s">
         <v>1351</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E792" s="0" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23072,14 +23075,14 @@
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="0" t="s">
+      <c r="A794" s="5" t="s">
         <v>1353</v>
       </c>
       <c r="B794" s="0" t="s">
         <v>282</v>
       </c>
       <c r="E794" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23089,9 +23092,6 @@
       <c r="B795" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E795" s="0" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
@@ -23100,16 +23100,19 @@
       <c r="B796" s="0" t="s">
         <v>282</v>
       </c>
+      <c r="E796" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="0" t="s">
         <v>1356</v>
       </c>
       <c r="B797" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C797" s="0" t="s">
         <v>282</v>
+      </c>
+      <c r="E797" s="0" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23117,9 +23120,6 @@
         <v>1357</v>
       </c>
       <c r="B798" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C798" s="0" t="s">
         <v>282</v>
       </c>
     </row>
@@ -23128,7 +23128,10 @@
         <v>1358</v>
       </c>
       <c r="B799" s="0" t="s">
-        <v>276</v>
+        <v>315</v>
+      </c>
+      <c r="C799" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23136,7 +23139,10 @@
         <v>1359</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>269</v>
+        <v>315</v>
+      </c>
+      <c r="C800" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23144,7 +23150,7 @@
         <v>1360</v>
       </c>
       <c r="B801" s="0" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23152,7 +23158,7 @@
         <v>1361</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23160,7 +23166,7 @@
         <v>1362</v>
       </c>
       <c r="B803" s="0" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23168,7 +23174,7 @@
         <v>1363</v>
       </c>
       <c r="B804" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23184,7 +23190,7 @@
         <v>1365</v>
       </c>
       <c r="B806" s="0" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23192,7 +23198,7 @@
         <v>1366</v>
       </c>
       <c r="B807" s="0" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23218,16 +23224,13 @@
       <c r="B810" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E810" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
         <v>1370</v>
       </c>
       <c r="B811" s="0" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23235,7 +23238,10 @@
         <v>1371</v>
       </c>
       <c r="B812" s="0" t="s">
-        <v>123</v>
+        <v>42</v>
+      </c>
+      <c r="E812" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23245,9 +23251,6 @@
       <c r="B813" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E813" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="s">
@@ -23256,9 +23259,6 @@
       <c r="B814" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E814" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
@@ -23267,6 +23267,9 @@
       <c r="B815" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="E815" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
@@ -23275,6 +23278,9 @@
       <c r="B816" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="E816" s="0" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
@@ -23285,14 +23291,11 @@
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="5" t="s">
+      <c r="A818" s="0" t="s">
         <v>1377</v>
       </c>
       <c r="B818" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="E818" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23304,14 +23307,14 @@
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="0" t="s">
+      <c r="A820" s="5" t="s">
         <v>1379</v>
       </c>
       <c r="B820" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C820" s="0" t="s">
         <v>123</v>
+      </c>
+      <c r="E820" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23319,9 +23322,6 @@
         <v>1380</v>
       </c>
       <c r="B821" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C821" s="0" t="s">
         <v>123</v>
       </c>
     </row>
@@ -23330,7 +23330,7 @@
         <v>1381</v>
       </c>
       <c r="B822" s="0" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="C822" s="0" t="s">
         <v>123</v>
@@ -23341,7 +23341,7 @@
         <v>1382</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C823" s="0" t="s">
         <v>123</v>
@@ -23352,7 +23352,7 @@
         <v>1383</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C824" s="0" t="s">
         <v>123</v>
@@ -23368,37 +23368,43 @@
       <c r="C825" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E825" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
         <v>1385</v>
       </c>
       <c r="B826" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C826" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
-        <v>289</v>
+        <v>1386</v>
       </c>
       <c r="B827" s="0" t="s">
-        <v>289</v>
+        <v>211</v>
+      </c>
+      <c r="C827" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E827" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B828" s="0" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
-        <v>1387</v>
+        <v>289</v>
       </c>
       <c r="B829" s="0" t="s">
         <v>289</v>
@@ -23433,52 +23439,43 @@
         <v>1391</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C833" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="G833" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H833" s="0" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B834" s="0" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C834" s="0" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B835" s="0" t="s">
         <v>1394</v>
-      </c>
-      <c r="B835" s="0" t="s">
-        <v>313</v>
       </c>
       <c r="C835" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G835" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H835" s="0" t="s">
+        <v>1395</v>
+      </c>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B836" s="0" t="s">
         <v>1395</v>
-      </c>
-      <c r="B836" s="0" t="s">
-        <v>407</v>
       </c>
       <c r="C836" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="F836" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23486,13 +23483,10 @@
         <v>1396</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="C837" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="F837" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23500,7 +23494,7 @@
         <v>1397</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C838" s="0" t="s">
         <v>289</v>
@@ -23514,7 +23508,7 @@
         <v>1398</v>
       </c>
       <c r="B839" s="0" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C839" s="0" t="s">
         <v>289</v>
@@ -23528,7 +23522,7 @@
         <v>1399</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C840" s="0" t="s">
         <v>289</v>
@@ -23542,7 +23536,7 @@
         <v>1400</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>289</v>
@@ -23556,7 +23550,7 @@
         <v>1401</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>289</v>
@@ -23570,7 +23564,7 @@
         <v>1402</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C843" s="0" t="s">
         <v>289</v>
@@ -23584,7 +23578,7 @@
         <v>1403</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>1404</v>
+        <v>413</v>
       </c>
       <c r="C844" s="0" t="s">
         <v>289</v>
@@ -23595,10 +23589,10 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C845" s="0" t="s">
         <v>289</v>
@@ -23608,11 +23602,11 @@
       </c>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="6" t="s">
-        <v>882</v>
+      <c r="A846" s="0" t="s">
+        <v>1405</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>416</v>
+        <v>1406</v>
       </c>
       <c r="C846" s="0" t="s">
         <v>289</v>
@@ -23623,10 +23617,10 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C847" s="0" t="s">
         <v>289</v>
@@ -23636,11 +23630,11 @@
       </c>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="0" t="s">
-        <v>1407</v>
+      <c r="A848" s="6" t="s">
+        <v>882</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C848" s="0" t="s">
         <v>289</v>
@@ -23654,7 +23648,7 @@
         <v>1408</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C849" s="0" t="s">
         <v>289</v>
@@ -23668,7 +23662,7 @@
         <v>1409</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C850" s="0" t="s">
         <v>289</v>
@@ -23682,7 +23676,7 @@
         <v>1410</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C851" s="0" t="s">
         <v>289</v>
@@ -23696,7 +23690,7 @@
         <v>1411</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C852" s="0" t="s">
         <v>289</v>
@@ -23710,7 +23704,7 @@
         <v>1412</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C853" s="0" t="s">
         <v>289</v>
@@ -23724,7 +23718,7 @@
         <v>1413</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C854" s="0" t="s">
         <v>289</v>
@@ -23738,7 +23732,7 @@
         <v>1414</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C855" s="0" t="s">
         <v>289</v>
@@ -23752,7 +23746,7 @@
         <v>1415</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>289</v>
@@ -23766,7 +23760,7 @@
         <v>1416</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C857" s="0" t="s">
         <v>289</v>
@@ -23780,7 +23774,7 @@
         <v>1417</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C858" s="0" t="s">
         <v>289</v>
@@ -23794,7 +23788,7 @@
         <v>1418</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C859" s="0" t="s">
         <v>289</v>
@@ -23808,7 +23802,7 @@
         <v>1419</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C860" s="0" t="s">
         <v>289</v>
@@ -23822,7 +23816,7 @@
         <v>1420</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C861" s="0" t="s">
         <v>289</v>
@@ -23836,7 +23830,7 @@
         <v>1421</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C862" s="0" t="s">
         <v>289</v>
@@ -23850,7 +23844,7 @@
         <v>1422</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C863" s="0" t="s">
         <v>289</v>
@@ -23864,7 +23858,7 @@
         <v>1423</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C864" s="0" t="s">
         <v>289</v>
@@ -23878,7 +23872,7 @@
         <v>1424</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C865" s="0" t="s">
         <v>289</v>
@@ -23892,7 +23886,7 @@
         <v>1425</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C866" s="0" t="s">
         <v>289</v>
@@ -23906,7 +23900,7 @@
         <v>1426</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C867" s="0" t="s">
         <v>289</v>
@@ -23920,7 +23914,7 @@
         <v>1427</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C868" s="0" t="s">
         <v>289</v>
@@ -23934,7 +23928,7 @@
         <v>1428</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C869" s="0" t="s">
         <v>289</v>
@@ -23948,7 +23942,7 @@
         <v>1429</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C870" s="0" t="s">
         <v>289</v>
@@ -23962,7 +23956,7 @@
         <v>1430</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>289</v>
@@ -23976,7 +23970,7 @@
         <v>1431</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>289</v>
@@ -23990,7 +23984,7 @@
         <v>1432</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C873" s="0" t="s">
         <v>289</v>
@@ -24004,7 +23998,7 @@
         <v>1433</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C874" s="0" t="s">
         <v>289</v>
@@ -24018,7 +24012,7 @@
         <v>1434</v>
       </c>
       <c r="B875" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C875" s="0" t="s">
         <v>289</v>
@@ -24032,7 +24026,7 @@
         <v>1435</v>
       </c>
       <c r="B876" s="0" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C876" s="0" t="s">
         <v>289</v>
@@ -24046,7 +24040,7 @@
         <v>1436</v>
       </c>
       <c r="B877" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C877" s="0" t="s">
         <v>289</v>
@@ -24060,7 +24054,7 @@
         <v>1437</v>
       </c>
       <c r="B878" s="0" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C878" s="0" t="s">
         <v>289</v>
@@ -24074,7 +24068,7 @@
         <v>1438</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C879" s="0" t="s">
         <v>289</v>
@@ -24088,7 +24082,7 @@
         <v>1439</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C880" s="0" t="s">
         <v>289</v>
@@ -24102,7 +24096,7 @@
         <v>1440</v>
       </c>
       <c r="B881" s="0" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C881" s="0" t="s">
         <v>289</v>
@@ -24116,7 +24110,7 @@
         <v>1441</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C882" s="0" t="s">
         <v>289</v>
@@ -24130,7 +24124,7 @@
         <v>1442</v>
       </c>
       <c r="B883" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C883" s="0" t="s">
         <v>289</v>
@@ -24144,7 +24138,7 @@
         <v>1443</v>
       </c>
       <c r="B884" s="0" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C884" s="0" t="s">
         <v>289</v>
@@ -24158,7 +24152,7 @@
         <v>1444</v>
       </c>
       <c r="B885" s="0" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C885" s="0" t="s">
         <v>289</v>
@@ -24172,7 +24166,7 @@
         <v>1445</v>
       </c>
       <c r="B886" s="0" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C886" s="0" t="s">
         <v>289</v>
@@ -24186,7 +24180,13 @@
         <v>1446</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>288</v>
+        <v>455</v>
+      </c>
+      <c r="C887" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F887" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24194,7 +24194,13 @@
         <v>1447</v>
       </c>
       <c r="B888" s="0" t="s">
-        <v>259</v>
+        <v>456</v>
+      </c>
+      <c r="C888" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F888" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24202,21 +24208,15 @@
         <v>1448</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D889" s="0" t="n">
-        <v>1</v>
+        <v>288</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="5" t="s">
+      <c r="A890" s="0" t="s">
         <v>1449</v>
       </c>
       <c r="B890" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="D890" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24229,16 +24229,16 @@
       <c r="D891" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E891" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="0" t="s">
+      <c r="A892" s="5" t="s">
         <v>1451</v>
       </c>
       <c r="B892" s="0" t="s">
-        <v>290</v>
+        <v>259</v>
+      </c>
+      <c r="D892" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24246,7 +24246,10 @@
         <v>1452</v>
       </c>
       <c r="B893" s="0" t="s">
-        <v>290</v>
+        <v>259</v>
+      </c>
+      <c r="D893" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E893" s="0" t="s">
         <v>548</v>
@@ -24257,7 +24260,7 @@
         <v>1453</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24265,7 +24268,10 @@
         <v>1454</v>
       </c>
       <c r="B895" s="0" t="s">
-        <v>293</v>
+        <v>290</v>
+      </c>
+      <c r="E895" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24273,7 +24279,7 @@
         <v>1455</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24305,10 +24311,7 @@
         <v>1459</v>
       </c>
       <c r="B900" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="E900" s="0" t="s">
-        <v>548</v>
+        <v>293</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24316,7 +24319,7 @@
         <v>1460</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24324,101 +24327,80 @@
         <v>1461</v>
       </c>
       <c r="B902" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C902" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G902" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H902" s="0" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I902" s="0" t="s">
-        <v>1463</v>
+        <v>296</v>
+      </c>
+      <c r="E902" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B903" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C903" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G903" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H903" s="0" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I903" s="0" t="s">
-        <v>1463</v>
+        <v>296</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B904" s="0" t="s">
-        <v>1462</v>
+        <v>294</v>
       </c>
       <c r="C904" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="G904" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H904" s="0" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="I904" s="0" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B905" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C905" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G905" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H905" s="0" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I905" s="0" t="s">
         <v>1465</v>
-      </c>
-      <c r="B905" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C905" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G905" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H905" s="0" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I905" s="0" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B906" s="0" t="s">
-        <v>295</v>
+        <v>1464</v>
       </c>
       <c r="C906" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G906" s="0" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="H906" s="0" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="I906" s="0" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B907" s="0" t="s">
         <v>295</v>
@@ -24430,10 +24412,10 @@
         <v>1</v>
       </c>
       <c r="H907" s="0" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="I907" s="0" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24450,10 +24432,10 @@
         <v>1</v>
       </c>
       <c r="H908" s="0" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="I908" s="0" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24470,10 +24452,10 @@
         <v>1</v>
       </c>
       <c r="H909" s="0" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="I909" s="0" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24490,10 +24472,10 @@
         <v>1</v>
       </c>
       <c r="H910" s="0" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="I910" s="0" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24510,48 +24492,72 @@
         <v>1</v>
       </c>
       <c r="H911" s="0" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="I911" s="0" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>1467</v>
+        <v>1473</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>1466</v>
+        <v>295</v>
       </c>
       <c r="C912" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G912" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H912" s="0" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I912" s="0" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>1468</v>
+        <v>1474</v>
       </c>
       <c r="B913" s="0" t="s">
-        <v>1466</v>
+        <v>295</v>
       </c>
       <c r="C913" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G913" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H913" s="0" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I913" s="0" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="B914" s="0" t="s">
-        <v>300</v>
+        <v>1468</v>
+      </c>
+      <c r="C914" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="B915" s="0" t="s">
-        <v>300</v>
+        <v>1468</v>
+      </c>
+      <c r="C915" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24559,7 +24565,7 @@
         <v>1475</v>
       </c>
       <c r="B916" s="0" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24567,7 +24573,7 @@
         <v>1476</v>
       </c>
       <c r="B917" s="0" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24583,7 +24589,7 @@
         <v>1478</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24591,7 +24597,7 @@
         <v>1479</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>302</v>
+        <v>110</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24599,7 +24605,7 @@
         <v>1480</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24623,10 +24629,7 @@
         <v>1483</v>
       </c>
       <c r="B924" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D924" s="0" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24634,13 +24637,7 @@
         <v>1484</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D925" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E925" s="0" t="s">
-        <v>548</v>
+        <v>302</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24659,10 +24656,13 @@
         <v>1486</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D927" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E927" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24670,7 +24670,7 @@
         <v>1487</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D928" s="0" t="n">
         <v>1</v>
@@ -24686,22 +24686,16 @@
       <c r="D929" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E929" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
         <v>1489</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D930" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E930" s="0" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24714,13 +24708,22 @@
       <c r="D931" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E931" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
         <v>1491</v>
       </c>
       <c r="B932" s="0" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="D932" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E932" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24728,7 +24731,10 @@
         <v>1492</v>
       </c>
       <c r="B933" s="0" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="D933" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24736,7 +24742,7 @@
         <v>1493</v>
       </c>
       <c r="B934" s="0" t="s">
-        <v>105</v>
+        <v>307</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24744,7 +24750,7 @@
         <v>1494</v>
       </c>
       <c r="B935" s="0" t="s">
-        <v>114</v>
+        <v>308</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24752,38 +24758,20 @@
         <v>1495</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C936" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G936" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H936" s="0" t="s">
-        <v>1496</v>
+        <v>105</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B937" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C937" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G937" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H937" s="0" t="s">
-        <v>1496</v>
+        <v>114</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B938" s="0" t="s">
         <v>76</v>
@@ -24795,23 +24783,41 @@
         <v>1</v>
       </c>
       <c r="H938" s="0" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B939" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C939" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G939" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H939" s="0" t="s">
         <v>1498</v>
-      </c>
-      <c r="B939" s="0" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B940" s="0" t="s">
-        <v>458</v>
+        <v>76</v>
+      </c>
+      <c r="C940" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G940" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H940" s="0" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24819,7 +24825,7 @@
         <v>1500</v>
       </c>
       <c r="B941" s="0" t="s">
-        <v>461</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24827,7 +24833,7 @@
         <v>1501</v>
       </c>
       <c r="B942" s="0" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24835,7 +24841,7 @@
         <v>1502</v>
       </c>
       <c r="B943" s="0" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24843,7 +24849,7 @@
         <v>1503</v>
       </c>
       <c r="B944" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24851,7 +24857,7 @@
         <v>1504</v>
       </c>
       <c r="B945" s="0" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24859,32 +24865,20 @@
         <v>1505</v>
       </c>
       <c r="B946" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C946" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F946" s="0" t="n">
-        <v>1</v>
+        <v>467</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B947" s="0" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C947" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F947" s="0" t="n">
-        <v>1</v>
+        <v>468</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B948" s="0" t="s">
         <v>1508</v>
@@ -24897,11 +24891,11 @@
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="5" t="s">
+      <c r="A949" s="0" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B949" s="0" t="s">
         <v>1510</v>
-      </c>
-      <c r="B949" s="0" t="s">
-        <v>1508</v>
       </c>
       <c r="C949" s="0" t="s">
         <v>43</v>
@@ -24911,11 +24905,11 @@
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="6" t="s">
+      <c r="A950" s="0" t="s">
         <v>1511</v>
       </c>
       <c r="B950" s="0" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="C950" s="0" t="s">
         <v>43</v>
@@ -24925,11 +24919,11 @@
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="6" t="s">
+      <c r="A951" s="5" t="s">
         <v>1512</v>
       </c>
       <c r="B951" s="0" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>43</v>
@@ -24939,11 +24933,11 @@
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="0" t="s">
+      <c r="A952" s="6" t="s">
         <v>1513</v>
       </c>
       <c r="B952" s="0" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="C952" s="0" t="s">
         <v>43</v>
@@ -24953,11 +24947,11 @@
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="0" t="s">
-        <v>1515</v>
+      <c r="A953" s="6" t="s">
+        <v>1514</v>
       </c>
       <c r="B953" s="0" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>43</v>
@@ -24968,10 +24962,10 @@
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B954" s="0" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="C954" s="0" t="s">
         <v>43</v>
@@ -24982,10 +24976,10 @@
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
-        <v>732</v>
+        <v>1517</v>
       </c>
       <c r="B955" s="0" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>43</v>
@@ -24996,10 +24990,10 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B956" s="0" t="s">
         <v>1520</v>
-      </c>
-      <c r="B956" s="0" t="s">
-        <v>1521</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>43</v>
@@ -25010,10 +25004,10 @@
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
-        <v>1522</v>
+        <v>732</v>
       </c>
       <c r="B957" s="0" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>43</v>
@@ -25024,10 +25018,10 @@
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B958" s="0" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>43</v>
@@ -25038,10 +25032,10 @@
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B959" s="0" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>43</v>
@@ -25052,10 +25046,10 @@
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="B960" s="0" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="C960" s="0" t="s">
         <v>43</v>
@@ -25066,10 +25060,10 @@
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="B961" s="0" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C961" s="0" t="s">
         <v>43</v>
@@ -25080,10 +25074,10 @@
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="B962" s="0" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="C962" s="0" t="s">
         <v>43</v>
@@ -25094,10 +25088,10 @@
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B963" s="0" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="C963" s="0" t="s">
         <v>43</v>
@@ -25108,10 +25102,10 @@
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>43</v>
@@ -25122,10 +25116,10 @@
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B965" s="0" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C965" s="0" t="s">
         <v>43</v>
@@ -25136,10 +25130,10 @@
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B966" s="0" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C966" s="0" t="s">
         <v>43</v>
@@ -25150,10 +25144,10 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B967" s="0" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="C967" s="0" t="s">
         <v>43</v>
@@ -25164,10 +25158,10 @@
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B968" s="0" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="C968" s="0" t="s">
         <v>43</v>
@@ -25178,10 +25172,10 @@
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B969" s="0" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C969" s="0" t="s">
         <v>43</v>
@@ -25192,10 +25186,10 @@
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B970" s="0" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C970" s="0" t="s">
         <v>43</v>
@@ -25206,10 +25200,10 @@
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B971" s="0" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>43</v>
@@ -25220,10 +25214,10 @@
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>43</v>
@@ -25234,10 +25228,10 @@
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B973" s="0" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C973" s="0" t="s">
         <v>43</v>
@@ -25247,11 +25241,11 @@
       </c>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="0" t="n">
-        <v>1701</v>
+      <c r="A974" s="0" t="s">
+        <v>1554</v>
       </c>
       <c r="B974" s="0" t="s">
-        <v>1508</v>
+        <v>1555</v>
       </c>
       <c r="C974" s="0" t="s">
         <v>43</v>
@@ -25261,11 +25255,11 @@
       </c>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="0" t="n">
-        <v>1702</v>
+      <c r="A975" s="0" t="s">
+        <v>1556</v>
       </c>
       <c r="B975" s="0" t="s">
-        <v>1519</v>
+        <v>1557</v>
       </c>
       <c r="C975" s="0" t="s">
         <v>43</v>
@@ -25276,10 +25270,10 @@
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="n">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B976" s="0" t="s">
-        <v>1549</v>
+        <v>1510</v>
       </c>
       <c r="C976" s="0" t="s">
         <v>43</v>
@@ -25290,10 +25284,10 @@
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="n">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B977" s="0" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="C977" s="0" t="s">
         <v>43</v>
@@ -25304,10 +25298,10 @@
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="n">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B978" s="0" t="s">
-        <v>1535</v>
+        <v>1551</v>
       </c>
       <c r="C978" s="0" t="s">
         <v>43</v>
@@ -25318,10 +25312,10 @@
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="n">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B979" s="0" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>43</v>
@@ -25332,10 +25326,10 @@
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="n">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B980" s="0" t="s">
-        <v>1516</v>
+        <v>1537</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>43</v>
@@ -25346,10 +25340,10 @@
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="n">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B981" s="0" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C981" s="0" t="s">
         <v>43</v>
@@ -25360,10 +25354,10 @@
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="n">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B982" s="0" t="s">
-        <v>1541</v>
+        <v>1518</v>
       </c>
       <c r="C982" s="0" t="s">
         <v>43</v>
@@ -25374,10 +25368,10 @@
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="n">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B983" s="0" t="s">
-        <v>1551</v>
+        <v>1527</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>43</v>
@@ -25388,10 +25382,10 @@
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="n">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>43</v>
@@ -25402,10 +25396,10 @@
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="n">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B985" s="0" t="s">
-        <v>1514</v>
+        <v>1553</v>
       </c>
       <c r="C985" s="0" t="s">
         <v>43</v>
@@ -25416,10 +25410,10 @@
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="n">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B986" s="0" t="s">
-        <v>1527</v>
+        <v>1557</v>
       </c>
       <c r="C986" s="0" t="s">
         <v>43</v>
@@ -25430,10 +25424,10 @@
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="n">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B987" s="0" t="s">
-        <v>1533</v>
+        <v>1516</v>
       </c>
       <c r="C987" s="0" t="s">
         <v>43</v>
@@ -25444,10 +25438,10 @@
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="n">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B988" s="0" t="s">
-        <v>1543</v>
+        <v>1529</v>
       </c>
       <c r="C988" s="0" t="s">
         <v>43</v>
@@ -25458,10 +25452,10 @@
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="n">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B989" s="0" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>43</v>
@@ -25472,10 +25466,10 @@
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="n">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B990" s="0" t="s">
-        <v>1531</v>
+        <v>1545</v>
       </c>
       <c r="C990" s="0" t="s">
         <v>43</v>
@@ -25486,10 +25480,10 @@
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="n">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B991" s="0" t="s">
-        <v>1518</v>
+        <v>1547</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>43</v>
@@ -25500,10 +25494,10 @@
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="n">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B992" s="0" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="C992" s="0" t="s">
         <v>43</v>
@@ -25514,10 +25508,10 @@
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="n">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B993" s="0" t="s">
-        <v>1539</v>
+        <v>1520</v>
       </c>
       <c r="C993" s="0" t="s">
         <v>43</v>
@@ -25528,10 +25522,10 @@
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="n">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B994" s="0" t="s">
-        <v>1553</v>
+        <v>1539</v>
       </c>
       <c r="C994" s="0" t="s">
         <v>43</v>
@@ -25542,10 +25536,10 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="n">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="B995" s="0" t="s">
-        <v>1506</v>
+        <v>1541</v>
       </c>
       <c r="C995" s="0" t="s">
         <v>43</v>
@@ -25556,10 +25550,10 @@
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="n">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B996" s="0" t="s">
-        <v>1529</v>
+        <v>1555</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>43</v>
@@ -25569,59 +25563,53 @@
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="0" t="s">
-        <v>1556</v>
+      <c r="A997" s="0" t="n">
+        <v>1722</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>1557</v>
+        <v>1508</v>
       </c>
       <c r="C997" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="J997" s="0" t="s">
-        <v>1558</v>
+        <v>43</v>
+      </c>
+      <c r="F997" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="0" t="s">
-        <v>644</v>
+      <c r="A998" s="0" t="n">
+        <v>1723</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>1559</v>
+        <v>1531</v>
       </c>
       <c r="C998" s="0" t="s">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="F998" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="J998" s="0" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>641</v>
+        <v>1558</v>
       </c>
       <c r="B999" s="0" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F999" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J999" s="0" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>1563</v>
+        <v>644</v>
       </c>
       <c r="B1000" s="0" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>293</v>
@@ -25630,15 +25618,15 @@
         <v>1</v>
       </c>
       <c r="J1000" s="0" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>1566</v>
+        <v>641</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>293</v>
@@ -25647,15 +25635,15 @@
         <v>1</v>
       </c>
       <c r="J1001" s="0" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="B1002" s="0" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>293</v>
@@ -25664,15 +25652,15 @@
         <v>1</v>
       </c>
       <c r="J1002" s="0" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="B1003" s="0" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>293</v>
@@ -25681,15 +25669,15 @@
         <v>1</v>
       </c>
       <c r="J1003" s="0" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>723</v>
+        <v>1571</v>
       </c>
       <c r="B1004" s="0" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>293</v>
@@ -25698,15 +25686,15 @@
         <v>1</v>
       </c>
       <c r="J1004" s="0" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>293</v>
@@ -25715,15 +25703,15 @@
         <v>1</v>
       </c>
       <c r="J1005" s="0" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>1580</v>
+        <v>723</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="C1006" s="0" t="s">
         <v>293</v>
@@ -25732,15 +25720,15 @@
         <v>1</v>
       </c>
       <c r="J1006" s="0" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="B1007" s="0" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="C1007" s="0" t="s">
         <v>293</v>
@@ -25749,15 +25737,15 @@
         <v>1</v>
       </c>
       <c r="J1007" s="0" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="B1008" s="0" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="C1008" s="0" t="s">
         <v>293</v>
@@ -25766,15 +25754,15 @@
         <v>1</v>
       </c>
       <c r="J1008" s="0" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="B1009" s="0" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="C1009" s="0" t="s">
         <v>293</v>
@@ -25783,15 +25771,15 @@
         <v>1</v>
       </c>
       <c r="J1009" s="0" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="B1010" s="0" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="C1010" s="0" t="s">
         <v>293</v>
@@ -25800,15 +25788,15 @@
         <v>1</v>
       </c>
       <c r="J1010" s="0" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C1011" s="0" t="s">
         <v>293</v>
@@ -25817,15 +25805,15 @@
         <v>1</v>
       </c>
       <c r="J1011" s="0" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>1112</v>
+        <v>1594</v>
       </c>
       <c r="B1012" s="0" t="s">
-        <v>1113</v>
+        <v>1595</v>
       </c>
       <c r="C1012" s="0" t="s">
         <v>293</v>
@@ -25834,15 +25822,15 @@
         <v>1</v>
       </c>
       <c r="J1012" s="0" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B1013" s="0" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C1013" s="0" t="s">
         <v>293</v>
@@ -25851,15 +25839,15 @@
         <v>1</v>
       </c>
       <c r="J1013" s="0" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>1602</v>
+        <v>1114</v>
       </c>
       <c r="B1014" s="0" t="s">
-        <v>1603</v>
+        <v>1115</v>
       </c>
       <c r="C1014" s="0" t="s">
         <v>293</v>
@@ -25868,15 +25856,15 @@
         <v>1</v>
       </c>
       <c r="J1014" s="0" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="B1015" s="0" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="C1015" s="0" t="s">
         <v>293</v>
@@ -25885,15 +25873,15 @@
         <v>1</v>
       </c>
       <c r="J1015" s="0" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>750</v>
+        <v>1604</v>
       </c>
       <c r="B1016" s="0" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="C1016" s="0" t="s">
         <v>293</v>
@@ -25902,15 +25890,15 @@
         <v>1</v>
       </c>
       <c r="J1016" s="0" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="B1017" s="0" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="C1017" s="0" t="s">
         <v>293</v>
@@ -25919,15 +25907,15 @@
         <v>1</v>
       </c>
       <c r="J1017" s="0" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>1613</v>
+        <v>750</v>
       </c>
       <c r="B1018" s="0" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="C1018" s="0" t="s">
         <v>293</v>
@@ -25936,15 +25924,15 @@
         <v>1</v>
       </c>
       <c r="J1018" s="0" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="B1019" s="0" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="C1019" s="0" t="s">
         <v>293</v>
@@ -25953,15 +25941,15 @@
         <v>1</v>
       </c>
       <c r="J1019" s="0" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="B1020" s="0" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="C1020" s="0" t="s">
         <v>293</v>
@@ -25970,15 +25958,15 @@
         <v>1</v>
       </c>
       <c r="J1020" s="0" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="B1021" s="0" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="C1021" s="0" t="s">
         <v>293</v>
@@ -25987,71 +25975,71 @@
         <v>1</v>
       </c>
       <c r="J1021" s="0" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="B1022" s="0" t="s">
-        <v>1625</v>
+        <v>1622</v>
+      </c>
+      <c r="C1022" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1022" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1022" s="0" t="s">
+        <v>1623</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1023" s="0" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C1023" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1023" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1023" s="0" t="s">
         <v>1626</v>
-      </c>
-      <c r="B1023" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="C1023" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1023" s="0" t="s">
-        <v>1627</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B1024" s="0" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C1024" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1024" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1024" s="0" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B1025" s="0" t="s">
-        <v>1632</v>
+        <v>1628</v>
+      </c>
+      <c r="B1025" s="5" t="s">
+        <v>619</v>
       </c>
       <c r="C1025" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1025" s="0" t="n">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="J1025" s="0" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="B1026" s="0" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="C1026" s="0" t="s">
         <v>80</v>
@@ -26060,15 +26048,15 @@
         <v>1</v>
       </c>
       <c r="J1026" s="0" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="B1027" s="0" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="C1027" s="0" t="s">
         <v>80</v>
@@ -26077,15 +26065,15 @@
         <v>1</v>
       </c>
       <c r="J1027" s="0" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="B1028" s="0" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="C1028" s="0" t="s">
         <v>80</v>
@@ -26094,15 +26082,15 @@
         <v>1</v>
       </c>
       <c r="J1028" s="0" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="B1029" s="0" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="C1029" s="0" t="s">
         <v>80</v>
@@ -26111,15 +26099,15 @@
         <v>1</v>
       </c>
       <c r="J1029" s="0" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="B1030" s="0" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="C1030" s="0" t="s">
         <v>80</v>
@@ -26128,15 +26116,15 @@
         <v>1</v>
       </c>
       <c r="J1030" s="0" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="B1031" s="0" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C1031" s="0" t="s">
         <v>80</v>
@@ -26145,15 +26133,15 @@
         <v>1</v>
       </c>
       <c r="J1031" s="0" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="B1032" s="0" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="C1032" s="0" t="s">
         <v>80</v>
@@ -26162,15 +26150,15 @@
         <v>1</v>
       </c>
       <c r="J1032" s="0" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B1033" s="0" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="C1033" s="0" t="s">
         <v>80</v>
@@ -26179,15 +26167,15 @@
         <v>1</v>
       </c>
       <c r="J1033" s="0" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="0" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="B1034" s="0" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="C1034" s="0" t="s">
         <v>80</v>
@@ -26196,15 +26184,15 @@
         <v>1</v>
       </c>
       <c r="J1034" s="0" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="0" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="B1035" s="0" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="C1035" s="0" t="s">
         <v>80</v>
@@ -26213,15 +26201,15 @@
         <v>1</v>
       </c>
       <c r="J1035" s="0" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="0" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="B1036" s="0" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="C1036" s="0" t="s">
         <v>80</v>
@@ -26230,15 +26218,15 @@
         <v>1</v>
       </c>
       <c r="J1036" s="0" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="0" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="B1037" s="0" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="C1037" s="0" t="s">
         <v>80</v>
@@ -26247,15 +26235,15 @@
         <v>1</v>
       </c>
       <c r="J1037" s="0" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="0" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="B1038" s="0" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="C1038" s="0" t="s">
         <v>80</v>
@@ -26264,15 +26252,15 @@
         <v>1</v>
       </c>
       <c r="J1038" s="0" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="0" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="B1039" s="0" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="C1039" s="0" t="s">
         <v>80</v>
@@ -26281,49 +26269,49 @@
         <v>1</v>
       </c>
       <c r="J1039" s="0" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="0" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B1040" s="5" t="s">
-        <v>1675</v>
+        <v>1670</v>
+      </c>
+      <c r="B1040" s="0" t="s">
+        <v>1671</v>
       </c>
       <c r="C1040" s="0" t="s">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="F1040" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J1040" s="5" t="s">
-        <v>1676</v>
+      <c r="J1040" s="0" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="0" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B1041" s="5" t="s">
-        <v>1678</v>
+        <v>1673</v>
+      </c>
+      <c r="B1041" s="0" t="s">
+        <v>1674</v>
       </c>
       <c r="C1041" s="0" t="s">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="F1041" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J1041" s="5" t="s">
-        <v>1679</v>
+      <c r="J1041" s="0" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="0" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="B1042" s="5" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="C1042" s="0" t="s">
         <v>296</v>
@@ -26332,15 +26320,15 @@
         <v>1</v>
       </c>
       <c r="J1042" s="5" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="0" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="B1043" s="5" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="C1043" s="0" t="s">
         <v>296</v>
@@ -26349,15 +26337,15 @@
         <v>1</v>
       </c>
       <c r="J1043" s="5" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="0" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="B1044" s="5" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="C1044" s="0" t="s">
         <v>296</v>
@@ -26366,15 +26354,15 @@
         <v>1</v>
       </c>
       <c r="J1044" s="5" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="0" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="B1045" s="5" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="C1045" s="0" t="s">
         <v>296</v>
@@ -26383,15 +26371,15 @@
         <v>1</v>
       </c>
       <c r="J1045" s="5" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="0" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B1046" s="5" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="C1046" s="0" t="s">
         <v>296</v>
@@ -26400,15 +26388,15 @@
         <v>1</v>
       </c>
       <c r="J1046" s="5" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="0" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="B1047" s="5" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="C1047" s="0" t="s">
         <v>296</v>
@@ -26417,15 +26405,15 @@
         <v>1</v>
       </c>
       <c r="J1047" s="5" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="0" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="B1048" s="5" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="C1048" s="0" t="s">
         <v>296</v>
@@ -26434,15 +26422,15 @@
         <v>1</v>
       </c>
       <c r="J1048" s="5" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="0" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="B1049" s="5" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="C1049" s="0" t="s">
         <v>296</v>
@@ -26451,15 +26439,15 @@
         <v>1</v>
       </c>
       <c r="J1049" s="5" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="0" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="B1050" s="5" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="C1050" s="0" t="s">
         <v>296</v>
@@ -26468,15 +26456,15 @@
         <v>1</v>
       </c>
       <c r="J1050" s="5" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="0" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="B1051" s="5" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="C1051" s="0" t="s">
         <v>296</v>
@@ -26485,15 +26473,15 @@
         <v>1</v>
       </c>
       <c r="J1051" s="5" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="0" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B1052" s="5" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="C1052" s="0" t="s">
         <v>296</v>
@@ -26502,15 +26490,15 @@
         <v>1</v>
       </c>
       <c r="J1052" s="5" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="0" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="B1053" s="5" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="C1053" s="0" t="s">
         <v>296</v>
@@ -26519,15 +26507,15 @@
         <v>1</v>
       </c>
       <c r="J1053" s="5" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="0" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="B1054" s="5" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="C1054" s="0" t="s">
         <v>296</v>
@@ -26536,15 +26524,15 @@
         <v>1</v>
       </c>
       <c r="J1054" s="5" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="0" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="B1055" s="5" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="C1055" s="0" t="s">
         <v>296</v>
@@ -26553,15 +26541,15 @@
         <v>1</v>
       </c>
       <c r="J1055" s="5" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="0" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="B1056" s="5" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="C1056" s="0" t="s">
         <v>296</v>
@@ -26570,15 +26558,15 @@
         <v>1</v>
       </c>
       <c r="J1056" s="5" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="0" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="B1057" s="5" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="C1057" s="0" t="s">
         <v>296</v>
@@ -26587,15 +26575,15 @@
         <v>1</v>
       </c>
       <c r="J1057" s="5" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="0" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="B1058" s="5" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="C1058" s="0" t="s">
         <v>296</v>
@@ -26604,15 +26592,15 @@
         <v>1</v>
       </c>
       <c r="J1058" s="5" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="B1059" s="5" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="C1059" s="0" t="s">
         <v>296</v>
@@ -26621,15 +26609,15 @@
         <v>1</v>
       </c>
       <c r="J1059" s="5" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="0" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="B1060" s="5" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="C1060" s="0" t="s">
         <v>296</v>
@@ -26638,15 +26626,15 @@
         <v>1</v>
       </c>
       <c r="J1060" s="5" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="0" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="B1061" s="5" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="C1061" s="0" t="s">
         <v>296</v>
@@ -26655,15 +26643,15 @@
         <v>1</v>
       </c>
       <c r="J1061" s="5" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="B1062" s="5" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="C1062" s="0" t="s">
         <v>296</v>
@@ -26672,15 +26660,15 @@
         <v>1</v>
       </c>
       <c r="J1062" s="5" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="0" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="B1063" s="5" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="C1063" s="0" t="s">
         <v>296</v>
@@ -26689,15 +26677,15 @@
         <v>1</v>
       </c>
       <c r="J1063" s="5" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="0" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="B1064" s="5" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="C1064" s="0" t="s">
         <v>296</v>
@@ -26706,15 +26694,15 @@
         <v>1</v>
       </c>
       <c r="J1064" s="5" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="0" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="B1065" s="5" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="C1065" s="0" t="s">
         <v>296</v>
@@ -26723,15 +26711,15 @@
         <v>1</v>
       </c>
       <c r="J1065" s="5" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="0" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="B1066" s="5" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="C1066" s="0" t="s">
         <v>296</v>
@@ -26740,15 +26728,15 @@
         <v>1</v>
       </c>
       <c r="J1066" s="5" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="0" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="B1067" s="5" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="C1067" s="0" t="s">
         <v>296</v>
@@ -26757,15 +26745,15 @@
         <v>1</v>
       </c>
       <c r="J1067" s="5" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="0" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="B1068" s="5" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="C1068" s="0" t="s">
         <v>296</v>
@@ -26774,15 +26762,15 @@
         <v>1</v>
       </c>
       <c r="J1068" s="5" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="0" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="B1069" s="5" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="C1069" s="0" t="s">
         <v>296</v>
@@ -26791,15 +26779,15 @@
         <v>1</v>
       </c>
       <c r="J1069" s="5" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="B1070" s="5" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="C1070" s="0" t="s">
         <v>296</v>
@@ -26808,15 +26796,15 @@
         <v>1</v>
       </c>
       <c r="J1070" s="5" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="0" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="B1071" s="5" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="C1071" s="0" t="s">
         <v>296</v>
@@ -26825,15 +26813,15 @@
         <v>1</v>
       </c>
       <c r="J1071" s="5" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="0" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="B1072" s="5" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="C1072" s="0" t="s">
         <v>296</v>
@@ -26842,15 +26830,15 @@
         <v>1</v>
       </c>
       <c r="J1072" s="5" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="0" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="B1073" s="5" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="C1073" s="0" t="s">
         <v>296</v>
@@ -26859,15 +26847,15 @@
         <v>1</v>
       </c>
       <c r="J1073" s="5" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="0" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="B1074" s="5" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="C1074" s="0" t="s">
         <v>296</v>
@@ -26876,15 +26864,15 @@
         <v>1</v>
       </c>
       <c r="J1074" s="5" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="0" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="B1075" s="5" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="C1075" s="0" t="s">
         <v>296</v>
@@ -26893,15 +26881,15 @@
         <v>1</v>
       </c>
       <c r="J1075" s="5" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="0" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="B1076" s="5" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="C1076" s="0" t="s">
         <v>296</v>
@@ -26910,15 +26898,15 @@
         <v>1</v>
       </c>
       <c r="J1076" s="5" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="0" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="B1077" s="5" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="C1077" s="0" t="s">
         <v>296</v>
@@ -26927,15 +26915,15 @@
         <v>1</v>
       </c>
       <c r="J1077" s="5" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="0" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="B1078" s="5" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="C1078" s="0" t="s">
         <v>296</v>
@@ -26944,15 +26932,15 @@
         <v>1</v>
       </c>
       <c r="J1078" s="5" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="0" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="B1079" s="5" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="C1079" s="0" t="s">
         <v>296</v>
@@ -26961,15 +26949,15 @@
         <v>1</v>
       </c>
       <c r="J1079" s="5" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="0" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="B1080" s="5" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="C1080" s="0" t="s">
         <v>296</v>
@@ -26978,15 +26966,15 @@
         <v>1</v>
       </c>
       <c r="J1080" s="5" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="0" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="B1081" s="5" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="C1081" s="0" t="s">
         <v>296</v>
@@ -26995,15 +26983,15 @@
         <v>1</v>
       </c>
       <c r="J1081" s="5" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="B1082" s="5" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>296</v>
@@ -27012,15 +27000,15 @@
         <v>1</v>
       </c>
       <c r="J1082" s="5" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="0" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="B1083" s="5" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="C1083" s="0" t="s">
         <v>296</v>
@@ -27029,15 +27017,15 @@
         <v>1</v>
       </c>
       <c r="J1083" s="5" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="0" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="B1084" s="5" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="C1084" s="0" t="s">
         <v>296</v>
@@ -27046,15 +27034,15 @@
         <v>1</v>
       </c>
       <c r="J1084" s="5" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="0" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="B1085" s="5" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="C1085" s="0" t="s">
         <v>296</v>
@@ -27063,15 +27051,15 @@
         <v>1</v>
       </c>
       <c r="J1085" s="5" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="0" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="B1086" s="5" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="C1086" s="0" t="s">
         <v>296</v>
@@ -27080,15 +27068,15 @@
         <v>1</v>
       </c>
       <c r="J1086" s="5" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="0" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="B1087" s="5" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="C1087" s="0" t="s">
         <v>296</v>
@@ -27097,15 +27085,15 @@
         <v>1</v>
       </c>
       <c r="J1087" s="5" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="0" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="B1088" s="5" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="C1088" s="0" t="s">
         <v>296</v>
@@ -27114,15 +27102,15 @@
         <v>1</v>
       </c>
       <c r="J1088" s="5" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="0" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="B1089" s="5" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="C1089" s="0" t="s">
         <v>296</v>
@@ -27131,15 +27119,15 @@
         <v>1</v>
       </c>
       <c r="J1089" s="5" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="0" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="B1090" s="5" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="C1090" s="0" t="s">
         <v>296</v>
@@ -27148,15 +27136,15 @@
         <v>1</v>
       </c>
       <c r="J1090" s="5" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="0" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="B1091" s="5" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="C1091" s="0" t="s">
         <v>296</v>
@@ -27165,15 +27153,15 @@
         <v>1</v>
       </c>
       <c r="J1091" s="5" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="0" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="B1092" s="5" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="C1092" s="0" t="s">
         <v>296</v>
@@ -27182,15 +27170,15 @@
         <v>1</v>
       </c>
       <c r="J1092" s="5" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="0" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="B1093" s="5" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="C1093" s="0" t="s">
         <v>296</v>
@@ -27199,15 +27187,15 @@
         <v>1</v>
       </c>
       <c r="J1093" s="5" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="0" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="B1094" s="5" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="C1094" s="0" t="s">
         <v>296</v>
@@ -27216,15 +27204,15 @@
         <v>1</v>
       </c>
       <c r="J1094" s="5" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="0" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="B1095" s="5" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="C1095" s="0" t="s">
         <v>296</v>
@@ -27233,15 +27221,15 @@
         <v>1</v>
       </c>
       <c r="J1095" s="5" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="0" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="B1096" s="5" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="C1096" s="0" t="s">
         <v>296</v>
@@ -27250,15 +27238,15 @@
         <v>1</v>
       </c>
       <c r="J1096" s="5" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="0" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="B1097" s="5" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="C1097" s="0" t="s">
         <v>296</v>
@@ -27267,15 +27255,15 @@
         <v>1</v>
       </c>
       <c r="J1097" s="5" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="0" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="B1098" s="5" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="C1098" s="0" t="s">
         <v>296</v>
@@ -27284,15 +27272,15 @@
         <v>1</v>
       </c>
       <c r="J1098" s="5" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="0" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="B1099" s="5" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="C1099" s="0" t="s">
         <v>296</v>
@@ -27301,15 +27289,15 @@
         <v>1</v>
       </c>
       <c r="J1099" s="5" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="0" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="B1100" s="5" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="C1100" s="0" t="s">
         <v>296</v>
@@ -27318,15 +27306,15 @@
         <v>1</v>
       </c>
       <c r="J1100" s="5" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="0" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="B1101" s="5" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="C1101" s="0" t="s">
         <v>296</v>
@@ -27335,15 +27323,15 @@
         <v>1</v>
       </c>
       <c r="J1101" s="5" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="0" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="B1102" s="5" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="C1102" s="0" t="s">
         <v>296</v>
@@ -27352,47 +27340,41 @@
         <v>1</v>
       </c>
       <c r="J1102" s="5" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="0" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="B1103" s="5" t="s">
-        <v>1675</v>
+        <v>1860</v>
       </c>
       <c r="C1103" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="E1103" s="0" t="s">
-        <v>573</v>
-      </c>
       <c r="F1103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J1103" s="5" t="s">
-        <v>1676</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="0" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="B1104" s="5" t="s">
-        <v>1678</v>
+        <v>1863</v>
       </c>
       <c r="C1104" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="E1104" s="0" t="s">
-        <v>573</v>
-      </c>
       <c r="F1104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J1104" s="5" t="s">
-        <v>1679</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27400,7 +27382,7 @@
         <v>1865</v>
       </c>
       <c r="B1105" s="5" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="C1105" s="0" t="s">
         <v>296</v>
@@ -27412,7 +27394,7 @@
         <v>1</v>
       </c>
       <c r="J1105" s="5" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27420,7 +27402,7 @@
         <v>1866</v>
       </c>
       <c r="B1106" s="5" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>296</v>
@@ -27432,7 +27414,7 @@
         <v>1</v>
       </c>
       <c r="J1106" s="5" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27440,7 +27422,7 @@
         <v>1867</v>
       </c>
       <c r="B1107" s="5" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="C1107" s="0" t="s">
         <v>296</v>
@@ -27452,7 +27434,7 @@
         <v>1</v>
       </c>
       <c r="J1107" s="5" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27460,7 +27442,7 @@
         <v>1868</v>
       </c>
       <c r="B1108" s="5" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="C1108" s="0" t="s">
         <v>296</v>
@@ -27472,7 +27454,7 @@
         <v>1</v>
       </c>
       <c r="J1108" s="5" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27480,7 +27462,7 @@
         <v>1869</v>
       </c>
       <c r="B1109" s="5" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="C1109" s="0" t="s">
         <v>296</v>
@@ -27492,7 +27474,7 @@
         <v>1</v>
       </c>
       <c r="J1109" s="5" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27500,7 +27482,7 @@
         <v>1870</v>
       </c>
       <c r="B1110" s="5" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="C1110" s="0" t="s">
         <v>296</v>
@@ -27512,7 +27494,7 @@
         <v>1</v>
       </c>
       <c r="J1110" s="5" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27520,7 +27502,7 @@
         <v>1871</v>
       </c>
       <c r="B1111" s="5" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="C1111" s="0" t="s">
         <v>296</v>
@@ -27532,7 +27514,7 @@
         <v>1</v>
       </c>
       <c r="J1111" s="5" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27540,7 +27522,7 @@
         <v>1872</v>
       </c>
       <c r="B1112" s="5" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="C1112" s="0" t="s">
         <v>296</v>
@@ -27552,7 +27534,7 @@
         <v>1</v>
       </c>
       <c r="J1112" s="5" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27560,7 +27542,7 @@
         <v>1873</v>
       </c>
       <c r="B1113" s="5" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="C1113" s="0" t="s">
         <v>296</v>
@@ -27572,7 +27554,7 @@
         <v>1</v>
       </c>
       <c r="J1113" s="5" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27580,7 +27562,7 @@
         <v>1874</v>
       </c>
       <c r="B1114" s="5" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="C1114" s="0" t="s">
         <v>296</v>
@@ -27592,7 +27574,7 @@
         <v>1</v>
       </c>
       <c r="J1114" s="5" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27600,7 +27582,7 @@
         <v>1875</v>
       </c>
       <c r="B1115" s="5" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="C1115" s="0" t="s">
         <v>296</v>
@@ -27612,7 +27594,7 @@
         <v>1</v>
       </c>
       <c r="J1115" s="5" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27620,7 +27602,7 @@
         <v>1876</v>
       </c>
       <c r="B1116" s="5" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="C1116" s="0" t="s">
         <v>296</v>
@@ -27632,7 +27614,7 @@
         <v>1</v>
       </c>
       <c r="J1116" s="5" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27640,7 +27622,7 @@
         <v>1877</v>
       </c>
       <c r="B1117" s="5" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="C1117" s="0" t="s">
         <v>296</v>
@@ -27652,7 +27634,7 @@
         <v>1</v>
       </c>
       <c r="J1117" s="5" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27660,7 +27642,7 @@
         <v>1878</v>
       </c>
       <c r="B1118" s="5" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="C1118" s="0" t="s">
         <v>296</v>
@@ -27672,7 +27654,7 @@
         <v>1</v>
       </c>
       <c r="J1118" s="5" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27680,7 +27662,7 @@
         <v>1879</v>
       </c>
       <c r="B1119" s="5" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="C1119" s="0" t="s">
         <v>296</v>
@@ -27692,7 +27674,7 @@
         <v>1</v>
       </c>
       <c r="J1119" s="5" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27700,7 +27682,7 @@
         <v>1880</v>
       </c>
       <c r="B1120" s="5" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="C1120" s="0" t="s">
         <v>296</v>
@@ -27712,7 +27694,7 @@
         <v>1</v>
       </c>
       <c r="J1120" s="5" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27720,7 +27702,7 @@
         <v>1881</v>
       </c>
       <c r="B1121" s="5" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="C1121" s="0" t="s">
         <v>296</v>
@@ -27732,15 +27714,15 @@
         <v>1</v>
       </c>
       <c r="J1121" s="5" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="0" t="s">
-        <v>1731</v>
+        <v>1882</v>
       </c>
       <c r="B1122" s="5" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="C1122" s="0" t="s">
         <v>296</v>
@@ -27752,15 +27734,15 @@
         <v>1</v>
       </c>
       <c r="J1122" s="5" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="0" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1123" s="5" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="C1123" s="0" t="s">
         <v>296</v>
@@ -27772,15 +27754,15 @@
         <v>1</v>
       </c>
       <c r="J1123" s="5" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="0" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="B1124" s="5" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="C1124" s="0" t="s">
         <v>296</v>
@@ -27792,15 +27774,15 @@
         <v>1</v>
       </c>
       <c r="J1124" s="5" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B1125" s="5" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="C1125" s="0" t="s">
         <v>296</v>
@@ -27812,15 +27794,15 @@
         <v>1</v>
       </c>
       <c r="J1125" s="5" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="0" t="s">
-        <v>1884</v>
+        <v>1739</v>
       </c>
       <c r="B1126" s="5" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="C1126" s="0" t="s">
         <v>296</v>
@@ -27832,7 +27814,7 @@
         <v>1</v>
       </c>
       <c r="J1126" s="5" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27840,7 +27822,7 @@
         <v>1885</v>
       </c>
       <c r="B1127" s="5" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="C1127" s="0" t="s">
         <v>296</v>
@@ -27852,7 +27834,7 @@
         <v>1</v>
       </c>
       <c r="J1127" s="5" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27860,7 +27842,7 @@
         <v>1886</v>
       </c>
       <c r="B1128" s="5" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="C1128" s="0" t="s">
         <v>296</v>
@@ -27872,7 +27854,7 @@
         <v>1</v>
       </c>
       <c r="J1128" s="5" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27880,7 +27862,7 @@
         <v>1887</v>
       </c>
       <c r="B1129" s="5" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="C1129" s="0" t="s">
         <v>296</v>
@@ -27892,7 +27874,7 @@
         <v>1</v>
       </c>
       <c r="J1129" s="5" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27900,7 +27882,7 @@
         <v>1888</v>
       </c>
       <c r="B1130" s="5" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="C1130" s="0" t="s">
         <v>296</v>
@@ -27912,7 +27894,7 @@
         <v>1</v>
       </c>
       <c r="J1130" s="5" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27920,7 +27902,7 @@
         <v>1889</v>
       </c>
       <c r="B1131" s="5" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="C1131" s="0" t="s">
         <v>296</v>
@@ -27932,7 +27914,7 @@
         <v>1</v>
       </c>
       <c r="J1131" s="5" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27940,7 +27922,7 @@
         <v>1890</v>
       </c>
       <c r="B1132" s="5" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="C1132" s="0" t="s">
         <v>296</v>
@@ -27952,7 +27934,7 @@
         <v>1</v>
       </c>
       <c r="J1132" s="5" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27960,7 +27942,7 @@
         <v>1891</v>
       </c>
       <c r="B1133" s="5" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="C1133" s="0" t="s">
         <v>296</v>
@@ -27972,15 +27954,15 @@
         <v>1</v>
       </c>
       <c r="J1133" s="5" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="0" t="s">
-        <v>1767</v>
+        <v>1892</v>
       </c>
       <c r="B1134" s="5" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="C1134" s="0" t="s">
         <v>296</v>
@@ -27992,15 +27974,15 @@
         <v>1</v>
       </c>
       <c r="J1134" s="5" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="0" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1135" s="5" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="C1135" s="0" t="s">
         <v>296</v>
@@ -28012,15 +27994,15 @@
         <v>1</v>
       </c>
       <c r="J1135" s="5" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="0" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="B1136" s="5" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="C1136" s="0" t="s">
         <v>296</v>
@@ -28032,15 +28014,15 @@
         <v>1</v>
       </c>
       <c r="J1136" s="5" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="0" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B1137" s="5" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="C1137" s="0" t="s">
         <v>296</v>
@@ -28052,15 +28034,15 @@
         <v>1</v>
       </c>
       <c r="J1137" s="5" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="0" t="s">
-        <v>1894</v>
+        <v>1775</v>
       </c>
       <c r="B1138" s="5" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="C1138" s="0" t="s">
         <v>296</v>
@@ -28072,7 +28054,7 @@
         <v>1</v>
       </c>
       <c r="J1138" s="5" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28080,7 +28062,7 @@
         <v>1895</v>
       </c>
       <c r="B1139" s="5" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="C1139" s="0" t="s">
         <v>296</v>
@@ -28092,7 +28074,7 @@
         <v>1</v>
       </c>
       <c r="J1139" s="5" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28100,7 +28082,7 @@
         <v>1896</v>
       </c>
       <c r="B1140" s="5" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="C1140" s="0" t="s">
         <v>296</v>
@@ -28112,7 +28094,7 @@
         <v>1</v>
       </c>
       <c r="J1140" s="5" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28120,7 +28102,7 @@
         <v>1897</v>
       </c>
       <c r="B1141" s="5" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="C1141" s="0" t="s">
         <v>296</v>
@@ -28132,7 +28114,7 @@
         <v>1</v>
       </c>
       <c r="J1141" s="5" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28140,7 +28122,7 @@
         <v>1898</v>
       </c>
       <c r="B1142" s="5" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="C1142" s="0" t="s">
         <v>296</v>
@@ -28152,7 +28134,7 @@
         <v>1</v>
       </c>
       <c r="J1142" s="5" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28160,7 +28142,7 @@
         <v>1899</v>
       </c>
       <c r="B1143" s="5" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="C1143" s="0" t="s">
         <v>296</v>
@@ -28172,7 +28154,7 @@
         <v>1</v>
       </c>
       <c r="J1143" s="5" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28180,7 +28162,7 @@
         <v>1900</v>
       </c>
       <c r="B1144" s="5" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="C1144" s="0" t="s">
         <v>296</v>
@@ -28192,7 +28174,7 @@
         <v>1</v>
       </c>
       <c r="J1144" s="5" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28200,7 +28182,7 @@
         <v>1901</v>
       </c>
       <c r="B1145" s="5" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="C1145" s="0" t="s">
         <v>296</v>
@@ -28212,7 +28194,7 @@
         <v>1</v>
       </c>
       <c r="J1145" s="5" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28220,7 +28202,7 @@
         <v>1902</v>
       </c>
       <c r="B1146" s="5" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="C1146" s="0" t="s">
         <v>296</v>
@@ -28232,7 +28214,7 @@
         <v>1</v>
       </c>
       <c r="J1146" s="5" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28240,7 +28222,7 @@
         <v>1903</v>
       </c>
       <c r="B1147" s="5" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="C1147" s="0" t="s">
         <v>296</v>
@@ -28252,7 +28234,7 @@
         <v>1</v>
       </c>
       <c r="J1147" s="5" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28260,7 +28242,7 @@
         <v>1904</v>
       </c>
       <c r="B1148" s="5" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="C1148" s="0" t="s">
         <v>296</v>
@@ -28272,7 +28254,7 @@
         <v>1</v>
       </c>
       <c r="J1148" s="5" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28280,7 +28262,7 @@
         <v>1905</v>
       </c>
       <c r="B1149" s="5" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="C1149" s="0" t="s">
         <v>296</v>
@@ -28292,7 +28274,7 @@
         <v>1</v>
       </c>
       <c r="J1149" s="5" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28300,7 +28282,7 @@
         <v>1906</v>
       </c>
       <c r="B1150" s="5" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="C1150" s="0" t="s">
         <v>296</v>
@@ -28312,7 +28294,7 @@
         <v>1</v>
       </c>
       <c r="J1150" s="5" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28320,7 +28302,7 @@
         <v>1907</v>
       </c>
       <c r="B1151" s="5" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="C1151" s="0" t="s">
         <v>296</v>
@@ -28332,7 +28314,7 @@
         <v>1</v>
       </c>
       <c r="J1151" s="5" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28340,7 +28322,7 @@
         <v>1908</v>
       </c>
       <c r="B1152" s="5" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="C1152" s="0" t="s">
         <v>296</v>
@@ -28352,7 +28334,7 @@
         <v>1</v>
       </c>
       <c r="J1152" s="5" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28360,7 +28342,7 @@
         <v>1909</v>
       </c>
       <c r="B1153" s="5" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="C1153" s="0" t="s">
         <v>296</v>
@@ -28372,7 +28354,7 @@
         <v>1</v>
       </c>
       <c r="J1153" s="5" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28380,7 +28362,7 @@
         <v>1910</v>
       </c>
       <c r="B1154" s="5" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="C1154" s="0" t="s">
         <v>296</v>
@@ -28392,7 +28374,7 @@
         <v>1</v>
       </c>
       <c r="J1154" s="5" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28400,7 +28382,7 @@
         <v>1911</v>
       </c>
       <c r="B1155" s="5" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="C1155" s="0" t="s">
         <v>296</v>
@@ -28412,7 +28394,7 @@
         <v>1</v>
       </c>
       <c r="J1155" s="5" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28420,7 +28402,7 @@
         <v>1912</v>
       </c>
       <c r="B1156" s="5" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="C1156" s="0" t="s">
         <v>296</v>
@@ -28432,7 +28414,7 @@
         <v>1</v>
       </c>
       <c r="J1156" s="5" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28440,7 +28422,7 @@
         <v>1913</v>
       </c>
       <c r="B1157" s="5" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="C1157" s="0" t="s">
         <v>296</v>
@@ -28452,7 +28434,7 @@
         <v>1</v>
       </c>
       <c r="J1157" s="5" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28460,7 +28442,7 @@
         <v>1914</v>
       </c>
       <c r="B1158" s="5" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="C1158" s="0" t="s">
         <v>296</v>
@@ -28472,7 +28454,7 @@
         <v>1</v>
       </c>
       <c r="J1158" s="5" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28480,7 +28462,7 @@
         <v>1915</v>
       </c>
       <c r="B1159" s="5" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="C1159" s="0" t="s">
         <v>296</v>
@@ -28492,7 +28474,7 @@
         <v>1</v>
       </c>
       <c r="J1159" s="5" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28500,7 +28482,7 @@
         <v>1916</v>
       </c>
       <c r="B1160" s="5" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="C1160" s="0" t="s">
         <v>296</v>
@@ -28512,7 +28494,7 @@
         <v>1</v>
       </c>
       <c r="J1160" s="5" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28520,7 +28502,7 @@
         <v>1917</v>
       </c>
       <c r="B1161" s="5" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="C1161" s="0" t="s">
         <v>296</v>
@@ -28532,7 +28514,7 @@
         <v>1</v>
       </c>
       <c r="J1161" s="5" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28540,7 +28522,7 @@
         <v>1918</v>
       </c>
       <c r="B1162" s="5" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="C1162" s="0" t="s">
         <v>296</v>
@@ -28552,7 +28534,7 @@
         <v>1</v>
       </c>
       <c r="J1162" s="5" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28560,7 +28542,7 @@
         <v>1919</v>
       </c>
       <c r="B1163" s="5" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="C1163" s="0" t="s">
         <v>296</v>
@@ -28572,7 +28554,7 @@
         <v>1</v>
       </c>
       <c r="J1163" s="5" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28580,7 +28562,7 @@
         <v>1920</v>
       </c>
       <c r="B1164" s="5" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="C1164" s="0" t="s">
         <v>296</v>
@@ -28592,7 +28574,7 @@
         <v>1</v>
       </c>
       <c r="J1164" s="5" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28600,7 +28582,7 @@
         <v>1921</v>
       </c>
       <c r="B1165" s="5" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="C1165" s="0" t="s">
         <v>296</v>
@@ -28612,7 +28594,47 @@
         <v>1</v>
       </c>
       <c r="J1165" s="5" t="s">
-        <v>1862</v>
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1166" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B1166" s="5" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C1166" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1166" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1166" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1166" s="5" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1167" s="0" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1167" s="5" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C1167" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1167" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1167" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1167" s="5" t="s">
+        <v>1864</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3704" uniqueCount="1924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="1927">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -2460,6 +2460,9 @@
     <t xml:space="preserve">Tsjekkia</t>
   </si>
   <si>
+    <t xml:space="preserve">Czechia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Czechslovakia</t>
   </si>
   <si>
@@ -3949,6 +3952,12 @@
   </si>
   <si>
     <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eswatini (Kingdom of)</t>
   </si>
   <si>
     <t xml:space="preserve">Sweden</t>
@@ -5934,7 +5943,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" activeCellId="1" sqref="B393 C19"/>
+      <selection pane="bottomRight" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15216,7 +15225,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="B393 A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15478,14 +15487,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1167"/>
+  <dimension ref="A1:J1170"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B372" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B729" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A372" activeCellId="0" sqref="A372"/>
-      <selection pane="bottomRight" activeCell="B393" activeCellId="0" sqref="B393"/>
+      <selection pane="bottomLeft" activeCell="A729" activeCellId="0" sqref="A729"/>
+      <selection pane="bottomRight" activeCell="B751" activeCellId="0" sqref="B751"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18135,10 +18144,7 @@
         <v>812</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D259" s="0" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18173,9 +18179,6 @@
       <c r="D262" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E262" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
@@ -18188,7 +18191,7 @@
         <v>1</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18196,7 +18199,13 @@
         <v>817</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="D264" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E264" s="0" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18206,9 +18215,6 @@
       <c r="B265" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E265" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
@@ -18218,26 +18224,29 @@
         <v>101</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>675</v>
+        <v>548</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="0" t="s">
         <v>820</v>
       </c>
       <c r="B267" s="0" t="s">
         <v>101</v>
       </c>
       <c r="E267" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E268" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18245,7 +18254,7 @@
         <v>822</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18253,7 +18262,7 @@
         <v>823</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18309,7 +18318,7 @@
         <v>830</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>278</v>
+        <v>102</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18325,7 +18334,7 @@
         <v>832</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>106</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18335,16 +18344,16 @@
       <c r="B280" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E280" s="0" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>834</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="E281" s="0" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18378,27 +18387,27 @@
       <c r="B285" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E285" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="5" t="s">
+      <c r="A286" s="0" t="s">
         <v>839</v>
       </c>
       <c r="B286" s="0" t="s">
         <v>107</v>
       </c>
       <c r="E286" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E287" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18406,7 +18415,7 @@
         <v>841</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>132</v>
+        <v>249</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18422,7 +18431,7 @@
         <v>843</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18430,7 +18439,7 @@
         <v>844</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18440,16 +18449,16 @@
       <c r="B292" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E292" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>846</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18467,30 +18476,27 @@
       <c r="B295" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E295" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="5" t="s">
+      <c r="A296" s="0" t="s">
         <v>849</v>
       </c>
       <c r="B296" s="0" t="s">
         <v>113</v>
       </c>
       <c r="E296" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E297" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C297" s="0" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18520,7 +18526,10 @@
         <v>853</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18538,9 +18547,6 @@
       <c r="B302" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="E302" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
@@ -18549,6 +18555,9 @@
       <c r="B303" s="0" t="s">
         <v>119</v>
       </c>
+      <c r="E303" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
@@ -18563,7 +18572,7 @@
         <v>858</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18571,10 +18580,7 @@
         <v>859</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E306" s="0" t="s">
-        <v>548</v>
+        <v>116</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18585,26 +18591,29 @@
         <v>115</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>675</v>
+        <v>548</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="5" t="s">
+      <c r="A308" s="0" t="s">
         <v>861</v>
       </c>
       <c r="B308" s="0" t="s">
         <v>115</v>
       </c>
       <c r="E308" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E309" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
-        <v>862</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18630,9 +18639,6 @@
       <c r="B312" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="E312" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
@@ -18642,26 +18648,29 @@
         <v>118</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>548</v>
+        <v>675</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="5" t="s">
+      <c r="A314" s="0" t="s">
         <v>867</v>
       </c>
       <c r="B314" s="0" t="s">
         <v>118</v>
       </c>
       <c r="E314" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E315" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
-        <v>868</v>
-      </c>
-      <c r="B315" s="0" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18693,7 +18702,7 @@
         <v>872</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>233</v>
+        <v>137</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18717,15 +18726,15 @@
         <v>875</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>876</v>
+        <v>233</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="B323" s="0" t="s">
         <v>877</v>
-      </c>
-      <c r="B323" s="0" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18733,7 +18742,7 @@
         <v>878</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18765,7 +18774,7 @@
         <v>882</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18783,16 +18792,16 @@
       <c r="B330" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="E330" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
         <v>885</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>98</v>
+        <v>124</v>
+      </c>
+      <c r="E331" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18810,19 +18819,16 @@
       <c r="B333" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E333" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="5" t="s">
+      <c r="A334" s="0" t="s">
         <v>888</v>
       </c>
       <c r="B334" s="0" t="s">
         <v>98</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18832,24 +18838,24 @@
       <c r="B335" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="E335" s="0" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
+      <c r="A336" s="5" t="s">
         <v>890</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>891</v>
-      </c>
-      <c r="D336" s="0" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="B337" s="0" t="s">
         <v>892</v>
-      </c>
-      <c r="B337" s="0" t="s">
-        <v>891</v>
       </c>
       <c r="D337" s="0" t="n">
         <v>1</v>
@@ -18860,7 +18866,7 @@
         <v>893</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>97</v>
+        <v>892</v>
       </c>
       <c r="D338" s="0" t="n">
         <v>1</v>
@@ -18893,7 +18899,10 @@
         <v>896</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>126</v>
+        <v>97</v>
+      </c>
+      <c r="D341" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18901,7 +18910,7 @@
         <v>897</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18909,7 +18918,7 @@
         <v>898</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18919,9 +18928,6 @@
       <c r="B344" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E344" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
@@ -18931,7 +18937,7 @@
         <v>133</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>548</v>
+        <v>675</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18941,6 +18947,9 @@
       <c r="B346" s="0" t="s">
         <v>133</v>
       </c>
+      <c r="E346" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
@@ -18951,14 +18960,11 @@
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="5" t="s">
+      <c r="A348" s="0" t="s">
         <v>903</v>
       </c>
       <c r="B348" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="E348" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18969,15 +18975,18 @@
         <v>133</v>
       </c>
       <c r="E349" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E350" s="0" t="s">
         <v>576</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
-        <v>905</v>
-      </c>
-      <c r="B350" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18985,7 +18994,7 @@
         <v>906</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18993,10 +19002,7 @@
         <v>907</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C352" s="0" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19004,7 +19010,10 @@
         <v>908</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>138</v>
+        <v>129</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19012,7 +19021,7 @@
         <v>909</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19020,10 +19029,7 @@
         <v>910</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C355" s="0" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19031,7 +19037,10 @@
         <v>911</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19039,7 +19048,7 @@
         <v>912</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19071,7 +19080,7 @@
         <v>916</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19079,7 +19088,7 @@
         <v>917</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19087,19 +19096,19 @@
         <v>918</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>919</v>
+        <v>144</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="B364" s="0" t="s">
         <v>920</v>
       </c>
-      <c r="B364" s="0" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="6" t="s">
+      <c r="A365" s="0" t="s">
         <v>921</v>
       </c>
       <c r="B365" s="0" t="s">
@@ -19107,7 +19116,7 @@
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
+      <c r="A366" s="6" t="s">
         <v>922</v>
       </c>
       <c r="B366" s="0" t="s">
@@ -19123,19 +19132,19 @@
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="6" t="s">
-        <v>921</v>
+      <c r="A368" s="0" t="s">
+        <v>924</v>
       </c>
       <c r="B368" s="0" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="0" t="s">
-        <v>924</v>
+      <c r="A369" s="6" t="s">
+        <v>922</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>142</v>
+        <v>291</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19143,10 +19152,7 @@
         <v>925</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C370" s="0" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19220,7 +19226,10 @@
         <v>932</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="C377" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19238,9 +19247,6 @@
       <c r="B379" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E379" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
@@ -19250,7 +19256,7 @@
         <v>145</v>
       </c>
       <c r="E380" s="0" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19258,7 +19264,10 @@
         <v>936</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="E381" s="0" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19266,7 +19275,7 @@
         <v>937</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>268</v>
+        <v>140</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19274,7 +19283,7 @@
         <v>938</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19284,16 +19293,16 @@
       <c r="B384" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="E384" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
         <v>940</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
+      </c>
+      <c r="E385" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19303,16 +19312,16 @@
       <c r="B386" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="E386" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
         <v>942</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="E387" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19322,16 +19331,16 @@
       <c r="B388" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="E388" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
         <v>944</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="E389" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19379,7 +19388,7 @@
         <v>950</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19389,16 +19398,16 @@
       <c r="B396" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="E396" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
         <v>952</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="E397" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19416,9 +19425,6 @@
       <c r="B399" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="E399" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
@@ -19427,16 +19433,16 @@
       <c r="B400" s="0" t="s">
         <v>149</v>
       </c>
+      <c r="E400" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
         <v>956</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C401" s="0" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19444,10 +19450,10 @@
         <v>957</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="E402" s="0" t="s">
-        <v>548</v>
+        <v>147</v>
+      </c>
+      <c r="C402" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19457,13 +19463,16 @@
       <c r="B403" s="0" t="s">
         <v>153</v>
       </c>
+      <c r="E403" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
         <v>959</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19473,9 +19482,6 @@
       <c r="B405" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="E405" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
@@ -19484,13 +19490,16 @@
       <c r="B406" s="0" t="s">
         <v>154</v>
       </c>
+      <c r="E406" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
         <v>962</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19498,10 +19507,7 @@
         <v>963</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E408" s="0" t="s">
-        <v>548</v>
+        <v>155</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19511,16 +19517,16 @@
       <c r="B409" s="0" t="s">
         <v>158</v>
       </c>
+      <c r="E409" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
         <v>965</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C410" s="0" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19528,7 +19534,10 @@
         <v>966</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19538,27 +19547,27 @@
       <c r="B412" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E412" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="5" t="s">
+      <c r="A413" s="0" t="s">
         <v>968</v>
       </c>
       <c r="B413" s="0" t="s">
         <v>157</v>
       </c>
       <c r="E413" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E414" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="B414" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19568,27 +19577,27 @@
       <c r="B415" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="E415" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="5" t="s">
+      <c r="A416" s="0" t="s">
         <v>971</v>
       </c>
       <c r="B416" s="0" t="s">
         <v>159</v>
       </c>
       <c r="E416" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E417" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="0" t="s">
-        <v>972</v>
-      </c>
-      <c r="B417" s="0" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19596,7 +19605,7 @@
         <v>973</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19604,7 +19613,7 @@
         <v>974</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19612,7 +19621,7 @@
         <v>975</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19710,16 +19719,16 @@
       <c r="B432" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="E432" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
         <v>988</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>165</v>
+        <v>229</v>
+      </c>
+      <c r="E433" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19739,22 +19748,22 @@
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="5" t="s">
+      <c r="A436" s="0" t="s">
         <v>991</v>
       </c>
       <c r="B436" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E436" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="0" t="s">
+      <c r="A437" s="5" t="s">
         <v>992</v>
       </c>
       <c r="B437" s="0" t="s">
         <v>165</v>
+      </c>
+      <c r="E437" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19828,9 +19837,6 @@
       <c r="B446" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E446" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
@@ -19839,6 +19845,9 @@
       <c r="B447" s="0" t="s">
         <v>165</v>
       </c>
+      <c r="E447" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
@@ -19861,7 +19870,7 @@
         <v>1005</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19869,7 +19878,7 @@
         <v>1006</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19887,9 +19896,6 @@
       <c r="B453" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E453" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
@@ -19898,6 +19904,9 @@
       <c r="B454" s="0" t="s">
         <v>161</v>
       </c>
+      <c r="E454" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
@@ -19912,7 +19921,7 @@
         <v>1011</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19936,7 +19945,7 @@
         <v>1014</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19946,30 +19955,27 @@
       <c r="B460" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="E460" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="5" t="s">
+      <c r="A461" s="0" t="s">
         <v>1016</v>
       </c>
       <c r="B461" s="0" t="s">
         <v>178</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>556</v>
+        <v>675</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="0" t="s">
+      <c r="A462" s="5" t="s">
         <v>1017</v>
       </c>
       <c r="B462" s="0" t="s">
         <v>178</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19977,7 +19983,10 @@
         <v>1018</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
+      </c>
+      <c r="E463" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19995,16 +20004,16 @@
       <c r="B465" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="E465" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
         <v>1021</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="E466" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20012,7 +20021,7 @@
         <v>1022</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20020,7 +20029,7 @@
         <v>1023</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20038,9 +20047,6 @@
       <c r="B470" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="E470" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
@@ -20049,13 +20055,16 @@
       <c r="B471" s="0" t="s">
         <v>171</v>
       </c>
+      <c r="E471" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
         <v>1027</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20063,7 +20072,7 @@
         <v>1028</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20081,16 +20090,16 @@
       <c r="B475" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="E475" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
         <v>1031</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="E476" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20100,30 +20109,27 @@
       <c r="B477" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E477" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="5" t="s">
+      <c r="A478" s="0" t="s">
         <v>1033</v>
       </c>
       <c r="B478" s="0" t="s">
         <v>177</v>
       </c>
       <c r="E478" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E479" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="0" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B479" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C479" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20164,7 +20170,10 @@
         <v>1038</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="C483" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20190,9 +20199,6 @@
       <c r="B486" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E486" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
@@ -20201,6 +20207,9 @@
       <c r="B487" s="0" t="s">
         <v>191</v>
       </c>
+      <c r="E487" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
@@ -20241,27 +20250,27 @@
       <c r="B492" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E492" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="5" t="s">
+      <c r="A493" s="0" t="s">
         <v>1048</v>
       </c>
       <c r="B493" s="0" t="s">
         <v>191</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>556</v>
+        <v>675</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="0" t="s">
+      <c r="A494" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="B494" s="0" t="s">
         <v>191</v>
+      </c>
+      <c r="E494" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20285,7 +20294,7 @@
         <v>1052</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20293,7 +20302,7 @@
         <v>1053</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20301,7 +20310,7 @@
         <v>1054</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20309,7 +20318,7 @@
         <v>1055</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20317,7 +20326,7 @@
         <v>1056</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20325,7 +20334,7 @@
         <v>1057</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20333,7 +20342,7 @@
         <v>1058</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20349,7 +20358,7 @@
         <v>1060</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20365,10 +20374,7 @@
         <v>1062</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="C507" s="5" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20384,10 +20390,10 @@
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>1064</v>
+        <v>201</v>
       </c>
       <c r="C509" s="5" t="s">
         <v>118</v>
@@ -20395,10 +20401,13 @@
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B510" s="0" t="s">
         <v>1065</v>
       </c>
-      <c r="B510" s="0" t="s">
-        <v>199</v>
+      <c r="C510" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20406,7 +20415,7 @@
         <v>1066</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20414,7 +20423,7 @@
         <v>1067</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20422,7 +20431,7 @@
         <v>1068</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20438,13 +20447,7 @@
         <v>1070</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C515" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="F515" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20452,7 +20455,7 @@
         <v>1071</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C516" s="0" t="s">
         <v>187</v>
@@ -20466,7 +20469,7 @@
         <v>1072</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C517" s="0" t="s">
         <v>187</v>
@@ -20480,7 +20483,7 @@
         <v>1073</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C518" s="0" t="s">
         <v>187</v>
@@ -20494,7 +20497,7 @@
         <v>1074</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C519" s="0" t="s">
         <v>187</v>
@@ -20508,7 +20511,7 @@
         <v>1075</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C520" s="0" t="s">
         <v>187</v>
@@ -20522,7 +20525,7 @@
         <v>1076</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C521" s="0" t="s">
         <v>187</v>
@@ -20536,7 +20539,7 @@
         <v>1077</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C522" s="0" t="s">
         <v>187</v>
@@ -20550,7 +20553,7 @@
         <v>1078</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>1079</v>
+        <v>356</v>
       </c>
       <c r="C523" s="0" t="s">
         <v>187</v>
@@ -20561,10 +20564,10 @@
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>644</v>
+        <v>1079</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C524" s="0" t="s">
         <v>187</v>
@@ -20575,10 +20578,10 @@
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B525" s="0" t="s">
         <v>1080</v>
-      </c>
-      <c r="B525" s="0" t="s">
-        <v>357</v>
       </c>
       <c r="C525" s="0" t="s">
         <v>187</v>
@@ -20592,7 +20595,7 @@
         <v>1081</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C526" s="0" t="s">
         <v>187</v>
@@ -20606,7 +20609,7 @@
         <v>1082</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C527" s="0" t="s">
         <v>187</v>
@@ -20620,7 +20623,7 @@
         <v>1083</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C528" s="0" t="s">
         <v>187</v>
@@ -20634,7 +20637,7 @@
         <v>1084</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C529" s="0" t="s">
         <v>187</v>
@@ -20648,7 +20651,7 @@
         <v>1085</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C530" s="0" t="s">
         <v>187</v>
@@ -20676,7 +20679,7 @@
         <v>1087</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C532" s="0" t="s">
         <v>187</v>
@@ -20704,7 +20707,7 @@
         <v>1089</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C534" s="0" t="s">
         <v>187</v>
@@ -20718,7 +20721,7 @@
         <v>1090</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C535" s="0" t="s">
         <v>187</v>
@@ -20732,7 +20735,7 @@
         <v>1091</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C536" s="0" t="s">
         <v>187</v>
@@ -20760,7 +20763,7 @@
         <v>1093</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C538" s="0" t="s">
         <v>187</v>
@@ -20774,7 +20777,7 @@
         <v>1094</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C539" s="0" t="s">
         <v>187</v>
@@ -20788,7 +20791,7 @@
         <v>1095</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C540" s="0" t="s">
         <v>187</v>
@@ -20802,7 +20805,7 @@
         <v>1096</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C541" s="0" t="s">
         <v>187</v>
@@ -20816,7 +20819,7 @@
         <v>1097</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C542" s="0" t="s">
         <v>187</v>
@@ -20830,7 +20833,7 @@
         <v>1098</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C543" s="0" t="s">
         <v>187</v>
@@ -20844,7 +20847,7 @@
         <v>1099</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C544" s="0" t="s">
         <v>187</v>
@@ -20858,7 +20861,7 @@
         <v>1100</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C545" s="0" t="s">
         <v>187</v>
@@ -20872,7 +20875,7 @@
         <v>1101</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C546" s="0" t="s">
         <v>187</v>
@@ -20886,7 +20889,7 @@
         <v>1102</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C547" s="0" t="s">
         <v>187</v>
@@ -20900,7 +20903,7 @@
         <v>1103</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C548" s="0" t="s">
         <v>187</v>
@@ -20914,7 +20917,7 @@
         <v>1104</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C549" s="0" t="s">
         <v>187</v>
@@ -20942,7 +20945,7 @@
         <v>1106</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C551" s="0" t="s">
         <v>187</v>
@@ -20956,7 +20959,13 @@
         <v>1107</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>120</v>
+        <v>379</v>
+      </c>
+      <c r="C552" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F552" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20990,9 +20999,6 @@
       <c r="B556" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="E556" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
@@ -21001,6 +21007,9 @@
       <c r="B557" s="0" t="s">
         <v>120</v>
       </c>
+      <c r="E557" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
@@ -21015,39 +21024,39 @@
         <v>1114</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="G559" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H559" s="0" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I559" s="0" t="s">
-        <v>1116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B560" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G560" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H560" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I560" s="0" t="s">
         <v>1117</v>
       </c>
-      <c r="B560" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E560" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="5" t="s">
+      <c r="A561" s="0" t="s">
         <v>1118</v>
       </c>
       <c r="B561" s="0" t="s">
         <v>184</v>
       </c>
+      <c r="E561" s="0" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="0" t="s">
+      <c r="A562" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="B562" s="0" t="s">
@@ -21075,7 +21084,7 @@
         <v>1122</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21083,7 +21092,7 @@
         <v>1123</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21093,16 +21102,16 @@
       <c r="B567" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E567" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
         <v>1125</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="E568" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21110,7 +21119,7 @@
         <v>1126</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21118,7 +21127,7 @@
         <v>1127</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21152,9 +21161,6 @@
       <c r="B574" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E574" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
@@ -21164,7 +21170,7 @@
         <v>181</v>
       </c>
       <c r="E575" s="0" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21172,7 +21178,10 @@
         <v>1133</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>198</v>
+        <v>181</v>
+      </c>
+      <c r="E576" s="0" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21188,7 +21197,7 @@
         <v>1135</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21212,7 +21221,7 @@
         <v>1138</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21220,7 +21229,7 @@
         <v>1139</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21228,7 +21237,7 @@
         <v>1140</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21236,7 +21245,7 @@
         <v>1141</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21256,22 +21265,22 @@
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="5" t="s">
+      <c r="A587" s="0" t="s">
         <v>1144</v>
       </c>
       <c r="B587" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E587" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="0" t="s">
+      <c r="A588" s="5" t="s">
         <v>1145</v>
       </c>
       <c r="B588" s="0" t="s">
         <v>213</v>
+      </c>
+      <c r="E588" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21289,19 +21298,16 @@
       <c r="B590" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E590" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
         <v>1148</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D591" s="0" t="n">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="E591" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21331,10 +21337,10 @@
         <v>1151</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C594" s="0" t="s">
-        <v>118</v>
+        <v>41</v>
+      </c>
+      <c r="D594" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21342,7 +21348,10 @@
         <v>1152</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>218</v>
+        <v>207</v>
+      </c>
+      <c r="C595" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21358,7 +21367,7 @@
         <v>1154</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21366,7 +21375,7 @@
         <v>1155</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21374,7 +21383,7 @@
         <v>1156</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21382,7 +21391,7 @@
         <v>1157</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21390,7 +21399,7 @@
         <v>1158</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21398,7 +21407,7 @@
         <v>1159</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21406,7 +21415,7 @@
         <v>1160</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21416,30 +21425,27 @@
       <c r="B604" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E604" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="5" t="s">
+      <c r="A605" s="0" t="s">
         <v>1162</v>
       </c>
       <c r="B605" s="0" t="s">
         <v>214</v>
       </c>
       <c r="E605" s="0" t="s">
-        <v>556</v>
+        <v>675</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="0" t="s">
+      <c r="A606" s="5" t="s">
         <v>1163</v>
       </c>
       <c r="B606" s="0" t="s">
         <v>214</v>
       </c>
       <c r="E606" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21447,7 +21453,10 @@
         <v>1164</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
+      </c>
+      <c r="E607" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21455,7 +21464,7 @@
         <v>1165</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21463,7 +21472,7 @@
         <v>1166</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21471,7 +21480,7 @@
         <v>1167</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21521,9 +21530,6 @@
       <c r="B616" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E616" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
@@ -21532,6 +21538,9 @@
       <c r="B617" s="0" t="s">
         <v>232</v>
       </c>
+      <c r="E617" s="0" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
@@ -21540,19 +21549,16 @@
       <c r="B618" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="I618" s="0" t="s">
-        <v>1176</v>
-      </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B619" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E619" s="0" t="s">
-        <v>548</v>
+      <c r="I619" s="0" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21563,7 +21569,7 @@
         <v>232</v>
       </c>
       <c r="E620" s="0" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21571,7 +21577,10 @@
         <v>1179</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>122</v>
+        <v>232</v>
+      </c>
+      <c r="E621" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21579,7 +21588,7 @@
         <v>1180</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>298</v>
+        <v>122</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21587,7 +21596,7 @@
         <v>1181</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21595,7 +21604,7 @@
         <v>1182</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21611,7 +21620,7 @@
         <v>1184</v>
       </c>
       <c r="B626" s="0" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21619,7 +21628,7 @@
         <v>1185</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21627,26 +21636,26 @@
         <v>1186</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="5" t="s">
+      <c r="A629" s="0" t="s">
         <v>1187</v>
       </c>
       <c r="B629" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E629" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="0" t="s">
+      <c r="A630" s="5" t="s">
         <v>1188</v>
       </c>
       <c r="B630" s="0" t="s">
         <v>224</v>
+      </c>
+      <c r="E630" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21680,16 +21689,16 @@
       <c r="B634" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E634" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
         <v>1193</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="E635" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21705,7 +21714,7 @@
         <v>1195</v>
       </c>
       <c r="B637" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21723,16 +21732,16 @@
       <c r="B639" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E639" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
         <v>1198</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="E640" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21748,35 +21757,35 @@
         <v>1200</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C642" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G642" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H642" s="0" t="s">
-        <v>1201</v>
+        <v>230</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B643" s="0" t="s">
-        <v>1201</v>
+        <v>228</v>
       </c>
       <c r="C643" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G643" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H643" s="0" t="s">
+        <v>1202</v>
+      </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B644" s="0" t="s">
         <v>1202</v>
       </c>
-      <c r="B644" s="0" t="s">
-        <v>234</v>
+      <c r="C644" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21784,7 +21793,7 @@
         <v>1203</v>
       </c>
       <c r="B645" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21800,7 +21809,7 @@
         <v>1205</v>
       </c>
       <c r="B647" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21818,27 +21827,27 @@
       <c r="B649" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="E649" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="5" t="s">
+      <c r="A650" s="0" t="s">
         <v>1208</v>
       </c>
       <c r="B650" s="0" t="s">
         <v>236</v>
       </c>
       <c r="E650" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B651" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E651" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="0" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B651" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21848,9 +21857,6 @@
       <c r="B652" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E652" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
@@ -21859,6 +21865,9 @@
       <c r="B653" s="0" t="s">
         <v>237</v>
       </c>
+      <c r="E653" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
@@ -21869,22 +21878,22 @@
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="5" t="s">
+      <c r="A655" s="0" t="s">
         <v>1213</v>
       </c>
       <c r="B655" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E655" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="0" t="s">
+      <c r="A656" s="5" t="s">
         <v>1214</v>
       </c>
       <c r="B656" s="0" t="s">
         <v>237</v>
+      </c>
+      <c r="E656" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21892,7 +21901,7 @@
         <v>1215</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21908,10 +21917,7 @@
         <v>1217</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C659" s="0" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21930,7 +21936,10 @@
         <v>1219</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>246</v>
+        <v>460</v>
+      </c>
+      <c r="C661" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21946,7 +21955,7 @@
         <v>1221</v>
       </c>
       <c r="B663" s="0" t="s">
-        <v>457</v>
+        <v>246</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21954,7 +21963,7 @@
         <v>1222</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21970,7 +21979,7 @@
         <v>1224</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21978,7 +21987,7 @@
         <v>1225</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22010,7 +22019,7 @@
         <v>1229</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22026,10 +22035,7 @@
         <v>1231</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C673" s="0" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22048,7 +22054,10 @@
         <v>1233</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>253</v>
+        <v>180</v>
+      </c>
+      <c r="C675" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22064,7 +22073,7 @@
         <v>1235</v>
       </c>
       <c r="B677" s="0" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22120,7 +22129,7 @@
         <v>1242</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22144,21 +22153,12 @@
         <v>1245</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C687" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G687" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H687" s="0" t="s">
-        <v>1246</v>
+        <v>301</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B688" s="0" t="s">
         <v>46</v>
@@ -22170,15 +22170,24 @@
         <v>1</v>
       </c>
       <c r="H688" s="0" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B689" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C689" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G689" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H689" s="0" t="s">
         <v>1247</v>
-      </c>
-      <c r="B689" s="0" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22186,7 +22195,7 @@
         <v>1248</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22194,7 +22203,7 @@
         <v>1249</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22226,7 +22235,7 @@
         <v>1253</v>
       </c>
       <c r="B695" s="0" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22250,7 +22259,7 @@
         <v>1256</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22258,7 +22267,7 @@
         <v>1257</v>
       </c>
       <c r="B699" s="0" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22268,16 +22277,16 @@
       <c r="B700" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="E700" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
         <v>1259</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="E701" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22303,20 +22312,20 @@
       <c r="B704" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="E704" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="5" t="s">
+      <c r="A705" s="0" t="s">
         <v>1263</v>
       </c>
       <c r="B705" s="0" t="s">
         <v>255</v>
       </c>
+      <c r="E705" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="0" t="s">
+      <c r="A706" s="5" t="s">
         <v>1264</v>
       </c>
       <c r="B706" s="0" t="s">
@@ -22344,7 +22353,7 @@
         <v>1267</v>
       </c>
       <c r="B709" s="0" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22352,7 +22361,7 @@
         <v>1268</v>
       </c>
       <c r="B710" s="0" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22368,7 +22377,7 @@
         <v>1270</v>
       </c>
       <c r="B712" s="0" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22384,7 +22393,7 @@
         <v>1272</v>
       </c>
       <c r="B714" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22392,10 +22401,7 @@
         <v>1273</v>
       </c>
       <c r="B715" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C715" s="0" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22414,7 +22420,10 @@
         <v>1275</v>
       </c>
       <c r="B717" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
+      </c>
+      <c r="C717" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22440,9 +22449,6 @@
       <c r="B720" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E720" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
@@ -22451,24 +22457,27 @@
       <c r="B721" s="0" t="s">
         <v>261</v>
       </c>
+      <c r="E721" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="5" t="s">
+      <c r="A722" s="0" t="s">
         <v>1280</v>
       </c>
       <c r="B722" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E722" s="0" t="s">
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B723" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E723" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="0" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B723" s="0" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22478,27 +22487,27 @@
       <c r="B724" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="E724" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="5" t="s">
+      <c r="A725" s="0" t="s">
         <v>1283</v>
       </c>
       <c r="B725" s="0" t="s">
         <v>262</v>
       </c>
       <c r="E725" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B726" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E726" s="0" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="0" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B726" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22514,7 +22523,7 @@
         <v>1286</v>
       </c>
       <c r="B728" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22522,7 +22531,7 @@
         <v>1287</v>
       </c>
       <c r="B729" s="0" t="s">
-        <v>462</v>
+        <v>251</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22530,26 +22539,26 @@
         <v>1288</v>
       </c>
       <c r="B730" s="0" t="s">
-        <v>305</v>
+        <v>462</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="5" t="s">
+      <c r="A731" s="0" t="s">
         <v>1289</v>
       </c>
       <c r="B731" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E731" s="0" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="0" t="s">
+      <c r="A732" s="5" t="s">
         <v>1290</v>
       </c>
       <c r="B732" s="0" t="s">
         <v>305</v>
+      </c>
+      <c r="E732" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22559,9 +22568,6 @@
       <c r="B733" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E733" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
@@ -22570,6 +22576,9 @@
       <c r="B734" s="0" t="s">
         <v>305</v>
       </c>
+      <c r="E734" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
@@ -22592,7 +22601,7 @@
         <v>1295</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22600,7 +22609,7 @@
         <v>1296</v>
       </c>
       <c r="B738" s="0" t="s">
-        <v>464</v>
+        <v>306</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22608,7 +22617,7 @@
         <v>1297</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>257</v>
+        <v>464</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22616,7 +22625,7 @@
         <v>1298</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22642,16 +22651,16 @@
       <c r="B743" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E743" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
         <v>1302</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>174</v>
+        <v>111</v>
+      </c>
+      <c r="E744" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22667,7 +22676,7 @@
         <v>1304</v>
       </c>
       <c r="B746" s="0" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22675,7 +22684,7 @@
         <v>1305</v>
       </c>
       <c r="B747" s="0" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22683,15 +22692,15 @@
         <v>1306</v>
       </c>
       <c r="B748" s="0" t="s">
-        <v>1307</v>
+        <v>260</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B749" s="0" t="s">
         <v>1308</v>
-      </c>
-      <c r="B749" s="0" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22699,7 +22708,7 @@
         <v>1309</v>
       </c>
       <c r="B750" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22707,10 +22716,7 @@
         <v>1310</v>
       </c>
       <c r="B751" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="E751" s="0" t="s">
-        <v>675</v>
+        <v>264</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22718,21 +22724,15 @@
         <v>1311</v>
       </c>
       <c r="B752" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="E752" s="0" t="s">
-        <v>548</v>
+        <v>264</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="5" t="s">
+      <c r="A753" s="0" t="s">
         <v>1312</v>
       </c>
       <c r="B753" s="0" t="s">
         <v>263</v>
-      </c>
-      <c r="E753" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22740,7 +22740,10 @@
         <v>1313</v>
       </c>
       <c r="B754" s="0" t="s">
-        <v>77</v>
+        <v>263</v>
+      </c>
+      <c r="E754" s="0" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22748,15 +22751,21 @@
         <v>1314</v>
       </c>
       <c r="B755" s="0" t="s">
-        <v>77</v>
+        <v>263</v>
+      </c>
+      <c r="E755" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="0" t="s">
+      <c r="A756" s="5" t="s">
         <v>1315</v>
       </c>
       <c r="B756" s="0" t="s">
-        <v>77</v>
+        <v>263</v>
+      </c>
+      <c r="E756" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22766,7 +22775,6 @@
       <c r="B757" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E757" s="7"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
@@ -22781,9 +22789,6 @@
         <v>1318</v>
       </c>
       <c r="B759" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C759" s="0" t="s">
         <v>77</v>
       </c>
     </row>
@@ -22792,18 +22797,16 @@
         <v>1319</v>
       </c>
       <c r="B760" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C760" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="E760" s="7"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
         <v>1320</v>
       </c>
       <c r="B761" s="0" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22811,7 +22814,10 @@
         <v>1321</v>
       </c>
       <c r="B762" s="0" t="s">
-        <v>267</v>
+        <v>79</v>
+      </c>
+      <c r="C762" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22819,10 +22825,10 @@
         <v>1322</v>
       </c>
       <c r="B763" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="E763" s="0" t="s">
-        <v>548</v>
+        <v>78</v>
+      </c>
+      <c r="C763" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22838,7 +22844,7 @@
         <v>1324</v>
       </c>
       <c r="B765" s="0" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22846,7 +22852,10 @@
         <v>1325</v>
       </c>
       <c r="B766" s="0" t="s">
-        <v>284</v>
+        <v>267</v>
+      </c>
+      <c r="E766" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22854,7 +22863,7 @@
         <v>1326</v>
       </c>
       <c r="B767" s="0" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22902,7 +22911,7 @@
         <v>1332</v>
       </c>
       <c r="B773" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22910,7 +22919,7 @@
         <v>1333</v>
       </c>
       <c r="B774" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22918,7 +22927,7 @@
         <v>1334</v>
       </c>
       <c r="B775" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22926,7 +22935,7 @@
         <v>1335</v>
       </c>
       <c r="B776" s="0" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22942,7 +22951,7 @@
         <v>1337</v>
       </c>
       <c r="B778" s="0" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22950,7 +22959,7 @@
         <v>1338</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22958,7 +22967,7 @@
         <v>1339</v>
       </c>
       <c r="B780" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22966,7 +22975,7 @@
         <v>1340</v>
       </c>
       <c r="B781" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22974,7 +22983,7 @@
         <v>1341</v>
       </c>
       <c r="B782" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22982,7 +22991,7 @@
         <v>1342</v>
       </c>
       <c r="B783" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22990,7 +22999,7 @@
         <v>1343</v>
       </c>
       <c r="B784" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22998,7 +23007,7 @@
         <v>1344</v>
       </c>
       <c r="B785" s="0" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23006,7 +23015,7 @@
         <v>1345</v>
       </c>
       <c r="B786" s="0" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23014,10 +23023,7 @@
         <v>1346</v>
       </c>
       <c r="B787" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="E787" s="0" t="s">
-        <v>548</v>
+        <v>275</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23025,7 +23031,7 @@
         <v>1347</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23041,7 +23047,10 @@
         <v>1349</v>
       </c>
       <c r="B790" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="E790" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23049,10 +23058,7 @@
         <v>1350</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="E791" s="0" t="s">
-        <v>548</v>
+        <v>280</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23060,10 +23066,7 @@
         <v>1351</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="E792" s="0" t="s">
-        <v>576</v>
+        <v>280</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23071,18 +23074,18 @@
         <v>1352</v>
       </c>
       <c r="B793" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="5" t="s">
+      <c r="A794" s="0" t="s">
         <v>1353</v>
       </c>
       <c r="B794" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E794" s="0" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23090,7 +23093,10 @@
         <v>1354</v>
       </c>
       <c r="B795" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="E795" s="0" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23100,19 +23106,16 @@
       <c r="B796" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E796" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="0" t="s">
+      <c r="A797" s="5" t="s">
         <v>1356</v>
       </c>
       <c r="B797" s="0" t="s">
         <v>282</v>
       </c>
       <c r="E797" s="0" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23128,10 +23131,10 @@
         <v>1358</v>
       </c>
       <c r="B799" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C799" s="0" t="s">
         <v>282</v>
+      </c>
+      <c r="E799" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23139,10 +23142,10 @@
         <v>1359</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C800" s="0" t="s">
         <v>282</v>
+      </c>
+      <c r="E800" s="0" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23150,7 +23153,7 @@
         <v>1360</v>
       </c>
       <c r="B801" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23158,7 +23161,10 @@
         <v>1361</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>269</v>
+        <v>315</v>
+      </c>
+      <c r="C802" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23166,7 +23172,10 @@
         <v>1362</v>
       </c>
       <c r="B803" s="0" t="s">
-        <v>283</v>
+        <v>315</v>
+      </c>
+      <c r="C803" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23174,7 +23183,7 @@
         <v>1363</v>
       </c>
       <c r="B804" s="0" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23182,7 +23191,7 @@
         <v>1364</v>
       </c>
       <c r="B805" s="0" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23190,7 +23199,7 @@
         <v>1365</v>
       </c>
       <c r="B806" s="0" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23198,7 +23207,7 @@
         <v>1366</v>
       </c>
       <c r="B807" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23206,7 +23215,7 @@
         <v>1367</v>
       </c>
       <c r="B808" s="0" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23214,7 +23223,7 @@
         <v>1368</v>
       </c>
       <c r="B809" s="0" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23222,7 +23231,7 @@
         <v>1369</v>
       </c>
       <c r="B810" s="0" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23240,16 +23249,13 @@
       <c r="B812" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E812" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
         <v>1372</v>
       </c>
       <c r="B813" s="0" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23257,7 +23263,7 @@
         <v>1373</v>
       </c>
       <c r="B814" s="0" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23265,7 +23271,7 @@
         <v>1374</v>
       </c>
       <c r="B815" s="0" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="E815" s="0" t="s">
         <v>548</v>
@@ -23278,9 +23284,6 @@
       <c r="B816" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E816" s="0" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
@@ -23297,6 +23300,9 @@
       <c r="B818" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="E818" s="0" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
@@ -23305,16 +23311,16 @@
       <c r="B819" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="E819" s="0" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="5" t="s">
+      <c r="A820" s="0" t="s">
         <v>1379</v>
       </c>
       <c r="B820" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="E820" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23330,21 +23336,18 @@
         <v>1381</v>
       </c>
       <c r="B822" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C822" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="0" t="s">
+      <c r="A823" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C823" s="0" t="s">
         <v>123</v>
+      </c>
+      <c r="E823" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23352,9 +23355,6 @@
         <v>1383</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C824" s="0" t="s">
         <v>123</v>
       </c>
     </row>
@@ -23363,7 +23363,7 @@
         <v>1384</v>
       </c>
       <c r="B825" s="0" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C825" s="0" t="s">
         <v>123</v>
@@ -23374,7 +23374,7 @@
         <v>1385</v>
       </c>
       <c r="B826" s="0" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C826" s="0" t="s">
         <v>123</v>
@@ -23385,13 +23385,10 @@
         <v>1386</v>
       </c>
       <c r="B827" s="0" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C827" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="E827" s="0" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23399,36 +23396,48 @@
         <v>1387</v>
       </c>
       <c r="B828" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C828" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
-        <v>289</v>
+        <v>1388</v>
       </c>
       <c r="B829" s="0" t="s">
-        <v>289</v>
+        <v>211</v>
+      </c>
+      <c r="C829" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B830" s="0" t="s">
-        <v>289</v>
+        <v>211</v>
+      </c>
+      <c r="C830" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E830" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="0" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
-        <v>1390</v>
+        <v>289</v>
       </c>
       <c r="B832" s="0" t="s">
         <v>289</v>
@@ -23455,66 +23464,51 @@
         <v>1393</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C835" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="G835" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H835" s="0" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C836" s="0" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="0" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="C837" s="0" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B838" s="0" t="s">
         <v>1397</v>
-      </c>
-      <c r="B838" s="0" t="s">
-        <v>407</v>
       </c>
       <c r="C838" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="F838" s="0" t="n">
-        <v>1</v>
+      <c r="G838" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H838" s="0" t="s">
+        <v>1398</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B839" s="0" t="s">
         <v>1398</v>
-      </c>
-      <c r="B839" s="0" t="s">
-        <v>408</v>
       </c>
       <c r="C839" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="F839" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23522,13 +23516,10 @@
         <v>1399</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="C840" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="F840" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23536,7 +23527,7 @@
         <v>1400</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>289</v>
@@ -23550,7 +23541,7 @@
         <v>1401</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>289</v>
@@ -23564,7 +23555,7 @@
         <v>1402</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C843" s="0" t="s">
         <v>289</v>
@@ -23578,7 +23569,7 @@
         <v>1403</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C844" s="0" t="s">
         <v>289</v>
@@ -23592,7 +23583,7 @@
         <v>1404</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C845" s="0" t="s">
         <v>289</v>
@@ -23606,7 +23597,7 @@
         <v>1405</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>1406</v>
+        <v>412</v>
       </c>
       <c r="C846" s="0" t="s">
         <v>289</v>
@@ -23617,10 +23608,10 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C847" s="0" t="s">
         <v>289</v>
@@ -23630,11 +23621,11 @@
       </c>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="6" t="s">
-        <v>882</v>
+      <c r="A848" s="0" t="s">
+        <v>1407</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C848" s="0" t="s">
         <v>289</v>
@@ -23648,7 +23639,7 @@
         <v>1408</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>417</v>
+        <v>1409</v>
       </c>
       <c r="C849" s="0" t="s">
         <v>289</v>
@@ -23659,10 +23650,10 @@
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="0" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C850" s="0" t="s">
         <v>289</v>
@@ -23672,11 +23663,11 @@
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="0" t="s">
-        <v>1410</v>
+      <c r="A851" s="6" t="s">
+        <v>883</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C851" s="0" t="s">
         <v>289</v>
@@ -23690,7 +23681,7 @@
         <v>1411</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C852" s="0" t="s">
         <v>289</v>
@@ -23704,7 +23695,7 @@
         <v>1412</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C853" s="0" t="s">
         <v>289</v>
@@ -23718,7 +23709,7 @@
         <v>1413</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C854" s="0" t="s">
         <v>289</v>
@@ -23732,7 +23723,7 @@
         <v>1414</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C855" s="0" t="s">
         <v>289</v>
@@ -23746,7 +23737,7 @@
         <v>1415</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>289</v>
@@ -23760,7 +23751,7 @@
         <v>1416</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C857" s="0" t="s">
         <v>289</v>
@@ -23774,7 +23765,7 @@
         <v>1417</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C858" s="0" t="s">
         <v>289</v>
@@ -23788,7 +23779,7 @@
         <v>1418</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C859" s="0" t="s">
         <v>289</v>
@@ -23802,7 +23793,7 @@
         <v>1419</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C860" s="0" t="s">
         <v>289</v>
@@ -23816,7 +23807,7 @@
         <v>1420</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C861" s="0" t="s">
         <v>289</v>
@@ -23830,7 +23821,7 @@
         <v>1421</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C862" s="0" t="s">
         <v>289</v>
@@ -23844,7 +23835,7 @@
         <v>1422</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C863" s="0" t="s">
         <v>289</v>
@@ -23858,7 +23849,7 @@
         <v>1423</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C864" s="0" t="s">
         <v>289</v>
@@ -23872,7 +23863,7 @@
         <v>1424</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C865" s="0" t="s">
         <v>289</v>
@@ -23886,7 +23877,7 @@
         <v>1425</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C866" s="0" t="s">
         <v>289</v>
@@ -23900,7 +23891,7 @@
         <v>1426</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C867" s="0" t="s">
         <v>289</v>
@@ -23914,7 +23905,7 @@
         <v>1427</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C868" s="0" t="s">
         <v>289</v>
@@ -23928,7 +23919,7 @@
         <v>1428</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C869" s="0" t="s">
         <v>289</v>
@@ -23942,7 +23933,7 @@
         <v>1429</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C870" s="0" t="s">
         <v>289</v>
@@ -23956,7 +23947,7 @@
         <v>1430</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>289</v>
@@ -23970,7 +23961,7 @@
         <v>1431</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>289</v>
@@ -23984,7 +23975,7 @@
         <v>1432</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C873" s="0" t="s">
         <v>289</v>
@@ -23998,7 +23989,7 @@
         <v>1433</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C874" s="0" t="s">
         <v>289</v>
@@ -24012,7 +24003,7 @@
         <v>1434</v>
       </c>
       <c r="B875" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C875" s="0" t="s">
         <v>289</v>
@@ -24026,7 +24017,7 @@
         <v>1435</v>
       </c>
       <c r="B876" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C876" s="0" t="s">
         <v>289</v>
@@ -24040,7 +24031,7 @@
         <v>1436</v>
       </c>
       <c r="B877" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C877" s="0" t="s">
         <v>289</v>
@@ -24054,7 +24045,7 @@
         <v>1437</v>
       </c>
       <c r="B878" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C878" s="0" t="s">
         <v>289</v>
@@ -24068,7 +24059,7 @@
         <v>1438</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C879" s="0" t="s">
         <v>289</v>
@@ -24082,7 +24073,7 @@
         <v>1439</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C880" s="0" t="s">
         <v>289</v>
@@ -24096,7 +24087,7 @@
         <v>1440</v>
       </c>
       <c r="B881" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C881" s="0" t="s">
         <v>289</v>
@@ -24110,7 +24101,7 @@
         <v>1441</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C882" s="0" t="s">
         <v>289</v>
@@ -24124,7 +24115,7 @@
         <v>1442</v>
       </c>
       <c r="B883" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C883" s="0" t="s">
         <v>289</v>
@@ -24138,7 +24129,7 @@
         <v>1443</v>
       </c>
       <c r="B884" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C884" s="0" t="s">
         <v>289</v>
@@ -24152,7 +24143,7 @@
         <v>1444</v>
       </c>
       <c r="B885" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C885" s="0" t="s">
         <v>289</v>
@@ -24166,7 +24157,7 @@
         <v>1445</v>
       </c>
       <c r="B886" s="0" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C886" s="0" t="s">
         <v>289</v>
@@ -24180,7 +24171,7 @@
         <v>1446</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C887" s="0" t="s">
         <v>289</v>
@@ -24194,7 +24185,7 @@
         <v>1447</v>
       </c>
       <c r="B888" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C888" s="0" t="s">
         <v>289</v>
@@ -24208,7 +24199,13 @@
         <v>1448</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>288</v>
+        <v>454</v>
+      </c>
+      <c r="C889" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F889" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24216,7 +24213,13 @@
         <v>1449</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>259</v>
+        <v>455</v>
+      </c>
+      <c r="C890" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F890" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24224,21 +24227,21 @@
         <v>1450</v>
       </c>
       <c r="B891" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D891" s="0" t="n">
+        <v>456</v>
+      </c>
+      <c r="C891" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F891" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="5" t="s">
+      <c r="A892" s="0" t="s">
         <v>1451</v>
       </c>
       <c r="B892" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D892" s="0" t="n">
-        <v>1</v>
+        <v>288</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24248,30 +24251,27 @@
       <c r="B893" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="D893" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E893" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
         <v>1453</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>290</v>
+        <v>259</v>
+      </c>
+      <c r="D894" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="0" t="s">
+      <c r="A895" s="5" t="s">
         <v>1454</v>
       </c>
       <c r="B895" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="E895" s="0" t="s">
-        <v>548</v>
+        <v>259</v>
+      </c>
+      <c r="D895" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24279,7 +24279,13 @@
         <v>1455</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>297</v>
+        <v>259</v>
+      </c>
+      <c r="D896" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E896" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24287,7 +24293,7 @@
         <v>1456</v>
       </c>
       <c r="B897" s="0" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24295,7 +24301,10 @@
         <v>1457</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>293</v>
+        <v>290</v>
+      </c>
+      <c r="E898" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24303,7 +24312,7 @@
         <v>1458</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24327,10 +24336,7 @@
         <v>1461</v>
       </c>
       <c r="B902" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="E902" s="0" t="s">
-        <v>548</v>
+        <v>293</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24338,7 +24344,7 @@
         <v>1462</v>
       </c>
       <c r="B903" s="0" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24346,76 +24352,46 @@
         <v>1463</v>
       </c>
       <c r="B904" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C904" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G904" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H904" s="0" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I904" s="0" t="s">
-        <v>1465</v>
+        <v>293</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B905" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C905" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G905" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H905" s="0" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I905" s="0" t="s">
-        <v>1465</v>
+        <v>296</v>
+      </c>
+      <c r="E905" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B906" s="0" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C906" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H906" s="0" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I906" s="0" t="s">
-        <v>1465</v>
+        <v>296</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B907" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C907" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G907" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H907" s="0" t="s">
         <v>1467</v>
       </c>
-      <c r="B907" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C907" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G907" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H907" s="0" t="s">
+      <c r="I907" s="0" t="s">
         <v>1468</v>
-      </c>
-      <c r="I907" s="0" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24423,44 +24399,41 @@
         <v>1469</v>
       </c>
       <c r="B908" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C908" s="0" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c r="G908" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H908" s="0" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I908" s="0" t="s">
         <v>1468</v>
-      </c>
-      <c r="I908" s="0" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B909" s="0" t="s">
-        <v>295</v>
+        <v>1467</v>
       </c>
       <c r="C909" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G909" s="0" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="H909" s="0" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I909" s="0" t="s">
         <v>1468</v>
-      </c>
-      <c r="I909" s="0" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B910" s="0" t="s">
         <v>295</v>
@@ -24472,10 +24445,10 @@
         <v>1</v>
       </c>
       <c r="H910" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I910" s="0" t="s">
         <v>1468</v>
-      </c>
-      <c r="I910" s="0" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24492,10 +24465,10 @@
         <v>1</v>
       </c>
       <c r="H911" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I911" s="0" t="s">
         <v>1468</v>
-      </c>
-      <c r="I911" s="0" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24512,10 +24485,10 @@
         <v>1</v>
       </c>
       <c r="H912" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I912" s="0" t="s">
         <v>1468</v>
-      </c>
-      <c r="I912" s="0" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24532,56 +24505,92 @@
         <v>1</v>
       </c>
       <c r="H913" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I913" s="0" t="s">
         <v>1468</v>
-      </c>
-      <c r="I913" s="0" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
-        <v>1469</v>
+        <v>1475</v>
       </c>
       <c r="B914" s="0" t="s">
-        <v>1468</v>
+        <v>295</v>
       </c>
       <c r="C914" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G914" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H914" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I914" s="0" t="s">
+        <v>1468</v>
+      </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B915" s="0" t="s">
-        <v>1468</v>
+        <v>295</v>
       </c>
       <c r="C915" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G915" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H915" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I915" s="0" t="s">
+        <v>1468</v>
+      </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="B916" s="0" t="s">
-        <v>300</v>
+        <v>295</v>
+      </c>
+      <c r="C916" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G916" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H916" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I916" s="0" t="s">
+        <v>1468</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="B917" s="0" t="s">
-        <v>300</v>
+        <v>1471</v>
+      </c>
+      <c r="C917" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="B918" s="0" t="s">
-        <v>110</v>
+        <v>1471</v>
+      </c>
+      <c r="C918" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24589,7 +24598,7 @@
         <v>1478</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24597,7 +24606,7 @@
         <v>1479</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24605,7 +24614,7 @@
         <v>1480</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24613,7 +24622,7 @@
         <v>1481</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>302</v>
+        <v>110</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24621,7 +24630,7 @@
         <v>1482</v>
       </c>
       <c r="B923" s="0" t="s">
-        <v>302</v>
+        <v>110</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24629,7 +24638,7 @@
         <v>1483</v>
       </c>
       <c r="B924" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24645,10 +24654,7 @@
         <v>1485</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D926" s="0" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24656,13 +24662,7 @@
         <v>1486</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D927" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E927" s="0" t="s">
-        <v>548</v>
+        <v>302</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24670,10 +24670,7 @@
         <v>1487</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D928" s="0" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24681,7 +24678,7 @@
         <v>1488</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D929" s="0" t="n">
         <v>1</v>
@@ -24692,10 +24689,13 @@
         <v>1489</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D930" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E930" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24703,13 +24703,10 @@
         <v>1490</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D931" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E931" s="0" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24717,13 +24714,10 @@
         <v>1491</v>
       </c>
       <c r="B932" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D932" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E932" s="0" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24742,7 +24736,13 @@
         <v>1493</v>
       </c>
       <c r="B934" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="D934" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E934" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24750,7 +24750,13 @@
         <v>1494</v>
       </c>
       <c r="B935" s="0" t="s">
-        <v>308</v>
+        <v>304</v>
+      </c>
+      <c r="D935" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E935" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24758,7 +24764,10 @@
         <v>1495</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>105</v>
+        <v>303</v>
+      </c>
+      <c r="D936" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24766,7 +24775,7 @@
         <v>1496</v>
       </c>
       <c r="B937" s="0" t="s">
-        <v>114</v>
+        <v>307</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24774,50 +24783,23 @@
         <v>1497</v>
       </c>
       <c r="B938" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C938" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G938" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H938" s="0" t="s">
-        <v>1498</v>
+        <v>308</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B939" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C939" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G939" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H939" s="0" t="s">
-        <v>1498</v>
+        <v>105</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B940" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C940" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G940" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H940" s="0" t="s">
-        <v>1498</v>
+        <v>114</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24825,23 +24807,50 @@
         <v>1500</v>
       </c>
       <c r="B941" s="0" t="s">
-        <v>1498</v>
+        <v>76</v>
+      </c>
+      <c r="C941" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G941" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H941" s="0" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B942" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C942" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G942" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H942" s="0" t="s">
         <v>1501</v>
-      </c>
-      <c r="B942" s="0" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B943" s="0" t="s">
-        <v>461</v>
+        <v>76</v>
+      </c>
+      <c r="C943" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G943" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H943" s="0" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24849,7 +24858,7 @@
         <v>1503</v>
       </c>
       <c r="B944" s="0" t="s">
-        <v>465</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24857,7 +24866,7 @@
         <v>1504</v>
       </c>
       <c r="B945" s="0" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24865,7 +24874,7 @@
         <v>1505</v>
       </c>
       <c r="B946" s="0" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24873,7 +24882,7 @@
         <v>1506</v>
       </c>
       <c r="B947" s="0" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24881,49 +24890,31 @@
         <v>1507</v>
       </c>
       <c r="B948" s="0" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C948" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F948" s="0" t="n">
-        <v>1</v>
+        <v>466</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B949" s="0" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C949" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F949" s="0" t="n">
-        <v>1</v>
+        <v>467</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B950" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A951" s="0" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B951" s="0" t="s">
         <v>1511</v>
-      </c>
-      <c r="B950" s="0" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C950" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F950" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="5" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B951" s="0" t="s">
-        <v>1510</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>43</v>
@@ -24933,11 +24924,11 @@
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="6" t="s">
+      <c r="A952" s="0" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B952" s="0" t="s">
         <v>1513</v>
-      </c>
-      <c r="B952" s="0" t="s">
-        <v>1510</v>
       </c>
       <c r="C952" s="0" t="s">
         <v>43</v>
@@ -24947,11 +24938,11 @@
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="6" t="s">
+      <c r="A953" s="0" t="s">
         <v>1514</v>
       </c>
       <c r="B953" s="0" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>43</v>
@@ -24961,11 +24952,11 @@
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="0" t="s">
+      <c r="A954" s="5" t="s">
         <v>1515</v>
       </c>
       <c r="B954" s="0" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="C954" s="0" t="s">
         <v>43</v>
@@ -24975,11 +24966,11 @@
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="0" t="s">
-        <v>1517</v>
+      <c r="A955" s="6" t="s">
+        <v>1516</v>
       </c>
       <c r="B955" s="0" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>43</v>
@@ -24989,11 +24980,11 @@
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="0" t="s">
-        <v>1519</v>
+      <c r="A956" s="6" t="s">
+        <v>1517</v>
       </c>
       <c r="B956" s="0" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>43</v>
@@ -25004,10 +24995,10 @@
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
-        <v>732</v>
+        <v>1518</v>
       </c>
       <c r="B957" s="0" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>43</v>
@@ -25018,10 +25009,10 @@
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="B958" s="0" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>43</v>
@@ -25032,10 +25023,10 @@
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B959" s="0" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>43</v>
@@ -25046,10 +25037,10 @@
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
-        <v>1526</v>
+        <v>732</v>
       </c>
       <c r="B960" s="0" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="C960" s="0" t="s">
         <v>43</v>
@@ -25060,10 +25051,10 @@
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B961" s="0" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C961" s="0" t="s">
         <v>43</v>
@@ -25074,10 +25065,10 @@
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="B962" s="0" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="C962" s="0" t="s">
         <v>43</v>
@@ -25088,10 +25079,10 @@
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="B963" s="0" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="C963" s="0" t="s">
         <v>43</v>
@@ -25102,10 +25093,10 @@
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>43</v>
@@ -25116,10 +25107,10 @@
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="B965" s="0" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="C965" s="0" t="s">
         <v>43</v>
@@ -25130,10 +25121,10 @@
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="B966" s="0" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="C966" s="0" t="s">
         <v>43</v>
@@ -25144,10 +25135,10 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="B967" s="0" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="C967" s="0" t="s">
         <v>43</v>
@@ -25158,10 +25149,10 @@
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="B968" s="0" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="C968" s="0" t="s">
         <v>43</v>
@@ -25172,10 +25163,10 @@
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="B969" s="0" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C969" s="0" t="s">
         <v>43</v>
@@ -25186,10 +25177,10 @@
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="B970" s="0" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="C970" s="0" t="s">
         <v>43</v>
@@ -25200,10 +25191,10 @@
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="B971" s="0" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>43</v>
@@ -25214,10 +25205,10 @@
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>43</v>
@@ -25228,10 +25219,10 @@
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="B973" s="0" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="C973" s="0" t="s">
         <v>43</v>
@@ -25242,10 +25233,10 @@
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="B974" s="0" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C974" s="0" t="s">
         <v>43</v>
@@ -25256,10 +25247,10 @@
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="B975" s="0" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="C975" s="0" t="s">
         <v>43</v>
@@ -25269,11 +25260,11 @@
       </c>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="0" t="n">
-        <v>1701</v>
+      <c r="A976" s="0" t="s">
+        <v>1555</v>
       </c>
       <c r="B976" s="0" t="s">
-        <v>1510</v>
+        <v>1556</v>
       </c>
       <c r="C976" s="0" t="s">
         <v>43</v>
@@ -25283,11 +25274,11 @@
       </c>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="0" t="n">
-        <v>1702</v>
+      <c r="A977" s="0" t="s">
+        <v>1557</v>
       </c>
       <c r="B977" s="0" t="s">
-        <v>1521</v>
+        <v>1558</v>
       </c>
       <c r="C977" s="0" t="s">
         <v>43</v>
@@ -25297,11 +25288,11 @@
       </c>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="0" t="n">
-        <v>1703</v>
+      <c r="A978" s="0" t="s">
+        <v>1559</v>
       </c>
       <c r="B978" s="0" t="s">
-        <v>1551</v>
+        <v>1560</v>
       </c>
       <c r="C978" s="0" t="s">
         <v>43</v>
@@ -25312,10 +25303,10 @@
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="n">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="B979" s="0" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>43</v>
@@ -25326,10 +25317,10 @@
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="n">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B980" s="0" t="s">
-        <v>1537</v>
+        <v>1524</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>43</v>
@@ -25340,10 +25331,10 @@
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="n">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="B981" s="0" t="s">
-        <v>1523</v>
+        <v>1554</v>
       </c>
       <c r="C981" s="0" t="s">
         <v>43</v>
@@ -25354,10 +25345,10 @@
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="n">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B982" s="0" t="s">
-        <v>1518</v>
+        <v>1528</v>
       </c>
       <c r="C982" s="0" t="s">
         <v>43</v>
@@ -25368,10 +25359,10 @@
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="n">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="B983" s="0" t="s">
-        <v>1527</v>
+        <v>1540</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>43</v>
@@ -25382,10 +25373,10 @@
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="n">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>1543</v>
+        <v>1526</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>43</v>
@@ -25396,10 +25387,10 @@
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="n">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="B985" s="0" t="s">
-        <v>1553</v>
+        <v>1521</v>
       </c>
       <c r="C985" s="0" t="s">
         <v>43</v>
@@ -25410,10 +25401,10 @@
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="n">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="B986" s="0" t="s">
-        <v>1557</v>
+        <v>1530</v>
       </c>
       <c r="C986" s="0" t="s">
         <v>43</v>
@@ -25424,10 +25415,10 @@
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="n">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="B987" s="0" t="s">
-        <v>1516</v>
+        <v>1546</v>
       </c>
       <c r="C987" s="0" t="s">
         <v>43</v>
@@ -25438,10 +25429,10 @@
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="n">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="B988" s="0" t="s">
-        <v>1529</v>
+        <v>1556</v>
       </c>
       <c r="C988" s="0" t="s">
         <v>43</v>
@@ -25452,10 +25443,10 @@
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="n">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="B989" s="0" t="s">
-        <v>1535</v>
+        <v>1560</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>43</v>
@@ -25466,10 +25457,10 @@
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="n">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="B990" s="0" t="s">
-        <v>1545</v>
+        <v>1519</v>
       </c>
       <c r="C990" s="0" t="s">
         <v>43</v>
@@ -25480,10 +25471,10 @@
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="n">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="B991" s="0" t="s">
-        <v>1547</v>
+        <v>1532</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>43</v>
@@ -25494,10 +25485,10 @@
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="n">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="B992" s="0" t="s">
-        <v>1533</v>
+        <v>1538</v>
       </c>
       <c r="C992" s="0" t="s">
         <v>43</v>
@@ -25508,10 +25499,10 @@
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="n">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="B993" s="0" t="s">
-        <v>1520</v>
+        <v>1548</v>
       </c>
       <c r="C993" s="0" t="s">
         <v>43</v>
@@ -25522,10 +25513,10 @@
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="n">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="B994" s="0" t="s">
-        <v>1539</v>
+        <v>1550</v>
       </c>
       <c r="C994" s="0" t="s">
         <v>43</v>
@@ -25536,10 +25527,10 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="n">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="B995" s="0" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="C995" s="0" t="s">
         <v>43</v>
@@ -25550,10 +25541,10 @@
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="n">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="B996" s="0" t="s">
-        <v>1555</v>
+        <v>1523</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>43</v>
@@ -25564,10 +25555,10 @@
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="n">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>1508</v>
+        <v>1542</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>43</v>
@@ -25578,10 +25569,10 @@
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="n">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>1531</v>
+        <v>1544</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>43</v>
@@ -25591,76 +25582,67 @@
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="0" t="s">
+      <c r="A999" s="0" t="n">
+        <v>1721</v>
+      </c>
+      <c r="B999" s="0" t="s">
         <v>1558</v>
       </c>
-      <c r="B999" s="0" t="s">
-        <v>1559</v>
-      </c>
       <c r="C999" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="J999" s="0" t="s">
-        <v>1560</v>
+        <v>43</v>
+      </c>
+      <c r="F999" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="0" t="s">
-        <v>644</v>
+      <c r="A1000" s="0" t="n">
+        <v>1722</v>
       </c>
       <c r="B1000" s="0" t="s">
-        <v>1561</v>
+        <v>1511</v>
       </c>
       <c r="C1000" s="0" t="s">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="F1000" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J1000" s="0" t="s">
-        <v>1562</v>
-      </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="0" t="s">
-        <v>641</v>
+      <c r="A1001" s="0" t="n">
+        <v>1723</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>1563</v>
+        <v>1534</v>
       </c>
       <c r="C1001" s="0" t="s">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="F1001" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="J1001" s="0" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="B1002" s="0" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F1002" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J1002" s="0" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>1568</v>
+        <v>644</v>
       </c>
       <c r="B1003" s="0" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>293</v>
@@ -25669,15 +25651,15 @@
         <v>1</v>
       </c>
       <c r="J1003" s="0" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>1571</v>
+        <v>641</v>
       </c>
       <c r="B1004" s="0" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>293</v>
@@ -25686,15 +25668,15 @@
         <v>1</v>
       </c>
       <c r="J1004" s="0" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>293</v>
@@ -25703,15 +25685,15 @@
         <v>1</v>
       </c>
       <c r="J1005" s="0" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>723</v>
+        <v>1571</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="C1006" s="0" t="s">
         <v>293</v>
@@ -25720,15 +25702,15 @@
         <v>1</v>
       </c>
       <c r="J1006" s="0" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="B1007" s="0" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="C1007" s="0" t="s">
         <v>293</v>
@@ -25737,15 +25719,15 @@
         <v>1</v>
       </c>
       <c r="J1007" s="0" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="B1008" s="0" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="C1008" s="0" t="s">
         <v>293</v>
@@ -25754,15 +25736,15 @@
         <v>1</v>
       </c>
       <c r="J1008" s="0" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>1585</v>
+        <v>723</v>
       </c>
       <c r="B1009" s="0" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="C1009" s="0" t="s">
         <v>293</v>
@@ -25771,15 +25753,15 @@
         <v>1</v>
       </c>
       <c r="J1009" s="0" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="B1010" s="0" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="C1010" s="0" t="s">
         <v>293</v>
@@ -25788,15 +25770,15 @@
         <v>1</v>
       </c>
       <c r="J1010" s="0" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="C1011" s="0" t="s">
         <v>293</v>
@@ -25805,15 +25787,15 @@
         <v>1</v>
       </c>
       <c r="J1011" s="0" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="B1012" s="0" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="C1012" s="0" t="s">
         <v>293</v>
@@ -25822,15 +25804,15 @@
         <v>1</v>
       </c>
       <c r="J1012" s="0" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="B1013" s="0" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="C1013" s="0" t="s">
         <v>293</v>
@@ -25839,15 +25821,15 @@
         <v>1</v>
       </c>
       <c r="J1013" s="0" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>1114</v>
+        <v>1594</v>
       </c>
       <c r="B1014" s="0" t="s">
-        <v>1115</v>
+        <v>1595</v>
       </c>
       <c r="C1014" s="0" t="s">
         <v>293</v>
@@ -25856,15 +25838,15 @@
         <v>1</v>
       </c>
       <c r="J1014" s="0" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="B1015" s="0" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="C1015" s="0" t="s">
         <v>293</v>
@@ -25873,15 +25855,15 @@
         <v>1</v>
       </c>
       <c r="J1015" s="0" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="B1016" s="0" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="C1016" s="0" t="s">
         <v>293</v>
@@ -25890,15 +25872,15 @@
         <v>1</v>
       </c>
       <c r="J1016" s="0" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>1607</v>
+        <v>1115</v>
       </c>
       <c r="B1017" s="0" t="s">
-        <v>1608</v>
+        <v>1116</v>
       </c>
       <c r="C1017" s="0" t="s">
         <v>293</v>
@@ -25907,15 +25889,15 @@
         <v>1</v>
       </c>
       <c r="J1017" s="0" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>750</v>
+        <v>1604</v>
       </c>
       <c r="B1018" s="0" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="C1018" s="0" t="s">
         <v>293</v>
@@ -25924,15 +25906,15 @@
         <v>1</v>
       </c>
       <c r="J1018" s="0" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="B1019" s="0" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="C1019" s="0" t="s">
         <v>293</v>
@@ -25941,15 +25923,15 @@
         <v>1</v>
       </c>
       <c r="J1019" s="0" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="B1020" s="0" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="C1020" s="0" t="s">
         <v>293</v>
@@ -25958,15 +25940,15 @@
         <v>1</v>
       </c>
       <c r="J1020" s="0" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>1618</v>
+        <v>750</v>
       </c>
       <c r="B1021" s="0" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="C1021" s="0" t="s">
         <v>293</v>
@@ -25975,15 +25957,15 @@
         <v>1</v>
       </c>
       <c r="J1021" s="0" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="B1022" s="0" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="C1022" s="0" t="s">
         <v>293</v>
@@ -25992,15 +25974,15 @@
         <v>1</v>
       </c>
       <c r="J1022" s="0" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="B1023" s="0" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="C1023" s="0" t="s">
         <v>293</v>
@@ -26009,88 +25991,88 @@
         <v>1</v>
       </c>
       <c r="J1023" s="0" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="B1024" s="0" t="s">
-        <v>1627</v>
+        <v>1622</v>
+      </c>
+      <c r="C1024" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1024" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1024" s="0" t="s">
+        <v>1623</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B1025" s="5" t="s">
-        <v>619</v>
+        <v>1624</v>
+      </c>
+      <c r="B1025" s="0" t="s">
+        <v>1625</v>
       </c>
       <c r="C1025" s="0" t="s">
-        <v>213</v>
+        <v>293</v>
+      </c>
+      <c r="F1025" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="J1025" s="0" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="B1026" s="0" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="C1026" s="0" t="s">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="F1026" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J1026" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="B1027" s="0" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C1027" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1027" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1027" s="0" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B1028" s="0" t="s">
-        <v>1637</v>
+        <v>1631</v>
+      </c>
+      <c r="B1028" s="5" t="s">
+        <v>619</v>
       </c>
       <c r="C1028" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1028" s="0" t="n">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="J1028" s="0" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="B1029" s="0" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="C1029" s="0" t="s">
         <v>80</v>
@@ -26099,15 +26081,15 @@
         <v>1</v>
       </c>
       <c r="J1029" s="0" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="B1030" s="0" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="C1030" s="0" t="s">
         <v>80</v>
@@ -26116,15 +26098,15 @@
         <v>1</v>
       </c>
       <c r="J1030" s="0" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="B1031" s="0" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="C1031" s="0" t="s">
         <v>80</v>
@@ -26133,15 +26115,15 @@
         <v>1</v>
       </c>
       <c r="J1031" s="0" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="B1032" s="0" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="C1032" s="0" t="s">
         <v>80</v>
@@ -26150,15 +26132,15 @@
         <v>1</v>
       </c>
       <c r="J1032" s="0" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="B1033" s="0" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="C1033" s="0" t="s">
         <v>80</v>
@@ -26167,15 +26149,15 @@
         <v>1</v>
       </c>
       <c r="J1033" s="0" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="0" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="B1034" s="0" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="C1034" s="0" t="s">
         <v>80</v>
@@ -26184,15 +26166,15 @@
         <v>1</v>
       </c>
       <c r="J1034" s="0" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="0" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="B1035" s="0" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="C1035" s="0" t="s">
         <v>80</v>
@@ -26201,15 +26183,15 @@
         <v>1</v>
       </c>
       <c r="J1035" s="0" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="0" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="B1036" s="0" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
       <c r="C1036" s="0" t="s">
         <v>80</v>
@@ -26218,15 +26200,15 @@
         <v>1</v>
       </c>
       <c r="J1036" s="0" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="0" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="B1037" s="0" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="C1037" s="0" t="s">
         <v>80</v>
@@ -26235,15 +26217,15 @@
         <v>1</v>
       </c>
       <c r="J1037" s="0" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="0" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="B1038" s="0" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="C1038" s="0" t="s">
         <v>80</v>
@@ -26252,15 +26234,15 @@
         <v>1</v>
       </c>
       <c r="J1038" s="0" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="0" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="B1039" s="0" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="C1039" s="0" t="s">
         <v>80</v>
@@ -26269,15 +26251,15 @@
         <v>1</v>
       </c>
       <c r="J1039" s="0" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="0" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="B1040" s="0" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="C1040" s="0" t="s">
         <v>80</v>
@@ -26286,15 +26268,15 @@
         <v>1</v>
       </c>
       <c r="J1040" s="0" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="0" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="B1041" s="0" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="C1041" s="0" t="s">
         <v>80</v>
@@ -26303,66 +26285,66 @@
         <v>1</v>
       </c>
       <c r="J1041" s="0" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="0" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B1042" s="5" t="s">
-        <v>1677</v>
+        <v>1670</v>
+      </c>
+      <c r="B1042" s="0" t="s">
+        <v>1671</v>
       </c>
       <c r="C1042" s="0" t="s">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="F1042" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J1042" s="5" t="s">
-        <v>1678</v>
+      <c r="J1042" s="0" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="0" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B1043" s="5" t="s">
-        <v>1680</v>
+        <v>1673</v>
+      </c>
+      <c r="B1043" s="0" t="s">
+        <v>1674</v>
       </c>
       <c r="C1043" s="0" t="s">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="F1043" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J1043" s="5" t="s">
-        <v>1681</v>
+      <c r="J1043" s="0" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="0" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B1044" s="5" t="s">
-        <v>1683</v>
+        <v>1676</v>
+      </c>
+      <c r="B1044" s="0" t="s">
+        <v>1677</v>
       </c>
       <c r="C1044" s="0" t="s">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="F1044" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J1044" s="5" t="s">
-        <v>1684</v>
+      <c r="J1044" s="0" t="s">
+        <v>1678</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="0" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="B1045" s="5" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="C1045" s="0" t="s">
         <v>296</v>
@@ -26371,15 +26353,15 @@
         <v>1</v>
       </c>
       <c r="J1045" s="5" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="0" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="B1046" s="5" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="C1046" s="0" t="s">
         <v>296</v>
@@ -26388,15 +26370,15 @@
         <v>1</v>
       </c>
       <c r="J1046" s="5" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="0" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="B1047" s="5" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="C1047" s="0" t="s">
         <v>296</v>
@@ -26405,15 +26387,15 @@
         <v>1</v>
       </c>
       <c r="J1047" s="5" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="0" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="B1048" s="5" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="C1048" s="0" t="s">
         <v>296</v>
@@ -26422,15 +26404,15 @@
         <v>1</v>
       </c>
       <c r="J1048" s="5" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="0" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="B1049" s="5" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="C1049" s="0" t="s">
         <v>296</v>
@@ -26439,15 +26421,15 @@
         <v>1</v>
       </c>
       <c r="J1049" s="5" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="0" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="B1050" s="5" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="C1050" s="0" t="s">
         <v>296</v>
@@ -26456,15 +26438,15 @@
         <v>1</v>
       </c>
       <c r="J1050" s="5" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="0" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="B1051" s="5" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="C1051" s="0" t="s">
         <v>296</v>
@@ -26473,15 +26455,15 @@
         <v>1</v>
       </c>
       <c r="J1051" s="5" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="0" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="B1052" s="5" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="C1052" s="0" t="s">
         <v>296</v>
@@ -26490,15 +26472,15 @@
         <v>1</v>
       </c>
       <c r="J1052" s="5" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="0" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="B1053" s="5" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="C1053" s="0" t="s">
         <v>296</v>
@@ -26507,15 +26489,15 @@
         <v>1</v>
       </c>
       <c r="J1053" s="5" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="0" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="B1054" s="5" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="C1054" s="0" t="s">
         <v>296</v>
@@ -26524,15 +26506,15 @@
         <v>1</v>
       </c>
       <c r="J1054" s="5" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="0" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="B1055" s="5" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="C1055" s="0" t="s">
         <v>296</v>
@@ -26541,15 +26523,15 @@
         <v>1</v>
       </c>
       <c r="J1055" s="5" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="0" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="B1056" s="5" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="C1056" s="0" t="s">
         <v>296</v>
@@ -26558,15 +26540,15 @@
         <v>1</v>
       </c>
       <c r="J1056" s="5" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="0" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="B1057" s="5" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="C1057" s="0" t="s">
         <v>296</v>
@@ -26575,15 +26557,15 @@
         <v>1</v>
       </c>
       <c r="J1057" s="5" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="0" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="B1058" s="5" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="C1058" s="0" t="s">
         <v>296</v>
@@ -26592,15 +26574,15 @@
         <v>1</v>
       </c>
       <c r="J1058" s="5" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="B1059" s="5" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="C1059" s="0" t="s">
         <v>296</v>
@@ -26609,15 +26591,15 @@
         <v>1</v>
       </c>
       <c r="J1059" s="5" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="0" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="B1060" s="5" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="C1060" s="0" t="s">
         <v>296</v>
@@ -26626,15 +26608,15 @@
         <v>1</v>
       </c>
       <c r="J1060" s="5" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="0" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="B1061" s="5" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="C1061" s="0" t="s">
         <v>296</v>
@@ -26643,15 +26625,15 @@
         <v>1</v>
       </c>
       <c r="J1061" s="5" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="B1062" s="5" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="C1062" s="0" t="s">
         <v>296</v>
@@ -26660,15 +26642,15 @@
         <v>1</v>
       </c>
       <c r="J1062" s="5" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="0" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="B1063" s="5" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="C1063" s="0" t="s">
         <v>296</v>
@@ -26677,15 +26659,15 @@
         <v>1</v>
       </c>
       <c r="J1063" s="5" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="0" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="B1064" s="5" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="C1064" s="0" t="s">
         <v>296</v>
@@ -26694,15 +26676,15 @@
         <v>1</v>
       </c>
       <c r="J1064" s="5" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="0" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="B1065" s="5" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="C1065" s="0" t="s">
         <v>296</v>
@@ -26711,15 +26693,15 @@
         <v>1</v>
       </c>
       <c r="J1065" s="5" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="0" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="B1066" s="5" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="C1066" s="0" t="s">
         <v>296</v>
@@ -26728,15 +26710,15 @@
         <v>1</v>
       </c>
       <c r="J1066" s="5" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="0" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="B1067" s="5" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="C1067" s="0" t="s">
         <v>296</v>
@@ -26745,15 +26727,15 @@
         <v>1</v>
       </c>
       <c r="J1067" s="5" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="0" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="B1068" s="5" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="C1068" s="0" t="s">
         <v>296</v>
@@ -26762,15 +26744,15 @@
         <v>1</v>
       </c>
       <c r="J1068" s="5" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="0" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="B1069" s="5" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="C1069" s="0" t="s">
         <v>296</v>
@@ -26779,15 +26761,15 @@
         <v>1</v>
       </c>
       <c r="J1069" s="5" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="B1070" s="5" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="C1070" s="0" t="s">
         <v>296</v>
@@ -26796,15 +26778,15 @@
         <v>1</v>
       </c>
       <c r="J1070" s="5" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="0" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="B1071" s="5" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="C1071" s="0" t="s">
         <v>296</v>
@@ -26813,15 +26795,15 @@
         <v>1</v>
       </c>
       <c r="J1071" s="5" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="0" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="B1072" s="5" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="C1072" s="0" t="s">
         <v>296</v>
@@ -26830,15 +26812,15 @@
         <v>1</v>
       </c>
       <c r="J1072" s="5" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="0" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="B1073" s="5" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="C1073" s="0" t="s">
         <v>296</v>
@@ -26847,15 +26829,15 @@
         <v>1</v>
       </c>
       <c r="J1073" s="5" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="0" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="B1074" s="5" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="C1074" s="0" t="s">
         <v>296</v>
@@ -26864,15 +26846,15 @@
         <v>1</v>
       </c>
       <c r="J1074" s="5" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="0" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="B1075" s="5" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="C1075" s="0" t="s">
         <v>296</v>
@@ -26881,15 +26863,15 @@
         <v>1</v>
       </c>
       <c r="J1075" s="5" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="0" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="B1076" s="5" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="C1076" s="0" t="s">
         <v>296</v>
@@ -26898,15 +26880,15 @@
         <v>1</v>
       </c>
       <c r="J1076" s="5" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="0" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="B1077" s="5" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="C1077" s="0" t="s">
         <v>296</v>
@@ -26915,15 +26897,15 @@
         <v>1</v>
       </c>
       <c r="J1077" s="5" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="0" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="B1078" s="5" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="C1078" s="0" t="s">
         <v>296</v>
@@ -26932,15 +26914,15 @@
         <v>1</v>
       </c>
       <c r="J1078" s="5" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="0" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="B1079" s="5" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="C1079" s="0" t="s">
         <v>296</v>
@@ -26949,15 +26931,15 @@
         <v>1</v>
       </c>
       <c r="J1079" s="5" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="0" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="B1080" s="5" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="C1080" s="0" t="s">
         <v>296</v>
@@ -26966,15 +26948,15 @@
         <v>1</v>
       </c>
       <c r="J1080" s="5" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="0" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="B1081" s="5" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="C1081" s="0" t="s">
         <v>296</v>
@@ -26983,15 +26965,15 @@
         <v>1</v>
       </c>
       <c r="J1081" s="5" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="B1082" s="5" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>296</v>
@@ -27000,15 +26982,15 @@
         <v>1</v>
       </c>
       <c r="J1082" s="5" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="0" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="B1083" s="5" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="C1083" s="0" t="s">
         <v>296</v>
@@ -27017,15 +26999,15 @@
         <v>1</v>
       </c>
       <c r="J1083" s="5" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="0" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="B1084" s="5" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="C1084" s="0" t="s">
         <v>296</v>
@@ -27034,15 +27016,15 @@
         <v>1</v>
       </c>
       <c r="J1084" s="5" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="0" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="B1085" s="5" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="C1085" s="0" t="s">
         <v>296</v>
@@ -27051,15 +27033,15 @@
         <v>1</v>
       </c>
       <c r="J1085" s="5" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="0" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="B1086" s="5" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="C1086" s="0" t="s">
         <v>296</v>
@@ -27068,15 +27050,15 @@
         <v>1</v>
       </c>
       <c r="J1086" s="5" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="0" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="B1087" s="5" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="C1087" s="0" t="s">
         <v>296</v>
@@ -27085,15 +27067,15 @@
         <v>1</v>
       </c>
       <c r="J1087" s="5" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="0" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="B1088" s="5" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="C1088" s="0" t="s">
         <v>296</v>
@@ -27102,15 +27084,15 @@
         <v>1</v>
       </c>
       <c r="J1088" s="5" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="0" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="B1089" s="5" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="C1089" s="0" t="s">
         <v>296</v>
@@ -27119,15 +27101,15 @@
         <v>1</v>
       </c>
       <c r="J1089" s="5" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="0" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="B1090" s="5" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="C1090" s="0" t="s">
         <v>296</v>
@@ -27136,15 +27118,15 @@
         <v>1</v>
       </c>
       <c r="J1090" s="5" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="0" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="B1091" s="5" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="C1091" s="0" t="s">
         <v>296</v>
@@ -27153,15 +27135,15 @@
         <v>1</v>
       </c>
       <c r="J1091" s="5" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="0" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="B1092" s="5" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="C1092" s="0" t="s">
         <v>296</v>
@@ -27170,15 +27152,15 @@
         <v>1</v>
       </c>
       <c r="J1092" s="5" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="0" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="B1093" s="5" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="C1093" s="0" t="s">
         <v>296</v>
@@ -27187,15 +27169,15 @@
         <v>1</v>
       </c>
       <c r="J1093" s="5" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="0" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="B1094" s="5" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="C1094" s="0" t="s">
         <v>296</v>
@@ -27204,15 +27186,15 @@
         <v>1</v>
       </c>
       <c r="J1094" s="5" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="0" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="B1095" s="5" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="C1095" s="0" t="s">
         <v>296</v>
@@ -27221,15 +27203,15 @@
         <v>1</v>
       </c>
       <c r="J1095" s="5" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="0" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="B1096" s="5" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="C1096" s="0" t="s">
         <v>296</v>
@@ -27238,15 +27220,15 @@
         <v>1</v>
       </c>
       <c r="J1096" s="5" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="0" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="B1097" s="5" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="C1097" s="0" t="s">
         <v>296</v>
@@ -27255,15 +27237,15 @@
         <v>1</v>
       </c>
       <c r="J1097" s="5" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="0" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="B1098" s="5" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="C1098" s="0" t="s">
         <v>296</v>
@@ -27272,15 +27254,15 @@
         <v>1</v>
       </c>
       <c r="J1098" s="5" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="0" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="B1099" s="5" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="C1099" s="0" t="s">
         <v>296</v>
@@ -27289,15 +27271,15 @@
         <v>1</v>
       </c>
       <c r="J1099" s="5" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="0" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="B1100" s="5" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="C1100" s="0" t="s">
         <v>296</v>
@@ -27306,15 +27288,15 @@
         <v>1</v>
       </c>
       <c r="J1100" s="5" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="0" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="B1101" s="5" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="C1101" s="0" t="s">
         <v>296</v>
@@ -27323,15 +27305,15 @@
         <v>1</v>
       </c>
       <c r="J1101" s="5" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="0" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="B1102" s="5" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="C1102" s="0" t="s">
         <v>296</v>
@@ -27340,15 +27322,15 @@
         <v>1</v>
       </c>
       <c r="J1102" s="5" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="0" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="B1103" s="5" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="C1103" s="0" t="s">
         <v>296</v>
@@ -27357,15 +27339,15 @@
         <v>1</v>
       </c>
       <c r="J1103" s="5" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="0" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="B1104" s="5" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="C1104" s="0" t="s">
         <v>296</v>
@@ -27374,67 +27356,58 @@
         <v>1</v>
       </c>
       <c r="J1104" s="5" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="0" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="B1105" s="5" t="s">
-        <v>1677</v>
+        <v>1860</v>
       </c>
       <c r="C1105" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="E1105" s="0" t="s">
-        <v>573</v>
-      </c>
       <c r="F1105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J1105" s="5" t="s">
-        <v>1678</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="B1106" s="5" t="s">
-        <v>1680</v>
+        <v>1863</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="E1106" s="0" t="s">
-        <v>573</v>
-      </c>
       <c r="F1106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J1106" s="5" t="s">
-        <v>1681</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="0" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="B1107" s="5" t="s">
-        <v>1683</v>
+        <v>1866</v>
       </c>
       <c r="C1107" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="E1107" s="0" t="s">
-        <v>573</v>
-      </c>
       <c r="F1107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J1107" s="5" t="s">
-        <v>1684</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27442,7 +27415,7 @@
         <v>1868</v>
       </c>
       <c r="B1108" s="5" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="C1108" s="0" t="s">
         <v>296</v>
@@ -27454,7 +27427,7 @@
         <v>1</v>
       </c>
       <c r="J1108" s="5" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27462,7 +27435,7 @@
         <v>1869</v>
       </c>
       <c r="B1109" s="5" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="C1109" s="0" t="s">
         <v>296</v>
@@ -27474,7 +27447,7 @@
         <v>1</v>
       </c>
       <c r="J1109" s="5" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27482,7 +27455,7 @@
         <v>1870</v>
       </c>
       <c r="B1110" s="5" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="C1110" s="0" t="s">
         <v>296</v>
@@ -27494,7 +27467,7 @@
         <v>1</v>
       </c>
       <c r="J1110" s="5" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27502,7 +27475,7 @@
         <v>1871</v>
       </c>
       <c r="B1111" s="5" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="C1111" s="0" t="s">
         <v>296</v>
@@ -27514,7 +27487,7 @@
         <v>1</v>
       </c>
       <c r="J1111" s="5" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27522,7 +27495,7 @@
         <v>1872</v>
       </c>
       <c r="B1112" s="5" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="C1112" s="0" t="s">
         <v>296</v>
@@ -27534,7 +27507,7 @@
         <v>1</v>
       </c>
       <c r="J1112" s="5" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27542,7 +27515,7 @@
         <v>1873</v>
       </c>
       <c r="B1113" s="5" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="C1113" s="0" t="s">
         <v>296</v>
@@ -27554,7 +27527,7 @@
         <v>1</v>
       </c>
       <c r="J1113" s="5" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27562,7 +27535,7 @@
         <v>1874</v>
       </c>
       <c r="B1114" s="5" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="C1114" s="0" t="s">
         <v>296</v>
@@ -27574,7 +27547,7 @@
         <v>1</v>
       </c>
       <c r="J1114" s="5" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27582,7 +27555,7 @@
         <v>1875</v>
       </c>
       <c r="B1115" s="5" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="C1115" s="0" t="s">
         <v>296</v>
@@ -27594,7 +27567,7 @@
         <v>1</v>
       </c>
       <c r="J1115" s="5" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27602,7 +27575,7 @@
         <v>1876</v>
       </c>
       <c r="B1116" s="5" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="C1116" s="0" t="s">
         <v>296</v>
@@ -27614,7 +27587,7 @@
         <v>1</v>
       </c>
       <c r="J1116" s="5" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27622,7 +27595,7 @@
         <v>1877</v>
       </c>
       <c r="B1117" s="5" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="C1117" s="0" t="s">
         <v>296</v>
@@ -27634,7 +27607,7 @@
         <v>1</v>
       </c>
       <c r="J1117" s="5" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27642,7 +27615,7 @@
         <v>1878</v>
       </c>
       <c r="B1118" s="5" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="C1118" s="0" t="s">
         <v>296</v>
@@ -27654,7 +27627,7 @@
         <v>1</v>
       </c>
       <c r="J1118" s="5" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27662,7 +27635,7 @@
         <v>1879</v>
       </c>
       <c r="B1119" s="5" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="C1119" s="0" t="s">
         <v>296</v>
@@ -27674,7 +27647,7 @@
         <v>1</v>
       </c>
       <c r="J1119" s="5" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27682,7 +27655,7 @@
         <v>1880</v>
       </c>
       <c r="B1120" s="5" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="C1120" s="0" t="s">
         <v>296</v>
@@ -27694,7 +27667,7 @@
         <v>1</v>
       </c>
       <c r="J1120" s="5" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27702,7 +27675,7 @@
         <v>1881</v>
       </c>
       <c r="B1121" s="5" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="C1121" s="0" t="s">
         <v>296</v>
@@ -27714,7 +27687,7 @@
         <v>1</v>
       </c>
       <c r="J1121" s="5" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27722,7 +27695,7 @@
         <v>1882</v>
       </c>
       <c r="B1122" s="5" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="C1122" s="0" t="s">
         <v>296</v>
@@ -27734,7 +27707,7 @@
         <v>1</v>
       </c>
       <c r="J1122" s="5" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27742,7 +27715,7 @@
         <v>1883</v>
       </c>
       <c r="B1123" s="5" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="C1123" s="0" t="s">
         <v>296</v>
@@ -27754,15 +27727,15 @@
         <v>1</v>
       </c>
       <c r="J1123" s="5" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="0" t="s">
-        <v>1733</v>
+        <v>1884</v>
       </c>
       <c r="B1124" s="5" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="C1124" s="0" t="s">
         <v>296</v>
@@ -27774,15 +27747,15 @@
         <v>1</v>
       </c>
       <c r="J1124" s="5" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="0" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1125" s="5" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="C1125" s="0" t="s">
         <v>296</v>
@@ -27794,15 +27767,15 @@
         <v>1</v>
       </c>
       <c r="J1125" s="5" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="0" t="s">
-        <v>1739</v>
+        <v>1886</v>
       </c>
       <c r="B1126" s="5" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="C1126" s="0" t="s">
         <v>296</v>
@@ -27814,15 +27787,15 @@
         <v>1</v>
       </c>
       <c r="J1126" s="5" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="0" t="s">
-        <v>1885</v>
+        <v>1736</v>
       </c>
       <c r="B1127" s="5" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="C1127" s="0" t="s">
         <v>296</v>
@@ -27834,15 +27807,15 @@
         <v>1</v>
       </c>
       <c r="J1127" s="5" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="0" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B1128" s="5" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="C1128" s="0" t="s">
         <v>296</v>
@@ -27854,15 +27827,15 @@
         <v>1</v>
       </c>
       <c r="J1128" s="5" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="0" t="s">
-        <v>1887</v>
+        <v>1742</v>
       </c>
       <c r="B1129" s="5" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="C1129" s="0" t="s">
         <v>296</v>
@@ -27874,7 +27847,7 @@
         <v>1</v>
       </c>
       <c r="J1129" s="5" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27882,7 +27855,7 @@
         <v>1888</v>
       </c>
       <c r="B1130" s="5" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="C1130" s="0" t="s">
         <v>296</v>
@@ -27894,7 +27867,7 @@
         <v>1</v>
       </c>
       <c r="J1130" s="5" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27902,7 +27875,7 @@
         <v>1889</v>
       </c>
       <c r="B1131" s="5" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="C1131" s="0" t="s">
         <v>296</v>
@@ -27914,7 +27887,7 @@
         <v>1</v>
       </c>
       <c r="J1131" s="5" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27922,7 +27895,7 @@
         <v>1890</v>
       </c>
       <c r="B1132" s="5" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="C1132" s="0" t="s">
         <v>296</v>
@@ -27934,7 +27907,7 @@
         <v>1</v>
       </c>
       <c r="J1132" s="5" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27942,7 +27915,7 @@
         <v>1891</v>
       </c>
       <c r="B1133" s="5" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="C1133" s="0" t="s">
         <v>296</v>
@@ -27954,7 +27927,7 @@
         <v>1</v>
       </c>
       <c r="J1133" s="5" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27962,7 +27935,7 @@
         <v>1892</v>
       </c>
       <c r="B1134" s="5" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="C1134" s="0" t="s">
         <v>296</v>
@@ -27974,7 +27947,7 @@
         <v>1</v>
       </c>
       <c r="J1134" s="5" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27982,7 +27955,7 @@
         <v>1893</v>
       </c>
       <c r="B1135" s="5" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="C1135" s="0" t="s">
         <v>296</v>
@@ -27994,15 +27967,15 @@
         <v>1</v>
       </c>
       <c r="J1135" s="5" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="0" t="s">
-        <v>1769</v>
+        <v>1894</v>
       </c>
       <c r="B1136" s="5" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="C1136" s="0" t="s">
         <v>296</v>
@@ -28014,15 +27987,15 @@
         <v>1</v>
       </c>
       <c r="J1136" s="5" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="0" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B1137" s="5" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="C1137" s="0" t="s">
         <v>296</v>
@@ -28034,15 +28007,15 @@
         <v>1</v>
       </c>
       <c r="J1137" s="5" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="0" t="s">
-        <v>1775</v>
+        <v>1896</v>
       </c>
       <c r="B1138" s="5" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="C1138" s="0" t="s">
         <v>296</v>
@@ -28054,15 +28027,15 @@
         <v>1</v>
       </c>
       <c r="J1138" s="5" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="0" t="s">
-        <v>1895</v>
+        <v>1772</v>
       </c>
       <c r="B1139" s="5" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="C1139" s="0" t="s">
         <v>296</v>
@@ -28074,15 +28047,15 @@
         <v>1</v>
       </c>
       <c r="J1139" s="5" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="0" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B1140" s="5" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="C1140" s="0" t="s">
         <v>296</v>
@@ -28094,15 +28067,15 @@
         <v>1</v>
       </c>
       <c r="J1140" s="5" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="0" t="s">
-        <v>1897</v>
+        <v>1778</v>
       </c>
       <c r="B1141" s="5" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="C1141" s="0" t="s">
         <v>296</v>
@@ -28114,7 +28087,7 @@
         <v>1</v>
       </c>
       <c r="J1141" s="5" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28122,7 +28095,7 @@
         <v>1898</v>
       </c>
       <c r="B1142" s="5" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="C1142" s="0" t="s">
         <v>296</v>
@@ -28134,7 +28107,7 @@
         <v>1</v>
       </c>
       <c r="J1142" s="5" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28142,7 +28115,7 @@
         <v>1899</v>
       </c>
       <c r="B1143" s="5" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="C1143" s="0" t="s">
         <v>296</v>
@@ -28154,7 +28127,7 @@
         <v>1</v>
       </c>
       <c r="J1143" s="5" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28162,7 +28135,7 @@
         <v>1900</v>
       </c>
       <c r="B1144" s="5" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="C1144" s="0" t="s">
         <v>296</v>
@@ -28174,7 +28147,7 @@
         <v>1</v>
       </c>
       <c r="J1144" s="5" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28182,7 +28155,7 @@
         <v>1901</v>
       </c>
       <c r="B1145" s="5" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="C1145" s="0" t="s">
         <v>296</v>
@@ -28194,7 +28167,7 @@
         <v>1</v>
       </c>
       <c r="J1145" s="5" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28202,7 +28175,7 @@
         <v>1902</v>
       </c>
       <c r="B1146" s="5" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="C1146" s="0" t="s">
         <v>296</v>
@@ -28214,7 +28187,7 @@
         <v>1</v>
       </c>
       <c r="J1146" s="5" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28222,7 +28195,7 @@
         <v>1903</v>
       </c>
       <c r="B1147" s="5" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="C1147" s="0" t="s">
         <v>296</v>
@@ -28234,7 +28207,7 @@
         <v>1</v>
       </c>
       <c r="J1147" s="5" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28242,7 +28215,7 @@
         <v>1904</v>
       </c>
       <c r="B1148" s="5" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="C1148" s="0" t="s">
         <v>296</v>
@@ -28254,7 +28227,7 @@
         <v>1</v>
       </c>
       <c r="J1148" s="5" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28262,7 +28235,7 @@
         <v>1905</v>
       </c>
       <c r="B1149" s="5" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="C1149" s="0" t="s">
         <v>296</v>
@@ -28274,7 +28247,7 @@
         <v>1</v>
       </c>
       <c r="J1149" s="5" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28282,7 +28255,7 @@
         <v>1906</v>
       </c>
       <c r="B1150" s="5" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="C1150" s="0" t="s">
         <v>296</v>
@@ -28294,7 +28267,7 @@
         <v>1</v>
       </c>
       <c r="J1150" s="5" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28302,7 +28275,7 @@
         <v>1907</v>
       </c>
       <c r="B1151" s="5" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="C1151" s="0" t="s">
         <v>296</v>
@@ -28314,7 +28287,7 @@
         <v>1</v>
       </c>
       <c r="J1151" s="5" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28322,7 +28295,7 @@
         <v>1908</v>
       </c>
       <c r="B1152" s="5" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="C1152" s="0" t="s">
         <v>296</v>
@@ -28334,7 +28307,7 @@
         <v>1</v>
       </c>
       <c r="J1152" s="5" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28342,7 +28315,7 @@
         <v>1909</v>
       </c>
       <c r="B1153" s="5" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="C1153" s="0" t="s">
         <v>296</v>
@@ -28354,7 +28327,7 @@
         <v>1</v>
       </c>
       <c r="J1153" s="5" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28362,7 +28335,7 @@
         <v>1910</v>
       </c>
       <c r="B1154" s="5" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="C1154" s="0" t="s">
         <v>296</v>
@@ -28374,7 +28347,7 @@
         <v>1</v>
       </c>
       <c r="J1154" s="5" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28382,7 +28355,7 @@
         <v>1911</v>
       </c>
       <c r="B1155" s="5" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="C1155" s="0" t="s">
         <v>296</v>
@@ -28394,7 +28367,7 @@
         <v>1</v>
       </c>
       <c r="J1155" s="5" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28402,7 +28375,7 @@
         <v>1912</v>
       </c>
       <c r="B1156" s="5" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="C1156" s="0" t="s">
         <v>296</v>
@@ -28414,7 +28387,7 @@
         <v>1</v>
       </c>
       <c r="J1156" s="5" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28422,7 +28395,7 @@
         <v>1913</v>
       </c>
       <c r="B1157" s="5" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="C1157" s="0" t="s">
         <v>296</v>
@@ -28434,7 +28407,7 @@
         <v>1</v>
       </c>
       <c r="J1157" s="5" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28442,7 +28415,7 @@
         <v>1914</v>
       </c>
       <c r="B1158" s="5" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="C1158" s="0" t="s">
         <v>296</v>
@@ -28454,7 +28427,7 @@
         <v>1</v>
       </c>
       <c r="J1158" s="5" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28462,7 +28435,7 @@
         <v>1915</v>
       </c>
       <c r="B1159" s="5" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="C1159" s="0" t="s">
         <v>296</v>
@@ -28474,7 +28447,7 @@
         <v>1</v>
       </c>
       <c r="J1159" s="5" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28482,7 +28455,7 @@
         <v>1916</v>
       </c>
       <c r="B1160" s="5" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="C1160" s="0" t="s">
         <v>296</v>
@@ -28494,7 +28467,7 @@
         <v>1</v>
       </c>
       <c r="J1160" s="5" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28502,7 +28475,7 @@
         <v>1917</v>
       </c>
       <c r="B1161" s="5" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="C1161" s="0" t="s">
         <v>296</v>
@@ -28514,7 +28487,7 @@
         <v>1</v>
       </c>
       <c r="J1161" s="5" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28522,7 +28495,7 @@
         <v>1918</v>
       </c>
       <c r="B1162" s="5" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="C1162" s="0" t="s">
         <v>296</v>
@@ -28534,7 +28507,7 @@
         <v>1</v>
       </c>
       <c r="J1162" s="5" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28542,7 +28515,7 @@
         <v>1919</v>
       </c>
       <c r="B1163" s="5" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="C1163" s="0" t="s">
         <v>296</v>
@@ -28554,7 +28527,7 @@
         <v>1</v>
       </c>
       <c r="J1163" s="5" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28562,7 +28535,7 @@
         <v>1920</v>
       </c>
       <c r="B1164" s="5" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="C1164" s="0" t="s">
         <v>296</v>
@@ -28574,7 +28547,7 @@
         <v>1</v>
       </c>
       <c r="J1164" s="5" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28582,7 +28555,7 @@
         <v>1921</v>
       </c>
       <c r="B1165" s="5" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="C1165" s="0" t="s">
         <v>296</v>
@@ -28594,7 +28567,7 @@
         <v>1</v>
       </c>
       <c r="J1165" s="5" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28602,7 +28575,7 @@
         <v>1922</v>
       </c>
       <c r="B1166" s="5" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="C1166" s="0" t="s">
         <v>296</v>
@@ -28614,7 +28587,7 @@
         <v>1</v>
       </c>
       <c r="J1166" s="5" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28622,7 +28595,7 @@
         <v>1923</v>
       </c>
       <c r="B1167" s="5" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="C1167" s="0" t="s">
         <v>296</v>
@@ -28634,7 +28607,67 @@
         <v>1</v>
       </c>
       <c r="J1167" s="5" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1168" s="0" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1168" s="5" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C1168" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1168" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1168" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1168" s="5" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1169" s="0" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1169" s="5" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C1169" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1169" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1169" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1169" s="5" t="s">
         <v>1864</v>
+      </c>
+    </row>
+    <row r="1170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1170" s="0" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1170" s="5" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1170" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1170" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1170" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1170" s="5" t="s">
+        <v>1867</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="2071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="2072">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -4882,6 +4882,9 @@
   </si>
   <si>
     <t xml:space="preserve">Virgin Islands, US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amerikaanse Maagdeneilanden</t>
   </si>
   <si>
     <t xml:space="preserve">Wallis and Futuna</t>
@@ -15919,14 +15922,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1331"/>
+  <dimension ref="A1:J1332"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B943" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1044" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A943" activeCellId="0" sqref="A943"/>
-      <selection pane="bottomRight" activeCell="C977" activeCellId="0" sqref="C977"/>
+      <selection pane="bottomLeft" activeCell="A1044" activeCellId="0" sqref="A1044"/>
+      <selection pane="bottomRight" activeCell="G1064" activeCellId="0" sqref="G1064"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26364,7 +26367,13 @@
         <v>1620</v>
       </c>
       <c r="B1078" s="0" t="s">
-        <v>300</v>
+        <v>1613</v>
+      </c>
+      <c r="C1078" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1078" s="0" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26380,7 +26389,7 @@
         <v>1622</v>
       </c>
       <c r="B1080" s="0" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26404,7 +26413,7 @@
         <v>1625</v>
       </c>
       <c r="B1083" s="0" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26412,7 +26421,7 @@
         <v>1626</v>
       </c>
       <c r="B1084" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26435,16 +26444,16 @@
       <c r="A1087" s="0" t="s">
         <v>1629</v>
       </c>
-      <c r="E1087" s="0" t="s">
-        <v>553</v>
+      <c r="B1087" s="0" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="0" t="s">
         <v>1630</v>
       </c>
-      <c r="B1088" s="0" t="s">
-        <v>302</v>
+      <c r="E1088" s="0" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26452,10 +26461,7 @@
         <v>1631</v>
       </c>
       <c r="B1089" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D1089" s="0" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26468,30 +26474,30 @@
       <c r="D1090" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E1090" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="0" t="s">
         <v>1633</v>
       </c>
+      <c r="B1091" s="0" t="s">
+        <v>304</v>
+      </c>
       <c r="D1091" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E1091" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="0" t="s">
         <v>1634</v>
       </c>
-      <c r="B1092" s="0" t="s">
-        <v>304</v>
-      </c>
       <c r="D1092" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E1092" s="0" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26499,7 +26505,7 @@
         <v>1635</v>
       </c>
       <c r="B1093" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D1093" s="0" t="n">
         <v>1</v>
@@ -26526,16 +26532,13 @@
       <c r="D1095" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E1095" s="0" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="0" t="s">
         <v>1638</v>
       </c>
       <c r="B1096" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D1096" s="0" t="n">
         <v>1</v>
@@ -26549,10 +26552,13 @@
         <v>1639</v>
       </c>
       <c r="B1097" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D1097" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E1097" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26560,7 +26566,10 @@
         <v>1640</v>
       </c>
       <c r="B1098" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="D1098" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26568,7 +26577,7 @@
         <v>1641</v>
       </c>
       <c r="B1099" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26576,7 +26585,7 @@
         <v>1642</v>
       </c>
       <c r="B1100" s="0" t="s">
-        <v>105</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26584,7 +26593,7 @@
         <v>1643</v>
       </c>
       <c r="B1101" s="0" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26592,21 +26601,12 @@
         <v>1644</v>
       </c>
       <c r="B1102" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1102" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1102" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1102" s="0" t="s">
-        <v>1645</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="0" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B1103" s="0" t="s">
         <v>76</v>
@@ -26618,7 +26618,7 @@
         <v>1</v>
       </c>
       <c r="H1103" s="0" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26635,15 +26635,24 @@
         <v>1</v>
       </c>
       <c r="H1104" s="0" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="0" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1105" s="0" t="s">
-        <v>1645</v>
+        <v>76</v>
+      </c>
+      <c r="C1105" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1105" s="0" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26651,7 +26660,7 @@
         <v>1648</v>
       </c>
       <c r="B1106" s="0" t="s">
-        <v>458</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26659,7 +26668,7 @@
         <v>1649</v>
       </c>
       <c r="B1107" s="0" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26667,7 +26676,7 @@
         <v>1650</v>
       </c>
       <c r="B1108" s="0" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26675,7 +26684,7 @@
         <v>1651</v>
       </c>
       <c r="B1109" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26683,7 +26692,7 @@
         <v>1652</v>
       </c>
       <c r="B1110" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26691,7 +26700,7 @@
         <v>1653</v>
       </c>
       <c r="B1111" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26699,21 +26708,15 @@
         <v>1654</v>
       </c>
       <c r="B1112" s="0" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C1112" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1112" s="0" t="n">
-        <v>1</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="0" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1113" s="0" t="s">
         <v>1656</v>
-      </c>
-      <c r="B1113" s="0" t="s">
-        <v>1657</v>
       </c>
       <c r="C1113" s="0" t="s">
         <v>43</v>
@@ -26724,10 +26727,10 @@
     </row>
     <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="0" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B1114" s="0" t="s">
         <v>1658</v>
-      </c>
-      <c r="B1114" s="0" t="s">
-        <v>1657</v>
       </c>
       <c r="C1114" s="0" t="s">
         <v>43</v>
@@ -26737,11 +26740,11 @@
       </c>
     </row>
     <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1115" s="5" t="s">
+      <c r="A1115" s="0" t="s">
         <v>1659</v>
       </c>
       <c r="B1115" s="0" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C1115" s="0" t="s">
         <v>43</v>
@@ -26751,11 +26754,11 @@
       </c>
     </row>
     <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1116" s="6" t="s">
+      <c r="A1116" s="5" t="s">
         <v>1660</v>
       </c>
       <c r="B1116" s="0" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C1116" s="0" t="s">
         <v>43</v>
@@ -26769,7 +26772,7 @@
         <v>1661</v>
       </c>
       <c r="B1117" s="0" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C1117" s="0" t="s">
         <v>43</v>
@@ -26779,11 +26782,11 @@
       </c>
     </row>
     <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1118" s="0" t="s">
+      <c r="A1118" s="6" t="s">
         <v>1662</v>
       </c>
       <c r="B1118" s="0" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="C1118" s="0" t="s">
         <v>43</v>
@@ -26794,10 +26797,10 @@
     </row>
     <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="0" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1119" s="0" t="s">
         <v>1664</v>
-      </c>
-      <c r="B1119" s="0" t="s">
-        <v>1665</v>
       </c>
       <c r="C1119" s="0" t="s">
         <v>43</v>
@@ -26808,10 +26811,10 @@
     </row>
     <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="0" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1120" s="0" t="s">
         <v>1666</v>
-      </c>
-      <c r="B1120" s="0" t="s">
-        <v>1667</v>
       </c>
       <c r="C1120" s="0" t="s">
         <v>43</v>
@@ -26819,11 +26822,10 @@
       <c r="F1120" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G1120" s="5"/>
     </row>
     <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="0" t="s">
-        <v>755</v>
+        <v>1667</v>
       </c>
       <c r="B1121" s="0" t="s">
         <v>1668</v>
@@ -26834,13 +26836,14 @@
       <c r="F1121" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G1121" s="5"/>
     </row>
     <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="B1122" s="0" t="s">
         <v>1669</v>
-      </c>
-      <c r="B1122" s="0" t="s">
-        <v>1670</v>
       </c>
       <c r="C1122" s="0" t="s">
         <v>43</v>
@@ -26851,10 +26854,10 @@
     </row>
     <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="0" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1123" s="0" t="s">
         <v>1671</v>
-      </c>
-      <c r="B1123" s="0" t="s">
-        <v>1672</v>
       </c>
       <c r="C1123" s="0" t="s">
         <v>43</v>
@@ -26865,10 +26868,10 @@
     </row>
     <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="0" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1124" s="0" t="s">
         <v>1673</v>
-      </c>
-      <c r="B1124" s="0" t="s">
-        <v>1674</v>
       </c>
       <c r="C1124" s="0" t="s">
         <v>43</v>
@@ -26879,10 +26882,10 @@
     </row>
     <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="0" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1125" s="0" t="s">
         <v>1675</v>
-      </c>
-      <c r="B1125" s="0" t="s">
-        <v>1676</v>
       </c>
       <c r="C1125" s="0" t="s">
         <v>43</v>
@@ -26893,10 +26896,10 @@
     </row>
     <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="0" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1126" s="0" t="s">
         <v>1677</v>
-      </c>
-      <c r="B1126" s="0" t="s">
-        <v>1678</v>
       </c>
       <c r="C1126" s="0" t="s">
         <v>43</v>
@@ -26907,10 +26910,10 @@
     </row>
     <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="0" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B1127" s="0" t="s">
         <v>1679</v>
-      </c>
-      <c r="B1127" s="0" t="s">
-        <v>1680</v>
       </c>
       <c r="C1127" s="0" t="s">
         <v>43</v>
@@ -26921,10 +26924,10 @@
     </row>
     <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="0" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1128" s="0" t="s">
         <v>1681</v>
-      </c>
-      <c r="B1128" s="0" t="s">
-        <v>1682</v>
       </c>
       <c r="C1128" s="0" t="s">
         <v>43</v>
@@ -26935,10 +26938,10 @@
     </row>
     <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="0" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1129" s="0" t="s">
         <v>1683</v>
-      </c>
-      <c r="B1129" s="0" t="s">
-        <v>1684</v>
       </c>
       <c r="C1129" s="0" t="s">
         <v>43</v>
@@ -26949,10 +26952,10 @@
     </row>
     <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="0" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B1130" s="0" t="s">
         <v>1685</v>
-      </c>
-      <c r="B1130" s="0" t="s">
-        <v>1686</v>
       </c>
       <c r="C1130" s="0" t="s">
         <v>43</v>
@@ -26963,10 +26966,10 @@
     </row>
     <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="0" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1131" s="0" t="s">
         <v>1687</v>
-      </c>
-      <c r="B1131" s="0" t="s">
-        <v>1688</v>
       </c>
       <c r="C1131" s="0" t="s">
         <v>43</v>
@@ -26977,10 +26980,10 @@
     </row>
     <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="0" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1132" s="0" t="s">
         <v>1689</v>
-      </c>
-      <c r="B1132" s="0" t="s">
-        <v>1690</v>
       </c>
       <c r="C1132" s="0" t="s">
         <v>43</v>
@@ -26991,10 +26994,10 @@
     </row>
     <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="0" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1133" s="0" t="s">
         <v>1691</v>
-      </c>
-      <c r="B1133" s="0" t="s">
-        <v>1692</v>
       </c>
       <c r="C1133" s="0" t="s">
         <v>43</v>
@@ -27005,10 +27008,10 @@
     </row>
     <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="0" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1134" s="0" t="s">
         <v>1693</v>
-      </c>
-      <c r="B1134" s="0" t="s">
-        <v>1694</v>
       </c>
       <c r="C1134" s="0" t="s">
         <v>43</v>
@@ -27019,10 +27022,10 @@
     </row>
     <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="0" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B1135" s="0" t="s">
         <v>1695</v>
-      </c>
-      <c r="B1135" s="0" t="s">
-        <v>1696</v>
       </c>
       <c r="C1135" s="0" t="s">
         <v>43</v>
@@ -27033,10 +27036,10 @@
     </row>
     <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1136" s="0" t="s">
         <v>1697</v>
-      </c>
-      <c r="B1136" s="0" t="s">
-        <v>1698</v>
       </c>
       <c r="C1136" s="0" t="s">
         <v>43</v>
@@ -27047,10 +27050,10 @@
     </row>
     <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="0" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1137" s="0" t="s">
         <v>1699</v>
-      </c>
-      <c r="B1137" s="0" t="s">
-        <v>1700</v>
       </c>
       <c r="C1137" s="0" t="s">
         <v>43</v>
@@ -27061,10 +27064,10 @@
     </row>
     <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="0" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B1138" s="0" t="s">
         <v>1701</v>
-      </c>
-      <c r="B1138" s="0" t="s">
-        <v>1702</v>
       </c>
       <c r="C1138" s="0" t="s">
         <v>43</v>
@@ -27075,10 +27078,10 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="0" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B1139" s="0" t="s">
         <v>1703</v>
-      </c>
-      <c r="B1139" s="0" t="s">
-        <v>1704</v>
       </c>
       <c r="C1139" s="0" t="s">
         <v>43</v>
@@ -27088,11 +27091,11 @@
       </c>
     </row>
     <row r="1140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1140" s="0" t="n">
-        <v>1701</v>
+      <c r="A1140" s="0" t="s">
+        <v>1704</v>
       </c>
       <c r="B1140" s="0" t="s">
-        <v>1657</v>
+        <v>1705</v>
       </c>
       <c r="C1140" s="0" t="s">
         <v>43</v>
@@ -27103,10 +27106,10 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="0" t="n">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B1141" s="0" t="s">
-        <v>1668</v>
+        <v>1658</v>
       </c>
       <c r="C1141" s="0" t="s">
         <v>43</v>
@@ -27117,10 +27120,10 @@
     </row>
     <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="0" t="n">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B1142" s="0" t="s">
-        <v>1698</v>
+        <v>1669</v>
       </c>
       <c r="C1142" s="0" t="s">
         <v>43</v>
@@ -27131,10 +27134,10 @@
     </row>
     <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="0" t="n">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B1143" s="0" t="s">
-        <v>1672</v>
+        <v>1699</v>
       </c>
       <c r="C1143" s="0" t="s">
         <v>43</v>
@@ -27145,10 +27148,10 @@
     </row>
     <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="0" t="n">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B1144" s="0" t="s">
-        <v>1684</v>
+        <v>1673</v>
       </c>
       <c r="C1144" s="0" t="s">
         <v>43</v>
@@ -27159,10 +27162,10 @@
     </row>
     <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="0" t="n">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B1145" s="0" t="s">
-        <v>1670</v>
+        <v>1685</v>
       </c>
       <c r="C1145" s="0" t="s">
         <v>43</v>
@@ -27173,10 +27176,10 @@
     </row>
     <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="0" t="n">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B1146" s="0" t="s">
-        <v>1665</v>
+        <v>1671</v>
       </c>
       <c r="C1146" s="0" t="s">
         <v>43</v>
@@ -27187,10 +27190,10 @@
     </row>
     <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="0" t="n">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B1147" s="0" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="C1147" s="0" t="s">
         <v>43</v>
@@ -27201,10 +27204,10 @@
     </row>
     <row r="1148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="0" t="n">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B1148" s="0" t="s">
-        <v>1690</v>
+        <v>1675</v>
       </c>
       <c r="C1148" s="0" t="s">
         <v>43</v>
@@ -27215,10 +27218,10 @@
     </row>
     <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="0" t="n">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B1149" s="0" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="C1149" s="0" t="s">
         <v>43</v>
@@ -27229,10 +27232,10 @@
     </row>
     <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="0" t="n">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B1150" s="0" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="C1150" s="0" t="s">
         <v>43</v>
@@ -27243,10 +27246,10 @@
     </row>
     <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="0" t="n">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B1151" s="0" t="s">
-        <v>1663</v>
+        <v>1705</v>
       </c>
       <c r="C1151" s="0" t="s">
         <v>43</v>
@@ -27257,10 +27260,10 @@
     </row>
     <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="0" t="n">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B1152" s="0" t="s">
-        <v>1676</v>
+        <v>1664</v>
       </c>
       <c r="C1152" s="0" t="s">
         <v>43</v>
@@ -27271,10 +27274,10 @@
     </row>
     <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="0" t="n">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B1153" s="0" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="C1153" s="0" t="s">
         <v>43</v>
@@ -27285,10 +27288,10 @@
     </row>
     <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="0" t="n">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B1154" s="0" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
       <c r="C1154" s="0" t="s">
         <v>43</v>
@@ -27299,10 +27302,10 @@
     </row>
     <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="0" t="n">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B1155" s="0" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C1155" s="0" t="s">
         <v>43</v>
@@ -27313,10 +27316,10 @@
     </row>
     <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="0" t="n">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B1156" s="0" t="s">
-        <v>1680</v>
+        <v>1695</v>
       </c>
       <c r="C1156" s="0" t="s">
         <v>43</v>
@@ -27327,10 +27330,10 @@
     </row>
     <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="0" t="n">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B1157" s="0" t="s">
-        <v>1667</v>
+        <v>1681</v>
       </c>
       <c r="C1157" s="0" t="s">
         <v>43</v>
@@ -27341,10 +27344,10 @@
     </row>
     <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="0" t="n">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B1158" s="0" t="s">
-        <v>1686</v>
+        <v>1668</v>
       </c>
       <c r="C1158" s="0" t="s">
         <v>43</v>
@@ -27355,10 +27358,10 @@
     </row>
     <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="0" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B1159" s="0" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C1159" s="0" t="s">
         <v>43</v>
@@ -27369,10 +27372,10 @@
     </row>
     <row r="1160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="0" t="n">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B1160" s="0" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
       <c r="C1160" s="0" t="s">
         <v>43</v>
@@ -27383,10 +27386,10 @@
     </row>
     <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="0" t="n">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B1161" s="0" t="s">
-        <v>1655</v>
+        <v>1703</v>
       </c>
       <c r="C1161" s="0" t="s">
         <v>43</v>
@@ -27397,10 +27400,10 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="0" t="n">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B1162" s="0" t="s">
-        <v>1678</v>
+        <v>1656</v>
       </c>
       <c r="C1162" s="0" t="s">
         <v>43</v>
@@ -27410,42 +27413,39 @@
       </c>
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1163" s="0" t="s">
-        <v>1705</v>
+      <c r="A1163" s="0" t="n">
+        <v>1723</v>
       </c>
       <c r="B1163" s="0" t="s">
-        <v>1706</v>
+        <v>1679</v>
       </c>
       <c r="C1163" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1163" s="0" t="s">
-        <v>1707</v>
+        <v>43</v>
+      </c>
+      <c r="F1163" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="0" t="s">
-        <v>658</v>
+        <v>1706</v>
       </c>
       <c r="B1164" s="0" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C1164" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F1164" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J1164" s="0" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="0" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B1165" s="0" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C1165" s="0" t="s">
         <v>293</v>
@@ -27454,15 +27454,15 @@
         <v>1</v>
       </c>
       <c r="J1165" s="0" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="0" t="s">
-        <v>1712</v>
+        <v>655</v>
       </c>
       <c r="B1166" s="0" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C1166" s="0" t="s">
         <v>293</v>
@@ -27471,15 +27471,15 @@
         <v>1</v>
       </c>
       <c r="J1166" s="0" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="0" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B1167" s="0" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C1167" s="0" t="s">
         <v>293</v>
@@ -27488,15 +27488,15 @@
         <v>1</v>
       </c>
       <c r="J1167" s="0" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="0" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B1168" s="0" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C1168" s="0" t="s">
         <v>293</v>
@@ -27505,15 +27505,15 @@
         <v>1</v>
       </c>
       <c r="J1168" s="0" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="0" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B1169" s="0" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="C1169" s="0" t="s">
         <v>293</v>
@@ -27522,15 +27522,15 @@
         <v>1</v>
       </c>
       <c r="J1169" s="0" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="0" t="s">
-        <v>746</v>
+        <v>1722</v>
       </c>
       <c r="B1170" s="0" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C1170" s="0" t="s">
         <v>293</v>
@@ -27539,15 +27539,15 @@
         <v>1</v>
       </c>
       <c r="J1170" s="0" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="0" t="s">
-        <v>1726</v>
+        <v>746</v>
       </c>
       <c r="B1171" s="0" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C1171" s="0" t="s">
         <v>293</v>
@@ -27556,15 +27556,15 @@
         <v>1</v>
       </c>
       <c r="J1171" s="0" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="0" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="B1172" s="0" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C1172" s="0" t="s">
         <v>293</v>
@@ -27573,15 +27573,15 @@
         <v>1</v>
       </c>
       <c r="J1172" s="0" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="0" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B1173" s="0" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="C1173" s="0" t="s">
         <v>293</v>
@@ -27590,15 +27590,15 @@
         <v>1</v>
       </c>
       <c r="J1173" s="0" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="0" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B1174" s="0" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C1174" s="0" t="s">
         <v>293</v>
@@ -27607,15 +27607,15 @@
         <v>1</v>
       </c>
       <c r="J1174" s="0" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="0" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B1175" s="0" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C1175" s="0" t="s">
         <v>293</v>
@@ -27624,15 +27624,15 @@
         <v>1</v>
       </c>
       <c r="J1175" s="0" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="0" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B1176" s="0" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C1176" s="0" t="s">
         <v>293</v>
@@ -27641,15 +27641,15 @@
         <v>1</v>
       </c>
       <c r="J1176" s="0" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="0" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="B1177" s="0" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C1177" s="0" t="s">
         <v>293</v>
@@ -27658,15 +27658,15 @@
         <v>1</v>
       </c>
       <c r="J1177" s="0" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="0" t="s">
-        <v>1199</v>
+        <v>1745</v>
       </c>
       <c r="B1178" s="0" t="s">
-        <v>1200</v>
+        <v>1746</v>
       </c>
       <c r="C1178" s="0" t="s">
         <v>293</v>
@@ -27680,10 +27680,10 @@
     </row>
     <row r="1179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="0" t="s">
-        <v>1748</v>
+        <v>1199</v>
       </c>
       <c r="B1179" s="0" t="s">
-        <v>1749</v>
+        <v>1200</v>
       </c>
       <c r="C1179" s="0" t="s">
         <v>293</v>
@@ -27692,15 +27692,15 @@
         <v>1</v>
       </c>
       <c r="J1179" s="0" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="0" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B1180" s="0" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="C1180" s="0" t="s">
         <v>293</v>
@@ -27709,15 +27709,15 @@
         <v>1</v>
       </c>
       <c r="J1180" s="0" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="B1181" s="0" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C1181" s="0" t="s">
         <v>293</v>
@@ -27726,15 +27726,15 @@
         <v>1</v>
       </c>
       <c r="J1181" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="0" t="s">
-        <v>773</v>
+        <v>1755</v>
       </c>
       <c r="B1182" s="0" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C1182" s="0" t="s">
         <v>293</v>
@@ -27743,15 +27743,15 @@
         <v>1</v>
       </c>
       <c r="J1182" s="0" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="0" t="s">
-        <v>1759</v>
+        <v>773</v>
       </c>
       <c r="B1183" s="0" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="C1183" s="0" t="s">
         <v>293</v>
@@ -27760,15 +27760,15 @@
         <v>1</v>
       </c>
       <c r="J1183" s="0" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="0" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B1184" s="0" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C1184" s="0" t="s">
         <v>293</v>
@@ -27777,15 +27777,15 @@
         <v>1</v>
       </c>
       <c r="J1184" s="0" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="0" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B1185" s="0" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="C1185" s="0" t="s">
         <v>293</v>
@@ -27794,15 +27794,15 @@
         <v>1</v>
       </c>
       <c r="J1185" s="0" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="0" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="B1186" s="0" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="C1186" s="0" t="s">
         <v>293</v>
@@ -27811,15 +27811,15 @@
         <v>1</v>
       </c>
       <c r="J1186" s="0" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="0" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="B1187" s="0" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="C1187" s="0" t="s">
         <v>293</v>
@@ -27828,14 +27828,23 @@
         <v>1</v>
       </c>
       <c r="J1187" s="0" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="0" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="B1188" s="0" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C1188" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1188" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1188" s="0" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -27843,39 +27852,30 @@
       <c r="A1189" s="0" t="s">
         <v>1775</v>
       </c>
-      <c r="B1189" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="C1189" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1189" s="0" t="s">
-        <v>1776</v>
+      <c r="B1189" s="0" t="s">
+        <v>1775</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="0" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1190" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C1190" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1190" s="0" t="s">
         <v>1777</v>
-      </c>
-      <c r="B1190" s="0" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C1190" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1190" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1190" s="0" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="0" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="B1191" s="0" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="C1191" s="0" t="s">
         <v>80</v>
@@ -27884,15 +27884,15 @@
         <v>1</v>
       </c>
       <c r="J1191" s="0" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="0" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B1192" s="0" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="C1192" s="0" t="s">
         <v>80</v>
@@ -27901,15 +27901,15 @@
         <v>1</v>
       </c>
       <c r="J1192" s="0" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="0" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B1193" s="0" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="C1193" s="0" t="s">
         <v>80</v>
@@ -27918,15 +27918,15 @@
         <v>1</v>
       </c>
       <c r="J1193" s="0" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="0" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B1194" s="0" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="C1194" s="0" t="s">
         <v>80</v>
@@ -27935,15 +27935,15 @@
         <v>1</v>
       </c>
       <c r="J1194" s="0" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="0" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B1195" s="0" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="C1195" s="0" t="s">
         <v>80</v>
@@ -27952,15 +27952,15 @@
         <v>1</v>
       </c>
       <c r="J1195" s="0" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1196" s="0" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B1196" s="0" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="C1196" s="0" t="s">
         <v>80</v>
@@ -27969,15 +27969,15 @@
         <v>1</v>
       </c>
       <c r="J1196" s="0" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="0" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B1197" s="0" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="C1197" s="0" t="s">
         <v>80</v>
@@ -27986,7 +27986,7 @@
         <v>1</v>
       </c>
       <c r="J1197" s="0" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27994,7 +27994,7 @@
         <v>1799</v>
       </c>
       <c r="B1198" s="0" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="C1198" s="0" t="s">
         <v>80</v>
@@ -28003,15 +28003,15 @@
         <v>1</v>
       </c>
       <c r="J1198" s="0" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="0" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="B1199" s="0" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="C1199" s="0" t="s">
         <v>80</v>
@@ -28020,15 +28020,15 @@
         <v>1</v>
       </c>
       <c r="J1199" s="0" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1200" s="0" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B1200" s="0" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="C1200" s="0" t="s">
         <v>80</v>
@@ -28037,15 +28037,15 @@
         <v>1</v>
       </c>
       <c r="J1200" s="0" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1201" s="0" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B1201" s="0" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="C1201" s="0" t="s">
         <v>80</v>
@@ -28054,15 +28054,15 @@
         <v>1</v>
       </c>
       <c r="J1201" s="0" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1202" s="0" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B1202" s="0" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="C1202" s="0" t="s">
         <v>80</v>
@@ -28071,15 +28071,15 @@
         <v>1</v>
       </c>
       <c r="J1202" s="0" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="0" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="B1203" s="0" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="C1203" s="0" t="s">
         <v>80</v>
@@ -28088,15 +28088,15 @@
         <v>1</v>
       </c>
       <c r="J1203" s="0" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1204" s="0" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B1204" s="0" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="C1204" s="0" t="s">
         <v>80</v>
@@ -28105,15 +28105,15 @@
         <v>1</v>
       </c>
       <c r="J1204" s="0" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1205" s="0" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B1205" s="0" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="C1205" s="0" t="s">
         <v>80</v>
@@ -28122,32 +28122,32 @@
         <v>1</v>
       </c>
       <c r="J1205" s="0" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1206" s="0" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1206" s="0" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C1206" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1206" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1206" s="0" t="s">
         <v>1823</v>
-      </c>
-      <c r="B1206" s="5" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C1206" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="F1206" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1206" s="5" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1207" s="0" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="B1207" s="5" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="C1207" s="0" t="s">
         <v>296</v>
@@ -28156,15 +28156,15 @@
         <v>1</v>
       </c>
       <c r="J1207" s="5" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1208" s="0" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="B1208" s="5" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="C1208" s="0" t="s">
         <v>296</v>
@@ -28173,15 +28173,15 @@
         <v>1</v>
       </c>
       <c r="J1208" s="5" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1209" s="0" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="B1209" s="5" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C1209" s="0" t="s">
         <v>296</v>
@@ -28190,15 +28190,15 @@
         <v>1</v>
       </c>
       <c r="J1209" s="5" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1210" s="0" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B1210" s="5" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="C1210" s="0" t="s">
         <v>296</v>
@@ -28207,15 +28207,15 @@
         <v>1</v>
       </c>
       <c r="J1210" s="5" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1211" s="0" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B1211" s="5" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="C1211" s="0" t="s">
         <v>296</v>
@@ -28224,15 +28224,15 @@
         <v>1</v>
       </c>
       <c r="J1211" s="5" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1212" s="0" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="B1212" s="5" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="C1212" s="0" t="s">
         <v>296</v>
@@ -28241,15 +28241,15 @@
         <v>1</v>
       </c>
       <c r="J1212" s="5" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1213" s="0" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="B1213" s="5" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="C1213" s="0" t="s">
         <v>296</v>
@@ -28258,15 +28258,15 @@
         <v>1</v>
       </c>
       <c r="J1213" s="5" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1214" s="0" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B1214" s="5" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="C1214" s="0" t="s">
         <v>296</v>
@@ -28275,15 +28275,15 @@
         <v>1</v>
       </c>
       <c r="J1214" s="5" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="0" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="B1215" s="5" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="C1215" s="0" t="s">
         <v>296</v>
@@ -28292,15 +28292,15 @@
         <v>1</v>
       </c>
       <c r="J1215" s="5" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="0" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="B1216" s="5" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="C1216" s="0" t="s">
         <v>296</v>
@@ -28309,15 +28309,15 @@
         <v>1</v>
       </c>
       <c r="J1216" s="5" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1217" s="0" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="B1217" s="5" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="C1217" s="0" t="s">
         <v>296</v>
@@ -28326,15 +28326,15 @@
         <v>1</v>
       </c>
       <c r="J1217" s="5" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="0" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="B1218" s="5" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="C1218" s="0" t="s">
         <v>296</v>
@@ -28343,15 +28343,15 @@
         <v>1</v>
       </c>
       <c r="J1218" s="5" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="0" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="B1219" s="5" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="C1219" s="0" t="s">
         <v>296</v>
@@ -28360,15 +28360,15 @@
         <v>1</v>
       </c>
       <c r="J1219" s="5" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="0" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="B1220" s="5" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C1220" s="0" t="s">
         <v>296</v>
@@ -28377,15 +28377,15 @@
         <v>1</v>
       </c>
       <c r="J1220" s="5" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="0" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="B1221" s="5" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="C1221" s="0" t="s">
         <v>296</v>
@@ -28394,15 +28394,15 @@
         <v>1</v>
       </c>
       <c r="J1221" s="5" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="0" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B1222" s="5" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="C1222" s="0" t="s">
         <v>296</v>
@@ -28411,15 +28411,15 @@
         <v>1</v>
       </c>
       <c r="J1222" s="5" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="0" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="B1223" s="5" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="C1223" s="0" t="s">
         <v>296</v>
@@ -28428,15 +28428,15 @@
         <v>1</v>
       </c>
       <c r="J1223" s="5" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="0" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B1224" s="5" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="C1224" s="0" t="s">
         <v>296</v>
@@ -28445,15 +28445,15 @@
         <v>1</v>
       </c>
       <c r="J1224" s="5" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1225" s="0" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="B1225" s="5" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="C1225" s="0" t="s">
         <v>296</v>
@@ -28462,15 +28462,15 @@
         <v>1</v>
       </c>
       <c r="J1225" s="5" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="0" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B1226" s="5" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="C1226" s="0" t="s">
         <v>296</v>
@@ -28479,15 +28479,15 @@
         <v>1</v>
       </c>
       <c r="J1226" s="5" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="0" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B1227" s="5" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="C1227" s="0" t="s">
         <v>296</v>
@@ -28496,15 +28496,15 @@
         <v>1</v>
       </c>
       <c r="J1227" s="5" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="0" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B1228" s="5" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="C1228" s="0" t="s">
         <v>296</v>
@@ -28513,15 +28513,15 @@
         <v>1</v>
       </c>
       <c r="J1228" s="5" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="0" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B1229" s="5" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="C1229" s="0" t="s">
         <v>296</v>
@@ -28530,15 +28530,15 @@
         <v>1</v>
       </c>
       <c r="J1229" s="5" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="0" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="B1230" s="5" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C1230" s="0" t="s">
         <v>296</v>
@@ -28547,15 +28547,15 @@
         <v>1</v>
       </c>
       <c r="J1230" s="5" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1231" s="0" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B1231" s="5" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="C1231" s="0" t="s">
         <v>296</v>
@@ -28564,15 +28564,15 @@
         <v>1</v>
       </c>
       <c r="J1231" s="5" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="0" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="B1232" s="5" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="C1232" s="0" t="s">
         <v>296</v>
@@ -28581,15 +28581,15 @@
         <v>1</v>
       </c>
       <c r="J1232" s="5" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1233" s="0" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="B1233" s="5" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="C1233" s="0" t="s">
         <v>296</v>
@@ -28598,15 +28598,15 @@
         <v>1</v>
       </c>
       <c r="J1233" s="5" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1234" s="0" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="B1234" s="5" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="C1234" s="0" t="s">
         <v>296</v>
@@ -28615,15 +28615,15 @@
         <v>1</v>
       </c>
       <c r="J1234" s="5" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="0" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="B1235" s="5" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="C1235" s="0" t="s">
         <v>296</v>
@@ -28632,15 +28632,15 @@
         <v>1</v>
       </c>
       <c r="J1235" s="5" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="0" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="B1236" s="5" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="C1236" s="0" t="s">
         <v>296</v>
@@ -28649,15 +28649,15 @@
         <v>1</v>
       </c>
       <c r="J1236" s="5" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="0" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="B1237" s="5" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="C1237" s="0" t="s">
         <v>296</v>
@@ -28666,15 +28666,15 @@
         <v>1</v>
       </c>
       <c r="J1237" s="5" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="0" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="B1238" s="5" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="C1238" s="0" t="s">
         <v>296</v>
@@ -28683,15 +28683,15 @@
         <v>1</v>
       </c>
       <c r="J1238" s="5" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="0" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="B1239" s="5" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="C1239" s="0" t="s">
         <v>296</v>
@@ -28700,15 +28700,15 @@
         <v>1</v>
       </c>
       <c r="J1239" s="5" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="0" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="B1240" s="5" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="C1240" s="0" t="s">
         <v>296</v>
@@ -28717,15 +28717,15 @@
         <v>1</v>
       </c>
       <c r="J1240" s="5" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="0" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="B1241" s="5" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="C1241" s="0" t="s">
         <v>296</v>
@@ -28734,15 +28734,15 @@
         <v>1</v>
       </c>
       <c r="J1241" s="5" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="0" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B1242" s="5" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="C1242" s="0" t="s">
         <v>296</v>
@@ -28751,15 +28751,15 @@
         <v>1</v>
       </c>
       <c r="J1242" s="5" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="0" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B1243" s="5" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="C1243" s="0" t="s">
         <v>296</v>
@@ -28768,15 +28768,15 @@
         <v>1</v>
       </c>
       <c r="J1243" s="5" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="0" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="B1244" s="5" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="C1244" s="0" t="s">
         <v>296</v>
@@ -28785,15 +28785,15 @@
         <v>1</v>
       </c>
       <c r="J1244" s="5" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="0" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="B1245" s="5" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C1245" s="0" t="s">
         <v>296</v>
@@ -28802,15 +28802,15 @@
         <v>1</v>
       </c>
       <c r="J1245" s="5" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="0" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="B1246" s="5" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="C1246" s="0" t="s">
         <v>296</v>
@@ -28819,15 +28819,15 @@
         <v>1</v>
       </c>
       <c r="J1246" s="5" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1247" s="0" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="B1247" s="5" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="C1247" s="0" t="s">
         <v>296</v>
@@ -28836,15 +28836,15 @@
         <v>1</v>
       </c>
       <c r="J1247" s="5" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1248" s="0" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B1248" s="5" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="C1248" s="0" t="s">
         <v>296</v>
@@ -28853,15 +28853,15 @@
         <v>1</v>
       </c>
       <c r="J1248" s="5" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1249" s="0" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="B1249" s="5" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="C1249" s="0" t="s">
         <v>296</v>
@@ -28870,15 +28870,15 @@
         <v>1</v>
       </c>
       <c r="J1249" s="5" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1250" s="0" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B1250" s="5" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="C1250" s="0" t="s">
         <v>296</v>
@@ -28887,15 +28887,15 @@
         <v>1</v>
       </c>
       <c r="J1250" s="5" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1251" s="0" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="B1251" s="5" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="C1251" s="0" t="s">
         <v>296</v>
@@ -28904,15 +28904,15 @@
         <v>1</v>
       </c>
       <c r="J1251" s="5" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1252" s="0" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B1252" s="5" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="C1252" s="0" t="s">
         <v>296</v>
@@ -28921,15 +28921,15 @@
         <v>1</v>
       </c>
       <c r="J1252" s="5" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1253" s="0" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B1253" s="5" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="C1253" s="0" t="s">
         <v>296</v>
@@ -28938,15 +28938,15 @@
         <v>1</v>
       </c>
       <c r="J1253" s="5" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1254" s="0" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B1254" s="5" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="C1254" s="0" t="s">
         <v>296</v>
@@ -28955,15 +28955,15 @@
         <v>1</v>
       </c>
       <c r="J1254" s="5" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1255" s="0" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B1255" s="5" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="C1255" s="0" t="s">
         <v>296</v>
@@ -28972,15 +28972,15 @@
         <v>1</v>
       </c>
       <c r="J1255" s="5" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1256" s="0" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="B1256" s="5" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="C1256" s="0" t="s">
         <v>296</v>
@@ -28989,15 +28989,15 @@
         <v>1</v>
       </c>
       <c r="J1256" s="5" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1257" s="0" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B1257" s="5" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="C1257" s="0" t="s">
         <v>296</v>
@@ -29006,15 +29006,15 @@
         <v>1</v>
       </c>
       <c r="J1257" s="5" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1258" s="0" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B1258" s="5" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="C1258" s="0" t="s">
         <v>296</v>
@@ -29023,15 +29023,15 @@
         <v>1</v>
       </c>
       <c r="J1258" s="5" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1259" s="0" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B1259" s="5" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="C1259" s="0" t="s">
         <v>296</v>
@@ -29040,15 +29040,15 @@
         <v>1</v>
       </c>
       <c r="J1259" s="5" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1260" s="0" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B1260" s="5" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="C1260" s="0" t="s">
         <v>296</v>
@@ -29057,15 +29057,15 @@
         <v>1</v>
       </c>
       <c r="J1260" s="5" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1261" s="0" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B1261" s="5" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="C1261" s="0" t="s">
         <v>296</v>
@@ -29074,15 +29074,15 @@
         <v>1</v>
       </c>
       <c r="J1261" s="5" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1262" s="0" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B1262" s="5" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="C1262" s="0" t="s">
         <v>296</v>
@@ -29091,15 +29091,15 @@
         <v>1</v>
       </c>
       <c r="J1262" s="5" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1263" s="0" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B1263" s="5" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C1263" s="0" t="s">
         <v>296</v>
@@ -29108,15 +29108,15 @@
         <v>1</v>
       </c>
       <c r="J1263" s="5" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1264" s="0" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B1264" s="5" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C1264" s="0" t="s">
         <v>296</v>
@@ -29125,15 +29125,15 @@
         <v>1</v>
       </c>
       <c r="J1264" s="5" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1265" s="0" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B1265" s="5" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C1265" s="0" t="s">
         <v>296</v>
@@ -29142,15 +29142,15 @@
         <v>1</v>
       </c>
       <c r="J1265" s="5" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1266" s="0" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B1266" s="5" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C1266" s="0" t="s">
         <v>296</v>
@@ -29159,15 +29159,15 @@
         <v>1</v>
       </c>
       <c r="J1266" s="5" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1267" s="0" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B1267" s="5" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C1267" s="0" t="s">
         <v>296</v>
@@ -29176,15 +29176,15 @@
         <v>1</v>
       </c>
       <c r="J1267" s="5" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1268" s="0" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B1268" s="5" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C1268" s="0" t="s">
         <v>296</v>
@@ -29193,27 +29193,24 @@
         <v>1</v>
       </c>
       <c r="J1268" s="5" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1269" s="0" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B1269" s="5" t="s">
-        <v>1824</v>
+        <v>2011</v>
       </c>
       <c r="C1269" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="E1269" s="0" t="s">
-        <v>579</v>
-      </c>
       <c r="F1269" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J1269" s="5" t="s">
-        <v>1825</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29221,7 +29218,7 @@
         <v>2013</v>
       </c>
       <c r="B1270" s="5" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="C1270" s="0" t="s">
         <v>296</v>
@@ -29233,7 +29230,7 @@
         <v>1</v>
       </c>
       <c r="J1270" s="5" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29241,7 +29238,7 @@
         <v>2014</v>
       </c>
       <c r="B1271" s="5" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="C1271" s="0" t="s">
         <v>296</v>
@@ -29253,7 +29250,7 @@
         <v>1</v>
       </c>
       <c r="J1271" s="5" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29261,7 +29258,7 @@
         <v>2015</v>
       </c>
       <c r="B1272" s="5" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C1272" s="0" t="s">
         <v>296</v>
@@ -29273,7 +29270,7 @@
         <v>1</v>
       </c>
       <c r="J1272" s="5" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29281,7 +29278,7 @@
         <v>2016</v>
       </c>
       <c r="B1273" s="5" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="C1273" s="0" t="s">
         <v>296</v>
@@ -29293,7 +29290,7 @@
         <v>1</v>
       </c>
       <c r="J1273" s="5" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29301,7 +29298,7 @@
         <v>2017</v>
       </c>
       <c r="B1274" s="5" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="C1274" s="0" t="s">
         <v>296</v>
@@ -29313,7 +29310,7 @@
         <v>1</v>
       </c>
       <c r="J1274" s="5" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29321,7 +29318,7 @@
         <v>2018</v>
       </c>
       <c r="B1275" s="5" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="C1275" s="0" t="s">
         <v>296</v>
@@ -29333,7 +29330,7 @@
         <v>1</v>
       </c>
       <c r="J1275" s="5" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29341,7 +29338,7 @@
         <v>2019</v>
       </c>
       <c r="B1276" s="5" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="C1276" s="0" t="s">
         <v>296</v>
@@ -29353,7 +29350,7 @@
         <v>1</v>
       </c>
       <c r="J1276" s="5" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29361,7 +29358,7 @@
         <v>2020</v>
       </c>
       <c r="B1277" s="5" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="C1277" s="0" t="s">
         <v>296</v>
@@ -29373,7 +29370,7 @@
         <v>1</v>
       </c>
       <c r="J1277" s="5" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29381,7 +29378,7 @@
         <v>2021</v>
       </c>
       <c r="B1278" s="5" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="C1278" s="0" t="s">
         <v>296</v>
@@ -29393,7 +29390,7 @@
         <v>1</v>
       </c>
       <c r="J1278" s="5" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29401,7 +29398,7 @@
         <v>2022</v>
       </c>
       <c r="B1279" s="5" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="C1279" s="0" t="s">
         <v>296</v>
@@ -29413,7 +29410,7 @@
         <v>1</v>
       </c>
       <c r="J1279" s="5" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29421,7 +29418,7 @@
         <v>2023</v>
       </c>
       <c r="B1280" s="5" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="C1280" s="0" t="s">
         <v>296</v>
@@ -29433,7 +29430,7 @@
         <v>1</v>
       </c>
       <c r="J1280" s="5" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29441,7 +29438,7 @@
         <v>2024</v>
       </c>
       <c r="B1281" s="5" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="C1281" s="0" t="s">
         <v>296</v>
@@ -29453,7 +29450,7 @@
         <v>1</v>
       </c>
       <c r="J1281" s="5" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29461,7 +29458,7 @@
         <v>2025</v>
       </c>
       <c r="B1282" s="5" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="C1282" s="0" t="s">
         <v>296</v>
@@ -29473,7 +29470,7 @@
         <v>1</v>
       </c>
       <c r="J1282" s="5" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29481,7 +29478,7 @@
         <v>2026</v>
       </c>
       <c r="B1283" s="5" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C1283" s="0" t="s">
         <v>296</v>
@@ -29493,7 +29490,7 @@
         <v>1</v>
       </c>
       <c r="J1283" s="5" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29501,7 +29498,7 @@
         <v>2027</v>
       </c>
       <c r="B1284" s="5" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="C1284" s="0" t="s">
         <v>296</v>
@@ -29513,7 +29510,7 @@
         <v>1</v>
       </c>
       <c r="J1284" s="5" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29521,7 +29518,7 @@
         <v>2028</v>
       </c>
       <c r="B1285" s="5" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="C1285" s="0" t="s">
         <v>296</v>
@@ -29533,7 +29530,7 @@
         <v>1</v>
       </c>
       <c r="J1285" s="5" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29541,7 +29538,7 @@
         <v>2029</v>
       </c>
       <c r="B1286" s="5" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="C1286" s="0" t="s">
         <v>296</v>
@@ -29553,7 +29550,7 @@
         <v>1</v>
       </c>
       <c r="J1286" s="5" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29561,7 +29558,7 @@
         <v>2030</v>
       </c>
       <c r="B1287" s="5" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="C1287" s="0" t="s">
         <v>296</v>
@@ -29573,15 +29570,15 @@
         <v>1</v>
       </c>
       <c r="J1287" s="5" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1288" s="0" t="s">
-        <v>1880</v>
+        <v>2031</v>
       </c>
       <c r="B1288" s="5" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="C1288" s="0" t="s">
         <v>296</v>
@@ -29593,15 +29590,15 @@
         <v>1</v>
       </c>
       <c r="J1288" s="5" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1289" s="0" t="s">
-        <v>2031</v>
+        <v>1881</v>
       </c>
       <c r="B1289" s="5" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="C1289" s="0" t="s">
         <v>296</v>
@@ -29613,15 +29610,15 @@
         <v>1</v>
       </c>
       <c r="J1289" s="5" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1290" s="0" t="s">
-        <v>1886</v>
+        <v>2032</v>
       </c>
       <c r="B1290" s="5" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="C1290" s="0" t="s">
         <v>296</v>
@@ -29633,15 +29630,15 @@
         <v>1</v>
       </c>
       <c r="J1290" s="5" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1291" s="0" t="s">
-        <v>2032</v>
+        <v>1887</v>
       </c>
       <c r="B1291" s="5" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="C1291" s="0" t="s">
         <v>296</v>
@@ -29653,7 +29650,7 @@
         <v>1</v>
       </c>
       <c r="J1291" s="5" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29661,7 +29658,7 @@
         <v>2033</v>
       </c>
       <c r="B1292" s="5" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="C1292" s="0" t="s">
         <v>296</v>
@@ -29673,7 +29670,7 @@
         <v>1</v>
       </c>
       <c r="J1292" s="5" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29681,7 +29678,7 @@
         <v>2034</v>
       </c>
       <c r="B1293" s="5" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C1293" s="0" t="s">
         <v>296</v>
@@ -29693,7 +29690,7 @@
         <v>1</v>
       </c>
       <c r="J1293" s="5" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29701,7 +29698,7 @@
         <v>2035</v>
       </c>
       <c r="B1294" s="5" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="C1294" s="0" t="s">
         <v>296</v>
@@ -29713,7 +29710,7 @@
         <v>1</v>
       </c>
       <c r="J1294" s="5" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29721,7 +29718,7 @@
         <v>2036</v>
       </c>
       <c r="B1295" s="5" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="C1295" s="0" t="s">
         <v>296</v>
@@ -29733,7 +29730,7 @@
         <v>1</v>
       </c>
       <c r="J1295" s="5" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29741,7 +29738,7 @@
         <v>2037</v>
       </c>
       <c r="B1296" s="5" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="C1296" s="0" t="s">
         <v>296</v>
@@ -29753,7 +29750,7 @@
         <v>1</v>
       </c>
       <c r="J1296" s="5" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29761,7 +29758,7 @@
         <v>2038</v>
       </c>
       <c r="B1297" s="5" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="C1297" s="0" t="s">
         <v>296</v>
@@ -29773,7 +29770,7 @@
         <v>1</v>
       </c>
       <c r="J1297" s="5" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29781,7 +29778,7 @@
         <v>2039</v>
       </c>
       <c r="B1298" s="5" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="C1298" s="0" t="s">
         <v>296</v>
@@ -29793,7 +29790,7 @@
         <v>1</v>
       </c>
       <c r="J1298" s="5" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29801,7 +29798,7 @@
         <v>2040</v>
       </c>
       <c r="B1299" s="5" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="C1299" s="0" t="s">
         <v>296</v>
@@ -29813,15 +29810,15 @@
         <v>1</v>
       </c>
       <c r="J1299" s="5" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1300" s="0" t="s">
-        <v>1916</v>
+        <v>2041</v>
       </c>
       <c r="B1300" s="5" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="C1300" s="0" t="s">
         <v>296</v>
@@ -29833,15 +29830,15 @@
         <v>1</v>
       </c>
       <c r="J1300" s="5" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1301" s="0" t="s">
-        <v>2041</v>
+        <v>1917</v>
       </c>
       <c r="B1301" s="5" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="C1301" s="0" t="s">
         <v>296</v>
@@ -29853,15 +29850,15 @@
         <v>1</v>
       </c>
       <c r="J1301" s="5" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1302" s="0" t="s">
-        <v>1922</v>
+        <v>2042</v>
       </c>
       <c r="B1302" s="5" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="C1302" s="0" t="s">
         <v>296</v>
@@ -29873,15 +29870,15 @@
         <v>1</v>
       </c>
       <c r="J1302" s="5" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1303" s="0" t="s">
-        <v>2042</v>
+        <v>1923</v>
       </c>
       <c r="B1303" s="5" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="C1303" s="0" t="s">
         <v>296</v>
@@ -29893,7 +29890,7 @@
         <v>1</v>
       </c>
       <c r="J1303" s="5" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29901,7 +29898,7 @@
         <v>2043</v>
       </c>
       <c r="B1304" s="5" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="C1304" s="0" t="s">
         <v>296</v>
@@ -29913,7 +29910,7 @@
         <v>1</v>
       </c>
       <c r="J1304" s="5" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29921,7 +29918,7 @@
         <v>2044</v>
       </c>
       <c r="B1305" s="5" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="C1305" s="0" t="s">
         <v>296</v>
@@ -29933,7 +29930,7 @@
         <v>1</v>
       </c>
       <c r="J1305" s="5" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29941,7 +29938,7 @@
         <v>2045</v>
       </c>
       <c r="B1306" s="5" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="C1306" s="0" t="s">
         <v>296</v>
@@ -29953,7 +29950,7 @@
         <v>1</v>
       </c>
       <c r="J1306" s="5" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29961,7 +29958,7 @@
         <v>2046</v>
       </c>
       <c r="B1307" s="5" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="C1307" s="0" t="s">
         <v>296</v>
@@ -29973,7 +29970,7 @@
         <v>1</v>
       </c>
       <c r="J1307" s="5" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29981,7 +29978,7 @@
         <v>2047</v>
       </c>
       <c r="B1308" s="5" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C1308" s="0" t="s">
         <v>296</v>
@@ -29993,7 +29990,7 @@
         <v>1</v>
       </c>
       <c r="J1308" s="5" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30001,7 +29998,7 @@
         <v>2048</v>
       </c>
       <c r="B1309" s="5" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="C1309" s="0" t="s">
         <v>296</v>
@@ -30013,7 +30010,7 @@
         <v>1</v>
       </c>
       <c r="J1309" s="5" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30021,7 +30018,7 @@
         <v>2049</v>
       </c>
       <c r="B1310" s="5" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="C1310" s="0" t="s">
         <v>296</v>
@@ -30033,7 +30030,7 @@
         <v>1</v>
       </c>
       <c r="J1310" s="5" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30041,7 +30038,7 @@
         <v>2050</v>
       </c>
       <c r="B1311" s="5" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="C1311" s="0" t="s">
         <v>296</v>
@@ -30053,7 +30050,7 @@
         <v>1</v>
       </c>
       <c r="J1311" s="5" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30061,7 +30058,7 @@
         <v>2051</v>
       </c>
       <c r="B1312" s="5" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="C1312" s="0" t="s">
         <v>296</v>
@@ -30073,7 +30070,7 @@
         <v>1</v>
       </c>
       <c r="J1312" s="5" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30081,7 +30078,7 @@
         <v>2052</v>
       </c>
       <c r="B1313" s="5" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="C1313" s="0" t="s">
         <v>296</v>
@@ -30093,7 +30090,7 @@
         <v>1</v>
       </c>
       <c r="J1313" s="5" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30101,7 +30098,7 @@
         <v>2053</v>
       </c>
       <c r="B1314" s="5" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="C1314" s="0" t="s">
         <v>296</v>
@@ -30113,7 +30110,7 @@
         <v>1</v>
       </c>
       <c r="J1314" s="5" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30121,7 +30118,7 @@
         <v>2054</v>
       </c>
       <c r="B1315" s="5" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="C1315" s="0" t="s">
         <v>296</v>
@@ -30133,7 +30130,7 @@
         <v>1</v>
       </c>
       <c r="J1315" s="5" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30141,7 +30138,7 @@
         <v>2055</v>
       </c>
       <c r="B1316" s="5" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="C1316" s="0" t="s">
         <v>296</v>
@@ -30153,7 +30150,7 @@
         <v>1</v>
       </c>
       <c r="J1316" s="5" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30161,7 +30158,7 @@
         <v>2056</v>
       </c>
       <c r="B1317" s="5" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="C1317" s="0" t="s">
         <v>296</v>
@@ -30173,7 +30170,7 @@
         <v>1</v>
       </c>
       <c r="J1317" s="5" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30181,7 +30178,7 @@
         <v>2057</v>
       </c>
       <c r="B1318" s="5" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="C1318" s="0" t="s">
         <v>296</v>
@@ -30193,7 +30190,7 @@
         <v>1</v>
       </c>
       <c r="J1318" s="5" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30201,7 +30198,7 @@
         <v>2058</v>
       </c>
       <c r="B1319" s="5" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="C1319" s="0" t="s">
         <v>296</v>
@@ -30213,7 +30210,7 @@
         <v>1</v>
       </c>
       <c r="J1319" s="5" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30221,7 +30218,7 @@
         <v>2059</v>
       </c>
       <c r="B1320" s="5" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="C1320" s="0" t="s">
         <v>296</v>
@@ -30233,7 +30230,7 @@
         <v>1</v>
       </c>
       <c r="J1320" s="5" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30241,7 +30238,7 @@
         <v>2060</v>
       </c>
       <c r="B1321" s="5" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="C1321" s="0" t="s">
         <v>296</v>
@@ -30253,7 +30250,7 @@
         <v>1</v>
       </c>
       <c r="J1321" s="5" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30261,7 +30258,7 @@
         <v>2061</v>
       </c>
       <c r="B1322" s="5" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="C1322" s="0" t="s">
         <v>296</v>
@@ -30273,7 +30270,7 @@
         <v>1</v>
       </c>
       <c r="J1322" s="5" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30281,7 +30278,7 @@
         <v>2062</v>
       </c>
       <c r="B1323" s="5" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="C1323" s="0" t="s">
         <v>296</v>
@@ -30293,7 +30290,7 @@
         <v>1</v>
       </c>
       <c r="J1323" s="5" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30301,7 +30298,7 @@
         <v>2063</v>
       </c>
       <c r="B1324" s="5" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="C1324" s="0" t="s">
         <v>296</v>
@@ -30313,7 +30310,7 @@
         <v>1</v>
       </c>
       <c r="J1324" s="5" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30321,7 +30318,7 @@
         <v>2064</v>
       </c>
       <c r="B1325" s="5" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="C1325" s="0" t="s">
         <v>296</v>
@@ -30333,7 +30330,7 @@
         <v>1</v>
       </c>
       <c r="J1325" s="5" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30341,7 +30338,7 @@
         <v>2065</v>
       </c>
       <c r="B1326" s="5" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C1326" s="0" t="s">
         <v>296</v>
@@ -30353,7 +30350,7 @@
         <v>1</v>
       </c>
       <c r="J1326" s="5" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30361,7 +30358,7 @@
         <v>2066</v>
       </c>
       <c r="B1327" s="5" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C1327" s="0" t="s">
         <v>296</v>
@@ -30373,7 +30370,7 @@
         <v>1</v>
       </c>
       <c r="J1327" s="5" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30381,7 +30378,7 @@
         <v>2067</v>
       </c>
       <c r="B1328" s="5" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C1328" s="0" t="s">
         <v>296</v>
@@ -30393,7 +30390,7 @@
         <v>1</v>
       </c>
       <c r="J1328" s="5" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30401,7 +30398,7 @@
         <v>2068</v>
       </c>
       <c r="B1329" s="5" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C1329" s="0" t="s">
         <v>296</v>
@@ -30413,7 +30410,7 @@
         <v>1</v>
       </c>
       <c r="J1329" s="5" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30421,7 +30418,7 @@
         <v>2069</v>
       </c>
       <c r="B1330" s="5" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C1330" s="0" t="s">
         <v>296</v>
@@ -30433,7 +30430,7 @@
         <v>1</v>
       </c>
       <c r="J1330" s="5" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30441,7 +30438,7 @@
         <v>2070</v>
       </c>
       <c r="B1331" s="5" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C1331" s="0" t="s">
         <v>296</v>
@@ -30453,7 +30450,27 @@
         <v>1</v>
       </c>
       <c r="J1331" s="5" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1332" s="0" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B1332" s="5" t="s">
         <v>2011</v>
+      </c>
+      <c r="C1332" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1332" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1332" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1332" s="5" t="s">
+        <v>2012</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/political_units.xlsx
+++ b/inst/extdata/political_units.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="2072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4539" uniqueCount="2314">
   <si>
     <t xml:space="preserve">Abbrev</t>
   </si>
@@ -6238,6 +6238,732 @@
   </si>
   <si>
     <t xml:space="preserve">Ho Chi Minh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrigento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aosta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-AO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascoli Piceno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-AQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arezzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avellino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-AV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bergamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belluno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benevento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-BN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bologna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brindisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brescia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolzano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-BZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cagliari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campobasso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caserta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chieti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caltanissetta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuneo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cremona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catanzaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-CZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferrara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foggia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-FG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firenze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forlì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frosinone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorizia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grosseto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-IM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isernia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crotone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-LC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lodi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-LO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-LE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livorno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-LU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macerata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-MC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massa Carrara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-NU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oristano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palermo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piacenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pescara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perugia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pordenone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-PN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-PU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pistoia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-PV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-PZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ravenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reggio Calabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reggio Emilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-RE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ragusa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-RG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rieti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-RI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-RM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rimini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-RN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rovigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salerno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sondrio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Spezia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siracusa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sassari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taranto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teramo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-TE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-TP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trieste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-TS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treviso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-UD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-VB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vercelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-VC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-VE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-VR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viterbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-VT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abruzzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-ABR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basilicata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-BAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-CAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-CAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emilia-Romagna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-EMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friuli-Venezia Giulia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-FRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lazio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-LAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liguria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-LIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lombardia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-LOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA-MAR</t>
+  </si